--- a/Design Excel.xlsx
+++ b/Design Excel.xlsx
@@ -9,13 +9,15 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16725" windowHeight="7905" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16725" windowHeight="7905" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Danh Muc" sheetId="1" r:id="rId1"/>
     <sheet name="Chi Tiêt bao" sheetId="4" r:id="rId2"/>
     <sheet name="Giỏ báo" sheetId="5" r:id="rId3"/>
     <sheet name="Thanh toán" sheetId="6" r:id="rId4"/>
+    <sheet name="Quản lý" sheetId="7" r:id="rId5"/>
+    <sheet name="Quản lý (2)" sheetId="8" r:id="rId6"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -27,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="108">
   <si>
     <t>hình nền</t>
   </si>
@@ -212,12 +214,159 @@
   <si>
     <t>Thêm vào giỏ báo</t>
   </si>
+  <si>
+    <t>Quản lý</t>
+  </si>
+  <si>
+    <t>Quản lý đơn hàng</t>
+  </si>
+  <si>
+    <t>Quản lý người dùng</t>
+  </si>
+  <si>
+    <t>Quản lý báo</t>
+  </si>
+  <si>
+    <t>Thống kê</t>
+  </si>
+  <si>
+    <t>STT đơn hàng</t>
+  </si>
+  <si>
+    <t>Thông tin đơn hàng</t>
+  </si>
+  <si>
+    <t>Báo lao động</t>
+  </si>
+  <si>
+    <t>báo an ninh</t>
+  </si>
+  <si>
+    <t>Khách hàng</t>
+  </si>
+  <si>
+    <t>Tổng tiền</t>
+  </si>
+  <si>
+    <t>43/34  gò vấp</t>
+  </si>
+  <si>
+    <t>Nguyễn A</t>
+  </si>
+  <si>
+    <t>Hành động</t>
+  </si>
+  <si>
+    <t>báo bóng đá</t>
+  </si>
+  <si>
+    <t>Duyệt đơn hàng</t>
+  </si>
+  <si>
+    <t>Huỷ đơn</t>
+  </si>
+  <si>
+    <t>Duyệt tất cả</t>
+  </si>
+  <si>
+    <t>Tìm đơn hàng</t>
+  </si>
+  <si>
+    <t>Nhập thông tin cần tìm</t>
+  </si>
+  <si>
+    <t>Trạng thái</t>
+  </si>
+  <si>
+    <t>Đã thanh toán</t>
+  </si>
+  <si>
+    <t>Thông tin</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>Tên</t>
+  </si>
+  <si>
+    <t>Gới tính</t>
+  </si>
+  <si>
+    <t>nam</t>
+  </si>
+  <si>
+    <t>Lê Văn A</t>
+  </si>
+  <si>
+    <t>Tìm người dùng</t>
+  </si>
+  <si>
+    <t>Hủy người dùng</t>
+  </si>
+  <si>
+    <t>Sửa người dùng</t>
+  </si>
+  <si>
+    <t>Số đơn hàng</t>
+  </si>
+  <si>
+    <t>VIP</t>
+  </si>
+  <si>
+    <t>có</t>
+  </si>
+  <si>
+    <t>đang dùng dv</t>
+  </si>
+  <si>
+    <t>Lê văn B</t>
+  </si>
+  <si>
+    <t>Nguyễn thị C</t>
+  </si>
+  <si>
+    <t>Chi tiết</t>
+  </si>
+  <si>
+    <t>Hình ảnh</t>
+  </si>
+  <si>
+    <t>Hình</t>
+  </si>
+  <si>
+    <t>Bao về lao động và kinh tế</t>
+  </si>
+  <si>
+    <t>lượt đặt</t>
+  </si>
+  <si>
+    <t>còn hàng</t>
+  </si>
+  <si>
+    <t>Sửa báo</t>
+  </si>
+  <si>
+    <t>Hủy báo</t>
+  </si>
+  <si>
+    <t>Thêm mới báo</t>
+  </si>
+  <si>
+    <t>báo công an</t>
+  </si>
+  <si>
+    <t>báo tuổi trẻ</t>
+  </si>
+  <si>
+    <t>chưa làm</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="22" x14ac:knownFonts="1">
+  <fonts count="25" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -389,6 +538,30 @@
       <charset val="1"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="28"/>
+      <color rgb="FF00B0F0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="28"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="9">
     <fill>
@@ -440,7 +613,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="39">
+  <borders count="45">
     <border>
       <left/>
       <right/>
@@ -866,11 +1039,83 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="128">
+  <cellXfs count="192">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -951,203 +1196,8 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1"/>
@@ -1158,39 +1208,390 @@
     <xf numFmtId="0" fontId="18" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="8" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="5" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="35" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="8" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1487,157 +1888,157 @@
   </cols>
   <sheetData>
     <row r="1" spans="3:19" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="L1" s="43" t="s">
+      <c r="L1" s="71" t="s">
         <v>2</v>
       </c>
-      <c r="M1" s="44"/>
-      <c r="N1" s="47" t="s">
+      <c r="M1" s="72"/>
+      <c r="N1" s="73" t="s">
         <v>10</v>
       </c>
-      <c r="O1" s="47"/>
-      <c r="P1" s="47"/>
-      <c r="Q1" s="47"/>
-      <c r="R1" s="42" t="s">
+      <c r="O1" s="73"/>
+      <c r="P1" s="73"/>
+      <c r="Q1" s="73"/>
+      <c r="R1" s="70" t="s">
         <v>4</v>
       </c>
-      <c r="S1" s="42"/>
+      <c r="S1" s="70"/>
     </row>
     <row r="2" spans="3:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C2" s="49" t="s">
+      <c r="C2" s="75" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="50"/>
-      <c r="E2" s="71" t="s">
+      <c r="D2" s="76"/>
+      <c r="E2" s="83" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="72"/>
-      <c r="G2" s="72"/>
-      <c r="H2" s="72"/>
-      <c r="I2" s="72"/>
-      <c r="J2" s="72"/>
-      <c r="K2" s="72"/>
-      <c r="L2" s="72"/>
-      <c r="M2" s="72"/>
-      <c r="N2" s="72"/>
-      <c r="O2" s="72"/>
-      <c r="P2" s="72"/>
-      <c r="Q2" s="72"/>
-      <c r="R2" s="72"/>
-      <c r="S2" s="72"/>
+      <c r="F2" s="84"/>
+      <c r="G2" s="84"/>
+      <c r="H2" s="84"/>
+      <c r="I2" s="84"/>
+      <c r="J2" s="84"/>
+      <c r="K2" s="84"/>
+      <c r="L2" s="84"/>
+      <c r="M2" s="84"/>
+      <c r="N2" s="84"/>
+      <c r="O2" s="84"/>
+      <c r="P2" s="84"/>
+      <c r="Q2" s="84"/>
+      <c r="R2" s="84"/>
+      <c r="S2" s="84"/>
     </row>
     <row r="3" spans="3:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C3" s="51"/>
-      <c r="D3" s="52"/>
-      <c r="E3" s="71"/>
-      <c r="F3" s="72"/>
-      <c r="G3" s="72"/>
-      <c r="H3" s="72"/>
-      <c r="I3" s="72"/>
-      <c r="J3" s="72"/>
-      <c r="K3" s="72"/>
-      <c r="L3" s="72"/>
-      <c r="M3" s="72"/>
-      <c r="N3" s="72"/>
-      <c r="O3" s="72"/>
-      <c r="P3" s="72"/>
-      <c r="Q3" s="72"/>
-      <c r="R3" s="72"/>
-      <c r="S3" s="72"/>
+      <c r="C3" s="77"/>
+      <c r="D3" s="78"/>
+      <c r="E3" s="83"/>
+      <c r="F3" s="84"/>
+      <c r="G3" s="84"/>
+      <c r="H3" s="84"/>
+      <c r="I3" s="84"/>
+      <c r="J3" s="84"/>
+      <c r="K3" s="84"/>
+      <c r="L3" s="84"/>
+      <c r="M3" s="84"/>
+      <c r="N3" s="84"/>
+      <c r="O3" s="84"/>
+      <c r="P3" s="84"/>
+      <c r="Q3" s="84"/>
+      <c r="R3" s="84"/>
+      <c r="S3" s="84"/>
     </row>
     <row r="4" spans="3:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C4" s="51"/>
-      <c r="D4" s="52"/>
-      <c r="E4" s="71"/>
-      <c r="F4" s="72"/>
-      <c r="G4" s="72"/>
-      <c r="H4" s="72"/>
-      <c r="I4" s="72"/>
-      <c r="J4" s="72"/>
-      <c r="K4" s="72"/>
-      <c r="L4" s="72"/>
-      <c r="M4" s="72"/>
-      <c r="N4" s="72"/>
-      <c r="O4" s="72"/>
-      <c r="P4" s="72"/>
-      <c r="Q4" s="72"/>
-      <c r="R4" s="72"/>
-      <c r="S4" s="72"/>
+      <c r="C4" s="77"/>
+      <c r="D4" s="78"/>
+      <c r="E4" s="83"/>
+      <c r="F4" s="84"/>
+      <c r="G4" s="84"/>
+      <c r="H4" s="84"/>
+      <c r="I4" s="84"/>
+      <c r="J4" s="84"/>
+      <c r="K4" s="84"/>
+      <c r="L4" s="84"/>
+      <c r="M4" s="84"/>
+      <c r="N4" s="84"/>
+      <c r="O4" s="84"/>
+      <c r="P4" s="84"/>
+      <c r="Q4" s="84"/>
+      <c r="R4" s="84"/>
+      <c r="S4" s="84"/>
     </row>
     <row r="5" spans="3:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C5" s="51"/>
-      <c r="D5" s="52"/>
-      <c r="E5" s="71"/>
-      <c r="F5" s="72"/>
-      <c r="G5" s="72"/>
-      <c r="H5" s="72"/>
-      <c r="I5" s="72"/>
-      <c r="J5" s="72"/>
-      <c r="K5" s="72"/>
-      <c r="L5" s="72"/>
-      <c r="M5" s="72"/>
-      <c r="N5" s="72"/>
-      <c r="O5" s="72"/>
-      <c r="P5" s="72"/>
-      <c r="Q5" s="72"/>
-      <c r="R5" s="72"/>
-      <c r="S5" s="72"/>
+      <c r="C5" s="77"/>
+      <c r="D5" s="78"/>
+      <c r="E5" s="83"/>
+      <c r="F5" s="84"/>
+      <c r="G5" s="84"/>
+      <c r="H5" s="84"/>
+      <c r="I5" s="84"/>
+      <c r="J5" s="84"/>
+      <c r="K5" s="84"/>
+      <c r="L5" s="84"/>
+      <c r="M5" s="84"/>
+      <c r="N5" s="84"/>
+      <c r="O5" s="84"/>
+      <c r="P5" s="84"/>
+      <c r="Q5" s="84"/>
+      <c r="R5" s="84"/>
+      <c r="S5" s="84"/>
     </row>
     <row r="6" spans="3:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C6" s="51"/>
-      <c r="D6" s="52"/>
-      <c r="E6" s="71"/>
-      <c r="F6" s="72"/>
-      <c r="G6" s="72"/>
-      <c r="H6" s="72"/>
-      <c r="I6" s="72"/>
-      <c r="J6" s="72"/>
-      <c r="K6" s="72"/>
-      <c r="L6" s="72"/>
-      <c r="M6" s="72"/>
-      <c r="N6" s="72"/>
-      <c r="O6" s="72"/>
-      <c r="P6" s="72"/>
-      <c r="Q6" s="72"/>
-      <c r="R6" s="72"/>
-      <c r="S6" s="72"/>
+      <c r="C6" s="77"/>
+      <c r="D6" s="78"/>
+      <c r="E6" s="83"/>
+      <c r="F6" s="84"/>
+      <c r="G6" s="84"/>
+      <c r="H6" s="84"/>
+      <c r="I6" s="84"/>
+      <c r="J6" s="84"/>
+      <c r="K6" s="84"/>
+      <c r="L6" s="84"/>
+      <c r="M6" s="84"/>
+      <c r="N6" s="84"/>
+      <c r="O6" s="84"/>
+      <c r="P6" s="84"/>
+      <c r="Q6" s="84"/>
+      <c r="R6" s="84"/>
+      <c r="S6" s="84"/>
     </row>
     <row r="7" spans="3:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C7" s="51"/>
-      <c r="D7" s="52"/>
-      <c r="E7" s="71"/>
-      <c r="F7" s="72"/>
-      <c r="G7" s="72"/>
-      <c r="H7" s="72"/>
-      <c r="I7" s="72"/>
-      <c r="J7" s="72"/>
-      <c r="K7" s="72"/>
-      <c r="L7" s="72"/>
-      <c r="M7" s="72"/>
-      <c r="N7" s="72"/>
-      <c r="O7" s="72"/>
-      <c r="P7" s="72"/>
-      <c r="Q7" s="72"/>
-      <c r="R7" s="72"/>
-      <c r="S7" s="72"/>
+      <c r="C7" s="77"/>
+      <c r="D7" s="78"/>
+      <c r="E7" s="83"/>
+      <c r="F7" s="84"/>
+      <c r="G7" s="84"/>
+      <c r="H7" s="84"/>
+      <c r="I7" s="84"/>
+      <c r="J7" s="84"/>
+      <c r="K7" s="84"/>
+      <c r="L7" s="84"/>
+      <c r="M7" s="84"/>
+      <c r="N7" s="84"/>
+      <c r="O7" s="84"/>
+      <c r="P7" s="84"/>
+      <c r="Q7" s="84"/>
+      <c r="R7" s="84"/>
+      <c r="S7" s="84"/>
     </row>
     <row r="8" spans="3:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C8" s="53"/>
-      <c r="D8" s="54"/>
-      <c r="E8" s="71"/>
-      <c r="F8" s="72"/>
-      <c r="G8" s="72"/>
-      <c r="H8" s="72"/>
-      <c r="I8" s="72"/>
-      <c r="J8" s="72"/>
-      <c r="K8" s="72"/>
-      <c r="L8" s="72"/>
-      <c r="M8" s="72"/>
-      <c r="N8" s="72"/>
-      <c r="O8" s="72"/>
-      <c r="P8" s="72"/>
-      <c r="Q8" s="72"/>
-      <c r="R8" s="72"/>
-      <c r="S8" s="72"/>
+      <c r="C8" s="79"/>
+      <c r="D8" s="80"/>
+      <c r="E8" s="83"/>
+      <c r="F8" s="84"/>
+      <c r="G8" s="84"/>
+      <c r="H8" s="84"/>
+      <c r="I8" s="84"/>
+      <c r="J8" s="84"/>
+      <c r="K8" s="84"/>
+      <c r="L8" s="84"/>
+      <c r="M8" s="84"/>
+      <c r="N8" s="84"/>
+      <c r="O8" s="84"/>
+      <c r="P8" s="84"/>
+      <c r="Q8" s="84"/>
+      <c r="R8" s="84"/>
+      <c r="S8" s="84"/>
     </row>
     <row r="11" spans="3:19" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C11" s="23" t="s">
@@ -1646,25 +2047,25 @@
       <c r="D11" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="E11" s="69" t="s">
+      <c r="E11" s="81" t="s">
         <v>9</v>
       </c>
-      <c r="F11" s="70"/>
-      <c r="G11" s="69" t="s">
+      <c r="F11" s="82"/>
+      <c r="G11" s="81" t="s">
         <v>15</v>
       </c>
-      <c r="H11" s="70"/>
-      <c r="I11" s="73" t="s">
+      <c r="H11" s="82"/>
+      <c r="I11" s="85" t="s">
         <v>20</v>
       </c>
-      <c r="J11" s="73"/>
-      <c r="N11" s="75" t="s">
+      <c r="J11" s="85"/>
+      <c r="N11" s="56" t="s">
         <v>23</v>
       </c>
-      <c r="O11" s="75"/>
-      <c r="P11" s="75"/>
-      <c r="Q11" s="75"/>
-      <c r="R11" s="75"/>
+      <c r="O11" s="56"/>
+      <c r="P11" s="56"/>
+      <c r="Q11" s="56"/>
+      <c r="R11" s="56"/>
       <c r="S11" s="27" t="s">
         <v>24</v>
       </c>
@@ -1675,11 +2076,11 @@
       <c r="E12" s="2"/>
     </row>
     <row r="13" spans="3:19" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="C13" s="74" t="s">
+      <c r="C13" s="86" t="s">
         <v>21</v>
       </c>
-      <c r="D13" s="74"/>
-      <c r="E13" s="74"/>
+      <c r="D13" s="86"/>
+      <c r="E13" s="86"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c r="H13" s="8"/>
@@ -1696,9 +2097,9 @@
       <c r="S13" s="9"/>
     </row>
     <row r="14" spans="3:19" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="C14" s="74"/>
-      <c r="D14" s="74"/>
-      <c r="E14" s="74"/>
+      <c r="C14" s="86"/>
+      <c r="D14" s="86"/>
+      <c r="E14" s="86"/>
       <c r="F14" s="14"/>
       <c r="G14" s="14"/>
       <c r="H14" s="10"/>
@@ -1715,8 +2116,8 @@
       <c r="S14" s="11"/>
     </row>
     <row r="15" spans="3:19" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="C15" s="48"/>
-      <c r="D15" s="48"/>
+      <c r="C15" s="74"/>
+      <c r="D15" s="74"/>
       <c r="E15" s="10"/>
       <c r="F15" s="14"/>
       <c r="G15" s="14"/>
@@ -1734,190 +2135,190 @@
       <c r="S15" s="11"/>
     </row>
     <row r="16" spans="3:19" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="C16" s="45" t="s">
+      <c r="C16" s="53" t="s">
         <v>5</v>
       </c>
-      <c r="D16" s="45"/>
+      <c r="D16" s="53"/>
       <c r="E16" s="10"/>
-      <c r="F16" s="45" t="s">
+      <c r="F16" s="53" t="s">
         <v>5</v>
       </c>
-      <c r="G16" s="45"/>
-      <c r="H16" s="45"/>
-      <c r="I16" s="45"/>
-      <c r="K16" s="45" t="s">
+      <c r="G16" s="53"/>
+      <c r="H16" s="53"/>
+      <c r="I16" s="53"/>
+      <c r="K16" s="53" t="s">
         <v>5</v>
       </c>
-      <c r="L16" s="45"/>
-      <c r="M16" s="45"/>
-      <c r="N16" s="45"/>
+      <c r="L16" s="53"/>
+      <c r="M16" s="53"/>
+      <c r="N16" s="53"/>
       <c r="O16" s="10"/>
-      <c r="P16" s="45" t="s">
+      <c r="P16" s="53" t="s">
         <v>5</v>
       </c>
-      <c r="Q16" s="45"/>
-      <c r="R16" s="45"/>
-      <c r="S16" s="45"/>
+      <c r="Q16" s="53"/>
+      <c r="R16" s="53"/>
+      <c r="S16" s="53"/>
     </row>
     <row r="17" spans="3:19" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="C17" s="45"/>
-      <c r="D17" s="45"/>
+      <c r="C17" s="53"/>
+      <c r="D17" s="53"/>
       <c r="E17" s="10"/>
-      <c r="F17" s="45"/>
-      <c r="G17" s="45"/>
-      <c r="H17" s="45"/>
-      <c r="I17" s="45"/>
-      <c r="K17" s="45"/>
-      <c r="L17" s="45"/>
-      <c r="M17" s="45"/>
-      <c r="N17" s="45"/>
+      <c r="F17" s="53"/>
+      <c r="G17" s="53"/>
+      <c r="H17" s="53"/>
+      <c r="I17" s="53"/>
+      <c r="K17" s="53"/>
+      <c r="L17" s="53"/>
+      <c r="M17" s="53"/>
+      <c r="N17" s="53"/>
       <c r="O17" s="10"/>
-      <c r="P17" s="45"/>
-      <c r="Q17" s="45"/>
-      <c r="R17" s="45"/>
-      <c r="S17" s="45"/>
+      <c r="P17" s="53"/>
+      <c r="Q17" s="53"/>
+      <c r="R17" s="53"/>
+      <c r="S17" s="53"/>
     </row>
     <row r="18" spans="3:19" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="C18" s="45"/>
-      <c r="D18" s="45"/>
+      <c r="C18" s="53"/>
+      <c r="D18" s="53"/>
       <c r="E18" s="10"/>
-      <c r="F18" s="45"/>
-      <c r="G18" s="45"/>
-      <c r="H18" s="45"/>
-      <c r="I18" s="45"/>
-      <c r="K18" s="45"/>
-      <c r="L18" s="45"/>
-      <c r="M18" s="45"/>
-      <c r="N18" s="45"/>
+      <c r="F18" s="53"/>
+      <c r="G18" s="53"/>
+      <c r="H18" s="53"/>
+      <c r="I18" s="53"/>
+      <c r="K18" s="53"/>
+      <c r="L18" s="53"/>
+      <c r="M18" s="53"/>
+      <c r="N18" s="53"/>
       <c r="O18" s="10"/>
-      <c r="P18" s="45"/>
-      <c r="Q18" s="45"/>
-      <c r="R18" s="45"/>
-      <c r="S18" s="45"/>
+      <c r="P18" s="53"/>
+      <c r="Q18" s="53"/>
+      <c r="R18" s="53"/>
+      <c r="S18" s="53"/>
     </row>
     <row r="19" spans="3:19" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="C19" s="45"/>
-      <c r="D19" s="45"/>
+      <c r="C19" s="53"/>
+      <c r="D19" s="53"/>
       <c r="E19" s="10"/>
-      <c r="F19" s="45"/>
-      <c r="G19" s="45"/>
-      <c r="H19" s="45"/>
-      <c r="I19" s="45"/>
-      <c r="K19" s="45"/>
-      <c r="L19" s="45"/>
-      <c r="M19" s="45"/>
-      <c r="N19" s="45"/>
+      <c r="F19" s="53"/>
+      <c r="G19" s="53"/>
+      <c r="H19" s="53"/>
+      <c r="I19" s="53"/>
+      <c r="K19" s="53"/>
+      <c r="L19" s="53"/>
+      <c r="M19" s="53"/>
+      <c r="N19" s="53"/>
       <c r="O19" s="10"/>
-      <c r="P19" s="45"/>
-      <c r="Q19" s="45"/>
-      <c r="R19" s="45"/>
-      <c r="S19" s="45"/>
+      <c r="P19" s="53"/>
+      <c r="Q19" s="53"/>
+      <c r="R19" s="53"/>
+      <c r="S19" s="53"/>
     </row>
     <row r="20" spans="3:19" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="C20" s="45"/>
-      <c r="D20" s="45"/>
+      <c r="C20" s="53"/>
+      <c r="D20" s="53"/>
       <c r="E20" s="10"/>
-      <c r="F20" s="45"/>
-      <c r="G20" s="45"/>
-      <c r="H20" s="45"/>
-      <c r="I20" s="45"/>
-      <c r="K20" s="45"/>
-      <c r="L20" s="45"/>
-      <c r="M20" s="45"/>
-      <c r="N20" s="45"/>
+      <c r="F20" s="53"/>
+      <c r="G20" s="53"/>
+      <c r="H20" s="53"/>
+      <c r="I20" s="53"/>
+      <c r="K20" s="53"/>
+      <c r="L20" s="53"/>
+      <c r="M20" s="53"/>
+      <c r="N20" s="53"/>
       <c r="O20" s="10"/>
-      <c r="P20" s="45"/>
-      <c r="Q20" s="45"/>
-      <c r="R20" s="45"/>
-      <c r="S20" s="45"/>
+      <c r="P20" s="53"/>
+      <c r="Q20" s="53"/>
+      <c r="R20" s="53"/>
+      <c r="S20" s="53"/>
     </row>
     <row r="21" spans="3:19" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="C21" s="45"/>
-      <c r="D21" s="45"/>
+      <c r="C21" s="53"/>
+      <c r="D21" s="53"/>
       <c r="E21" s="10"/>
-      <c r="F21" s="45"/>
-      <c r="G21" s="45"/>
-      <c r="H21" s="45"/>
-      <c r="I21" s="45"/>
-      <c r="K21" s="45"/>
-      <c r="L21" s="45"/>
-      <c r="M21" s="45"/>
-      <c r="N21" s="45"/>
+      <c r="F21" s="53"/>
+      <c r="G21" s="53"/>
+      <c r="H21" s="53"/>
+      <c r="I21" s="53"/>
+      <c r="K21" s="53"/>
+      <c r="L21" s="53"/>
+      <c r="M21" s="53"/>
+      <c r="N21" s="53"/>
       <c r="O21" s="10"/>
-      <c r="P21" s="45"/>
-      <c r="Q21" s="45"/>
-      <c r="R21" s="45"/>
-      <c r="S21" s="45"/>
+      <c r="P21" s="53"/>
+      <c r="Q21" s="53"/>
+      <c r="R21" s="53"/>
+      <c r="S21" s="53"/>
     </row>
     <row r="22" spans="3:19" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="C22" s="45"/>
-      <c r="D22" s="45"/>
+      <c r="C22" s="53"/>
+      <c r="D22" s="53"/>
       <c r="E22" s="10"/>
-      <c r="F22" s="45"/>
-      <c r="G22" s="45"/>
-      <c r="H22" s="45"/>
-      <c r="I22" s="45"/>
-      <c r="K22" s="45"/>
-      <c r="L22" s="45"/>
-      <c r="M22" s="45"/>
-      <c r="N22" s="45"/>
+      <c r="F22" s="53"/>
+      <c r="G22" s="53"/>
+      <c r="H22" s="53"/>
+      <c r="I22" s="53"/>
+      <c r="K22" s="53"/>
+      <c r="L22" s="53"/>
+      <c r="M22" s="53"/>
+      <c r="N22" s="53"/>
       <c r="O22" s="10"/>
-      <c r="P22" s="45"/>
-      <c r="Q22" s="45"/>
-      <c r="R22" s="45"/>
-      <c r="S22" s="45"/>
+      <c r="P22" s="53"/>
+      <c r="Q22" s="53"/>
+      <c r="R22" s="53"/>
+      <c r="S22" s="53"/>
     </row>
     <row r="23" spans="3:19" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="C23" s="46" t="s">
+      <c r="C23" s="54" t="s">
         <v>6</v>
       </c>
-      <c r="D23" s="46"/>
+      <c r="D23" s="54"/>
       <c r="E23" s="10"/>
-      <c r="F23" s="46" t="s">
+      <c r="F23" s="54" t="s">
         <v>6</v>
       </c>
-      <c r="G23" s="46"/>
-      <c r="H23" s="46"/>
-      <c r="I23" s="46"/>
-      <c r="K23" s="46" t="s">
+      <c r="G23" s="54"/>
+      <c r="H23" s="54"/>
+      <c r="I23" s="54"/>
+      <c r="K23" s="54" t="s">
         <v>6</v>
       </c>
-      <c r="L23" s="46"/>
-      <c r="M23" s="46"/>
-      <c r="N23" s="46"/>
+      <c r="L23" s="54"/>
+      <c r="M23" s="54"/>
+      <c r="N23" s="54"/>
       <c r="O23" s="10"/>
-      <c r="P23" s="46" t="s">
+      <c r="P23" s="54" t="s">
         <v>6</v>
       </c>
-      <c r="Q23" s="46"/>
-      <c r="R23" s="46"/>
-      <c r="S23" s="46"/>
+      <c r="Q23" s="54"/>
+      <c r="R23" s="54"/>
+      <c r="S23" s="54"/>
     </row>
     <row r="24" spans="3:19" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="C24" s="46" t="s">
+      <c r="C24" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="D24" s="46"/>
+      <c r="D24" s="54"/>
       <c r="E24" s="10"/>
-      <c r="F24" s="46" t="s">
+      <c r="F24" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="G24" s="46"/>
-      <c r="H24" s="46"/>
-      <c r="I24" s="46"/>
-      <c r="K24" s="46" t="s">
+      <c r="G24" s="54"/>
+      <c r="H24" s="54"/>
+      <c r="I24" s="54"/>
+      <c r="K24" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="L24" s="46"/>
-      <c r="M24" s="46"/>
-      <c r="N24" s="46"/>
+      <c r="L24" s="54"/>
+      <c r="M24" s="54"/>
+      <c r="N24" s="54"/>
       <c r="O24" s="10"/>
-      <c r="P24" s="46" t="s">
+      <c r="P24" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="Q24" s="46"/>
-      <c r="R24" s="46"/>
-      <c r="S24" s="46"/>
+      <c r="Q24" s="54"/>
+      <c r="R24" s="54"/>
+      <c r="S24" s="54"/>
     </row>
     <row r="25" spans="3:19" ht="23.25" x14ac:dyDescent="0.35">
       <c r="C25" s="55" t="s">
@@ -1963,190 +2364,190 @@
       <c r="S26" s="10"/>
     </row>
     <row r="27" spans="3:19" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="C27" s="45" t="s">
+      <c r="C27" s="53" t="s">
         <v>5</v>
       </c>
-      <c r="D27" s="45"/>
+      <c r="D27" s="53"/>
       <c r="E27" s="10"/>
-      <c r="F27" s="45" t="s">
+      <c r="F27" s="53" t="s">
         <v>5</v>
       </c>
-      <c r="G27" s="45"/>
-      <c r="H27" s="45"/>
-      <c r="I27" s="45"/>
-      <c r="K27" s="45" t="s">
+      <c r="G27" s="53"/>
+      <c r="H27" s="53"/>
+      <c r="I27" s="53"/>
+      <c r="K27" s="53" t="s">
         <v>5</v>
       </c>
-      <c r="L27" s="45"/>
-      <c r="M27" s="45"/>
-      <c r="N27" s="45"/>
+      <c r="L27" s="53"/>
+      <c r="M27" s="53"/>
+      <c r="N27" s="53"/>
       <c r="O27" s="10"/>
-      <c r="P27" s="45" t="s">
+      <c r="P27" s="53" t="s">
         <v>5</v>
       </c>
-      <c r="Q27" s="45"/>
-      <c r="R27" s="45"/>
-      <c r="S27" s="45"/>
+      <c r="Q27" s="53"/>
+      <c r="R27" s="53"/>
+      <c r="S27" s="53"/>
     </row>
     <row r="28" spans="3:19" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="C28" s="45"/>
-      <c r="D28" s="45"/>
+      <c r="C28" s="53"/>
+      <c r="D28" s="53"/>
       <c r="E28" s="10"/>
-      <c r="F28" s="45"/>
-      <c r="G28" s="45"/>
-      <c r="H28" s="45"/>
-      <c r="I28" s="45"/>
-      <c r="K28" s="45"/>
-      <c r="L28" s="45"/>
-      <c r="M28" s="45"/>
-      <c r="N28" s="45"/>
+      <c r="F28" s="53"/>
+      <c r="G28" s="53"/>
+      <c r="H28" s="53"/>
+      <c r="I28" s="53"/>
+      <c r="K28" s="53"/>
+      <c r="L28" s="53"/>
+      <c r="M28" s="53"/>
+      <c r="N28" s="53"/>
       <c r="O28" s="10"/>
-      <c r="P28" s="45"/>
-      <c r="Q28" s="45"/>
-      <c r="R28" s="45"/>
-      <c r="S28" s="45"/>
+      <c r="P28" s="53"/>
+      <c r="Q28" s="53"/>
+      <c r="R28" s="53"/>
+      <c r="S28" s="53"/>
     </row>
     <row r="29" spans="3:19" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="C29" s="45"/>
-      <c r="D29" s="45"/>
+      <c r="C29" s="53"/>
+      <c r="D29" s="53"/>
       <c r="E29" s="10"/>
-      <c r="F29" s="45"/>
-      <c r="G29" s="45"/>
-      <c r="H29" s="45"/>
-      <c r="I29" s="45"/>
-      <c r="K29" s="45"/>
-      <c r="L29" s="45"/>
-      <c r="M29" s="45"/>
-      <c r="N29" s="45"/>
+      <c r="F29" s="53"/>
+      <c r="G29" s="53"/>
+      <c r="H29" s="53"/>
+      <c r="I29" s="53"/>
+      <c r="K29" s="53"/>
+      <c r="L29" s="53"/>
+      <c r="M29" s="53"/>
+      <c r="N29" s="53"/>
       <c r="O29" s="10"/>
-      <c r="P29" s="45"/>
-      <c r="Q29" s="45"/>
-      <c r="R29" s="45"/>
-      <c r="S29" s="45"/>
+      <c r="P29" s="53"/>
+      <c r="Q29" s="53"/>
+      <c r="R29" s="53"/>
+      <c r="S29" s="53"/>
     </row>
     <row r="30" spans="3:19" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="C30" s="45"/>
-      <c r="D30" s="45"/>
+      <c r="C30" s="53"/>
+      <c r="D30" s="53"/>
       <c r="E30" s="10"/>
-      <c r="F30" s="45"/>
-      <c r="G30" s="45"/>
-      <c r="H30" s="45"/>
-      <c r="I30" s="45"/>
-      <c r="K30" s="45"/>
-      <c r="L30" s="45"/>
-      <c r="M30" s="45"/>
-      <c r="N30" s="45"/>
+      <c r="F30" s="53"/>
+      <c r="G30" s="53"/>
+      <c r="H30" s="53"/>
+      <c r="I30" s="53"/>
+      <c r="K30" s="53"/>
+      <c r="L30" s="53"/>
+      <c r="M30" s="53"/>
+      <c r="N30" s="53"/>
       <c r="O30" s="10"/>
-      <c r="P30" s="45"/>
-      <c r="Q30" s="45"/>
-      <c r="R30" s="45"/>
-      <c r="S30" s="45"/>
+      <c r="P30" s="53"/>
+      <c r="Q30" s="53"/>
+      <c r="R30" s="53"/>
+      <c r="S30" s="53"/>
     </row>
     <row r="31" spans="3:19" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="C31" s="45"/>
-      <c r="D31" s="45"/>
+      <c r="C31" s="53"/>
+      <c r="D31" s="53"/>
       <c r="E31" s="10"/>
-      <c r="F31" s="45"/>
-      <c r="G31" s="45"/>
-      <c r="H31" s="45"/>
-      <c r="I31" s="45"/>
-      <c r="K31" s="45"/>
-      <c r="L31" s="45"/>
-      <c r="M31" s="45"/>
-      <c r="N31" s="45"/>
+      <c r="F31" s="53"/>
+      <c r="G31" s="53"/>
+      <c r="H31" s="53"/>
+      <c r="I31" s="53"/>
+      <c r="K31" s="53"/>
+      <c r="L31" s="53"/>
+      <c r="M31" s="53"/>
+      <c r="N31" s="53"/>
       <c r="O31" s="10"/>
-      <c r="P31" s="45"/>
-      <c r="Q31" s="45"/>
-      <c r="R31" s="45"/>
-      <c r="S31" s="45"/>
+      <c r="P31" s="53"/>
+      <c r="Q31" s="53"/>
+      <c r="R31" s="53"/>
+      <c r="S31" s="53"/>
     </row>
     <row r="32" spans="3:19" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="C32" s="45"/>
-      <c r="D32" s="45"/>
+      <c r="C32" s="53"/>
+      <c r="D32" s="53"/>
       <c r="E32" s="10"/>
-      <c r="F32" s="45"/>
-      <c r="G32" s="45"/>
-      <c r="H32" s="45"/>
-      <c r="I32" s="45"/>
-      <c r="K32" s="45"/>
-      <c r="L32" s="45"/>
-      <c r="M32" s="45"/>
-      <c r="N32" s="45"/>
+      <c r="F32" s="53"/>
+      <c r="G32" s="53"/>
+      <c r="H32" s="53"/>
+      <c r="I32" s="53"/>
+      <c r="K32" s="53"/>
+      <c r="L32" s="53"/>
+      <c r="M32" s="53"/>
+      <c r="N32" s="53"/>
       <c r="O32" s="10"/>
-      <c r="P32" s="45"/>
-      <c r="Q32" s="45"/>
-      <c r="R32" s="45"/>
-      <c r="S32" s="45"/>
+      <c r="P32" s="53"/>
+      <c r="Q32" s="53"/>
+      <c r="R32" s="53"/>
+      <c r="S32" s="53"/>
     </row>
     <row r="33" spans="3:19" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="C33" s="45"/>
-      <c r="D33" s="45"/>
+      <c r="C33" s="53"/>
+      <c r="D33" s="53"/>
       <c r="E33" s="10"/>
-      <c r="F33" s="45"/>
-      <c r="G33" s="45"/>
-      <c r="H33" s="45"/>
-      <c r="I33" s="45"/>
-      <c r="K33" s="45"/>
-      <c r="L33" s="45"/>
-      <c r="M33" s="45"/>
-      <c r="N33" s="45"/>
+      <c r="F33" s="53"/>
+      <c r="G33" s="53"/>
+      <c r="H33" s="53"/>
+      <c r="I33" s="53"/>
+      <c r="K33" s="53"/>
+      <c r="L33" s="53"/>
+      <c r="M33" s="53"/>
+      <c r="N33" s="53"/>
       <c r="O33" s="10"/>
-      <c r="P33" s="45"/>
-      <c r="Q33" s="45"/>
-      <c r="R33" s="45"/>
-      <c r="S33" s="45"/>
+      <c r="P33" s="53"/>
+      <c r="Q33" s="53"/>
+      <c r="R33" s="53"/>
+      <c r="S33" s="53"/>
     </row>
     <row r="34" spans="3:19" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="C34" s="46" t="s">
+      <c r="C34" s="54" t="s">
         <v>6</v>
       </c>
-      <c r="D34" s="46"/>
+      <c r="D34" s="54"/>
       <c r="E34" s="10"/>
-      <c r="F34" s="46" t="s">
+      <c r="F34" s="54" t="s">
         <v>6</v>
       </c>
-      <c r="G34" s="46"/>
-      <c r="H34" s="46"/>
-      <c r="I34" s="46"/>
-      <c r="K34" s="46" t="s">
+      <c r="G34" s="54"/>
+      <c r="H34" s="54"/>
+      <c r="I34" s="54"/>
+      <c r="K34" s="54" t="s">
         <v>6</v>
       </c>
-      <c r="L34" s="46"/>
-      <c r="M34" s="46"/>
-      <c r="N34" s="46"/>
+      <c r="L34" s="54"/>
+      <c r="M34" s="54"/>
+      <c r="N34" s="54"/>
       <c r="O34" s="10"/>
-      <c r="P34" s="46" t="s">
+      <c r="P34" s="54" t="s">
         <v>6</v>
       </c>
-      <c r="Q34" s="46"/>
-      <c r="R34" s="46"/>
-      <c r="S34" s="46"/>
+      <c r="Q34" s="54"/>
+      <c r="R34" s="54"/>
+      <c r="S34" s="54"/>
     </row>
     <row r="35" spans="3:19" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="C35" s="46" t="s">
+      <c r="C35" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="D35" s="46"/>
+      <c r="D35" s="54"/>
       <c r="E35" s="10"/>
-      <c r="F35" s="46" t="s">
+      <c r="F35" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="G35" s="46"/>
-      <c r="H35" s="46"/>
-      <c r="I35" s="46"/>
-      <c r="K35" s="46" t="s">
+      <c r="G35" s="54"/>
+      <c r="H35" s="54"/>
+      <c r="I35" s="54"/>
+      <c r="K35" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="L35" s="46"/>
-      <c r="M35" s="46"/>
-      <c r="N35" s="46"/>
+      <c r="L35" s="54"/>
+      <c r="M35" s="54"/>
+      <c r="N35" s="54"/>
       <c r="O35" s="10"/>
-      <c r="P35" s="46" t="s">
+      <c r="P35" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="Q35" s="46"/>
-      <c r="R35" s="46"/>
-      <c r="S35" s="46"/>
+      <c r="Q35" s="54"/>
+      <c r="R35" s="54"/>
+      <c r="S35" s="54"/>
     </row>
     <row r="36" spans="3:19" ht="23.25" x14ac:dyDescent="0.35">
       <c r="C36" s="55" t="s">
@@ -2300,15 +2701,15 @@
       <c r="D44" s="16"/>
       <c r="E44" s="16"/>
       <c r="F44" s="16"/>
-      <c r="G44" s="56" t="s">
+      <c r="G44" s="57" t="s">
         <v>13</v>
       </c>
-      <c r="H44" s="56"/>
-      <c r="I44" s="56"/>
-      <c r="J44" s="56"/>
-      <c r="K44" s="56"/>
-      <c r="L44" s="56"/>
-      <c r="M44" s="56"/>
+      <c r="H44" s="57"/>
+      <c r="I44" s="57"/>
+      <c r="J44" s="57"/>
+      <c r="K44" s="57"/>
+      <c r="L44" s="57"/>
+      <c r="M44" s="57"/>
       <c r="N44" s="16"/>
       <c r="O44" s="16"/>
       <c r="P44" s="16"/>
@@ -2317,19 +2718,19 @@
       <c r="S44" s="17"/>
     </row>
     <row r="45" spans="3:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C45" s="65" t="s">
+      <c r="C45" s="66" t="s">
         <v>14</v>
       </c>
-      <c r="D45" s="66"/>
-      <c r="E45" s="66"/>
-      <c r="F45" s="66"/>
-      <c r="G45" s="57"/>
-      <c r="H45" s="57"/>
-      <c r="I45" s="57"/>
-      <c r="J45" s="57"/>
-      <c r="K45" s="57"/>
-      <c r="L45" s="57"/>
-      <c r="M45" s="57"/>
+      <c r="D45" s="67"/>
+      <c r="E45" s="67"/>
+      <c r="F45" s="67"/>
+      <c r="G45" s="58"/>
+      <c r="H45" s="58"/>
+      <c r="I45" s="58"/>
+      <c r="J45" s="58"/>
+      <c r="K45" s="58"/>
+      <c r="L45" s="58"/>
+      <c r="M45" s="58"/>
       <c r="N45" s="18"/>
       <c r="O45" s="18"/>
       <c r="P45" s="18"/>
@@ -2338,64 +2739,64 @@
       <c r="S45" s="19"/>
     </row>
     <row r="46" spans="3:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C46" s="67"/>
-      <c r="D46" s="66"/>
-      <c r="E46" s="66"/>
-      <c r="F46" s="66"/>
-      <c r="G46" s="57"/>
-      <c r="H46" s="57"/>
-      <c r="I46" s="57"/>
-      <c r="J46" s="57"/>
-      <c r="K46" s="57"/>
-      <c r="L46" s="57"/>
-      <c r="M46" s="57"/>
+      <c r="C46" s="68"/>
+      <c r="D46" s="67"/>
+      <c r="E46" s="67"/>
+      <c r="F46" s="67"/>
+      <c r="G46" s="58"/>
+      <c r="H46" s="58"/>
+      <c r="I46" s="58"/>
+      <c r="J46" s="58"/>
+      <c r="K46" s="58"/>
+      <c r="L46" s="58"/>
+      <c r="M46" s="58"/>
       <c r="N46" s="18"/>
-      <c r="O46" s="59" t="s">
+      <c r="O46" s="60" t="s">
         <v>3</v>
       </c>
-      <c r="P46" s="60"/>
+      <c r="P46" s="61"/>
       <c r="Q46" s="18"/>
       <c r="R46" s="19"/>
       <c r="S46" s="19"/>
     </row>
     <row r="47" spans="3:19" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C47" s="68" t="s">
+      <c r="C47" s="69" t="s">
         <v>11</v>
       </c>
-      <c r="D47" s="68"/>
-      <c r="E47" s="68"/>
-      <c r="F47" s="68"/>
-      <c r="G47" s="57"/>
-      <c r="H47" s="57"/>
-      <c r="I47" s="57"/>
-      <c r="J47" s="57"/>
-      <c r="K47" s="57"/>
-      <c r="L47" s="57"/>
-      <c r="M47" s="57"/>
+      <c r="D47" s="69"/>
+      <c r="E47" s="69"/>
+      <c r="F47" s="69"/>
+      <c r="G47" s="58"/>
+      <c r="H47" s="58"/>
+      <c r="I47" s="58"/>
+      <c r="J47" s="58"/>
+      <c r="K47" s="58"/>
+      <c r="L47" s="58"/>
+      <c r="M47" s="58"/>
       <c r="N47" s="18"/>
-      <c r="O47" s="61"/>
-      <c r="P47" s="62"/>
+      <c r="O47" s="62"/>
+      <c r="P47" s="63"/>
       <c r="Q47" s="18"/>
       <c r="R47" s="19"/>
       <c r="S47" s="19"/>
     </row>
     <row r="48" spans="3:19" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C48" s="68" t="s">
+      <c r="C48" s="69" t="s">
         <v>12</v>
       </c>
-      <c r="D48" s="68"/>
-      <c r="E48" s="68"/>
-      <c r="F48" s="68"/>
-      <c r="G48" s="57"/>
-      <c r="H48" s="57"/>
-      <c r="I48" s="57"/>
-      <c r="J48" s="57"/>
-      <c r="K48" s="57"/>
-      <c r="L48" s="57"/>
-      <c r="M48" s="57"/>
+      <c r="D48" s="69"/>
+      <c r="E48" s="69"/>
+      <c r="F48" s="69"/>
+      <c r="G48" s="58"/>
+      <c r="H48" s="58"/>
+      <c r="I48" s="58"/>
+      <c r="J48" s="58"/>
+      <c r="K48" s="58"/>
+      <c r="L48" s="58"/>
+      <c r="M48" s="58"/>
       <c r="N48" s="18"/>
-      <c r="O48" s="63"/>
-      <c r="P48" s="64"/>
+      <c r="O48" s="64"/>
+      <c r="P48" s="65"/>
       <c r="Q48" s="18"/>
       <c r="R48" s="19"/>
       <c r="S48" s="19"/>
@@ -2405,13 +2806,13 @@
       <c r="D49" s="21"/>
       <c r="E49" s="21"/>
       <c r="F49" s="21"/>
-      <c r="G49" s="58"/>
-      <c r="H49" s="58"/>
-      <c r="I49" s="58"/>
-      <c r="J49" s="58"/>
-      <c r="K49" s="58"/>
-      <c r="L49" s="58"/>
-      <c r="M49" s="58"/>
+      <c r="G49" s="59"/>
+      <c r="H49" s="59"/>
+      <c r="I49" s="59"/>
+      <c r="J49" s="59"/>
+      <c r="K49" s="59"/>
+      <c r="L49" s="59"/>
+      <c r="M49" s="59"/>
       <c r="N49" s="21"/>
       <c r="O49" s="21"/>
       <c r="P49" s="21"/>
@@ -2421,38 +2822,6 @@
     </row>
   </sheetData>
   <mergeCells count="48">
-    <mergeCell ref="F16:I22"/>
-    <mergeCell ref="F23:I23"/>
-    <mergeCell ref="F24:I24"/>
-    <mergeCell ref="F25:I25"/>
-    <mergeCell ref="F27:I33"/>
-    <mergeCell ref="N11:R11"/>
-    <mergeCell ref="K35:N35"/>
-    <mergeCell ref="P35:S35"/>
-    <mergeCell ref="K36:N36"/>
-    <mergeCell ref="P36:S36"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="C27:D33"/>
-    <mergeCell ref="K25:N25"/>
-    <mergeCell ref="P25:S25"/>
-    <mergeCell ref="K27:N33"/>
-    <mergeCell ref="P27:S33"/>
-    <mergeCell ref="K24:N24"/>
-    <mergeCell ref="P24:S24"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="G44:M49"/>
-    <mergeCell ref="O46:P48"/>
-    <mergeCell ref="C45:F46"/>
-    <mergeCell ref="C47:F47"/>
-    <mergeCell ref="C48:F48"/>
-    <mergeCell ref="K34:N34"/>
-    <mergeCell ref="P34:S34"/>
-    <mergeCell ref="F35:I35"/>
-    <mergeCell ref="F36:I36"/>
-    <mergeCell ref="F34:I34"/>
     <mergeCell ref="R1:S1"/>
     <mergeCell ref="L1:M1"/>
     <mergeCell ref="C16:D22"/>
@@ -2469,6 +2838,38 @@
     <mergeCell ref="E2:S8"/>
     <mergeCell ref="I11:J11"/>
     <mergeCell ref="C13:E14"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="G44:M49"/>
+    <mergeCell ref="O46:P48"/>
+    <mergeCell ref="C45:F46"/>
+    <mergeCell ref="C47:F47"/>
+    <mergeCell ref="C48:F48"/>
+    <mergeCell ref="K34:N34"/>
+    <mergeCell ref="P34:S34"/>
+    <mergeCell ref="F35:I35"/>
+    <mergeCell ref="F36:I36"/>
+    <mergeCell ref="F34:I34"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="C27:D33"/>
+    <mergeCell ref="K25:N25"/>
+    <mergeCell ref="P25:S25"/>
+    <mergeCell ref="K27:N33"/>
+    <mergeCell ref="P27:S33"/>
+    <mergeCell ref="K24:N24"/>
+    <mergeCell ref="P24:S24"/>
+    <mergeCell ref="N11:R11"/>
+    <mergeCell ref="K35:N35"/>
+    <mergeCell ref="P35:S35"/>
+    <mergeCell ref="K36:N36"/>
+    <mergeCell ref="P36:S36"/>
+    <mergeCell ref="F16:I22"/>
+    <mergeCell ref="F23:I23"/>
+    <mergeCell ref="F24:I24"/>
+    <mergeCell ref="F25:I25"/>
+    <mergeCell ref="F27:I33"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2479,7 +2880,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C1:S45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+    <sheetView topLeftCell="A4" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <selection activeCell="S30" sqref="S30"/>
     </sheetView>
   </sheetViews>
@@ -2493,157 +2894,157 @@
   </cols>
   <sheetData>
     <row r="1" spans="3:19" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="L1" s="43" t="s">
+      <c r="L1" s="71" t="s">
         <v>2</v>
       </c>
-      <c r="M1" s="44"/>
-      <c r="N1" s="47" t="s">
+      <c r="M1" s="72"/>
+      <c r="N1" s="73" t="s">
         <v>10</v>
       </c>
-      <c r="O1" s="47"/>
-      <c r="P1" s="47"/>
-      <c r="Q1" s="47"/>
-      <c r="R1" s="42" t="s">
+      <c r="O1" s="73"/>
+      <c r="P1" s="73"/>
+      <c r="Q1" s="73"/>
+      <c r="R1" s="70" t="s">
         <v>4</v>
       </c>
-      <c r="S1" s="42"/>
+      <c r="S1" s="70"/>
     </row>
     <row r="2" spans="3:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C2" s="49" t="s">
+      <c r="C2" s="75" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="50"/>
-      <c r="E2" s="71" t="s">
+      <c r="D2" s="76"/>
+      <c r="E2" s="83" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="72"/>
-      <c r="G2" s="72"/>
-      <c r="H2" s="72"/>
-      <c r="I2" s="72"/>
-      <c r="J2" s="72"/>
-      <c r="K2" s="72"/>
-      <c r="L2" s="72"/>
-      <c r="M2" s="72"/>
-      <c r="N2" s="72"/>
-      <c r="O2" s="72"/>
-      <c r="P2" s="72"/>
-      <c r="Q2" s="72"/>
-      <c r="R2" s="72"/>
-      <c r="S2" s="72"/>
+      <c r="F2" s="84"/>
+      <c r="G2" s="84"/>
+      <c r="H2" s="84"/>
+      <c r="I2" s="84"/>
+      <c r="J2" s="84"/>
+      <c r="K2" s="84"/>
+      <c r="L2" s="84"/>
+      <c r="M2" s="84"/>
+      <c r="N2" s="84"/>
+      <c r="O2" s="84"/>
+      <c r="P2" s="84"/>
+      <c r="Q2" s="84"/>
+      <c r="R2" s="84"/>
+      <c r="S2" s="84"/>
     </row>
     <row r="3" spans="3:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C3" s="51"/>
-      <c r="D3" s="52"/>
-      <c r="E3" s="71"/>
-      <c r="F3" s="72"/>
-      <c r="G3" s="72"/>
-      <c r="H3" s="72"/>
-      <c r="I3" s="72"/>
-      <c r="J3" s="72"/>
-      <c r="K3" s="72"/>
-      <c r="L3" s="72"/>
-      <c r="M3" s="72"/>
-      <c r="N3" s="72"/>
-      <c r="O3" s="72"/>
-      <c r="P3" s="72"/>
-      <c r="Q3" s="72"/>
-      <c r="R3" s="72"/>
-      <c r="S3" s="72"/>
+      <c r="C3" s="77"/>
+      <c r="D3" s="78"/>
+      <c r="E3" s="83"/>
+      <c r="F3" s="84"/>
+      <c r="G3" s="84"/>
+      <c r="H3" s="84"/>
+      <c r="I3" s="84"/>
+      <c r="J3" s="84"/>
+      <c r="K3" s="84"/>
+      <c r="L3" s="84"/>
+      <c r="M3" s="84"/>
+      <c r="N3" s="84"/>
+      <c r="O3" s="84"/>
+      <c r="P3" s="84"/>
+      <c r="Q3" s="84"/>
+      <c r="R3" s="84"/>
+      <c r="S3" s="84"/>
     </row>
     <row r="4" spans="3:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C4" s="51"/>
-      <c r="D4" s="52"/>
-      <c r="E4" s="71"/>
-      <c r="F4" s="72"/>
-      <c r="G4" s="72"/>
-      <c r="H4" s="72"/>
-      <c r="I4" s="72"/>
-      <c r="J4" s="72"/>
-      <c r="K4" s="72"/>
-      <c r="L4" s="72"/>
-      <c r="M4" s="72"/>
-      <c r="N4" s="72"/>
-      <c r="O4" s="72"/>
-      <c r="P4" s="72"/>
-      <c r="Q4" s="72"/>
-      <c r="R4" s="72"/>
-      <c r="S4" s="72"/>
+      <c r="C4" s="77"/>
+      <c r="D4" s="78"/>
+      <c r="E4" s="83"/>
+      <c r="F4" s="84"/>
+      <c r="G4" s="84"/>
+      <c r="H4" s="84"/>
+      <c r="I4" s="84"/>
+      <c r="J4" s="84"/>
+      <c r="K4" s="84"/>
+      <c r="L4" s="84"/>
+      <c r="M4" s="84"/>
+      <c r="N4" s="84"/>
+      <c r="O4" s="84"/>
+      <c r="P4" s="84"/>
+      <c r="Q4" s="84"/>
+      <c r="R4" s="84"/>
+      <c r="S4" s="84"/>
     </row>
     <row r="5" spans="3:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C5" s="51"/>
-      <c r="D5" s="52"/>
-      <c r="E5" s="71"/>
-      <c r="F5" s="72"/>
-      <c r="G5" s="72"/>
-      <c r="H5" s="72"/>
-      <c r="I5" s="72"/>
-      <c r="J5" s="72"/>
-      <c r="K5" s="72"/>
-      <c r="L5" s="72"/>
-      <c r="M5" s="72"/>
-      <c r="N5" s="72"/>
-      <c r="O5" s="72"/>
-      <c r="P5" s="72"/>
-      <c r="Q5" s="72"/>
-      <c r="R5" s="72"/>
-      <c r="S5" s="72"/>
+      <c r="C5" s="77"/>
+      <c r="D5" s="78"/>
+      <c r="E5" s="83"/>
+      <c r="F5" s="84"/>
+      <c r="G5" s="84"/>
+      <c r="H5" s="84"/>
+      <c r="I5" s="84"/>
+      <c r="J5" s="84"/>
+      <c r="K5" s="84"/>
+      <c r="L5" s="84"/>
+      <c r="M5" s="84"/>
+      <c r="N5" s="84"/>
+      <c r="O5" s="84"/>
+      <c r="P5" s="84"/>
+      <c r="Q5" s="84"/>
+      <c r="R5" s="84"/>
+      <c r="S5" s="84"/>
     </row>
     <row r="6" spans="3:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C6" s="51"/>
-      <c r="D6" s="52"/>
-      <c r="E6" s="71"/>
-      <c r="F6" s="72"/>
-      <c r="G6" s="72"/>
-      <c r="H6" s="72"/>
-      <c r="I6" s="72"/>
-      <c r="J6" s="72"/>
-      <c r="K6" s="72"/>
-      <c r="L6" s="72"/>
-      <c r="M6" s="72"/>
-      <c r="N6" s="72"/>
-      <c r="O6" s="72"/>
-      <c r="P6" s="72"/>
-      <c r="Q6" s="72"/>
-      <c r="R6" s="72"/>
-      <c r="S6" s="72"/>
+      <c r="C6" s="77"/>
+      <c r="D6" s="78"/>
+      <c r="E6" s="83"/>
+      <c r="F6" s="84"/>
+      <c r="G6" s="84"/>
+      <c r="H6" s="84"/>
+      <c r="I6" s="84"/>
+      <c r="J6" s="84"/>
+      <c r="K6" s="84"/>
+      <c r="L6" s="84"/>
+      <c r="M6" s="84"/>
+      <c r="N6" s="84"/>
+      <c r="O6" s="84"/>
+      <c r="P6" s="84"/>
+      <c r="Q6" s="84"/>
+      <c r="R6" s="84"/>
+      <c r="S6" s="84"/>
     </row>
     <row r="7" spans="3:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C7" s="51"/>
-      <c r="D7" s="52"/>
-      <c r="E7" s="71"/>
-      <c r="F7" s="72"/>
-      <c r="G7" s="72"/>
-      <c r="H7" s="72"/>
-      <c r="I7" s="72"/>
-      <c r="J7" s="72"/>
-      <c r="K7" s="72"/>
-      <c r="L7" s="72"/>
-      <c r="M7" s="72"/>
-      <c r="N7" s="72"/>
-      <c r="O7" s="72"/>
-      <c r="P7" s="72"/>
-      <c r="Q7" s="72"/>
-      <c r="R7" s="72"/>
-      <c r="S7" s="72"/>
+      <c r="C7" s="77"/>
+      <c r="D7" s="78"/>
+      <c r="E7" s="83"/>
+      <c r="F7" s="84"/>
+      <c r="G7" s="84"/>
+      <c r="H7" s="84"/>
+      <c r="I7" s="84"/>
+      <c r="J7" s="84"/>
+      <c r="K7" s="84"/>
+      <c r="L7" s="84"/>
+      <c r="M7" s="84"/>
+      <c r="N7" s="84"/>
+      <c r="O7" s="84"/>
+      <c r="P7" s="84"/>
+      <c r="Q7" s="84"/>
+      <c r="R7" s="84"/>
+      <c r="S7" s="84"/>
     </row>
     <row r="8" spans="3:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C8" s="53"/>
-      <c r="D8" s="54"/>
-      <c r="E8" s="71"/>
-      <c r="F8" s="72"/>
-      <c r="G8" s="72"/>
-      <c r="H8" s="72"/>
-      <c r="I8" s="72"/>
-      <c r="J8" s="72"/>
-      <c r="K8" s="72"/>
-      <c r="L8" s="72"/>
-      <c r="M8" s="72"/>
-      <c r="N8" s="72"/>
-      <c r="O8" s="72"/>
-      <c r="P8" s="72"/>
-      <c r="Q8" s="72"/>
-      <c r="R8" s="72"/>
-      <c r="S8" s="72"/>
+      <c r="C8" s="79"/>
+      <c r="D8" s="80"/>
+      <c r="E8" s="83"/>
+      <c r="F8" s="84"/>
+      <c r="G8" s="84"/>
+      <c r="H8" s="84"/>
+      <c r="I8" s="84"/>
+      <c r="J8" s="84"/>
+      <c r="K8" s="84"/>
+      <c r="L8" s="84"/>
+      <c r="M8" s="84"/>
+      <c r="N8" s="84"/>
+      <c r="O8" s="84"/>
+      <c r="P8" s="84"/>
+      <c r="Q8" s="84"/>
+      <c r="R8" s="84"/>
+      <c r="S8" s="84"/>
     </row>
     <row r="11" spans="3:19" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C11" s="23" t="s">
@@ -2652,25 +3053,25 @@
       <c r="D11" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="E11" s="69" t="s">
+      <c r="E11" s="81" t="s">
         <v>9</v>
       </c>
-      <c r="F11" s="70"/>
-      <c r="G11" s="69" t="s">
+      <c r="F11" s="82"/>
+      <c r="G11" s="81" t="s">
         <v>15</v>
       </c>
-      <c r="H11" s="70"/>
-      <c r="I11" s="73" t="s">
+      <c r="H11" s="82"/>
+      <c r="I11" s="85" t="s">
         <v>20</v>
       </c>
-      <c r="J11" s="73"/>
-      <c r="N11" s="75" t="s">
+      <c r="J11" s="85"/>
+      <c r="N11" s="56" t="s">
         <v>23</v>
       </c>
-      <c r="O11" s="75"/>
-      <c r="P11" s="75"/>
-      <c r="Q11" s="75"/>
-      <c r="R11" s="75"/>
+      <c r="O11" s="56"/>
+      <c r="P11" s="56"/>
+      <c r="Q11" s="56"/>
+      <c r="R11" s="56"/>
       <c r="S11" s="27" t="s">
         <v>24</v>
       </c>
@@ -2700,8 +3101,8 @@
       <c r="S13" s="9"/>
     </row>
     <row r="14" spans="3:19" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="C14" s="48"/>
-      <c r="D14" s="48"/>
+      <c r="C14" s="74"/>
+      <c r="D14" s="74"/>
       <c r="E14" s="10"/>
       <c r="F14" s="14"/>
       <c r="G14" s="14"/>
@@ -2719,8 +3120,8 @@
       <c r="S14" s="11"/>
     </row>
     <row r="15" spans="3:19" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="C15" s="48"/>
-      <c r="D15" s="48"/>
+      <c r="C15" s="74"/>
+      <c r="D15" s="74"/>
       <c r="E15" s="10"/>
       <c r="F15" s="14"/>
       <c r="G15" s="14"/>
@@ -2738,34 +3139,34 @@
       <c r="S15" s="11"/>
     </row>
     <row r="16" spans="3:19" ht="46.5" x14ac:dyDescent="0.25">
-      <c r="C16" s="81" t="s">
+      <c r="C16" s="96" t="s">
         <v>5</v>
       </c>
-      <c r="D16" s="82"/>
-      <c r="E16" s="83"/>
+      <c r="D16" s="97"/>
+      <c r="E16" s="98"/>
       <c r="F16" s="26"/>
       <c r="G16" s="29"/>
-      <c r="H16" s="77" t="s">
+      <c r="H16" s="92" t="s">
         <v>6</v>
       </c>
-      <c r="I16" s="77"/>
-      <c r="J16" s="77"/>
-      <c r="K16" s="77"/>
-      <c r="L16" s="77"/>
-      <c r="M16" s="77"/>
-      <c r="N16" s="77"/>
-      <c r="O16" s="77"/>
-      <c r="P16" s="77"/>
+      <c r="I16" s="92"/>
+      <c r="J16" s="92"/>
+      <c r="K16" s="92"/>
+      <c r="L16" s="92"/>
+      <c r="M16" s="92"/>
+      <c r="N16" s="92"/>
+      <c r="O16" s="92"/>
+      <c r="P16" s="92"/>
       <c r="Q16" s="30"/>
-      <c r="R16" s="76" t="s">
+      <c r="R16" s="91" t="s">
         <v>25</v>
       </c>
-      <c r="S16" s="76"/>
+      <c r="S16" s="91"/>
     </row>
     <row r="17" spans="3:19" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="C17" s="84"/>
-      <c r="D17" s="85"/>
-      <c r="E17" s="86"/>
+      <c r="C17" s="99"/>
+      <c r="D17" s="100"/>
+      <c r="E17" s="101"/>
       <c r="F17" s="26"/>
       <c r="G17" s="31"/>
       <c r="H17" s="26"/>
@@ -2782,9 +3183,9 @@
       <c r="S17" s="32"/>
     </row>
     <row r="18" spans="3:19" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="C18" s="84"/>
-      <c r="D18" s="85"/>
-      <c r="E18" s="86"/>
+      <c r="C18" s="99"/>
+      <c r="D18" s="100"/>
+      <c r="E18" s="101"/>
       <c r="F18" s="26"/>
       <c r="G18" s="31"/>
       <c r="H18" s="26"/>
@@ -2803,9 +3204,9 @@
       <c r="S18" s="32"/>
     </row>
     <row r="19" spans="3:19" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="C19" s="84"/>
-      <c r="D19" s="85"/>
-      <c r="E19" s="86"/>
+      <c r="C19" s="99"/>
+      <c r="D19" s="100"/>
+      <c r="E19" s="101"/>
       <c r="F19" s="26"/>
       <c r="G19" s="31"/>
       <c r="H19" s="26"/>
@@ -2822,118 +3223,118 @@
       <c r="S19" s="32"/>
     </row>
     <row r="20" spans="3:19" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="C20" s="84"/>
-      <c r="D20" s="85"/>
-      <c r="E20" s="86"/>
+      <c r="C20" s="99"/>
+      <c r="D20" s="100"/>
+      <c r="E20" s="101"/>
       <c r="F20" s="26"/>
       <c r="G20" s="31"/>
       <c r="H20" s="26"/>
-      <c r="I20" s="80" t="s">
+      <c r="I20" s="95" t="s">
         <v>53</v>
       </c>
-      <c r="J20" s="79"/>
-      <c r="K20" s="79"/>
-      <c r="L20" s="79"/>
-      <c r="M20" s="79"/>
-      <c r="N20" s="79"/>
-      <c r="O20" s="79"/>
-      <c r="P20" s="79"/>
-      <c r="Q20" s="79"/>
+      <c r="J20" s="94"/>
+      <c r="K20" s="94"/>
+      <c r="L20" s="94"/>
+      <c r="M20" s="94"/>
+      <c r="N20" s="94"/>
+      <c r="O20" s="94"/>
+      <c r="P20" s="94"/>
+      <c r="Q20" s="94"/>
       <c r="R20" s="26"/>
       <c r="S20" s="32"/>
     </row>
     <row r="21" spans="3:19" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="C21" s="84"/>
-      <c r="D21" s="85"/>
-      <c r="E21" s="86"/>
+      <c r="C21" s="99"/>
+      <c r="D21" s="100"/>
+      <c r="E21" s="101"/>
       <c r="F21" s="26"/>
       <c r="G21" s="31"/>
       <c r="H21" s="26"/>
-      <c r="I21" s="79"/>
-      <c r="J21" s="79"/>
-      <c r="K21" s="79"/>
-      <c r="L21" s="79"/>
-      <c r="M21" s="79"/>
-      <c r="N21" s="79"/>
-      <c r="O21" s="79"/>
-      <c r="P21" s="79"/>
-      <c r="Q21" s="79"/>
+      <c r="I21" s="94"/>
+      <c r="J21" s="94"/>
+      <c r="K21" s="94"/>
+      <c r="L21" s="94"/>
+      <c r="M21" s="94"/>
+      <c r="N21" s="94"/>
+      <c r="O21" s="94"/>
+      <c r="P21" s="94"/>
+      <c r="Q21" s="94"/>
       <c r="R21" s="26"/>
       <c r="S21" s="32"/>
     </row>
     <row r="22" spans="3:19" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="C22" s="84"/>
-      <c r="D22" s="85"/>
-      <c r="E22" s="86"/>
+      <c r="C22" s="99"/>
+      <c r="D22" s="100"/>
+      <c r="E22" s="101"/>
       <c r="F22" s="26"/>
       <c r="G22" s="31"/>
       <c r="H22" s="26"/>
-      <c r="I22" s="79"/>
-      <c r="J22" s="79"/>
-      <c r="K22" s="79"/>
-      <c r="L22" s="79"/>
-      <c r="M22" s="79"/>
-      <c r="N22" s="79"/>
-      <c r="O22" s="79"/>
-      <c r="P22" s="79"/>
-      <c r="Q22" s="79"/>
+      <c r="I22" s="94"/>
+      <c r="J22" s="94"/>
+      <c r="K22" s="94"/>
+      <c r="L22" s="94"/>
+      <c r="M22" s="94"/>
+      <c r="N22" s="94"/>
+      <c r="O22" s="94"/>
+      <c r="P22" s="94"/>
+      <c r="Q22" s="94"/>
       <c r="R22" s="26"/>
       <c r="S22" s="32"/>
     </row>
     <row r="23" spans="3:19" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="C23" s="84"/>
-      <c r="D23" s="85"/>
-      <c r="E23" s="86"/>
+      <c r="C23" s="99"/>
+      <c r="D23" s="100"/>
+      <c r="E23" s="101"/>
       <c r="F23" s="26"/>
       <c r="G23" s="31"/>
       <c r="H23" s="26"/>
-      <c r="I23" s="79"/>
-      <c r="J23" s="79"/>
-      <c r="K23" s="79"/>
-      <c r="L23" s="79"/>
-      <c r="M23" s="79"/>
-      <c r="N23" s="79"/>
-      <c r="O23" s="79"/>
-      <c r="P23" s="79"/>
-      <c r="Q23" s="79"/>
+      <c r="I23" s="94"/>
+      <c r="J23" s="94"/>
+      <c r="K23" s="94"/>
+      <c r="L23" s="94"/>
+      <c r="M23" s="94"/>
+      <c r="N23" s="94"/>
+      <c r="O23" s="94"/>
+      <c r="P23" s="94"/>
+      <c r="Q23" s="94"/>
       <c r="R23" s="26"/>
       <c r="S23" s="32"/>
     </row>
     <row r="24" spans="3:19" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="C24" s="84"/>
-      <c r="D24" s="85"/>
-      <c r="E24" s="86"/>
+      <c r="C24" s="99"/>
+      <c r="D24" s="100"/>
+      <c r="E24" s="101"/>
       <c r="F24" s="26"/>
       <c r="G24" s="31"/>
       <c r="H24" s="26"/>
-      <c r="I24" s="79"/>
-      <c r="J24" s="79"/>
-      <c r="K24" s="79"/>
-      <c r="L24" s="79"/>
-      <c r="M24" s="79"/>
-      <c r="N24" s="79"/>
-      <c r="O24" s="79"/>
-      <c r="P24" s="79"/>
-      <c r="Q24" s="79"/>
+      <c r="I24" s="94"/>
+      <c r="J24" s="94"/>
+      <c r="K24" s="94"/>
+      <c r="L24" s="94"/>
+      <c r="M24" s="94"/>
+      <c r="N24" s="94"/>
+      <c r="O24" s="94"/>
+      <c r="P24" s="94"/>
+      <c r="Q24" s="94"/>
       <c r="R24" s="26"/>
       <c r="S24" s="32"/>
     </row>
     <row r="25" spans="3:19" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="C25" s="87"/>
-      <c r="D25" s="88"/>
-      <c r="E25" s="89"/>
+      <c r="C25" s="102"/>
+      <c r="D25" s="103"/>
+      <c r="E25" s="104"/>
       <c r="F25" s="26"/>
       <c r="G25" s="31"/>
       <c r="H25" s="26"/>
-      <c r="I25" s="79"/>
-      <c r="J25" s="79"/>
-      <c r="K25" s="79"/>
-      <c r="L25" s="79"/>
-      <c r="M25" s="79"/>
-      <c r="N25" s="79"/>
-      <c r="O25" s="79"/>
-      <c r="P25" s="79"/>
-      <c r="Q25" s="79"/>
+      <c r="I25" s="94"/>
+      <c r="J25" s="94"/>
+      <c r="K25" s="94"/>
+      <c r="L25" s="94"/>
+      <c r="M25" s="94"/>
+      <c r="N25" s="94"/>
+      <c r="O25" s="94"/>
+      <c r="P25" s="94"/>
+      <c r="Q25" s="94"/>
       <c r="R25" s="26"/>
       <c r="S25" s="32"/>
     </row>
@@ -2957,11 +3358,11 @@
       <c r="S26" s="32"/>
     </row>
     <row r="27" spans="3:19" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="C27" s="78" t="s">
+      <c r="C27" s="93" t="s">
         <v>26</v>
       </c>
-      <c r="D27" s="79"/>
-      <c r="E27" s="79"/>
+      <c r="D27" s="94"/>
+      <c r="E27" s="94"/>
       <c r="F27" s="26"/>
       <c r="G27" s="33"/>
       <c r="H27" s="34"/>
@@ -3009,15 +3410,15 @@
       </c>
       <c r="H30" s="13"/>
       <c r="I30" s="26"/>
-      <c r="J30" s="91"/>
-      <c r="K30" s="92"/>
-      <c r="L30" s="92"/>
-      <c r="M30" s="92"/>
-      <c r="N30" s="92"/>
-      <c r="O30" s="92"/>
-      <c r="P30" s="92"/>
-      <c r="Q30" s="92"/>
-      <c r="R30" s="93"/>
+      <c r="J30" s="87"/>
+      <c r="K30" s="88"/>
+      <c r="L30" s="88"/>
+      <c r="M30" s="88"/>
+      <c r="N30" s="88"/>
+      <c r="O30" s="88"/>
+      <c r="P30" s="88"/>
+      <c r="Q30" s="88"/>
+      <c r="R30" s="89"/>
       <c r="S30" s="26"/>
     </row>
     <row r="31" spans="3:19" ht="26.25" x14ac:dyDescent="0.35">
@@ -3030,15 +3431,15 @@
       </c>
       <c r="H31" s="36"/>
       <c r="I31" s="26"/>
-      <c r="J31" s="91"/>
-      <c r="K31" s="92"/>
-      <c r="L31" s="92"/>
-      <c r="M31" s="92"/>
-      <c r="N31" s="92"/>
-      <c r="O31" s="92"/>
-      <c r="P31" s="92"/>
-      <c r="Q31" s="92"/>
-      <c r="R31" s="93"/>
+      <c r="J31" s="87"/>
+      <c r="K31" s="88"/>
+      <c r="L31" s="88"/>
+      <c r="M31" s="88"/>
+      <c r="N31" s="88"/>
+      <c r="O31" s="88"/>
+      <c r="P31" s="88"/>
+      <c r="Q31" s="88"/>
+      <c r="R31" s="89"/>
       <c r="S31" s="26"/>
     </row>
     <row r="32" spans="3:19" ht="26.25" x14ac:dyDescent="0.35">
@@ -3051,15 +3452,15 @@
       </c>
       <c r="H32" s="36"/>
       <c r="I32" s="26"/>
-      <c r="J32" s="91"/>
-      <c r="K32" s="92"/>
-      <c r="L32" s="92"/>
-      <c r="M32" s="92"/>
-      <c r="N32" s="92"/>
-      <c r="O32" s="92"/>
-      <c r="P32" s="92"/>
-      <c r="Q32" s="92"/>
-      <c r="R32" s="93"/>
+      <c r="J32" s="87"/>
+      <c r="K32" s="88"/>
+      <c r="L32" s="88"/>
+      <c r="M32" s="88"/>
+      <c r="N32" s="88"/>
+      <c r="O32" s="88"/>
+      <c r="P32" s="88"/>
+      <c r="Q32" s="88"/>
+      <c r="R32" s="89"/>
       <c r="S32" s="26"/>
     </row>
     <row r="33" spans="3:19" ht="26.25" x14ac:dyDescent="0.35">
@@ -3072,16 +3473,16 @@
       </c>
       <c r="H33" s="36"/>
       <c r="I33" s="26"/>
-      <c r="J33" s="91" t="s">
+      <c r="J33" s="87" t="s">
         <v>32</v>
       </c>
-      <c r="K33" s="92"/>
-      <c r="L33" s="92"/>
-      <c r="M33" s="92"/>
-      <c r="N33" s="92"/>
-      <c r="O33" s="92"/>
-      <c r="P33" s="92"/>
-      <c r="Q33" s="93"/>
+      <c r="K33" s="88"/>
+      <c r="L33" s="88"/>
+      <c r="M33" s="88"/>
+      <c r="N33" s="88"/>
+      <c r="O33" s="88"/>
+      <c r="P33" s="88"/>
+      <c r="Q33" s="89"/>
       <c r="R33" s="37" t="s">
         <v>31</v>
       </c>
@@ -3189,15 +3590,15 @@
       <c r="D40" s="16"/>
       <c r="E40" s="16"/>
       <c r="F40" s="16"/>
-      <c r="G40" s="56" t="s">
+      <c r="G40" s="57" t="s">
         <v>13</v>
       </c>
-      <c r="H40" s="56"/>
-      <c r="I40" s="56"/>
-      <c r="J40" s="56"/>
-      <c r="K40" s="56"/>
-      <c r="L40" s="56"/>
-      <c r="M40" s="56"/>
+      <c r="H40" s="57"/>
+      <c r="I40" s="57"/>
+      <c r="J40" s="57"/>
+      <c r="K40" s="57"/>
+      <c r="L40" s="57"/>
+      <c r="M40" s="57"/>
       <c r="N40" s="16"/>
       <c r="O40" s="16"/>
       <c r="P40" s="16"/>
@@ -3206,19 +3607,19 @@
       <c r="S40" s="17"/>
     </row>
     <row r="41" spans="3:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C41" s="65" t="s">
+      <c r="C41" s="66" t="s">
         <v>14</v>
       </c>
-      <c r="D41" s="66"/>
-      <c r="E41" s="66"/>
-      <c r="F41" s="66"/>
-      <c r="G41" s="57"/>
-      <c r="H41" s="57"/>
-      <c r="I41" s="57"/>
-      <c r="J41" s="57"/>
-      <c r="K41" s="57"/>
-      <c r="L41" s="57"/>
-      <c r="M41" s="57"/>
+      <c r="D41" s="67"/>
+      <c r="E41" s="67"/>
+      <c r="F41" s="67"/>
+      <c r="G41" s="58"/>
+      <c r="H41" s="58"/>
+      <c r="I41" s="58"/>
+      <c r="J41" s="58"/>
+      <c r="K41" s="58"/>
+      <c r="L41" s="58"/>
+      <c r="M41" s="58"/>
       <c r="N41" s="18"/>
       <c r="O41" s="18"/>
       <c r="P41" s="18"/>
@@ -3227,64 +3628,64 @@
       <c r="S41" s="19"/>
     </row>
     <row r="42" spans="3:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C42" s="67"/>
-      <c r="D42" s="66"/>
-      <c r="E42" s="66"/>
-      <c r="F42" s="66"/>
-      <c r="G42" s="57"/>
-      <c r="H42" s="57"/>
-      <c r="I42" s="57"/>
-      <c r="J42" s="57"/>
-      <c r="K42" s="57"/>
-      <c r="L42" s="57"/>
-      <c r="M42" s="57"/>
+      <c r="C42" s="68"/>
+      <c r="D42" s="67"/>
+      <c r="E42" s="67"/>
+      <c r="F42" s="67"/>
+      <c r="G42" s="58"/>
+      <c r="H42" s="58"/>
+      <c r="I42" s="58"/>
+      <c r="J42" s="58"/>
+      <c r="K42" s="58"/>
+      <c r="L42" s="58"/>
+      <c r="M42" s="58"/>
       <c r="N42" s="18"/>
-      <c r="O42" s="59" t="s">
+      <c r="O42" s="60" t="s">
         <v>3</v>
       </c>
-      <c r="P42" s="60"/>
+      <c r="P42" s="61"/>
       <c r="Q42" s="18"/>
       <c r="R42" s="19"/>
       <c r="S42" s="19"/>
     </row>
     <row r="43" spans="3:19" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C43" s="68" t="s">
+      <c r="C43" s="69" t="s">
         <v>11</v>
       </c>
-      <c r="D43" s="68"/>
-      <c r="E43" s="68"/>
-      <c r="F43" s="68"/>
-      <c r="G43" s="57"/>
-      <c r="H43" s="57"/>
-      <c r="I43" s="57"/>
-      <c r="J43" s="57"/>
-      <c r="K43" s="57"/>
-      <c r="L43" s="57"/>
-      <c r="M43" s="57"/>
+      <c r="D43" s="69"/>
+      <c r="E43" s="69"/>
+      <c r="F43" s="69"/>
+      <c r="G43" s="58"/>
+      <c r="H43" s="58"/>
+      <c r="I43" s="58"/>
+      <c r="J43" s="58"/>
+      <c r="K43" s="58"/>
+      <c r="L43" s="58"/>
+      <c r="M43" s="58"/>
       <c r="N43" s="18"/>
-      <c r="O43" s="61"/>
-      <c r="P43" s="62"/>
+      <c r="O43" s="62"/>
+      <c r="P43" s="63"/>
       <c r="Q43" s="18"/>
       <c r="R43" s="19"/>
       <c r="S43" s="19"/>
     </row>
     <row r="44" spans="3:19" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C44" s="68" t="s">
+      <c r="C44" s="69" t="s">
         <v>12</v>
       </c>
-      <c r="D44" s="68"/>
-      <c r="E44" s="68"/>
-      <c r="F44" s="68"/>
-      <c r="G44" s="57"/>
-      <c r="H44" s="57"/>
-      <c r="I44" s="57"/>
-      <c r="J44" s="57"/>
-      <c r="K44" s="57"/>
-      <c r="L44" s="57"/>
-      <c r="M44" s="57"/>
+      <c r="D44" s="69"/>
+      <c r="E44" s="69"/>
+      <c r="F44" s="69"/>
+      <c r="G44" s="58"/>
+      <c r="H44" s="58"/>
+      <c r="I44" s="58"/>
+      <c r="J44" s="58"/>
+      <c r="K44" s="58"/>
+      <c r="L44" s="58"/>
+      <c r="M44" s="58"/>
       <c r="N44" s="18"/>
-      <c r="O44" s="63"/>
-      <c r="P44" s="64"/>
+      <c r="O44" s="64"/>
+      <c r="P44" s="65"/>
       <c r="Q44" s="18"/>
       <c r="R44" s="19"/>
       <c r="S44" s="19"/>
@@ -3294,13 +3695,13 @@
       <c r="D45" s="21"/>
       <c r="E45" s="21"/>
       <c r="F45" s="21"/>
-      <c r="G45" s="58"/>
-      <c r="H45" s="58"/>
-      <c r="I45" s="58"/>
-      <c r="J45" s="58"/>
-      <c r="K45" s="58"/>
-      <c r="L45" s="58"/>
-      <c r="M45" s="58"/>
+      <c r="G45" s="59"/>
+      <c r="H45" s="59"/>
+      <c r="I45" s="59"/>
+      <c r="J45" s="59"/>
+      <c r="K45" s="59"/>
+      <c r="L45" s="59"/>
+      <c r="M45" s="59"/>
       <c r="N45" s="21"/>
       <c r="O45" s="21"/>
       <c r="P45" s="21"/>
@@ -3310,11 +3711,16 @@
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="J30:R30"/>
-    <mergeCell ref="J31:R31"/>
-    <mergeCell ref="J32:R32"/>
-    <mergeCell ref="J33:Q33"/>
-    <mergeCell ref="P35:R36"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="N1:Q1"/>
+    <mergeCell ref="R1:S1"/>
+    <mergeCell ref="C2:D8"/>
+    <mergeCell ref="E2:S8"/>
+    <mergeCell ref="G40:M45"/>
+    <mergeCell ref="C41:F42"/>
+    <mergeCell ref="O42:P44"/>
+    <mergeCell ref="C43:F43"/>
+    <mergeCell ref="C44:F44"/>
     <mergeCell ref="R16:S16"/>
     <mergeCell ref="H16:P16"/>
     <mergeCell ref="N11:R11"/>
@@ -3326,16 +3732,11 @@
     <mergeCell ref="E11:F11"/>
     <mergeCell ref="G11:H11"/>
     <mergeCell ref="I11:J11"/>
-    <mergeCell ref="G40:M45"/>
-    <mergeCell ref="C41:F42"/>
-    <mergeCell ref="O42:P44"/>
-    <mergeCell ref="C43:F43"/>
-    <mergeCell ref="C44:F44"/>
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="N1:Q1"/>
-    <mergeCell ref="R1:S1"/>
-    <mergeCell ref="C2:D8"/>
-    <mergeCell ref="E2:S8"/>
+    <mergeCell ref="J30:R30"/>
+    <mergeCell ref="J31:R31"/>
+    <mergeCell ref="J32:R32"/>
+    <mergeCell ref="J33:Q33"/>
+    <mergeCell ref="P35:R36"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3360,157 +3761,157 @@
   </cols>
   <sheetData>
     <row r="1" spans="3:19" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="L1" s="43" t="s">
+      <c r="L1" s="71" t="s">
         <v>2</v>
       </c>
-      <c r="M1" s="44"/>
-      <c r="N1" s="47" t="s">
+      <c r="M1" s="72"/>
+      <c r="N1" s="73" t="s">
         <v>10</v>
       </c>
-      <c r="O1" s="47"/>
-      <c r="P1" s="47"/>
-      <c r="Q1" s="47"/>
-      <c r="R1" s="42" t="s">
+      <c r="O1" s="73"/>
+      <c r="P1" s="73"/>
+      <c r="Q1" s="73"/>
+      <c r="R1" s="70" t="s">
         <v>4</v>
       </c>
-      <c r="S1" s="42"/>
+      <c r="S1" s="70"/>
     </row>
     <row r="2" spans="3:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C2" s="49" t="s">
+      <c r="C2" s="75" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="50"/>
-      <c r="E2" s="71" t="s">
+      <c r="D2" s="76"/>
+      <c r="E2" s="83" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="72"/>
-      <c r="G2" s="72"/>
-      <c r="H2" s="72"/>
-      <c r="I2" s="72"/>
-      <c r="J2" s="72"/>
-      <c r="K2" s="72"/>
-      <c r="L2" s="72"/>
-      <c r="M2" s="72"/>
-      <c r="N2" s="72"/>
-      <c r="O2" s="72"/>
-      <c r="P2" s="72"/>
-      <c r="Q2" s="72"/>
-      <c r="R2" s="72"/>
-      <c r="S2" s="72"/>
+      <c r="F2" s="84"/>
+      <c r="G2" s="84"/>
+      <c r="H2" s="84"/>
+      <c r="I2" s="84"/>
+      <c r="J2" s="84"/>
+      <c r="K2" s="84"/>
+      <c r="L2" s="84"/>
+      <c r="M2" s="84"/>
+      <c r="N2" s="84"/>
+      <c r="O2" s="84"/>
+      <c r="P2" s="84"/>
+      <c r="Q2" s="84"/>
+      <c r="R2" s="84"/>
+      <c r="S2" s="84"/>
     </row>
     <row r="3" spans="3:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C3" s="51"/>
-      <c r="D3" s="52"/>
-      <c r="E3" s="71"/>
-      <c r="F3" s="72"/>
-      <c r="G3" s="72"/>
-      <c r="H3" s="72"/>
-      <c r="I3" s="72"/>
-      <c r="J3" s="72"/>
-      <c r="K3" s="72"/>
-      <c r="L3" s="72"/>
-      <c r="M3" s="72"/>
-      <c r="N3" s="72"/>
-      <c r="O3" s="72"/>
-      <c r="P3" s="72"/>
-      <c r="Q3" s="72"/>
-      <c r="R3" s="72"/>
-      <c r="S3" s="72"/>
+      <c r="C3" s="77"/>
+      <c r="D3" s="78"/>
+      <c r="E3" s="83"/>
+      <c r="F3" s="84"/>
+      <c r="G3" s="84"/>
+      <c r="H3" s="84"/>
+      <c r="I3" s="84"/>
+      <c r="J3" s="84"/>
+      <c r="K3" s="84"/>
+      <c r="L3" s="84"/>
+      <c r="M3" s="84"/>
+      <c r="N3" s="84"/>
+      <c r="O3" s="84"/>
+      <c r="P3" s="84"/>
+      <c r="Q3" s="84"/>
+      <c r="R3" s="84"/>
+      <c r="S3" s="84"/>
     </row>
     <row r="4" spans="3:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C4" s="51"/>
-      <c r="D4" s="52"/>
-      <c r="E4" s="71"/>
-      <c r="F4" s="72"/>
-      <c r="G4" s="72"/>
-      <c r="H4" s="72"/>
-      <c r="I4" s="72"/>
-      <c r="J4" s="72"/>
-      <c r="K4" s="72"/>
-      <c r="L4" s="72"/>
-      <c r="M4" s="72"/>
-      <c r="N4" s="72"/>
-      <c r="O4" s="72"/>
-      <c r="P4" s="72"/>
-      <c r="Q4" s="72"/>
-      <c r="R4" s="72"/>
-      <c r="S4" s="72"/>
+      <c r="C4" s="77"/>
+      <c r="D4" s="78"/>
+      <c r="E4" s="83"/>
+      <c r="F4" s="84"/>
+      <c r="G4" s="84"/>
+      <c r="H4" s="84"/>
+      <c r="I4" s="84"/>
+      <c r="J4" s="84"/>
+      <c r="K4" s="84"/>
+      <c r="L4" s="84"/>
+      <c r="M4" s="84"/>
+      <c r="N4" s="84"/>
+      <c r="O4" s="84"/>
+      <c r="P4" s="84"/>
+      <c r="Q4" s="84"/>
+      <c r="R4" s="84"/>
+      <c r="S4" s="84"/>
     </row>
     <row r="5" spans="3:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C5" s="51"/>
-      <c r="D5" s="52"/>
-      <c r="E5" s="71"/>
-      <c r="F5" s="72"/>
-      <c r="G5" s="72"/>
-      <c r="H5" s="72"/>
-      <c r="I5" s="72"/>
-      <c r="J5" s="72"/>
-      <c r="K5" s="72"/>
-      <c r="L5" s="72"/>
-      <c r="M5" s="72"/>
-      <c r="N5" s="72"/>
-      <c r="O5" s="72"/>
-      <c r="P5" s="72"/>
-      <c r="Q5" s="72"/>
-      <c r="R5" s="72"/>
-      <c r="S5" s="72"/>
+      <c r="C5" s="77"/>
+      <c r="D5" s="78"/>
+      <c r="E5" s="83"/>
+      <c r="F5" s="84"/>
+      <c r="G5" s="84"/>
+      <c r="H5" s="84"/>
+      <c r="I5" s="84"/>
+      <c r="J5" s="84"/>
+      <c r="K5" s="84"/>
+      <c r="L5" s="84"/>
+      <c r="M5" s="84"/>
+      <c r="N5" s="84"/>
+      <c r="O5" s="84"/>
+      <c r="P5" s="84"/>
+      <c r="Q5" s="84"/>
+      <c r="R5" s="84"/>
+      <c r="S5" s="84"/>
     </row>
     <row r="6" spans="3:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C6" s="51"/>
-      <c r="D6" s="52"/>
-      <c r="E6" s="71"/>
-      <c r="F6" s="72"/>
-      <c r="G6" s="72"/>
-      <c r="H6" s="72"/>
-      <c r="I6" s="72"/>
-      <c r="J6" s="72"/>
-      <c r="K6" s="72"/>
-      <c r="L6" s="72"/>
-      <c r="M6" s="72"/>
-      <c r="N6" s="72"/>
-      <c r="O6" s="72"/>
-      <c r="P6" s="72"/>
-      <c r="Q6" s="72"/>
-      <c r="R6" s="72"/>
-      <c r="S6" s="72"/>
+      <c r="C6" s="77"/>
+      <c r="D6" s="78"/>
+      <c r="E6" s="83"/>
+      <c r="F6" s="84"/>
+      <c r="G6" s="84"/>
+      <c r="H6" s="84"/>
+      <c r="I6" s="84"/>
+      <c r="J6" s="84"/>
+      <c r="K6" s="84"/>
+      <c r="L6" s="84"/>
+      <c r="M6" s="84"/>
+      <c r="N6" s="84"/>
+      <c r="O6" s="84"/>
+      <c r="P6" s="84"/>
+      <c r="Q6" s="84"/>
+      <c r="R6" s="84"/>
+      <c r="S6" s="84"/>
     </row>
     <row r="7" spans="3:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C7" s="51"/>
-      <c r="D7" s="52"/>
-      <c r="E7" s="71"/>
-      <c r="F7" s="72"/>
-      <c r="G7" s="72"/>
-      <c r="H7" s="72"/>
-      <c r="I7" s="72"/>
-      <c r="J7" s="72"/>
-      <c r="K7" s="72"/>
-      <c r="L7" s="72"/>
-      <c r="M7" s="72"/>
-      <c r="N7" s="72"/>
-      <c r="O7" s="72"/>
-      <c r="P7" s="72"/>
-      <c r="Q7" s="72"/>
-      <c r="R7" s="72"/>
-      <c r="S7" s="72"/>
+      <c r="C7" s="77"/>
+      <c r="D7" s="78"/>
+      <c r="E7" s="83"/>
+      <c r="F7" s="84"/>
+      <c r="G7" s="84"/>
+      <c r="H7" s="84"/>
+      <c r="I7" s="84"/>
+      <c r="J7" s="84"/>
+      <c r="K7" s="84"/>
+      <c r="L7" s="84"/>
+      <c r="M7" s="84"/>
+      <c r="N7" s="84"/>
+      <c r="O7" s="84"/>
+      <c r="P7" s="84"/>
+      <c r="Q7" s="84"/>
+      <c r="R7" s="84"/>
+      <c r="S7" s="84"/>
     </row>
     <row r="8" spans="3:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C8" s="53"/>
-      <c r="D8" s="54"/>
-      <c r="E8" s="71"/>
-      <c r="F8" s="72"/>
-      <c r="G8" s="72"/>
-      <c r="H8" s="72"/>
-      <c r="I8" s="72"/>
-      <c r="J8" s="72"/>
-      <c r="K8" s="72"/>
-      <c r="L8" s="72"/>
-      <c r="M8" s="72"/>
-      <c r="N8" s="72"/>
-      <c r="O8" s="72"/>
-      <c r="P8" s="72"/>
-      <c r="Q8" s="72"/>
-      <c r="R8" s="72"/>
-      <c r="S8" s="72"/>
+      <c r="C8" s="79"/>
+      <c r="D8" s="80"/>
+      <c r="E8" s="83"/>
+      <c r="F8" s="84"/>
+      <c r="G8" s="84"/>
+      <c r="H8" s="84"/>
+      <c r="I8" s="84"/>
+      <c r="J8" s="84"/>
+      <c r="K8" s="84"/>
+      <c r="L8" s="84"/>
+      <c r="M8" s="84"/>
+      <c r="N8" s="84"/>
+      <c r="O8" s="84"/>
+      <c r="P8" s="84"/>
+      <c r="Q8" s="84"/>
+      <c r="R8" s="84"/>
+      <c r="S8" s="84"/>
     </row>
     <row r="11" spans="3:19" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C11" s="23" t="s">
@@ -3519,25 +3920,25 @@
       <c r="D11" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="E11" s="69" t="s">
+      <c r="E11" s="81" t="s">
         <v>9</v>
       </c>
-      <c r="F11" s="70"/>
-      <c r="G11" s="69" t="s">
+      <c r="F11" s="82"/>
+      <c r="G11" s="81" t="s">
         <v>15</v>
       </c>
-      <c r="H11" s="70"/>
-      <c r="I11" s="73" t="s">
+      <c r="H11" s="82"/>
+      <c r="I11" s="85" t="s">
         <v>20</v>
       </c>
-      <c r="J11" s="73"/>
-      <c r="N11" s="75" t="s">
+      <c r="J11" s="85"/>
+      <c r="N11" s="56" t="s">
         <v>23</v>
       </c>
-      <c r="O11" s="75"/>
-      <c r="P11" s="75"/>
-      <c r="Q11" s="75"/>
-      <c r="R11" s="75"/>
+      <c r="O11" s="56"/>
+      <c r="P11" s="56"/>
+      <c r="Q11" s="56"/>
+      <c r="R11" s="56"/>
       <c r="S11" s="27" t="s">
         <v>24</v>
       </c>
@@ -3567,10 +3968,10 @@
       <c r="S13" s="9"/>
     </row>
     <row r="14" spans="3:19" ht="31.5" x14ac:dyDescent="0.5">
-      <c r="C14" s="95" t="s">
+      <c r="C14" s="106" t="s">
         <v>33</v>
       </c>
-      <c r="D14" s="95"/>
+      <c r="D14" s="106"/>
       <c r="E14" s="10"/>
       <c r="F14" s="14"/>
       <c r="G14" s="14"/>
@@ -3607,18 +4008,18 @@
       <c r="S15" s="11"/>
     </row>
     <row r="16" spans="3:19" ht="31.5" x14ac:dyDescent="0.5">
-      <c r="C16" s="99" t="s">
+      <c r="C16" s="110" t="s">
         <v>34</v>
       </c>
-      <c r="D16" s="106" t="s">
+      <c r="D16" s="117" t="s">
         <v>35</v>
       </c>
-      <c r="E16" s="106"/>
-      <c r="F16" s="106"/>
-      <c r="G16" s="106"/>
-      <c r="H16" s="106"/>
-      <c r="I16" s="106"/>
-      <c r="J16" s="107"/>
+      <c r="E16" s="117"/>
+      <c r="F16" s="117"/>
+      <c r="G16" s="117"/>
+      <c r="H16" s="117"/>
+      <c r="I16" s="117"/>
+      <c r="J16" s="118"/>
       <c r="K16" s="10"/>
       <c r="L16" s="10"/>
       <c r="M16" s="10"/>
@@ -3630,7 +4031,7 @@
       <c r="S16" s="11"/>
     </row>
     <row r="17" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C17" s="100"/>
+      <c r="C17" s="111"/>
       <c r="D17" s="2"/>
       <c r="E17" s="2" t="s">
         <v>30</v>
@@ -3644,15 +4045,15 @@
       <c r="J17" s="3"/>
     </row>
     <row r="18" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C18" s="100"/>
+      <c r="C18" s="111"/>
       <c r="D18" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="E18" s="96" t="s">
+      <c r="E18" s="107" t="s">
         <v>32</v>
       </c>
-      <c r="F18" s="97"/>
-      <c r="G18" s="98"/>
+      <c r="F18" s="108"/>
+      <c r="G18" s="109"/>
       <c r="H18" s="40" t="s">
         <v>37</v>
       </c>
@@ -3664,7 +4065,7 @@
       </c>
     </row>
     <row r="19" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C19" s="101"/>
+      <c r="C19" s="112"/>
       <c r="D19" s="2" t="s">
         <v>41</v>
       </c>
@@ -3688,31 +4089,31 @@
       <c r="J20" s="6"/>
     </row>
     <row r="22" spans="3:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C22" s="99" t="s">
+      <c r="C22" s="110" t="s">
         <v>34</v>
       </c>
-      <c r="D22" s="102" t="s">
+      <c r="D22" s="113" t="s">
         <v>35</v>
       </c>
-      <c r="E22" s="102"/>
-      <c r="F22" s="102"/>
-      <c r="G22" s="102"/>
-      <c r="H22" s="102"/>
-      <c r="I22" s="102"/>
-      <c r="J22" s="103"/>
+      <c r="E22" s="113"/>
+      <c r="F22" s="113"/>
+      <c r="G22" s="113"/>
+      <c r="H22" s="113"/>
+      <c r="I22" s="113"/>
+      <c r="J22" s="114"/>
     </row>
     <row r="23" spans="3:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C23" s="100"/>
-      <c r="D23" s="104"/>
-      <c r="E23" s="104"/>
-      <c r="F23" s="104"/>
-      <c r="G23" s="104"/>
-      <c r="H23" s="104"/>
-      <c r="I23" s="104"/>
-      <c r="J23" s="105"/>
+      <c r="C23" s="111"/>
+      <c r="D23" s="115"/>
+      <c r="E23" s="115"/>
+      <c r="F23" s="115"/>
+      <c r="G23" s="115"/>
+      <c r="H23" s="115"/>
+      <c r="I23" s="115"/>
+      <c r="J23" s="116"/>
     </row>
     <row r="24" spans="3:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C24" s="100"/>
+      <c r="C24" s="111"/>
       <c r="D24" s="2" t="s">
         <v>36</v>
       </c>
@@ -3728,15 +4129,15 @@
       <c r="J24" s="3"/>
     </row>
     <row r="25" spans="3:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C25" s="101"/>
+      <c r="C25" s="112"/>
       <c r="D25" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="E25" s="96" t="s">
+      <c r="E25" s="107" t="s">
         <v>45</v>
       </c>
-      <c r="F25" s="97"/>
-      <c r="G25" s="98"/>
+      <c r="F25" s="108"/>
+      <c r="G25" s="109"/>
       <c r="H25" s="40" t="s">
         <v>37</v>
       </c>
@@ -3758,31 +4159,31 @@
       <c r="J26" s="6"/>
     </row>
     <row r="28" spans="3:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C28" s="99" t="s">
+      <c r="C28" s="110" t="s">
         <v>34</v>
       </c>
-      <c r="D28" s="102" t="s">
+      <c r="D28" s="113" t="s">
         <v>48</v>
       </c>
-      <c r="E28" s="102"/>
-      <c r="F28" s="102"/>
-      <c r="G28" s="102"/>
-      <c r="H28" s="102"/>
-      <c r="I28" s="102"/>
-      <c r="J28" s="103"/>
+      <c r="E28" s="113"/>
+      <c r="F28" s="113"/>
+      <c r="G28" s="113"/>
+      <c r="H28" s="113"/>
+      <c r="I28" s="113"/>
+      <c r="J28" s="114"/>
     </row>
     <row r="29" spans="3:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C29" s="100"/>
-      <c r="D29" s="104"/>
-      <c r="E29" s="104"/>
-      <c r="F29" s="104"/>
-      <c r="G29" s="104"/>
-      <c r="H29" s="104"/>
-      <c r="I29" s="104"/>
-      <c r="J29" s="105"/>
+      <c r="C29" s="111"/>
+      <c r="D29" s="115"/>
+      <c r="E29" s="115"/>
+      <c r="F29" s="115"/>
+      <c r="G29" s="115"/>
+      <c r="H29" s="115"/>
+      <c r="I29" s="115"/>
+      <c r="J29" s="116"/>
     </row>
     <row r="30" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C30" s="100"/>
+      <c r="C30" s="111"/>
       <c r="D30" s="2" t="s">
         <v>36</v>
       </c>
@@ -3798,15 +4199,15 @@
       <c r="J30" s="3"/>
     </row>
     <row r="31" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C31" s="101"/>
+      <c r="C31" s="112"/>
       <c r="D31" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="E31" s="96" t="s">
+      <c r="E31" s="107" t="s">
         <v>46</v>
       </c>
-      <c r="F31" s="97"/>
-      <c r="G31" s="98"/>
+      <c r="F31" s="108"/>
+      <c r="G31" s="109"/>
       <c r="H31" s="40" t="s">
         <v>37</v>
       </c>
@@ -3837,30 +4238,30 @@
       <c r="J34" s="39"/>
     </row>
     <row r="35" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C35" s="94" t="s">
+      <c r="C35" s="105" t="s">
         <v>44</v>
       </c>
-      <c r="E35" s="94" t="s">
+      <c r="E35" s="105" t="s">
         <v>42</v>
       </c>
-      <c r="F35" s="94"/>
-      <c r="H35" s="94" t="s">
+      <c r="F35" s="105"/>
+      <c r="H35" s="105" t="s">
         <v>43</v>
       </c>
-      <c r="I35" s="94"/>
-      <c r="J35" s="94"/>
+      <c r="I35" s="105"/>
+      <c r="J35" s="105"/>
     </row>
     <row r="36" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C36" s="94"/>
-      <c r="E36" s="94"/>
-      <c r="F36" s="94"/>
-      <c r="H36" s="94"/>
-      <c r="I36" s="94"/>
-      <c r="J36" s="94"/>
+      <c r="C36" s="105"/>
+      <c r="E36" s="105"/>
+      <c r="F36" s="105"/>
+      <c r="H36" s="105"/>
+      <c r="I36" s="105"/>
+      <c r="J36" s="105"/>
     </row>
     <row r="38" spans="3:19" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="C38" s="48"/>
-      <c r="D38" s="48"/>
+      <c r="C38" s="74"/>
+      <c r="D38" s="74"/>
       <c r="E38" s="10"/>
       <c r="F38" s="14"/>
       <c r="G38" s="14"/>
@@ -3920,15 +4321,15 @@
       <c r="D42" s="16"/>
       <c r="E42" s="16"/>
       <c r="F42" s="16"/>
-      <c r="G42" s="56" t="s">
+      <c r="G42" s="57" t="s">
         <v>13</v>
       </c>
-      <c r="H42" s="56"/>
-      <c r="I42" s="56"/>
-      <c r="J42" s="56"/>
-      <c r="K42" s="56"/>
-      <c r="L42" s="56"/>
-      <c r="M42" s="56"/>
+      <c r="H42" s="57"/>
+      <c r="I42" s="57"/>
+      <c r="J42" s="57"/>
+      <c r="K42" s="57"/>
+      <c r="L42" s="57"/>
+      <c r="M42" s="57"/>
       <c r="N42" s="16"/>
       <c r="O42" s="16"/>
       <c r="P42" s="16"/>
@@ -3937,19 +4338,19 @@
       <c r="S42" s="17"/>
     </row>
     <row r="43" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C43" s="65" t="s">
+      <c r="C43" s="66" t="s">
         <v>14</v>
       </c>
-      <c r="D43" s="66"/>
-      <c r="E43" s="66"/>
-      <c r="F43" s="66"/>
-      <c r="G43" s="57"/>
-      <c r="H43" s="57"/>
-      <c r="I43" s="57"/>
-      <c r="J43" s="57"/>
-      <c r="K43" s="57"/>
-      <c r="L43" s="57"/>
-      <c r="M43" s="57"/>
+      <c r="D43" s="67"/>
+      <c r="E43" s="67"/>
+      <c r="F43" s="67"/>
+      <c r="G43" s="58"/>
+      <c r="H43" s="58"/>
+      <c r="I43" s="58"/>
+      <c r="J43" s="58"/>
+      <c r="K43" s="58"/>
+      <c r="L43" s="58"/>
+      <c r="M43" s="58"/>
       <c r="N43" s="18"/>
       <c r="O43" s="18"/>
       <c r="P43" s="18"/>
@@ -3958,64 +4359,64 @@
       <c r="S43" s="19"/>
     </row>
     <row r="44" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C44" s="67"/>
-      <c r="D44" s="66"/>
-      <c r="E44" s="66"/>
-      <c r="F44" s="66"/>
-      <c r="G44" s="57"/>
-      <c r="H44" s="57"/>
-      <c r="I44" s="57"/>
-      <c r="J44" s="57"/>
-      <c r="K44" s="57"/>
-      <c r="L44" s="57"/>
-      <c r="M44" s="57"/>
+      <c r="C44" s="68"/>
+      <c r="D44" s="67"/>
+      <c r="E44" s="67"/>
+      <c r="F44" s="67"/>
+      <c r="G44" s="58"/>
+      <c r="H44" s="58"/>
+      <c r="I44" s="58"/>
+      <c r="J44" s="58"/>
+      <c r="K44" s="58"/>
+      <c r="L44" s="58"/>
+      <c r="M44" s="58"/>
       <c r="N44" s="18"/>
-      <c r="O44" s="59" t="s">
+      <c r="O44" s="60" t="s">
         <v>3</v>
       </c>
-      <c r="P44" s="60"/>
+      <c r="P44" s="61"/>
       <c r="Q44" s="18"/>
       <c r="R44" s="19"/>
       <c r="S44" s="19"/>
     </row>
     <row r="45" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C45" s="68" t="s">
+      <c r="C45" s="69" t="s">
         <v>11</v>
       </c>
-      <c r="D45" s="68"/>
-      <c r="E45" s="68"/>
-      <c r="F45" s="68"/>
-      <c r="G45" s="57"/>
-      <c r="H45" s="57"/>
-      <c r="I45" s="57"/>
-      <c r="J45" s="57"/>
-      <c r="K45" s="57"/>
-      <c r="L45" s="57"/>
-      <c r="M45" s="57"/>
+      <c r="D45" s="69"/>
+      <c r="E45" s="69"/>
+      <c r="F45" s="69"/>
+      <c r="G45" s="58"/>
+      <c r="H45" s="58"/>
+      <c r="I45" s="58"/>
+      <c r="J45" s="58"/>
+      <c r="K45" s="58"/>
+      <c r="L45" s="58"/>
+      <c r="M45" s="58"/>
       <c r="N45" s="18"/>
-      <c r="O45" s="61"/>
-      <c r="P45" s="62"/>
+      <c r="O45" s="62"/>
+      <c r="P45" s="63"/>
       <c r="Q45" s="18"/>
       <c r="R45" s="19"/>
       <c r="S45" s="19"/>
     </row>
     <row r="46" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C46" s="68" t="s">
+      <c r="C46" s="69" t="s">
         <v>12</v>
       </c>
-      <c r="D46" s="68"/>
-      <c r="E46" s="68"/>
-      <c r="F46" s="68"/>
-      <c r="G46" s="57"/>
-      <c r="H46" s="57"/>
-      <c r="I46" s="57"/>
-      <c r="J46" s="57"/>
-      <c r="K46" s="57"/>
-      <c r="L46" s="57"/>
-      <c r="M46" s="57"/>
+      <c r="D46" s="69"/>
+      <c r="E46" s="69"/>
+      <c r="F46" s="69"/>
+      <c r="G46" s="58"/>
+      <c r="H46" s="58"/>
+      <c r="I46" s="58"/>
+      <c r="J46" s="58"/>
+      <c r="K46" s="58"/>
+      <c r="L46" s="58"/>
+      <c r="M46" s="58"/>
       <c r="N46" s="18"/>
-      <c r="O46" s="63"/>
-      <c r="P46" s="64"/>
+      <c r="O46" s="64"/>
+      <c r="P46" s="65"/>
       <c r="Q46" s="18"/>
       <c r="R46" s="19"/>
       <c r="S46" s="19"/>
@@ -4025,13 +4426,13 @@
       <c r="D47" s="21"/>
       <c r="E47" s="21"/>
       <c r="F47" s="21"/>
-      <c r="G47" s="58"/>
-      <c r="H47" s="58"/>
-      <c r="I47" s="58"/>
-      <c r="J47" s="58"/>
-      <c r="K47" s="58"/>
-      <c r="L47" s="58"/>
-      <c r="M47" s="58"/>
+      <c r="G47" s="59"/>
+      <c r="H47" s="59"/>
+      <c r="I47" s="59"/>
+      <c r="J47" s="59"/>
+      <c r="K47" s="59"/>
+      <c r="L47" s="59"/>
+      <c r="M47" s="59"/>
       <c r="N47" s="21"/>
       <c r="O47" s="21"/>
       <c r="P47" s="21"/>
@@ -4041,12 +4442,12 @@
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="G42:M47"/>
-    <mergeCell ref="C43:F44"/>
-    <mergeCell ref="O44:P46"/>
-    <mergeCell ref="C45:F45"/>
-    <mergeCell ref="C46:F46"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="N11:R11"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="N1:Q1"/>
+    <mergeCell ref="R1:S1"/>
     <mergeCell ref="C2:D8"/>
     <mergeCell ref="E2:S8"/>
     <mergeCell ref="C35:C36"/>
@@ -4063,12 +4464,12 @@
     <mergeCell ref="C22:C25"/>
     <mergeCell ref="E25:G25"/>
     <mergeCell ref="E11:F11"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="N11:R11"/>
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="N1:Q1"/>
-    <mergeCell ref="R1:S1"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="G42:M47"/>
+    <mergeCell ref="C43:F44"/>
+    <mergeCell ref="O44:P46"/>
+    <mergeCell ref="C45:F45"/>
+    <mergeCell ref="C46:F46"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4079,8 +4480,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C1:S43"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="P20" sqref="P20"/>
+    <sheetView topLeftCell="A10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I32" sqref="I32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4093,157 +4494,157 @@
   </cols>
   <sheetData>
     <row r="1" spans="3:19" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="L1" s="43" t="s">
+      <c r="L1" s="71" t="s">
         <v>2</v>
       </c>
-      <c r="M1" s="44"/>
-      <c r="N1" s="47" t="s">
+      <c r="M1" s="72"/>
+      <c r="N1" s="73" t="s">
         <v>10</v>
       </c>
-      <c r="O1" s="47"/>
-      <c r="P1" s="47"/>
-      <c r="Q1" s="47"/>
-      <c r="R1" s="42" t="s">
+      <c r="O1" s="73"/>
+      <c r="P1" s="73"/>
+      <c r="Q1" s="73"/>
+      <c r="R1" s="70" t="s">
         <v>4</v>
       </c>
-      <c r="S1" s="42"/>
+      <c r="S1" s="70"/>
     </row>
     <row r="2" spans="3:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C2" s="49" t="s">
+      <c r="C2" s="75" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="50"/>
-      <c r="E2" s="71" t="s">
+      <c r="D2" s="76"/>
+      <c r="E2" s="83" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="72"/>
-      <c r="G2" s="72"/>
-      <c r="H2" s="72"/>
-      <c r="I2" s="72"/>
-      <c r="J2" s="72"/>
-      <c r="K2" s="72"/>
-      <c r="L2" s="72"/>
-      <c r="M2" s="72"/>
-      <c r="N2" s="72"/>
-      <c r="O2" s="72"/>
-      <c r="P2" s="72"/>
-      <c r="Q2" s="72"/>
-      <c r="R2" s="72"/>
-      <c r="S2" s="72"/>
+      <c r="F2" s="84"/>
+      <c r="G2" s="84"/>
+      <c r="H2" s="84"/>
+      <c r="I2" s="84"/>
+      <c r="J2" s="84"/>
+      <c r="K2" s="84"/>
+      <c r="L2" s="84"/>
+      <c r="M2" s="84"/>
+      <c r="N2" s="84"/>
+      <c r="O2" s="84"/>
+      <c r="P2" s="84"/>
+      <c r="Q2" s="84"/>
+      <c r="R2" s="84"/>
+      <c r="S2" s="84"/>
     </row>
     <row r="3" spans="3:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C3" s="51"/>
-      <c r="D3" s="52"/>
-      <c r="E3" s="71"/>
-      <c r="F3" s="72"/>
-      <c r="G3" s="72"/>
-      <c r="H3" s="72"/>
-      <c r="I3" s="72"/>
-      <c r="J3" s="72"/>
-      <c r="K3" s="72"/>
-      <c r="L3" s="72"/>
-      <c r="M3" s="72"/>
-      <c r="N3" s="72"/>
-      <c r="O3" s="72"/>
-      <c r="P3" s="72"/>
-      <c r="Q3" s="72"/>
-      <c r="R3" s="72"/>
-      <c r="S3" s="72"/>
+      <c r="C3" s="77"/>
+      <c r="D3" s="78"/>
+      <c r="E3" s="83"/>
+      <c r="F3" s="84"/>
+      <c r="G3" s="84"/>
+      <c r="H3" s="84"/>
+      <c r="I3" s="84"/>
+      <c r="J3" s="84"/>
+      <c r="K3" s="84"/>
+      <c r="L3" s="84"/>
+      <c r="M3" s="84"/>
+      <c r="N3" s="84"/>
+      <c r="O3" s="84"/>
+      <c r="P3" s="84"/>
+      <c r="Q3" s="84"/>
+      <c r="R3" s="84"/>
+      <c r="S3" s="84"/>
     </row>
     <row r="4" spans="3:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C4" s="51"/>
-      <c r="D4" s="52"/>
-      <c r="E4" s="71"/>
-      <c r="F4" s="72"/>
-      <c r="G4" s="72"/>
-      <c r="H4" s="72"/>
-      <c r="I4" s="72"/>
-      <c r="J4" s="72"/>
-      <c r="K4" s="72"/>
-      <c r="L4" s="72"/>
-      <c r="M4" s="72"/>
-      <c r="N4" s="72"/>
-      <c r="O4" s="72"/>
-      <c r="P4" s="72"/>
-      <c r="Q4" s="72"/>
-      <c r="R4" s="72"/>
-      <c r="S4" s="72"/>
+      <c r="C4" s="77"/>
+      <c r="D4" s="78"/>
+      <c r="E4" s="83"/>
+      <c r="F4" s="84"/>
+      <c r="G4" s="84"/>
+      <c r="H4" s="84"/>
+      <c r="I4" s="84"/>
+      <c r="J4" s="84"/>
+      <c r="K4" s="84"/>
+      <c r="L4" s="84"/>
+      <c r="M4" s="84"/>
+      <c r="N4" s="84"/>
+      <c r="O4" s="84"/>
+      <c r="P4" s="84"/>
+      <c r="Q4" s="84"/>
+      <c r="R4" s="84"/>
+      <c r="S4" s="84"/>
     </row>
     <row r="5" spans="3:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C5" s="51"/>
-      <c r="D5" s="52"/>
-      <c r="E5" s="71"/>
-      <c r="F5" s="72"/>
-      <c r="G5" s="72"/>
-      <c r="H5" s="72"/>
-      <c r="I5" s="72"/>
-      <c r="J5" s="72"/>
-      <c r="K5" s="72"/>
-      <c r="L5" s="72"/>
-      <c r="M5" s="72"/>
-      <c r="N5" s="72"/>
-      <c r="O5" s="72"/>
-      <c r="P5" s="72"/>
-      <c r="Q5" s="72"/>
-      <c r="R5" s="72"/>
-      <c r="S5" s="72"/>
+      <c r="C5" s="77"/>
+      <c r="D5" s="78"/>
+      <c r="E5" s="83"/>
+      <c r="F5" s="84"/>
+      <c r="G5" s="84"/>
+      <c r="H5" s="84"/>
+      <c r="I5" s="84"/>
+      <c r="J5" s="84"/>
+      <c r="K5" s="84"/>
+      <c r="L5" s="84"/>
+      <c r="M5" s="84"/>
+      <c r="N5" s="84"/>
+      <c r="O5" s="84"/>
+      <c r="P5" s="84"/>
+      <c r="Q5" s="84"/>
+      <c r="R5" s="84"/>
+      <c r="S5" s="84"/>
     </row>
     <row r="6" spans="3:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C6" s="51"/>
-      <c r="D6" s="52"/>
-      <c r="E6" s="71"/>
-      <c r="F6" s="72"/>
-      <c r="G6" s="72"/>
-      <c r="H6" s="72"/>
-      <c r="I6" s="72"/>
-      <c r="J6" s="72"/>
-      <c r="K6" s="72"/>
-      <c r="L6" s="72"/>
-      <c r="M6" s="72"/>
-      <c r="N6" s="72"/>
-      <c r="O6" s="72"/>
-      <c r="P6" s="72"/>
-      <c r="Q6" s="72"/>
-      <c r="R6" s="72"/>
-      <c r="S6" s="72"/>
+      <c r="C6" s="77"/>
+      <c r="D6" s="78"/>
+      <c r="E6" s="83"/>
+      <c r="F6" s="84"/>
+      <c r="G6" s="84"/>
+      <c r="H6" s="84"/>
+      <c r="I6" s="84"/>
+      <c r="J6" s="84"/>
+      <c r="K6" s="84"/>
+      <c r="L6" s="84"/>
+      <c r="M6" s="84"/>
+      <c r="N6" s="84"/>
+      <c r="O6" s="84"/>
+      <c r="P6" s="84"/>
+      <c r="Q6" s="84"/>
+      <c r="R6" s="84"/>
+      <c r="S6" s="84"/>
     </row>
     <row r="7" spans="3:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C7" s="51"/>
-      <c r="D7" s="52"/>
-      <c r="E7" s="71"/>
-      <c r="F7" s="72"/>
-      <c r="G7" s="72"/>
-      <c r="H7" s="72"/>
-      <c r="I7" s="72"/>
-      <c r="J7" s="72"/>
-      <c r="K7" s="72"/>
-      <c r="L7" s="72"/>
-      <c r="M7" s="72"/>
-      <c r="N7" s="72"/>
-      <c r="O7" s="72"/>
-      <c r="P7" s="72"/>
-      <c r="Q7" s="72"/>
-      <c r="R7" s="72"/>
-      <c r="S7" s="72"/>
+      <c r="C7" s="77"/>
+      <c r="D7" s="78"/>
+      <c r="E7" s="83"/>
+      <c r="F7" s="84"/>
+      <c r="G7" s="84"/>
+      <c r="H7" s="84"/>
+      <c r="I7" s="84"/>
+      <c r="J7" s="84"/>
+      <c r="K7" s="84"/>
+      <c r="L7" s="84"/>
+      <c r="M7" s="84"/>
+      <c r="N7" s="84"/>
+      <c r="O7" s="84"/>
+      <c r="P7" s="84"/>
+      <c r="Q7" s="84"/>
+      <c r="R7" s="84"/>
+      <c r="S7" s="84"/>
     </row>
     <row r="8" spans="3:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C8" s="53"/>
-      <c r="D8" s="54"/>
-      <c r="E8" s="71"/>
-      <c r="F8" s="72"/>
-      <c r="G8" s="72"/>
-      <c r="H8" s="72"/>
-      <c r="I8" s="72"/>
-      <c r="J8" s="72"/>
-      <c r="K8" s="72"/>
-      <c r="L8" s="72"/>
-      <c r="M8" s="72"/>
-      <c r="N8" s="72"/>
-      <c r="O8" s="72"/>
-      <c r="P8" s="72"/>
-      <c r="Q8" s="72"/>
-      <c r="R8" s="72"/>
-      <c r="S8" s="72"/>
+      <c r="C8" s="79"/>
+      <c r="D8" s="80"/>
+      <c r="E8" s="83"/>
+      <c r="F8" s="84"/>
+      <c r="G8" s="84"/>
+      <c r="H8" s="84"/>
+      <c r="I8" s="84"/>
+      <c r="J8" s="84"/>
+      <c r="K8" s="84"/>
+      <c r="L8" s="84"/>
+      <c r="M8" s="84"/>
+      <c r="N8" s="84"/>
+      <c r="O8" s="84"/>
+      <c r="P8" s="84"/>
+      <c r="Q8" s="84"/>
+      <c r="R8" s="84"/>
+      <c r="S8" s="84"/>
     </row>
     <row r="11" spans="3:19" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C11" s="23" t="s">
@@ -4252,25 +4653,25 @@
       <c r="D11" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="E11" s="69" t="s">
+      <c r="E11" s="81" t="s">
         <v>9</v>
       </c>
-      <c r="F11" s="70"/>
-      <c r="G11" s="69" t="s">
+      <c r="F11" s="82"/>
+      <c r="G11" s="81" t="s">
         <v>15</v>
       </c>
-      <c r="H11" s="70"/>
-      <c r="I11" s="73" t="s">
+      <c r="H11" s="82"/>
+      <c r="I11" s="85" t="s">
         <v>20</v>
       </c>
-      <c r="J11" s="73"/>
-      <c r="N11" s="75" t="s">
+      <c r="J11" s="85"/>
+      <c r="N11" s="56" t="s">
         <v>23</v>
       </c>
-      <c r="O11" s="75"/>
-      <c r="P11" s="75"/>
-      <c r="Q11" s="75"/>
-      <c r="R11" s="75"/>
+      <c r="O11" s="56"/>
+      <c r="P11" s="56"/>
+      <c r="Q11" s="56"/>
+      <c r="R11" s="56"/>
       <c r="S11" s="27" t="s">
         <v>24</v>
       </c>
@@ -4281,10 +4682,10 @@
       <c r="E12" s="2"/>
     </row>
     <row r="13" spans="3:19" ht="31.5" x14ac:dyDescent="0.5">
-      <c r="C13" s="95" t="s">
+      <c r="C13" s="106" t="s">
         <v>49</v>
       </c>
-      <c r="D13" s="95"/>
+      <c r="D13" s="106"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
@@ -4319,17 +4720,17 @@
       <c r="S14" s="11"/>
     </row>
     <row r="15" spans="3:19" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="C15" s="115" t="s">
+      <c r="C15" s="125" t="s">
         <v>51</v>
       </c>
-      <c r="D15" s="115"/>
-      <c r="E15" s="116" t="s">
+      <c r="D15" s="125"/>
+      <c r="E15" s="127" t="s">
         <v>50</v>
       </c>
-      <c r="F15" s="116"/>
-      <c r="G15" s="116"/>
-      <c r="H15" s="116"/>
-      <c r="I15" s="114"/>
+      <c r="F15" s="127"/>
+      <c r="G15" s="127"/>
+      <c r="H15" s="127"/>
+      <c r="I15" s="49"/>
       <c r="J15" s="10"/>
       <c r="K15" s="10"/>
       <c r="L15" s="10"/>
@@ -4342,12 +4743,12 @@
       <c r="S15" s="11"/>
     </row>
     <row r="16" spans="3:19" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="C16" s="120"/>
-      <c r="D16" s="120"/>
-      <c r="E16" s="121"/>
-      <c r="F16" s="121"/>
-      <c r="G16" s="121"/>
-      <c r="H16" s="121"/>
+      <c r="C16" s="126"/>
+      <c r="D16" s="126"/>
+      <c r="E16" s="128"/>
+      <c r="F16" s="128"/>
+      <c r="G16" s="128"/>
+      <c r="H16" s="128"/>
       <c r="I16" s="10"/>
       <c r="J16" s="10"/>
       <c r="K16" s="10"/>
@@ -4361,19 +4762,19 @@
       <c r="S16" s="11"/>
     </row>
     <row r="17" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C17" s="108"/>
+      <c r="C17" s="43"/>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
-      <c r="J17" s="109"/>
+      <c r="J17" s="44"/>
       <c r="K17" s="2"/>
       <c r="L17" s="2"/>
     </row>
     <row r="18" spans="3:12" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="C18" s="117" t="s">
+      <c r="C18" s="50" t="s">
         <v>54</v>
       </c>
       <c r="D18" s="2"/>
@@ -4382,40 +4783,40 @@
       <c r="G18" s="2"/>
       <c r="H18" s="2"/>
       <c r="I18" s="2"/>
-      <c r="J18" s="111"/>
+      <c r="J18" s="46"/>
       <c r="K18" s="2"/>
       <c r="L18" s="2"/>
     </row>
     <row r="19" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C19" s="110"/>
+      <c r="C19" s="45"/>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
       <c r="H19" s="2"/>
       <c r="I19" s="2"/>
-      <c r="J19" s="111"/>
+      <c r="J19" s="46"/>
       <c r="K19" s="2"/>
       <c r="L19" s="2"/>
     </row>
     <row r="20" spans="3:12" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="C20" s="118" t="s">
+      <c r="C20" s="51" t="s">
         <v>57</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
-      <c r="H20" s="119" t="s">
+      <c r="H20" s="52" t="s">
         <v>55</v>
       </c>
       <c r="I20" s="2"/>
-      <c r="J20" s="111"/>
+      <c r="J20" s="46"/>
       <c r="K20" s="2"/>
       <c r="L20" s="2"/>
     </row>
     <row r="21" spans="3:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C21" s="110"/>
+      <c r="C21" s="45"/>
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
@@ -4423,10 +4824,10 @@
       <c r="L21" s="2"/>
     </row>
     <row r="22" spans="3:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C22" s="112"/>
-      <c r="D22" s="113"/>
-      <c r="E22" s="113"/>
-      <c r="F22" s="113"/>
+      <c r="C22" s="47"/>
+      <c r="D22" s="48"/>
+      <c r="E22" s="48"/>
+      <c r="F22" s="48"/>
       <c r="K22" s="2"/>
       <c r="L22" s="2"/>
     </row>
@@ -4435,12 +4836,12 @@
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
-      <c r="G23" s="122" t="s">
+      <c r="G23" s="119" t="s">
         <v>56</v>
       </c>
-      <c r="H23" s="123"/>
-      <c r="I23" s="123"/>
-      <c r="J23" s="124"/>
+      <c r="H23" s="120"/>
+      <c r="I23" s="120"/>
+      <c r="J23" s="121"/>
       <c r="K23" s="2"/>
       <c r="L23" s="2"/>
     </row>
@@ -4449,10 +4850,10 @@
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
       <c r="F24" s="2"/>
-      <c r="G24" s="125"/>
-      <c r="H24" s="126"/>
-      <c r="I24" s="126"/>
-      <c r="J24" s="127"/>
+      <c r="G24" s="122"/>
+      <c r="H24" s="123"/>
+      <c r="I24" s="123"/>
+      <c r="J24" s="124"/>
       <c r="K24" s="2"/>
       <c r="L24" s="2"/>
     </row>
@@ -4505,59 +4906,78 @@
       <c r="L28" s="2"/>
     </row>
     <row r="36" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C36" s="4"/>
-      <c r="D36" s="5"/>
-      <c r="E36" s="5"/>
-      <c r="F36" s="5"/>
-      <c r="G36" s="5"/>
-      <c r="H36" s="5"/>
-      <c r="I36" s="5"/>
-      <c r="J36" s="5"/>
-      <c r="K36" s="5"/>
-      <c r="L36" s="5"/>
-      <c r="M36" s="5"/>
-      <c r="N36" s="5"/>
-      <c r="O36" s="5"/>
-      <c r="P36" s="5"/>
-      <c r="Q36" s="5"/>
-      <c r="R36" s="6"/>
-      <c r="S36" s="6"/>
+      <c r="C36" s="129"/>
+      <c r="D36" s="2"/>
+      <c r="E36" s="2"/>
+      <c r="F36" s="2"/>
+      <c r="G36" s="2"/>
+      <c r="H36" s="2"/>
+      <c r="I36" s="2"/>
+      <c r="J36" s="2"/>
+      <c r="K36" s="2"/>
+      <c r="L36" s="2"/>
+      <c r="M36" s="2"/>
+      <c r="N36" s="2"/>
+      <c r="O36" s="2"/>
+      <c r="P36" s="2"/>
+      <c r="Q36" s="2"/>
+      <c r="R36" s="3"/>
+      <c r="S36" s="3"/>
+    </row>
+    <row r="37" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="C37" s="132"/>
+      <c r="D37" s="131"/>
+      <c r="E37" s="131"/>
+      <c r="F37" s="131"/>
+      <c r="G37" s="131"/>
+      <c r="H37" s="131"/>
+      <c r="I37" s="131"/>
+      <c r="J37" s="131"/>
+      <c r="K37" s="131"/>
+      <c r="L37" s="131"/>
+      <c r="M37" s="131"/>
+      <c r="N37" s="131"/>
+      <c r="O37" s="131"/>
+      <c r="P37" s="131"/>
+      <c r="Q37" s="131"/>
+      <c r="R37" s="131"/>
+      <c r="S37" s="133"/>
     </row>
     <row r="38" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C38" s="15"/>
-      <c r="D38" s="16"/>
-      <c r="E38" s="16"/>
-      <c r="F38" s="16"/>
-      <c r="G38" s="56" t="s">
+      <c r="C38" s="130"/>
+      <c r="D38" s="18"/>
+      <c r="E38" s="18"/>
+      <c r="F38" s="18"/>
+      <c r="G38" s="58" t="s">
         <v>13</v>
       </c>
-      <c r="H38" s="56"/>
-      <c r="I38" s="56"/>
-      <c r="J38" s="56"/>
-      <c r="K38" s="56"/>
-      <c r="L38" s="56"/>
-      <c r="M38" s="56"/>
-      <c r="N38" s="16"/>
-      <c r="O38" s="16"/>
-      <c r="P38" s="16"/>
-      <c r="Q38" s="16"/>
-      <c r="R38" s="17"/>
-      <c r="S38" s="17"/>
+      <c r="H38" s="58"/>
+      <c r="I38" s="58"/>
+      <c r="J38" s="58"/>
+      <c r="K38" s="58"/>
+      <c r="L38" s="58"/>
+      <c r="M38" s="58"/>
+      <c r="N38" s="18"/>
+      <c r="O38" s="18"/>
+      <c r="P38" s="18"/>
+      <c r="Q38" s="18"/>
+      <c r="R38" s="19"/>
+      <c r="S38" s="19"/>
     </row>
     <row r="39" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C39" s="65" t="s">
+      <c r="C39" s="66" t="s">
         <v>14</v>
       </c>
-      <c r="D39" s="66"/>
-      <c r="E39" s="66"/>
-      <c r="F39" s="66"/>
-      <c r="G39" s="57"/>
-      <c r="H39" s="57"/>
-      <c r="I39" s="57"/>
-      <c r="J39" s="57"/>
-      <c r="K39" s="57"/>
-      <c r="L39" s="57"/>
-      <c r="M39" s="57"/>
+      <c r="D39" s="67"/>
+      <c r="E39" s="67"/>
+      <c r="F39" s="67"/>
+      <c r="G39" s="58"/>
+      <c r="H39" s="58"/>
+      <c r="I39" s="58"/>
+      <c r="J39" s="58"/>
+      <c r="K39" s="58"/>
+      <c r="L39" s="58"/>
+      <c r="M39" s="58"/>
       <c r="N39" s="18"/>
       <c r="O39" s="18"/>
       <c r="P39" s="18"/>
@@ -4566,64 +4986,64 @@
       <c r="S39" s="19"/>
     </row>
     <row r="40" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C40" s="67"/>
-      <c r="D40" s="66"/>
-      <c r="E40" s="66"/>
-      <c r="F40" s="66"/>
-      <c r="G40" s="57"/>
-      <c r="H40" s="57"/>
-      <c r="I40" s="57"/>
-      <c r="J40" s="57"/>
-      <c r="K40" s="57"/>
-      <c r="L40" s="57"/>
-      <c r="M40" s="57"/>
+      <c r="C40" s="68"/>
+      <c r="D40" s="67"/>
+      <c r="E40" s="67"/>
+      <c r="F40" s="67"/>
+      <c r="G40" s="58"/>
+      <c r="H40" s="58"/>
+      <c r="I40" s="58"/>
+      <c r="J40" s="58"/>
+      <c r="K40" s="58"/>
+      <c r="L40" s="58"/>
+      <c r="M40" s="58"/>
       <c r="N40" s="18"/>
-      <c r="O40" s="59" t="s">
+      <c r="O40" s="60" t="s">
         <v>3</v>
       </c>
-      <c r="P40" s="60"/>
+      <c r="P40" s="61"/>
       <c r="Q40" s="18"/>
       <c r="R40" s="19"/>
       <c r="S40" s="19"/>
     </row>
     <row r="41" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C41" s="68" t="s">
+      <c r="C41" s="69" t="s">
         <v>11</v>
       </c>
-      <c r="D41" s="68"/>
-      <c r="E41" s="68"/>
-      <c r="F41" s="68"/>
-      <c r="G41" s="57"/>
-      <c r="H41" s="57"/>
-      <c r="I41" s="57"/>
-      <c r="J41" s="57"/>
-      <c r="K41" s="57"/>
-      <c r="L41" s="57"/>
-      <c r="M41" s="57"/>
+      <c r="D41" s="69"/>
+      <c r="E41" s="69"/>
+      <c r="F41" s="69"/>
+      <c r="G41" s="58"/>
+      <c r="H41" s="58"/>
+      <c r="I41" s="58"/>
+      <c r="J41" s="58"/>
+      <c r="K41" s="58"/>
+      <c r="L41" s="58"/>
+      <c r="M41" s="58"/>
       <c r="N41" s="18"/>
-      <c r="O41" s="61"/>
-      <c r="P41" s="62"/>
+      <c r="O41" s="62"/>
+      <c r="P41" s="63"/>
       <c r="Q41" s="18"/>
       <c r="R41" s="19"/>
       <c r="S41" s="19"/>
     </row>
     <row r="42" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C42" s="68" t="s">
+      <c r="C42" s="69" t="s">
         <v>12</v>
       </c>
-      <c r="D42" s="68"/>
-      <c r="E42" s="68"/>
-      <c r="F42" s="68"/>
-      <c r="G42" s="57"/>
-      <c r="H42" s="57"/>
-      <c r="I42" s="57"/>
-      <c r="J42" s="57"/>
-      <c r="K42" s="57"/>
-      <c r="L42" s="57"/>
-      <c r="M42" s="57"/>
+      <c r="D42" s="69"/>
+      <c r="E42" s="69"/>
+      <c r="F42" s="69"/>
+      <c r="G42" s="58"/>
+      <c r="H42" s="58"/>
+      <c r="I42" s="58"/>
+      <c r="J42" s="58"/>
+      <c r="K42" s="58"/>
+      <c r="L42" s="58"/>
+      <c r="M42" s="58"/>
       <c r="N42" s="18"/>
-      <c r="O42" s="63"/>
-      <c r="P42" s="64"/>
+      <c r="O42" s="64"/>
+      <c r="P42" s="65"/>
       <c r="Q42" s="18"/>
       <c r="R42" s="19"/>
       <c r="S42" s="19"/>
@@ -4633,13 +5053,13 @@
       <c r="D43" s="21"/>
       <c r="E43" s="21"/>
       <c r="F43" s="21"/>
-      <c r="G43" s="58"/>
-      <c r="H43" s="58"/>
-      <c r="I43" s="58"/>
-      <c r="J43" s="58"/>
-      <c r="K43" s="58"/>
-      <c r="L43" s="58"/>
-      <c r="M43" s="58"/>
+      <c r="G43" s="59"/>
+      <c r="H43" s="59"/>
+      <c r="I43" s="59"/>
+      <c r="J43" s="59"/>
+      <c r="K43" s="59"/>
+      <c r="L43" s="59"/>
+      <c r="M43" s="59"/>
       <c r="N43" s="21"/>
       <c r="O43" s="21"/>
       <c r="P43" s="21"/>
@@ -4649,15 +5069,2040 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="R1:S1"/>
+    <mergeCell ref="C2:D8"/>
+    <mergeCell ref="E2:S8"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="N11:R11"/>
+    <mergeCell ref="O40:P42"/>
+    <mergeCell ref="C41:F41"/>
+    <mergeCell ref="C42:F42"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="N1:Q1"/>
     <mergeCell ref="G23:J24"/>
     <mergeCell ref="C15:D16"/>
     <mergeCell ref="E15:H16"/>
     <mergeCell ref="G38:M43"/>
     <mergeCell ref="C39:F40"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="C1:CM43"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="X1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="AX32" sqref="AX32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="9.140625" customWidth="1"/>
+    <col min="3" max="3" width="26.28515625" customWidth="1"/>
+    <col min="4" max="4" width="18.140625" customWidth="1"/>
+    <col min="5" max="5" width="9.5703125" customWidth="1"/>
+    <col min="6" max="6" width="10.28515625" customWidth="1"/>
+    <col min="7" max="7" width="9.85546875" customWidth="1"/>
+    <col min="8" max="8" width="9.140625" customWidth="1"/>
+    <col min="15" max="15" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14" customWidth="1"/>
+    <col min="30" max="30" width="12.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="3:91" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J1" s="71" t="s">
+        <v>59</v>
+      </c>
+      <c r="K1" s="72"/>
+      <c r="L1" s="71" t="s">
+        <v>2</v>
+      </c>
+      <c r="M1" s="72"/>
+      <c r="N1" s="73" t="s">
+        <v>10</v>
+      </c>
+      <c r="O1" s="73"/>
+      <c r="P1" s="73"/>
+      <c r="Q1" s="73"/>
+      <c r="R1" s="70" t="s">
+        <v>4</v>
+      </c>
+      <c r="S1" s="70"/>
+    </row>
+    <row r="2" spans="3:91" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C2" s="75" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="76"/>
+      <c r="E2" s="83" t="s">
+        <v>0</v>
+      </c>
+      <c r="F2" s="84"/>
+      <c r="G2" s="84"/>
+      <c r="H2" s="84"/>
+      <c r="I2" s="84"/>
+      <c r="J2" s="84"/>
+      <c r="K2" s="84"/>
+      <c r="L2" s="84"/>
+      <c r="M2" s="84"/>
+      <c r="N2" s="84"/>
+      <c r="O2" s="84"/>
+      <c r="P2" s="84"/>
+      <c r="Q2" s="84"/>
+      <c r="R2" s="84"/>
+      <c r="S2" s="84"/>
+    </row>
+    <row r="3" spans="3:91" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C3" s="77"/>
+      <c r="D3" s="78"/>
+      <c r="E3" s="83"/>
+      <c r="F3" s="84"/>
+      <c r="G3" s="84"/>
+      <c r="H3" s="84"/>
+      <c r="I3" s="84"/>
+      <c r="J3" s="84"/>
+      <c r="K3" s="84"/>
+      <c r="L3" s="84"/>
+      <c r="M3" s="84"/>
+      <c r="N3" s="84"/>
+      <c r="O3" s="84"/>
+      <c r="P3" s="84"/>
+      <c r="Q3" s="84"/>
+      <c r="R3" s="84"/>
+      <c r="S3" s="84"/>
+    </row>
+    <row r="4" spans="3:91" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C4" s="77"/>
+      <c r="D4" s="78"/>
+      <c r="E4" s="83"/>
+      <c r="F4" s="84"/>
+      <c r="G4" s="84"/>
+      <c r="H4" s="84"/>
+      <c r="I4" s="84"/>
+      <c r="J4" s="84"/>
+      <c r="K4" s="84"/>
+      <c r="L4" s="84"/>
+      <c r="M4" s="84"/>
+      <c r="N4" s="84"/>
+      <c r="O4" s="84"/>
+      <c r="P4" s="84"/>
+      <c r="Q4" s="84"/>
+      <c r="R4" s="84"/>
+      <c r="S4" s="84"/>
+    </row>
+    <row r="5" spans="3:91" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C5" s="77"/>
+      <c r="D5" s="78"/>
+      <c r="E5" s="83"/>
+      <c r="F5" s="84"/>
+      <c r="G5" s="84"/>
+      <c r="H5" s="84"/>
+      <c r="I5" s="84"/>
+      <c r="J5" s="84"/>
+      <c r="K5" s="84"/>
+      <c r="L5" s="84"/>
+      <c r="M5" s="84"/>
+      <c r="N5" s="84"/>
+      <c r="O5" s="84"/>
+      <c r="P5" s="84"/>
+      <c r="Q5" s="84"/>
+      <c r="R5" s="84"/>
+      <c r="S5" s="84"/>
+    </row>
+    <row r="6" spans="3:91" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C6" s="77"/>
+      <c r="D6" s="78"/>
+      <c r="E6" s="83"/>
+      <c r="F6" s="84"/>
+      <c r="G6" s="84"/>
+      <c r="H6" s="84"/>
+      <c r="I6" s="84"/>
+      <c r="J6" s="84"/>
+      <c r="K6" s="84"/>
+      <c r="L6" s="84"/>
+      <c r="M6" s="84"/>
+      <c r="N6" s="84"/>
+      <c r="O6" s="84"/>
+      <c r="P6" s="84"/>
+      <c r="Q6" s="84"/>
+      <c r="R6" s="84"/>
+      <c r="S6" s="84"/>
+    </row>
+    <row r="7" spans="3:91" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C7" s="77"/>
+      <c r="D7" s="78"/>
+      <c r="E7" s="83"/>
+      <c r="F7" s="84"/>
+      <c r="G7" s="84"/>
+      <c r="H7" s="84"/>
+      <c r="I7" s="84"/>
+      <c r="J7" s="84"/>
+      <c r="K7" s="84"/>
+      <c r="L7" s="84"/>
+      <c r="M7" s="84"/>
+      <c r="N7" s="84"/>
+      <c r="O7" s="84"/>
+      <c r="P7" s="84"/>
+      <c r="Q7" s="84"/>
+      <c r="R7" s="84"/>
+      <c r="S7" s="84"/>
+    </row>
+    <row r="8" spans="3:91" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C8" s="79"/>
+      <c r="D8" s="80"/>
+      <c r="E8" s="83"/>
+      <c r="F8" s="84"/>
+      <c r="G8" s="84"/>
+      <c r="H8" s="84"/>
+      <c r="I8" s="84"/>
+      <c r="J8" s="84"/>
+      <c r="K8" s="84"/>
+      <c r="L8" s="84"/>
+      <c r="M8" s="84"/>
+      <c r="N8" s="84"/>
+      <c r="O8" s="84"/>
+      <c r="P8" s="84"/>
+      <c r="Q8" s="84"/>
+      <c r="R8" s="84"/>
+      <c r="S8" s="84"/>
+    </row>
+    <row r="11" spans="3:91" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C11" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="D11" s="42" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11" s="81" t="s">
+        <v>9</v>
+      </c>
+      <c r="F11" s="82"/>
+      <c r="G11" s="81" t="s">
+        <v>15</v>
+      </c>
+      <c r="H11" s="82"/>
+      <c r="I11" s="85" t="s">
+        <v>20</v>
+      </c>
+      <c r="J11" s="85"/>
+      <c r="N11" s="56" t="s">
+        <v>23</v>
+      </c>
+      <c r="O11" s="56"/>
+      <c r="P11" s="56"/>
+      <c r="Q11" s="56"/>
+      <c r="R11" s="56"/>
+      <c r="S11" s="27" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="3:91" ht="64.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="C12" s="171" t="s">
+        <v>59</v>
+      </c>
+      <c r="D12" s="171"/>
+      <c r="E12" s="2"/>
+      <c r="BY12" s="191" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="13" spans="3:91" ht="31.5" x14ac:dyDescent="0.5">
+      <c r="C13" s="106"/>
+      <c r="D13" s="106"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="8"/>
+      <c r="I13" s="8"/>
+      <c r="J13" s="8"/>
+      <c r="K13" s="168" t="s">
+        <v>77</v>
+      </c>
+      <c r="L13" s="168"/>
+      <c r="M13" s="169"/>
+      <c r="N13" s="56" t="s">
+        <v>78</v>
+      </c>
+      <c r="O13" s="56"/>
+      <c r="P13" s="56"/>
+      <c r="Q13" s="56"/>
+      <c r="R13" s="56"/>
+      <c r="S13" s="27" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z13" s="106"/>
+      <c r="AA13" s="106"/>
+      <c r="AB13" s="8"/>
+      <c r="AC13" s="8"/>
+      <c r="AD13" s="8"/>
+      <c r="AE13" s="8"/>
+      <c r="AF13" s="8"/>
+      <c r="AG13" s="8"/>
+      <c r="AH13" s="172" t="s">
+        <v>87</v>
+      </c>
+      <c r="AI13" s="172"/>
+      <c r="AJ13" s="179" t="s">
+        <v>78</v>
+      </c>
+      <c r="AK13" s="180"/>
+      <c r="AL13" s="180"/>
+      <c r="AM13" s="180"/>
+      <c r="AN13" s="180"/>
+      <c r="AO13" s="181"/>
+      <c r="AP13" s="27" t="s">
+        <v>24</v>
+      </c>
+      <c r="AX13" s="106"/>
+      <c r="AY13" s="106"/>
+      <c r="AZ13" s="8"/>
+      <c r="BA13" s="8"/>
+      <c r="BB13" s="8"/>
+      <c r="BC13" s="8"/>
+      <c r="BD13" s="8"/>
+      <c r="BE13" s="8"/>
+      <c r="BF13" s="172" t="s">
+        <v>87</v>
+      </c>
+      <c r="BG13" s="172"/>
+      <c r="BH13" s="188" t="s">
+        <v>78</v>
+      </c>
+      <c r="BI13" s="189"/>
+      <c r="BJ13" s="189"/>
+      <c r="BK13" s="189"/>
+      <c r="BL13" s="189"/>
+      <c r="BM13" s="190"/>
+      <c r="BN13" s="27" t="s">
+        <v>24</v>
+      </c>
+      <c r="BW13" s="106"/>
+      <c r="BX13" s="106"/>
+      <c r="BY13" s="8"/>
+      <c r="BZ13" s="8"/>
+      <c r="CA13" s="8"/>
+      <c r="CB13" s="8"/>
+      <c r="CC13" s="8"/>
+      <c r="CD13" s="8"/>
+      <c r="CE13" s="172" t="s">
+        <v>87</v>
+      </c>
+      <c r="CF13" s="172"/>
+      <c r="CG13" s="179" t="s">
+        <v>78</v>
+      </c>
+      <c r="CH13" s="180"/>
+      <c r="CI13" s="180"/>
+      <c r="CJ13" s="180"/>
+      <c r="CK13" s="180"/>
+      <c r="CL13" s="181"/>
+      <c r="CM13" s="27" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="3:91" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="D14" s="145" t="s">
+        <v>64</v>
+      </c>
+      <c r="E14" s="138" t="s">
+        <v>81</v>
+      </c>
+      <c r="F14" s="141"/>
+      <c r="G14" s="138" t="s">
+        <v>79</v>
+      </c>
+      <c r="H14" s="139"/>
+      <c r="I14" s="144" t="s">
+        <v>29</v>
+      </c>
+      <c r="J14" s="142"/>
+      <c r="K14" s="142"/>
+      <c r="L14" s="143"/>
+      <c r="M14" s="138" t="s">
+        <v>68</v>
+      </c>
+      <c r="N14" s="141"/>
+      <c r="O14" s="138" t="s">
+        <v>69</v>
+      </c>
+      <c r="P14" s="139"/>
+      <c r="Q14" s="141" t="s">
+        <v>72</v>
+      </c>
+      <c r="R14" s="141"/>
+      <c r="S14" s="139"/>
+      <c r="AA14" s="145" t="s">
+        <v>82</v>
+      </c>
+      <c r="AB14" s="138" t="s">
+        <v>83</v>
+      </c>
+      <c r="AC14" s="139"/>
+      <c r="AD14" s="137" t="s">
+        <v>84</v>
+      </c>
+      <c r="AE14" s="140" t="s">
+        <v>91</v>
+      </c>
+      <c r="AF14" s="138" t="s">
+        <v>29</v>
+      </c>
+      <c r="AG14" s="141"/>
+      <c r="AH14" s="141"/>
+      <c r="AI14" s="139"/>
+      <c r="AJ14" s="175" t="s">
+        <v>90</v>
+      </c>
+      <c r="AK14" s="177"/>
+      <c r="AL14" s="175" t="s">
+        <v>79</v>
+      </c>
+      <c r="AM14" s="177"/>
+      <c r="AN14" s="175" t="s">
+        <v>72</v>
+      </c>
+      <c r="AO14" s="176"/>
+      <c r="AP14" s="177"/>
+      <c r="AY14" s="145" t="s">
+        <v>82</v>
+      </c>
+      <c r="AZ14" s="138" t="s">
+        <v>83</v>
+      </c>
+      <c r="BA14" s="139"/>
+      <c r="BB14" s="138" t="s">
+        <v>97</v>
+      </c>
+      <c r="BC14" s="139"/>
+      <c r="BD14" s="138" t="s">
+        <v>96</v>
+      </c>
+      <c r="BE14" s="141"/>
+      <c r="BF14" s="141"/>
+      <c r="BG14" s="139"/>
+      <c r="BH14" s="175" t="s">
+        <v>100</v>
+      </c>
+      <c r="BI14" s="177"/>
+      <c r="BJ14" s="175" t="s">
+        <v>79</v>
+      </c>
+      <c r="BK14" s="177"/>
+      <c r="BL14" s="175" t="s">
+        <v>72</v>
+      </c>
+      <c r="BM14" s="176"/>
+      <c r="BN14" s="176"/>
+      <c r="BX14" s="145" t="s">
+        <v>82</v>
+      </c>
+      <c r="BY14" s="138" t="s">
+        <v>83</v>
+      </c>
+      <c r="BZ14" s="139"/>
+      <c r="CA14" s="137" t="s">
+        <v>84</v>
+      </c>
+      <c r="CB14" s="140" t="s">
+        <v>91</v>
+      </c>
+      <c r="CC14" s="138" t="s">
+        <v>29</v>
+      </c>
+      <c r="CD14" s="141"/>
+      <c r="CE14" s="141"/>
+      <c r="CF14" s="139"/>
+      <c r="CG14" s="175" t="s">
+        <v>90</v>
+      </c>
+      <c r="CH14" s="177"/>
+      <c r="CI14" s="175" t="s">
+        <v>79</v>
+      </c>
+      <c r="CJ14" s="177"/>
+      <c r="CK14" s="175" t="s">
+        <v>72</v>
+      </c>
+      <c r="CL14" s="176"/>
+      <c r="CM14" s="177"/>
+    </row>
+    <row r="15" spans="3:91" ht="21" x14ac:dyDescent="0.35">
+      <c r="C15" s="170" t="s">
+        <v>60</v>
+      </c>
+      <c r="D15" s="154">
+        <v>1</v>
+      </c>
+      <c r="E15" s="155" t="s">
+        <v>66</v>
+      </c>
+      <c r="F15" s="156"/>
+      <c r="G15" s="155" t="s">
+        <v>80</v>
+      </c>
+      <c r="H15" s="157"/>
+      <c r="I15" s="155" t="s">
+        <v>70</v>
+      </c>
+      <c r="J15" s="156"/>
+      <c r="K15" s="156"/>
+      <c r="L15" s="157"/>
+      <c r="M15" s="155" t="s">
+        <v>71</v>
+      </c>
+      <c r="N15" s="157"/>
+      <c r="O15" s="155">
+        <v>520000</v>
+      </c>
+      <c r="P15" s="157"/>
+      <c r="Q15" s="158" t="s">
+        <v>74</v>
+      </c>
+      <c r="R15" s="159"/>
+      <c r="S15" s="160"/>
+      <c r="X15" s="178" t="s">
+        <v>60</v>
+      </c>
+      <c r="Y15" s="178"/>
+      <c r="Z15" s="178"/>
+      <c r="AA15" s="154">
+        <v>1</v>
+      </c>
+      <c r="AB15" s="155" t="s">
+        <v>86</v>
+      </c>
+      <c r="AC15" s="157"/>
+      <c r="AD15" s="154" t="s">
+        <v>85</v>
+      </c>
+      <c r="AE15" s="154" t="s">
+        <v>92</v>
+      </c>
+      <c r="AF15" s="155" t="s">
+        <v>70</v>
+      </c>
+      <c r="AG15" s="156"/>
+      <c r="AH15" s="156"/>
+      <c r="AI15" s="157"/>
+      <c r="AJ15" s="155">
+        <v>50</v>
+      </c>
+      <c r="AK15" s="157"/>
+      <c r="AL15" s="155" t="s">
+        <v>93</v>
+      </c>
+      <c r="AM15" s="157"/>
+      <c r="AN15" s="158" t="s">
+        <v>89</v>
+      </c>
+      <c r="AO15" s="159"/>
+      <c r="AP15" s="160"/>
+      <c r="AV15" s="178" t="s">
+        <v>60</v>
+      </c>
+      <c r="AW15" s="178"/>
+      <c r="AX15" s="178"/>
+      <c r="AY15" s="154">
+        <v>1</v>
+      </c>
+      <c r="AZ15" s="155" t="s">
+        <v>66</v>
+      </c>
+      <c r="BA15" s="157"/>
+      <c r="BB15" s="182" t="s">
+        <v>98</v>
+      </c>
+      <c r="BC15" s="183"/>
+      <c r="BD15" s="155" t="s">
+        <v>99</v>
+      </c>
+      <c r="BE15" s="156"/>
+      <c r="BF15" s="156"/>
+      <c r="BG15" s="157"/>
+      <c r="BH15" s="155">
+        <v>1000</v>
+      </c>
+      <c r="BI15" s="157"/>
+      <c r="BJ15" s="155" t="s">
+        <v>101</v>
+      </c>
+      <c r="BK15" s="157"/>
+      <c r="BL15" s="158" t="s">
+        <v>102</v>
+      </c>
+      <c r="BM15" s="159"/>
+      <c r="BN15" s="159"/>
+      <c r="BU15" s="178" t="s">
+        <v>60</v>
+      </c>
+      <c r="BV15" s="178"/>
+      <c r="BW15" s="178"/>
+      <c r="BX15" s="154">
+        <v>1</v>
+      </c>
+      <c r="BY15" s="155" t="s">
+        <v>86</v>
+      </c>
+      <c r="BZ15" s="157"/>
+      <c r="CA15" s="154" t="s">
+        <v>85</v>
+      </c>
+      <c r="CB15" s="154" t="s">
+        <v>92</v>
+      </c>
+      <c r="CC15" s="155" t="s">
+        <v>70</v>
+      </c>
+      <c r="CD15" s="156"/>
+      <c r="CE15" s="156"/>
+      <c r="CF15" s="157"/>
+      <c r="CG15" s="155">
+        <v>50</v>
+      </c>
+      <c r="CH15" s="157"/>
+      <c r="CI15" s="155" t="s">
+        <v>93</v>
+      </c>
+      <c r="CJ15" s="157"/>
+      <c r="CK15" s="158" t="s">
+        <v>89</v>
+      </c>
+      <c r="CL15" s="159"/>
+      <c r="CM15" s="160"/>
+    </row>
+    <row r="16" spans="3:91" ht="21" x14ac:dyDescent="0.35">
+      <c r="C16" s="146" t="s">
+        <v>61</v>
+      </c>
+      <c r="D16" s="161"/>
+      <c r="E16" s="162"/>
+      <c r="F16" s="163"/>
+      <c r="G16" s="162"/>
+      <c r="H16" s="164"/>
+      <c r="I16" s="162"/>
+      <c r="J16" s="163"/>
+      <c r="K16" s="163"/>
+      <c r="L16" s="164"/>
+      <c r="M16" s="162"/>
+      <c r="N16" s="164"/>
+      <c r="O16" s="162"/>
+      <c r="P16" s="164"/>
+      <c r="Q16" s="165" t="s">
+        <v>75</v>
+      </c>
+      <c r="R16" s="166"/>
+      <c r="S16" s="167"/>
+      <c r="X16" s="173" t="s">
+        <v>61</v>
+      </c>
+      <c r="Y16" s="173"/>
+      <c r="Z16" s="173"/>
+      <c r="AA16" s="161"/>
+      <c r="AB16" s="162"/>
+      <c r="AC16" s="164"/>
+      <c r="AD16" s="161"/>
+      <c r="AE16" s="161"/>
+      <c r="AF16" s="162"/>
+      <c r="AG16" s="163"/>
+      <c r="AH16" s="163"/>
+      <c r="AI16" s="164"/>
+      <c r="AJ16" s="162"/>
+      <c r="AK16" s="164"/>
+      <c r="AL16" s="162"/>
+      <c r="AM16" s="164"/>
+      <c r="AN16" s="158" t="s">
+        <v>88</v>
+      </c>
+      <c r="AO16" s="159"/>
+      <c r="AP16" s="160"/>
+      <c r="AV16" s="178" t="s">
+        <v>61</v>
+      </c>
+      <c r="AW16" s="178"/>
+      <c r="AX16" s="178"/>
+      <c r="AY16" s="161"/>
+      <c r="AZ16" s="162"/>
+      <c r="BA16" s="164"/>
+      <c r="BB16" s="184"/>
+      <c r="BC16" s="185"/>
+      <c r="BD16" s="162"/>
+      <c r="BE16" s="163"/>
+      <c r="BF16" s="163"/>
+      <c r="BG16" s="164"/>
+      <c r="BH16" s="162"/>
+      <c r="BI16" s="164"/>
+      <c r="BJ16" s="162"/>
+      <c r="BK16" s="164"/>
+      <c r="BL16" s="158" t="s">
+        <v>103</v>
+      </c>
+      <c r="BM16" s="159"/>
+      <c r="BN16" s="159"/>
+      <c r="BU16" s="178" t="s">
+        <v>61</v>
+      </c>
+      <c r="BV16" s="178"/>
+      <c r="BW16" s="178"/>
+      <c r="BX16" s="161"/>
+      <c r="BY16" s="162"/>
+      <c r="BZ16" s="164"/>
+      <c r="CA16" s="161"/>
+      <c r="CB16" s="161"/>
+      <c r="CC16" s="162"/>
+      <c r="CD16" s="163"/>
+      <c r="CE16" s="163"/>
+      <c r="CF16" s="164"/>
+      <c r="CG16" s="162"/>
+      <c r="CH16" s="164"/>
+      <c r="CI16" s="162"/>
+      <c r="CJ16" s="164"/>
+      <c r="CK16" s="158" t="s">
+        <v>88</v>
+      </c>
+      <c r="CL16" s="159"/>
+      <c r="CM16" s="160"/>
+    </row>
+    <row r="17" spans="3:91" ht="21" x14ac:dyDescent="0.35">
+      <c r="C17" s="146" t="s">
+        <v>62</v>
+      </c>
+      <c r="D17" s="149">
+        <v>2</v>
+      </c>
+      <c r="E17" s="150" t="s">
+        <v>67</v>
+      </c>
+      <c r="F17" s="151"/>
+      <c r="G17" s="150"/>
+      <c r="H17" s="152"/>
+      <c r="I17" s="150"/>
+      <c r="J17" s="151"/>
+      <c r="K17" s="151"/>
+      <c r="L17" s="152"/>
+      <c r="M17" s="151"/>
+      <c r="N17" s="151"/>
+      <c r="O17" s="150"/>
+      <c r="P17" s="152"/>
+      <c r="Q17" s="151"/>
+      <c r="R17" s="153"/>
+      <c r="S17" s="152"/>
+      <c r="X17" s="174" t="s">
+        <v>62</v>
+      </c>
+      <c r="Y17" s="174"/>
+      <c r="Z17" s="174"/>
+      <c r="AA17" s="149">
+        <v>2</v>
+      </c>
+      <c r="AB17" s="150" t="s">
+        <v>94</v>
+      </c>
+      <c r="AC17" s="151"/>
+      <c r="AD17" s="149"/>
+      <c r="AE17" s="152"/>
+      <c r="AF17" s="150"/>
+      <c r="AG17" s="151"/>
+      <c r="AH17" s="151"/>
+      <c r="AI17" s="152"/>
+      <c r="AJ17" s="151"/>
+      <c r="AK17" s="151"/>
+      <c r="AL17" s="150"/>
+      <c r="AM17" s="152"/>
+      <c r="AN17" s="151"/>
+      <c r="AO17" s="153"/>
+      <c r="AP17" s="152"/>
+      <c r="AV17" s="173" t="s">
+        <v>62</v>
+      </c>
+      <c r="AW17" s="173"/>
+      <c r="AX17" s="173"/>
+      <c r="AY17" s="149">
+        <v>2</v>
+      </c>
+      <c r="AZ17" s="150" t="s">
+        <v>105</v>
+      </c>
+      <c r="BA17" s="151"/>
+      <c r="BB17" s="147"/>
+      <c r="BC17" s="148"/>
+      <c r="BD17" s="151"/>
+      <c r="BE17" s="151"/>
+      <c r="BF17" s="151"/>
+      <c r="BG17" s="152"/>
+      <c r="BH17" s="151"/>
+      <c r="BI17" s="151"/>
+      <c r="BJ17" s="150"/>
+      <c r="BK17" s="152"/>
+      <c r="BL17" s="151"/>
+      <c r="BM17" s="153"/>
+      <c r="BN17" s="151"/>
+      <c r="BU17" s="178" t="s">
+        <v>62</v>
+      </c>
+      <c r="BV17" s="178"/>
+      <c r="BW17" s="178"/>
+      <c r="BX17" s="149">
+        <v>2</v>
+      </c>
+      <c r="BY17" s="150" t="s">
+        <v>94</v>
+      </c>
+      <c r="BZ17" s="151"/>
+      <c r="CA17" s="149"/>
+      <c r="CB17" s="152"/>
+      <c r="CC17" s="150"/>
+      <c r="CD17" s="151"/>
+      <c r="CE17" s="151"/>
+      <c r="CF17" s="152"/>
+      <c r="CG17" s="151"/>
+      <c r="CH17" s="151"/>
+      <c r="CI17" s="150"/>
+      <c r="CJ17" s="152"/>
+      <c r="CK17" s="151"/>
+      <c r="CL17" s="153"/>
+      <c r="CM17" s="152"/>
+    </row>
+    <row r="18" spans="3:91" ht="21" x14ac:dyDescent="0.35">
+      <c r="C18" s="146" t="s">
+        <v>63</v>
+      </c>
+      <c r="D18" s="149">
+        <v>3</v>
+      </c>
+      <c r="E18" s="150" t="s">
+        <v>73</v>
+      </c>
+      <c r="F18" s="151"/>
+      <c r="G18" s="150"/>
+      <c r="H18" s="152"/>
+      <c r="I18" s="150"/>
+      <c r="J18" s="151"/>
+      <c r="K18" s="151"/>
+      <c r="L18" s="152"/>
+      <c r="M18" s="151"/>
+      <c r="N18" s="151"/>
+      <c r="O18" s="150"/>
+      <c r="P18" s="152"/>
+      <c r="Q18" s="151"/>
+      <c r="R18" s="151"/>
+      <c r="S18" s="152"/>
+      <c r="X18" s="174" t="s">
+        <v>63</v>
+      </c>
+      <c r="Y18" s="174"/>
+      <c r="Z18" s="174"/>
+      <c r="AA18" s="149">
+        <v>3</v>
+      </c>
+      <c r="AB18" s="150" t="s">
+        <v>95</v>
+      </c>
+      <c r="AC18" s="151"/>
+      <c r="AD18" s="149"/>
+      <c r="AE18" s="152"/>
+      <c r="AF18" s="150"/>
+      <c r="AG18" s="151"/>
+      <c r="AH18" s="151"/>
+      <c r="AI18" s="152"/>
+      <c r="AJ18" s="151"/>
+      <c r="AK18" s="151"/>
+      <c r="AL18" s="150"/>
+      <c r="AM18" s="152"/>
+      <c r="AN18" s="151"/>
+      <c r="AO18" s="151"/>
+      <c r="AP18" s="152"/>
+      <c r="AV18" s="174" t="s">
+        <v>63</v>
+      </c>
+      <c r="AW18" s="174"/>
+      <c r="AX18" s="174"/>
+      <c r="AY18" s="149">
+        <v>3</v>
+      </c>
+      <c r="AZ18" s="150" t="s">
+        <v>106</v>
+      </c>
+      <c r="BA18" s="151"/>
+      <c r="BB18" s="150"/>
+      <c r="BC18" s="152"/>
+      <c r="BD18" s="151"/>
+      <c r="BE18" s="151"/>
+      <c r="BF18" s="151"/>
+      <c r="BG18" s="152"/>
+      <c r="BH18" s="151"/>
+      <c r="BI18" s="151"/>
+      <c r="BJ18" s="150"/>
+      <c r="BK18" s="152"/>
+      <c r="BL18" s="151"/>
+      <c r="BM18" s="151"/>
+      <c r="BN18" s="151"/>
+      <c r="BU18" s="173" t="s">
+        <v>63</v>
+      </c>
+      <c r="BV18" s="173"/>
+      <c r="BW18" s="173"/>
+      <c r="BX18" s="149">
+        <v>3</v>
+      </c>
+      <c r="BY18" s="150" t="s">
+        <v>95</v>
+      </c>
+      <c r="BZ18" s="151"/>
+      <c r="CA18" s="149"/>
+      <c r="CB18" s="152"/>
+      <c r="CC18" s="150"/>
+      <c r="CD18" s="151"/>
+      <c r="CE18" s="151"/>
+      <c r="CF18" s="152"/>
+      <c r="CG18" s="151"/>
+      <c r="CH18" s="151"/>
+      <c r="CI18" s="150"/>
+      <c r="CJ18" s="152"/>
+      <c r="CK18" s="151"/>
+      <c r="CL18" s="151"/>
+      <c r="CM18" s="152"/>
+    </row>
+    <row r="19" spans="3:91" x14ac:dyDescent="0.25">
+      <c r="D19" s="134"/>
+      <c r="E19" s="45"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="45"/>
+      <c r="H19" s="46"/>
+      <c r="I19" s="45"/>
+      <c r="J19" s="2"/>
+      <c r="K19" s="2"/>
+      <c r="L19" s="46"/>
+      <c r="M19" s="2"/>
+      <c r="N19" s="2"/>
+      <c r="O19" s="45"/>
+      <c r="P19" s="46"/>
+      <c r="Q19" s="2"/>
+      <c r="R19" s="2"/>
+      <c r="S19" s="46"/>
+      <c r="AA19" s="134"/>
+      <c r="AB19" s="45"/>
+      <c r="AC19" s="2"/>
+      <c r="AD19" s="134"/>
+      <c r="AE19" s="46"/>
+      <c r="AF19" s="45"/>
+      <c r="AG19" s="2"/>
+      <c r="AH19" s="2"/>
+      <c r="AI19" s="46"/>
+      <c r="AJ19" s="2"/>
+      <c r="AK19" s="2"/>
+      <c r="AL19" s="45"/>
+      <c r="AM19" s="46"/>
+      <c r="AN19" s="2"/>
+      <c r="AO19" s="2"/>
+      <c r="AP19" s="46"/>
+      <c r="AY19" s="134"/>
+      <c r="AZ19" s="45"/>
+      <c r="BA19" s="2"/>
+      <c r="BB19" s="45"/>
+      <c r="BC19" s="46"/>
+      <c r="BD19" s="2"/>
+      <c r="BE19" s="2"/>
+      <c r="BF19" s="2"/>
+      <c r="BG19" s="46"/>
+      <c r="BH19" s="2"/>
+      <c r="BI19" s="2"/>
+      <c r="BJ19" s="45"/>
+      <c r="BK19" s="46"/>
+      <c r="BL19" s="2"/>
+      <c r="BM19" s="2"/>
+      <c r="BN19" s="2"/>
+      <c r="BX19" s="134"/>
+      <c r="BY19" s="45"/>
+      <c r="BZ19" s="2"/>
+      <c r="CA19" s="134"/>
+      <c r="CB19" s="46"/>
+      <c r="CC19" s="45"/>
+      <c r="CD19" s="2"/>
+      <c r="CE19" s="2"/>
+      <c r="CF19" s="46"/>
+      <c r="CG19" s="2"/>
+      <c r="CH19" s="2"/>
+      <c r="CI19" s="45"/>
+      <c r="CJ19" s="46"/>
+      <c r="CK19" s="2"/>
+      <c r="CL19" s="2"/>
+      <c r="CM19" s="46"/>
+    </row>
+    <row r="20" spans="3:91" x14ac:dyDescent="0.25">
+      <c r="D20" s="134"/>
+      <c r="E20" s="45"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="45"/>
+      <c r="H20" s="46"/>
+      <c r="I20" s="45"/>
+      <c r="J20" s="2"/>
+      <c r="K20" s="2"/>
+      <c r="L20" s="46"/>
+      <c r="M20" s="2"/>
+      <c r="N20" s="2"/>
+      <c r="O20" s="45"/>
+      <c r="P20" s="46"/>
+      <c r="Q20" s="2"/>
+      <c r="R20" s="2"/>
+      <c r="S20" s="46"/>
+      <c r="AA20" s="134"/>
+      <c r="AB20" s="45"/>
+      <c r="AC20" s="2"/>
+      <c r="AD20" s="134"/>
+      <c r="AE20" s="46"/>
+      <c r="AF20" s="45"/>
+      <c r="AG20" s="2"/>
+      <c r="AH20" s="2"/>
+      <c r="AI20" s="46"/>
+      <c r="AJ20" s="2"/>
+      <c r="AK20" s="2"/>
+      <c r="AL20" s="45"/>
+      <c r="AM20" s="46"/>
+      <c r="AN20" s="2"/>
+      <c r="AO20" s="2"/>
+      <c r="AP20" s="46"/>
+      <c r="AY20" s="134"/>
+      <c r="AZ20" s="45"/>
+      <c r="BA20" s="2"/>
+      <c r="BB20" s="45"/>
+      <c r="BC20" s="46"/>
+      <c r="BD20" s="2"/>
+      <c r="BE20" s="2"/>
+      <c r="BF20" s="2"/>
+      <c r="BG20" s="46"/>
+      <c r="BH20" s="2"/>
+      <c r="BI20" s="2"/>
+      <c r="BJ20" s="45"/>
+      <c r="BK20" s="46"/>
+      <c r="BL20" s="2"/>
+      <c r="BM20" s="2"/>
+      <c r="BN20" s="2"/>
+      <c r="BX20" s="134"/>
+      <c r="BY20" s="45"/>
+      <c r="BZ20" s="2"/>
+      <c r="CA20" s="134"/>
+      <c r="CB20" s="46"/>
+      <c r="CC20" s="45"/>
+      <c r="CD20" s="2"/>
+      <c r="CE20" s="2"/>
+      <c r="CF20" s="46"/>
+      <c r="CG20" s="2"/>
+      <c r="CH20" s="2"/>
+      <c r="CI20" s="45"/>
+      <c r="CJ20" s="46"/>
+      <c r="CK20" s="2"/>
+      <c r="CL20" s="2"/>
+      <c r="CM20" s="46"/>
+    </row>
+    <row r="21" spans="3:91" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D21" s="134"/>
+      <c r="E21" s="45"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="45"/>
+      <c r="H21" s="46"/>
+      <c r="I21" s="45"/>
+      <c r="J21" s="2"/>
+      <c r="K21" s="2"/>
+      <c r="L21" s="46"/>
+      <c r="M21" s="2"/>
+      <c r="N21" s="2"/>
+      <c r="O21" s="45"/>
+      <c r="P21" s="46"/>
+      <c r="Q21" s="2"/>
+      <c r="R21" s="2"/>
+      <c r="S21" s="46"/>
+      <c r="AA21" s="134"/>
+      <c r="AB21" s="45"/>
+      <c r="AC21" s="2"/>
+      <c r="AD21" s="134"/>
+      <c r="AE21" s="46"/>
+      <c r="AF21" s="45"/>
+      <c r="AG21" s="2"/>
+      <c r="AH21" s="2"/>
+      <c r="AI21" s="46"/>
+      <c r="AJ21" s="2"/>
+      <c r="AK21" s="2"/>
+      <c r="AL21" s="45"/>
+      <c r="AM21" s="46"/>
+      <c r="AN21" s="2"/>
+      <c r="AO21" s="2"/>
+      <c r="AP21" s="46"/>
+      <c r="AY21" s="134"/>
+      <c r="AZ21" s="45"/>
+      <c r="BA21" s="2"/>
+      <c r="BB21" s="45"/>
+      <c r="BC21" s="46"/>
+      <c r="BD21" s="2"/>
+      <c r="BE21" s="2"/>
+      <c r="BF21" s="2"/>
+      <c r="BG21" s="46"/>
+      <c r="BH21" s="2"/>
+      <c r="BI21" s="2"/>
+      <c r="BJ21" s="45"/>
+      <c r="BK21" s="46"/>
+      <c r="BL21" s="2"/>
+      <c r="BM21" s="2"/>
+      <c r="BN21" s="2"/>
+      <c r="BX21" s="134"/>
+      <c r="BY21" s="45"/>
+      <c r="BZ21" s="2"/>
+      <c r="CA21" s="134"/>
+      <c r="CB21" s="46"/>
+      <c r="CC21" s="45"/>
+      <c r="CD21" s="2"/>
+      <c r="CE21" s="2"/>
+      <c r="CF21" s="46"/>
+      <c r="CG21" s="2"/>
+      <c r="CH21" s="2"/>
+      <c r="CI21" s="45"/>
+      <c r="CJ21" s="46"/>
+      <c r="CK21" s="2"/>
+      <c r="CL21" s="2"/>
+      <c r="CM21" s="46"/>
+    </row>
+    <row r="22" spans="3:91" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D22" s="134"/>
+      <c r="E22" s="45"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="45"/>
+      <c r="H22" s="46"/>
+      <c r="I22" s="45"/>
+      <c r="J22" s="2"/>
+      <c r="K22" s="2"/>
+      <c r="L22" s="46"/>
+      <c r="M22" s="2"/>
+      <c r="N22" s="2"/>
+      <c r="O22" s="45"/>
+      <c r="P22" s="46"/>
+      <c r="Q22" s="2"/>
+      <c r="R22" s="2"/>
+      <c r="S22" s="46"/>
+      <c r="AA22" s="134"/>
+      <c r="AB22" s="45"/>
+      <c r="AC22" s="2"/>
+      <c r="AD22" s="134"/>
+      <c r="AE22" s="46"/>
+      <c r="AF22" s="45"/>
+      <c r="AG22" s="2"/>
+      <c r="AH22" s="2"/>
+      <c r="AI22" s="46"/>
+      <c r="AJ22" s="2"/>
+      <c r="AK22" s="2"/>
+      <c r="AL22" s="45"/>
+      <c r="AM22" s="46"/>
+      <c r="AN22" s="2"/>
+      <c r="AO22" s="2"/>
+      <c r="AP22" s="46"/>
+      <c r="AY22" s="134"/>
+      <c r="AZ22" s="45"/>
+      <c r="BA22" s="2"/>
+      <c r="BB22" s="45"/>
+      <c r="BC22" s="46"/>
+      <c r="BD22" s="2"/>
+      <c r="BE22" s="2"/>
+      <c r="BF22" s="2"/>
+      <c r="BG22" s="46"/>
+      <c r="BH22" s="2"/>
+      <c r="BI22" s="2"/>
+      <c r="BJ22" s="45"/>
+      <c r="BK22" s="46"/>
+      <c r="BL22" s="2"/>
+      <c r="BM22" s="2"/>
+      <c r="BN22" s="2"/>
+      <c r="BX22" s="134"/>
+      <c r="BY22" s="45"/>
+      <c r="BZ22" s="2"/>
+      <c r="CA22" s="134"/>
+      <c r="CB22" s="46"/>
+      <c r="CC22" s="45"/>
+      <c r="CD22" s="2"/>
+      <c r="CE22" s="2"/>
+      <c r="CF22" s="46"/>
+      <c r="CG22" s="2"/>
+      <c r="CH22" s="2"/>
+      <c r="CI22" s="45"/>
+      <c r="CJ22" s="46"/>
+      <c r="CK22" s="2"/>
+      <c r="CL22" s="2"/>
+      <c r="CM22" s="46"/>
+    </row>
+    <row r="23" spans="3:91" x14ac:dyDescent="0.25">
+      <c r="D23" s="134"/>
+      <c r="E23" s="45"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="45"/>
+      <c r="H23" s="46"/>
+      <c r="I23" s="45"/>
+      <c r="J23" s="2"/>
+      <c r="K23" s="2"/>
+      <c r="L23" s="46"/>
+      <c r="M23" s="2"/>
+      <c r="N23" s="2"/>
+      <c r="O23" s="45"/>
+      <c r="P23" s="46"/>
+      <c r="Q23" s="2"/>
+      <c r="R23" s="2"/>
+      <c r="S23" s="46"/>
+      <c r="AA23" s="134"/>
+      <c r="AB23" s="45"/>
+      <c r="AC23" s="2"/>
+      <c r="AD23" s="134"/>
+      <c r="AE23" s="46"/>
+      <c r="AF23" s="45"/>
+      <c r="AG23" s="2"/>
+      <c r="AH23" s="2"/>
+      <c r="AI23" s="46"/>
+      <c r="AJ23" s="2"/>
+      <c r="AK23" s="2"/>
+      <c r="AL23" s="45"/>
+      <c r="AM23" s="46"/>
+      <c r="AN23" s="2"/>
+      <c r="AO23" s="2"/>
+      <c r="AP23" s="46"/>
+      <c r="AY23" s="134"/>
+      <c r="AZ23" s="45"/>
+      <c r="BA23" s="2"/>
+      <c r="BB23" s="45"/>
+      <c r="BC23" s="46"/>
+      <c r="BD23" s="2"/>
+      <c r="BE23" s="2"/>
+      <c r="BF23" s="2"/>
+      <c r="BG23" s="46"/>
+      <c r="BH23" s="2"/>
+      <c r="BI23" s="2"/>
+      <c r="BJ23" s="45"/>
+      <c r="BK23" s="46"/>
+      <c r="BL23" s="2"/>
+      <c r="BM23" s="2"/>
+      <c r="BN23" s="2"/>
+      <c r="BX23" s="134"/>
+      <c r="BY23" s="45"/>
+      <c r="BZ23" s="2"/>
+      <c r="CA23" s="134"/>
+      <c r="CB23" s="46"/>
+      <c r="CC23" s="45"/>
+      <c r="CD23" s="2"/>
+      <c r="CE23" s="2"/>
+      <c r="CF23" s="46"/>
+      <c r="CG23" s="2"/>
+      <c r="CH23" s="2"/>
+      <c r="CI23" s="45"/>
+      <c r="CJ23" s="46"/>
+      <c r="CK23" s="2"/>
+      <c r="CL23" s="2"/>
+      <c r="CM23" s="46"/>
+    </row>
+    <row r="24" spans="3:91" x14ac:dyDescent="0.25">
+      <c r="D24" s="134"/>
+      <c r="E24" s="45"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="45"/>
+      <c r="H24" s="46"/>
+      <c r="I24" s="45"/>
+      <c r="J24" s="2"/>
+      <c r="K24" s="2"/>
+      <c r="L24" s="46"/>
+      <c r="M24" s="2"/>
+      <c r="N24" s="2"/>
+      <c r="O24" s="45"/>
+      <c r="P24" s="46"/>
+      <c r="Q24" s="2"/>
+      <c r="R24" s="2"/>
+      <c r="S24" s="46"/>
+      <c r="AA24" s="134"/>
+      <c r="AB24" s="45"/>
+      <c r="AC24" s="2"/>
+      <c r="AD24" s="134"/>
+      <c r="AE24" s="46"/>
+      <c r="AF24" s="45"/>
+      <c r="AG24" s="2"/>
+      <c r="AH24" s="2"/>
+      <c r="AI24" s="46"/>
+      <c r="AJ24" s="2"/>
+      <c r="AK24" s="2"/>
+      <c r="AL24" s="45"/>
+      <c r="AM24" s="46"/>
+      <c r="AN24" s="2"/>
+      <c r="AO24" s="2"/>
+      <c r="AP24" s="46"/>
+      <c r="AY24" s="134"/>
+      <c r="AZ24" s="45"/>
+      <c r="BA24" s="2"/>
+      <c r="BB24" s="45"/>
+      <c r="BC24" s="46"/>
+      <c r="BD24" s="2"/>
+      <c r="BE24" s="2"/>
+      <c r="BF24" s="2"/>
+      <c r="BG24" s="46"/>
+      <c r="BH24" s="2"/>
+      <c r="BI24" s="2"/>
+      <c r="BJ24" s="45"/>
+      <c r="BK24" s="46"/>
+      <c r="BL24" s="2"/>
+      <c r="BM24" s="2"/>
+      <c r="BN24" s="2"/>
+      <c r="BX24" s="134"/>
+      <c r="BY24" s="45"/>
+      <c r="BZ24" s="2"/>
+      <c r="CA24" s="134"/>
+      <c r="CB24" s="46"/>
+      <c r="CC24" s="45"/>
+      <c r="CD24" s="2"/>
+      <c r="CE24" s="2"/>
+      <c r="CF24" s="46"/>
+      <c r="CG24" s="2"/>
+      <c r="CH24" s="2"/>
+      <c r="CI24" s="45"/>
+      <c r="CJ24" s="46"/>
+      <c r="CK24" s="2"/>
+      <c r="CL24" s="2"/>
+      <c r="CM24" s="46"/>
+    </row>
+    <row r="25" spans="3:91" x14ac:dyDescent="0.25">
+      <c r="C25" s="2"/>
+      <c r="D25" s="134"/>
+      <c r="E25" s="45"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="45"/>
+      <c r="H25" s="46"/>
+      <c r="I25" s="45"/>
+      <c r="J25" s="2"/>
+      <c r="K25" s="2"/>
+      <c r="L25" s="46"/>
+      <c r="M25" s="2"/>
+      <c r="N25" s="2"/>
+      <c r="O25" s="45"/>
+      <c r="P25" s="46"/>
+      <c r="Q25" s="2"/>
+      <c r="R25" s="2"/>
+      <c r="S25" s="46"/>
+      <c r="Z25" s="2"/>
+      <c r="AA25" s="134"/>
+      <c r="AB25" s="45"/>
+      <c r="AC25" s="2"/>
+      <c r="AD25" s="134"/>
+      <c r="AE25" s="46"/>
+      <c r="AF25" s="45"/>
+      <c r="AG25" s="2"/>
+      <c r="AH25" s="2"/>
+      <c r="AI25" s="46"/>
+      <c r="AJ25" s="2"/>
+      <c r="AK25" s="2"/>
+      <c r="AL25" s="45"/>
+      <c r="AM25" s="46"/>
+      <c r="AN25" s="2"/>
+      <c r="AO25" s="2"/>
+      <c r="AP25" s="46"/>
+      <c r="AX25" s="2"/>
+      <c r="AY25" s="134"/>
+      <c r="AZ25" s="45"/>
+      <c r="BA25" s="2"/>
+      <c r="BB25" s="45"/>
+      <c r="BC25" s="46"/>
+      <c r="BD25" s="2"/>
+      <c r="BE25" s="2"/>
+      <c r="BF25" s="2"/>
+      <c r="BG25" s="46"/>
+      <c r="BH25" s="2"/>
+      <c r="BI25" s="2"/>
+      <c r="BJ25" s="45"/>
+      <c r="BK25" s="46"/>
+      <c r="BL25" s="2"/>
+      <c r="BM25" s="2"/>
+      <c r="BN25" s="2"/>
+      <c r="BW25" s="2"/>
+      <c r="BX25" s="134"/>
+      <c r="BY25" s="45"/>
+      <c r="BZ25" s="2"/>
+      <c r="CA25" s="134"/>
+      <c r="CB25" s="46"/>
+      <c r="CC25" s="45"/>
+      <c r="CD25" s="2"/>
+      <c r="CE25" s="2"/>
+      <c r="CF25" s="46"/>
+      <c r="CG25" s="2"/>
+      <c r="CH25" s="2"/>
+      <c r="CI25" s="45"/>
+      <c r="CJ25" s="46"/>
+      <c r="CK25" s="2"/>
+      <c r="CL25" s="2"/>
+      <c r="CM25" s="46"/>
+    </row>
+    <row r="26" spans="3:91" x14ac:dyDescent="0.25">
+      <c r="C26" s="2"/>
+      <c r="D26" s="134"/>
+      <c r="E26" s="45"/>
+      <c r="F26" s="2"/>
+      <c r="G26" s="45"/>
+      <c r="H26" s="46"/>
+      <c r="I26" s="45"/>
+      <c r="J26" s="2"/>
+      <c r="K26" s="2"/>
+      <c r="L26" s="46"/>
+      <c r="M26" s="2"/>
+      <c r="N26" s="2"/>
+      <c r="O26" s="45"/>
+      <c r="P26" s="46"/>
+      <c r="Q26" s="2"/>
+      <c r="R26" s="2"/>
+      <c r="S26" s="46"/>
+      <c r="Z26" s="2"/>
+      <c r="AA26" s="134"/>
+      <c r="AB26" s="45"/>
+      <c r="AC26" s="2"/>
+      <c r="AD26" s="134"/>
+      <c r="AE26" s="46"/>
+      <c r="AF26" s="45"/>
+      <c r="AG26" s="2"/>
+      <c r="AH26" s="2"/>
+      <c r="AI26" s="46"/>
+      <c r="AJ26" s="2"/>
+      <c r="AK26" s="2"/>
+      <c r="AL26" s="45"/>
+      <c r="AM26" s="46"/>
+      <c r="AN26" s="2"/>
+      <c r="AO26" s="2"/>
+      <c r="AP26" s="46"/>
+      <c r="AX26" s="2"/>
+      <c r="AY26" s="134"/>
+      <c r="AZ26" s="45"/>
+      <c r="BA26" s="2"/>
+      <c r="BB26" s="45"/>
+      <c r="BC26" s="46"/>
+      <c r="BD26" s="2"/>
+      <c r="BE26" s="2"/>
+      <c r="BF26" s="2"/>
+      <c r="BG26" s="46"/>
+      <c r="BH26" s="2"/>
+      <c r="BI26" s="2"/>
+      <c r="BJ26" s="45"/>
+      <c r="BK26" s="46"/>
+      <c r="BL26" s="2"/>
+      <c r="BM26" s="2"/>
+      <c r="BN26" s="2"/>
+      <c r="BW26" s="2"/>
+      <c r="BX26" s="134"/>
+      <c r="BY26" s="45"/>
+      <c r="BZ26" s="2"/>
+      <c r="CA26" s="134"/>
+      <c r="CB26" s="46"/>
+      <c r="CC26" s="45"/>
+      <c r="CD26" s="2"/>
+      <c r="CE26" s="2"/>
+      <c r="CF26" s="46"/>
+      <c r="CG26" s="2"/>
+      <c r="CH26" s="2"/>
+      <c r="CI26" s="45"/>
+      <c r="CJ26" s="46"/>
+      <c r="CK26" s="2"/>
+      <c r="CL26" s="2"/>
+      <c r="CM26" s="46"/>
+    </row>
+    <row r="27" spans="3:91" x14ac:dyDescent="0.25">
+      <c r="C27" s="2"/>
+      <c r="D27" s="134"/>
+      <c r="E27" s="45"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="45"/>
+      <c r="H27" s="46"/>
+      <c r="I27" s="45"/>
+      <c r="J27" s="2"/>
+      <c r="K27" s="2"/>
+      <c r="L27" s="46"/>
+      <c r="M27" s="2"/>
+      <c r="N27" s="2"/>
+      <c r="O27" s="45"/>
+      <c r="P27" s="46"/>
+      <c r="Q27" s="2"/>
+      <c r="R27" s="2"/>
+      <c r="S27" s="46"/>
+      <c r="Z27" s="2"/>
+      <c r="AA27" s="134"/>
+      <c r="AB27" s="45"/>
+      <c r="AC27" s="2"/>
+      <c r="AD27" s="134"/>
+      <c r="AE27" s="46"/>
+      <c r="AF27" s="45"/>
+      <c r="AG27" s="2"/>
+      <c r="AH27" s="2"/>
+      <c r="AI27" s="46"/>
+      <c r="AJ27" s="2"/>
+      <c r="AK27" s="2"/>
+      <c r="AL27" s="45"/>
+      <c r="AM27" s="46"/>
+      <c r="AN27" s="2"/>
+      <c r="AO27" s="2"/>
+      <c r="AP27" s="46"/>
+      <c r="AX27" s="2"/>
+      <c r="AY27" s="134"/>
+      <c r="AZ27" s="45"/>
+      <c r="BA27" s="2"/>
+      <c r="BB27" s="45"/>
+      <c r="BC27" s="46"/>
+      <c r="BD27" s="2"/>
+      <c r="BE27" s="2"/>
+      <c r="BF27" s="2"/>
+      <c r="BG27" s="46"/>
+      <c r="BH27" s="2"/>
+      <c r="BI27" s="2"/>
+      <c r="BJ27" s="45"/>
+      <c r="BK27" s="46"/>
+      <c r="BL27" s="2"/>
+      <c r="BM27" s="2"/>
+      <c r="BN27" s="2"/>
+      <c r="BW27" s="2"/>
+      <c r="BX27" s="134"/>
+      <c r="BY27" s="45"/>
+      <c r="BZ27" s="2"/>
+      <c r="CA27" s="134"/>
+      <c r="CB27" s="46"/>
+      <c r="CC27" s="45"/>
+      <c r="CD27" s="2"/>
+      <c r="CE27" s="2"/>
+      <c r="CF27" s="46"/>
+      <c r="CG27" s="2"/>
+      <c r="CH27" s="2"/>
+      <c r="CI27" s="45"/>
+      <c r="CJ27" s="46"/>
+      <c r="CK27" s="2"/>
+      <c r="CL27" s="2"/>
+      <c r="CM27" s="46"/>
+    </row>
+    <row r="28" spans="3:91" x14ac:dyDescent="0.25">
+      <c r="C28" s="2"/>
+      <c r="D28" s="134"/>
+      <c r="E28" s="45"/>
+      <c r="F28" s="2"/>
+      <c r="G28" s="45"/>
+      <c r="H28" s="46"/>
+      <c r="I28" s="45"/>
+      <c r="J28" s="2"/>
+      <c r="K28" s="2"/>
+      <c r="L28" s="46"/>
+      <c r="M28" s="2"/>
+      <c r="N28" s="2"/>
+      <c r="O28" s="45"/>
+      <c r="P28" s="46"/>
+      <c r="Q28" s="2"/>
+      <c r="R28" s="2"/>
+      <c r="S28" s="46"/>
+      <c r="Z28" s="2"/>
+      <c r="AA28" s="134"/>
+      <c r="AB28" s="45"/>
+      <c r="AC28" s="2"/>
+      <c r="AD28" s="134"/>
+      <c r="AE28" s="46"/>
+      <c r="AF28" s="45"/>
+      <c r="AG28" s="2"/>
+      <c r="AH28" s="2"/>
+      <c r="AI28" s="46"/>
+      <c r="AJ28" s="2"/>
+      <c r="AK28" s="2"/>
+      <c r="AL28" s="45"/>
+      <c r="AM28" s="46"/>
+      <c r="AN28" s="2"/>
+      <c r="AO28" s="2"/>
+      <c r="AP28" s="46"/>
+      <c r="AX28" s="2"/>
+      <c r="AY28" s="134"/>
+      <c r="AZ28" s="45"/>
+      <c r="BA28" s="2"/>
+      <c r="BB28" s="45"/>
+      <c r="BC28" s="46"/>
+      <c r="BD28" s="2"/>
+      <c r="BE28" s="2"/>
+      <c r="BF28" s="2"/>
+      <c r="BG28" s="46"/>
+      <c r="BH28" s="2"/>
+      <c r="BI28" s="2"/>
+      <c r="BJ28" s="45"/>
+      <c r="BK28" s="46"/>
+      <c r="BL28" s="2"/>
+      <c r="BM28" s="2"/>
+      <c r="BN28" s="2"/>
+      <c r="BW28" s="2"/>
+      <c r="BX28" s="134"/>
+      <c r="BY28" s="45"/>
+      <c r="BZ28" s="2"/>
+      <c r="CA28" s="134"/>
+      <c r="CB28" s="46"/>
+      <c r="CC28" s="45"/>
+      <c r="CD28" s="2"/>
+      <c r="CE28" s="2"/>
+      <c r="CF28" s="46"/>
+      <c r="CG28" s="2"/>
+      <c r="CH28" s="2"/>
+      <c r="CI28" s="45"/>
+      <c r="CJ28" s="46"/>
+      <c r="CK28" s="2"/>
+      <c r="CL28" s="2"/>
+      <c r="CM28" s="46"/>
+    </row>
+    <row r="29" spans="3:91" x14ac:dyDescent="0.25">
+      <c r="D29" s="134"/>
+      <c r="E29" s="45"/>
+      <c r="F29" s="2"/>
+      <c r="G29" s="45"/>
+      <c r="H29" s="46"/>
+      <c r="I29" s="45"/>
+      <c r="J29" s="2"/>
+      <c r="K29" s="2"/>
+      <c r="L29" s="46"/>
+      <c r="M29" s="2"/>
+      <c r="N29" s="2"/>
+      <c r="O29" s="45"/>
+      <c r="P29" s="46"/>
+      <c r="Q29" s="2"/>
+      <c r="R29" s="2"/>
+      <c r="S29" s="46"/>
+      <c r="AA29" s="134"/>
+      <c r="AB29" s="45"/>
+      <c r="AC29" s="2"/>
+      <c r="AD29" s="134"/>
+      <c r="AE29" s="46"/>
+      <c r="AF29" s="45"/>
+      <c r="AG29" s="2"/>
+      <c r="AH29" s="2"/>
+      <c r="AI29" s="46"/>
+      <c r="AJ29" s="2"/>
+      <c r="AK29" s="2"/>
+      <c r="AL29" s="45"/>
+      <c r="AM29" s="46"/>
+      <c r="AN29" s="2"/>
+      <c r="AO29" s="2"/>
+      <c r="AP29" s="46"/>
+      <c r="AY29" s="134"/>
+      <c r="AZ29" s="45"/>
+      <c r="BA29" s="2"/>
+      <c r="BB29" s="45"/>
+      <c r="BC29" s="46"/>
+      <c r="BD29" s="2"/>
+      <c r="BE29" s="2"/>
+      <c r="BF29" s="2"/>
+      <c r="BG29" s="46"/>
+      <c r="BH29" s="2"/>
+      <c r="BI29" s="2"/>
+      <c r="BJ29" s="45"/>
+      <c r="BK29" s="46"/>
+      <c r="BL29" s="2"/>
+      <c r="BM29" s="2"/>
+      <c r="BN29" s="2"/>
+      <c r="BX29" s="134"/>
+      <c r="BY29" s="45"/>
+      <c r="BZ29" s="2"/>
+      <c r="CA29" s="134"/>
+      <c r="CB29" s="46"/>
+      <c r="CC29" s="45"/>
+      <c r="CD29" s="2"/>
+      <c r="CE29" s="2"/>
+      <c r="CF29" s="46"/>
+      <c r="CG29" s="2"/>
+      <c r="CH29" s="2"/>
+      <c r="CI29" s="45"/>
+      <c r="CJ29" s="46"/>
+      <c r="CK29" s="2"/>
+      <c r="CL29" s="2"/>
+      <c r="CM29" s="46"/>
+    </row>
+    <row r="30" spans="3:91" x14ac:dyDescent="0.25">
+      <c r="D30" s="134"/>
+      <c r="E30" s="45"/>
+      <c r="F30" s="2"/>
+      <c r="G30" s="45"/>
+      <c r="H30" s="46"/>
+      <c r="I30" s="45"/>
+      <c r="J30" s="2"/>
+      <c r="K30" s="2"/>
+      <c r="L30" s="46"/>
+      <c r="M30" s="2"/>
+      <c r="N30" s="2"/>
+      <c r="O30" s="45"/>
+      <c r="P30" s="46"/>
+      <c r="Q30" s="2"/>
+      <c r="R30" s="2"/>
+      <c r="S30" s="46"/>
+      <c r="AA30" s="134"/>
+      <c r="AB30" s="45"/>
+      <c r="AC30" s="2"/>
+      <c r="AD30" s="134"/>
+      <c r="AE30" s="46"/>
+      <c r="AF30" s="45"/>
+      <c r="AG30" s="2"/>
+      <c r="AH30" s="2"/>
+      <c r="AI30" s="46"/>
+      <c r="AJ30" s="2"/>
+      <c r="AK30" s="2"/>
+      <c r="AL30" s="45"/>
+      <c r="AM30" s="46"/>
+      <c r="AN30" s="2"/>
+      <c r="AO30" s="2"/>
+      <c r="AP30" s="46"/>
+      <c r="AY30" s="134"/>
+      <c r="AZ30" s="45"/>
+      <c r="BA30" s="2"/>
+      <c r="BB30" s="45"/>
+      <c r="BC30" s="46"/>
+      <c r="BD30" s="2"/>
+      <c r="BE30" s="2"/>
+      <c r="BF30" s="2"/>
+      <c r="BG30" s="46"/>
+      <c r="BH30" s="2"/>
+      <c r="BI30" s="2"/>
+      <c r="BJ30" s="45"/>
+      <c r="BK30" s="46"/>
+      <c r="BL30" s="2"/>
+      <c r="BM30" s="2"/>
+      <c r="BN30" s="2"/>
+      <c r="BX30" s="134"/>
+      <c r="BY30" s="45"/>
+      <c r="BZ30" s="2"/>
+      <c r="CA30" s="134"/>
+      <c r="CB30" s="46"/>
+      <c r="CC30" s="45"/>
+      <c r="CD30" s="2"/>
+      <c r="CE30" s="2"/>
+      <c r="CF30" s="46"/>
+      <c r="CG30" s="2"/>
+      <c r="CH30" s="2"/>
+      <c r="CI30" s="45"/>
+      <c r="CJ30" s="46"/>
+      <c r="CK30" s="2"/>
+      <c r="CL30" s="2"/>
+      <c r="CM30" s="46"/>
+    </row>
+    <row r="31" spans="3:91" x14ac:dyDescent="0.25">
+      <c r="D31" s="135"/>
+      <c r="E31" s="47"/>
+      <c r="F31" s="48"/>
+      <c r="G31" s="47"/>
+      <c r="H31" s="136"/>
+      <c r="I31" s="47"/>
+      <c r="J31" s="48"/>
+      <c r="K31" s="48"/>
+      <c r="L31" s="136"/>
+      <c r="M31" s="48"/>
+      <c r="N31" s="48"/>
+      <c r="O31" s="47"/>
+      <c r="P31" s="136"/>
+      <c r="Q31" s="48"/>
+      <c r="R31" s="48"/>
+      <c r="S31" s="136"/>
+      <c r="AA31" s="135"/>
+      <c r="AB31" s="47"/>
+      <c r="AC31" s="48"/>
+      <c r="AD31" s="135"/>
+      <c r="AE31" s="136"/>
+      <c r="AF31" s="47"/>
+      <c r="AG31" s="48"/>
+      <c r="AH31" s="48"/>
+      <c r="AI31" s="136"/>
+      <c r="AJ31" s="48"/>
+      <c r="AK31" s="48"/>
+      <c r="AL31" s="47"/>
+      <c r="AM31" s="136"/>
+      <c r="AN31" s="48"/>
+      <c r="AO31" s="48"/>
+      <c r="AP31" s="136"/>
+      <c r="AY31" s="135"/>
+      <c r="AZ31" s="47"/>
+      <c r="BA31" s="48"/>
+      <c r="BB31" s="47"/>
+      <c r="BC31" s="136"/>
+      <c r="BD31" s="48"/>
+      <c r="BE31" s="48"/>
+      <c r="BF31" s="48"/>
+      <c r="BG31" s="136"/>
+      <c r="BH31" s="48"/>
+      <c r="BI31" s="48"/>
+      <c r="BJ31" s="47"/>
+      <c r="BK31" s="136"/>
+      <c r="BL31" s="48"/>
+      <c r="BM31" s="48"/>
+      <c r="BN31" s="48"/>
+      <c r="BX31" s="135"/>
+      <c r="BY31" s="47"/>
+      <c r="BZ31" s="48"/>
+      <c r="CA31" s="135"/>
+      <c r="CB31" s="136"/>
+      <c r="CC31" s="47"/>
+      <c r="CD31" s="48"/>
+      <c r="CE31" s="48"/>
+      <c r="CF31" s="136"/>
+      <c r="CG31" s="48"/>
+      <c r="CH31" s="48"/>
+      <c r="CI31" s="47"/>
+      <c r="CJ31" s="136"/>
+      <c r="CK31" s="48"/>
+      <c r="CL31" s="48"/>
+      <c r="CM31" s="136"/>
+    </row>
+    <row r="32" spans="3:91" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="Q32" s="158" t="s">
+        <v>76</v>
+      </c>
+      <c r="R32" s="159"/>
+      <c r="S32" s="160"/>
+      <c r="BL32" s="186" t="s">
+        <v>104</v>
+      </c>
+      <c r="BM32" s="187"/>
+      <c r="BN32" s="187"/>
+    </row>
+    <row r="36" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="C36" s="129"/>
+      <c r="D36" s="2"/>
+      <c r="E36" s="2"/>
+      <c r="F36" s="2"/>
+      <c r="G36" s="2"/>
+      <c r="H36" s="2"/>
+      <c r="I36" s="2"/>
+      <c r="J36" s="2"/>
+      <c r="K36" s="2"/>
+      <c r="L36" s="2"/>
+      <c r="M36" s="2"/>
+      <c r="N36" s="2"/>
+      <c r="O36" s="2"/>
+      <c r="P36" s="2"/>
+      <c r="Q36" s="2"/>
+      <c r="R36" s="3"/>
+      <c r="S36" s="3"/>
+    </row>
+    <row r="37" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="C37" s="132"/>
+      <c r="D37" s="131"/>
+      <c r="E37" s="131"/>
+      <c r="F37" s="131"/>
+      <c r="G37" s="131"/>
+      <c r="H37" s="131"/>
+      <c r="I37" s="131"/>
+      <c r="J37" s="131"/>
+      <c r="K37" s="131"/>
+      <c r="L37" s="131"/>
+      <c r="M37" s="131"/>
+      <c r="N37" s="131"/>
+      <c r="O37" s="131"/>
+      <c r="P37" s="131"/>
+      <c r="Q37" s="131"/>
+      <c r="R37" s="131"/>
+      <c r="S37" s="133"/>
+    </row>
+    <row r="38" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="C38" s="130"/>
+      <c r="D38" s="18"/>
+      <c r="E38" s="18"/>
+      <c r="F38" s="18"/>
+      <c r="G38" s="58" t="s">
+        <v>13</v>
+      </c>
+      <c r="H38" s="58"/>
+      <c r="I38" s="58"/>
+      <c r="J38" s="58"/>
+      <c r="K38" s="58"/>
+      <c r="L38" s="58"/>
+      <c r="M38" s="58"/>
+      <c r="N38" s="18"/>
+      <c r="O38" s="18"/>
+      <c r="P38" s="18"/>
+      <c r="Q38" s="18"/>
+      <c r="R38" s="19"/>
+      <c r="S38" s="19"/>
+    </row>
+    <row r="39" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="C39" s="66" t="s">
+        <v>14</v>
+      </c>
+      <c r="D39" s="67"/>
+      <c r="E39" s="67"/>
+      <c r="F39" s="67"/>
+      <c r="G39" s="58"/>
+      <c r="H39" s="58"/>
+      <c r="I39" s="58"/>
+      <c r="J39" s="58"/>
+      <c r="K39" s="58"/>
+      <c r="L39" s="58"/>
+      <c r="M39" s="58"/>
+      <c r="N39" s="18"/>
+      <c r="O39" s="18"/>
+      <c r="P39" s="18"/>
+      <c r="Q39" s="18"/>
+      <c r="R39" s="19"/>
+      <c r="S39" s="19"/>
+    </row>
+    <row r="40" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="C40" s="68"/>
+      <c r="D40" s="67"/>
+      <c r="E40" s="67"/>
+      <c r="F40" s="67"/>
+      <c r="G40" s="58"/>
+      <c r="H40" s="58"/>
+      <c r="I40" s="58"/>
+      <c r="J40" s="58"/>
+      <c r="K40" s="58"/>
+      <c r="L40" s="58"/>
+      <c r="M40" s="58"/>
+      <c r="N40" s="18"/>
+      <c r="O40" s="60" t="s">
+        <v>3</v>
+      </c>
+      <c r="P40" s="61"/>
+      <c r="Q40" s="18"/>
+      <c r="R40" s="19"/>
+      <c r="S40" s="19"/>
+    </row>
+    <row r="41" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="C41" s="69" t="s">
+        <v>11</v>
+      </c>
+      <c r="D41" s="69"/>
+      <c r="E41" s="69"/>
+      <c r="F41" s="69"/>
+      <c r="G41" s="58"/>
+      <c r="H41" s="58"/>
+      <c r="I41" s="58"/>
+      <c r="J41" s="58"/>
+      <c r="K41" s="58"/>
+      <c r="L41" s="58"/>
+      <c r="M41" s="58"/>
+      <c r="N41" s="18"/>
+      <c r="O41" s="62"/>
+      <c r="P41" s="63"/>
+      <c r="Q41" s="18"/>
+      <c r="R41" s="19"/>
+      <c r="S41" s="19"/>
+    </row>
+    <row r="42" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="C42" s="69" t="s">
+        <v>12</v>
+      </c>
+      <c r="D42" s="69"/>
+      <c r="E42" s="69"/>
+      <c r="F42" s="69"/>
+      <c r="G42" s="58"/>
+      <c r="H42" s="58"/>
+      <c r="I42" s="58"/>
+      <c r="J42" s="58"/>
+      <c r="K42" s="58"/>
+      <c r="L42" s="58"/>
+      <c r="M42" s="58"/>
+      <c r="N42" s="18"/>
+      <c r="O42" s="64"/>
+      <c r="P42" s="65"/>
+      <c r="Q42" s="18"/>
+      <c r="R42" s="19"/>
+      <c r="S42" s="19"/>
+    </row>
+    <row r="43" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="C43" s="20"/>
+      <c r="D43" s="21"/>
+      <c r="E43" s="21"/>
+      <c r="F43" s="21"/>
+      <c r="G43" s="59"/>
+      <c r="H43" s="59"/>
+      <c r="I43" s="59"/>
+      <c r="J43" s="59"/>
+      <c r="K43" s="59"/>
+      <c r="L43" s="59"/>
+      <c r="M43" s="59"/>
+      <c r="N43" s="21"/>
+      <c r="O43" s="21"/>
+      <c r="P43" s="21"/>
+      <c r="Q43" s="21"/>
+      <c r="R43" s="22"/>
+      <c r="S43" s="22"/>
+    </row>
+  </sheetData>
+  <mergeCells count="94">
+    <mergeCell ref="BL32:BN32"/>
+    <mergeCell ref="CK15:CM15"/>
+    <mergeCell ref="BU16:BW16"/>
+    <mergeCell ref="CK16:CM16"/>
+    <mergeCell ref="BU17:BW17"/>
+    <mergeCell ref="BU18:BW18"/>
+    <mergeCell ref="BB14:BC14"/>
+    <mergeCell ref="BB15:BC16"/>
+    <mergeCell ref="BY15:BZ16"/>
+    <mergeCell ref="CA15:CA16"/>
+    <mergeCell ref="CB15:CB16"/>
+    <mergeCell ref="CC15:CF16"/>
+    <mergeCell ref="CG15:CH16"/>
+    <mergeCell ref="CI15:CJ16"/>
+    <mergeCell ref="CG13:CL13"/>
+    <mergeCell ref="BY14:BZ14"/>
+    <mergeCell ref="CC14:CF14"/>
+    <mergeCell ref="CG14:CH14"/>
+    <mergeCell ref="CI14:CJ14"/>
+    <mergeCell ref="CK14:CM14"/>
+    <mergeCell ref="BL15:BN15"/>
+    <mergeCell ref="AV16:AX16"/>
+    <mergeCell ref="BL16:BN16"/>
+    <mergeCell ref="AV17:AX17"/>
+    <mergeCell ref="AV18:AX18"/>
+    <mergeCell ref="BW13:BX13"/>
+    <mergeCell ref="BU15:BW15"/>
+    <mergeCell ref="BX15:BX16"/>
+    <mergeCell ref="AZ15:BA16"/>
+    <mergeCell ref="BD15:BG16"/>
+    <mergeCell ref="BH15:BI16"/>
+    <mergeCell ref="BJ15:BK16"/>
+    <mergeCell ref="AX13:AY13"/>
+    <mergeCell ref="AZ14:BA14"/>
+    <mergeCell ref="BD14:BG14"/>
+    <mergeCell ref="BH14:BI14"/>
+    <mergeCell ref="BJ14:BK14"/>
+    <mergeCell ref="BL14:BN14"/>
+    <mergeCell ref="AV15:AX15"/>
+    <mergeCell ref="AY15:AY16"/>
+    <mergeCell ref="AJ13:AO13"/>
+    <mergeCell ref="AL15:AM16"/>
+    <mergeCell ref="AB15:AC16"/>
+    <mergeCell ref="AD15:AD16"/>
+    <mergeCell ref="AE15:AE16"/>
+    <mergeCell ref="AF15:AI16"/>
+    <mergeCell ref="AJ15:AK16"/>
+    <mergeCell ref="AB14:AC14"/>
+    <mergeCell ref="AF14:AI14"/>
+    <mergeCell ref="AN15:AP15"/>
+    <mergeCell ref="AN14:AP14"/>
+    <mergeCell ref="AL14:AM14"/>
+    <mergeCell ref="AJ14:AK14"/>
+    <mergeCell ref="X15:Z15"/>
+    <mergeCell ref="X16:Z16"/>
+    <mergeCell ref="X17:Z17"/>
+    <mergeCell ref="X18:Z18"/>
+    <mergeCell ref="AN16:AP16"/>
+    <mergeCell ref="AA15:AA16"/>
+    <mergeCell ref="Z13:AA13"/>
+    <mergeCell ref="Q32:S32"/>
+    <mergeCell ref="N13:R13"/>
+    <mergeCell ref="K13:M13"/>
+    <mergeCell ref="E15:F16"/>
+    <mergeCell ref="G15:H16"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="O14:P14"/>
+    <mergeCell ref="Q14:S14"/>
+    <mergeCell ref="Q16:S16"/>
+    <mergeCell ref="Q15:S15"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="I15:L16"/>
+    <mergeCell ref="M15:N16"/>
+    <mergeCell ref="O15:P16"/>
     <mergeCell ref="O40:P42"/>
     <mergeCell ref="C41:F41"/>
     <mergeCell ref="C42:F42"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="I14:L14"/>
     <mergeCell ref="C13:D13"/>
+    <mergeCell ref="G38:M43"/>
+    <mergeCell ref="C39:F40"/>
+    <mergeCell ref="M14:N14"/>
     <mergeCell ref="L1:M1"/>
     <mergeCell ref="N1:Q1"/>
     <mergeCell ref="R1:S1"/>
@@ -4671,4 +7116,825 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="C1:S43"/>
+  <sheetViews>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="X12" sqref="X12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="9.140625" customWidth="1"/>
+    <col min="3" max="3" width="26.28515625" customWidth="1"/>
+    <col min="4" max="4" width="18.140625" customWidth="1"/>
+    <col min="5" max="5" width="9.5703125" customWidth="1"/>
+    <col min="6" max="6" width="10.28515625" customWidth="1"/>
+    <col min="7" max="7" width="9.85546875" customWidth="1"/>
+    <col min="8" max="8" width="9.140625" customWidth="1"/>
+    <col min="15" max="15" width="12.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="3:19" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J1" s="71" t="s">
+        <v>59</v>
+      </c>
+      <c r="K1" s="72"/>
+      <c r="L1" s="71" t="s">
+        <v>2</v>
+      </c>
+      <c r="M1" s="72"/>
+      <c r="N1" s="73" t="s">
+        <v>10</v>
+      </c>
+      <c r="O1" s="73"/>
+      <c r="P1" s="73"/>
+      <c r="Q1" s="73"/>
+      <c r="R1" s="70" t="s">
+        <v>4</v>
+      </c>
+      <c r="S1" s="70"/>
+    </row>
+    <row r="2" spans="3:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C2" s="75" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="76"/>
+      <c r="E2" s="83" t="s">
+        <v>0</v>
+      </c>
+      <c r="F2" s="84"/>
+      <c r="G2" s="84"/>
+      <c r="H2" s="84"/>
+      <c r="I2" s="84"/>
+      <c r="J2" s="84"/>
+      <c r="K2" s="84"/>
+      <c r="L2" s="84"/>
+      <c r="M2" s="84"/>
+      <c r="N2" s="84"/>
+      <c r="O2" s="84"/>
+      <c r="P2" s="84"/>
+      <c r="Q2" s="84"/>
+      <c r="R2" s="84"/>
+      <c r="S2" s="84"/>
+    </row>
+    <row r="3" spans="3:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C3" s="77"/>
+      <c r="D3" s="78"/>
+      <c r="E3" s="83"/>
+      <c r="F3" s="84"/>
+      <c r="G3" s="84"/>
+      <c r="H3" s="84"/>
+      <c r="I3" s="84"/>
+      <c r="J3" s="84"/>
+      <c r="K3" s="84"/>
+      <c r="L3" s="84"/>
+      <c r="M3" s="84"/>
+      <c r="N3" s="84"/>
+      <c r="O3" s="84"/>
+      <c r="P3" s="84"/>
+      <c r="Q3" s="84"/>
+      <c r="R3" s="84"/>
+      <c r="S3" s="84"/>
+    </row>
+    <row r="4" spans="3:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C4" s="77"/>
+      <c r="D4" s="78"/>
+      <c r="E4" s="83"/>
+      <c r="F4" s="84"/>
+      <c r="G4" s="84"/>
+      <c r="H4" s="84"/>
+      <c r="I4" s="84"/>
+      <c r="J4" s="84"/>
+      <c r="K4" s="84"/>
+      <c r="L4" s="84"/>
+      <c r="M4" s="84"/>
+      <c r="N4" s="84"/>
+      <c r="O4" s="84"/>
+      <c r="P4" s="84"/>
+      <c r="Q4" s="84"/>
+      <c r="R4" s="84"/>
+      <c r="S4" s="84"/>
+    </row>
+    <row r="5" spans="3:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C5" s="77"/>
+      <c r="D5" s="78"/>
+      <c r="E5" s="83"/>
+      <c r="F5" s="84"/>
+      <c r="G5" s="84"/>
+      <c r="H5" s="84"/>
+      <c r="I5" s="84"/>
+      <c r="J5" s="84"/>
+      <c r="K5" s="84"/>
+      <c r="L5" s="84"/>
+      <c r="M5" s="84"/>
+      <c r="N5" s="84"/>
+      <c r="O5" s="84"/>
+      <c r="P5" s="84"/>
+      <c r="Q5" s="84"/>
+      <c r="R5" s="84"/>
+      <c r="S5" s="84"/>
+    </row>
+    <row r="6" spans="3:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C6" s="77"/>
+      <c r="D6" s="78"/>
+      <c r="E6" s="83"/>
+      <c r="F6" s="84"/>
+      <c r="G6" s="84"/>
+      <c r="H6" s="84"/>
+      <c r="I6" s="84"/>
+      <c r="J6" s="84"/>
+      <c r="K6" s="84"/>
+      <c r="L6" s="84"/>
+      <c r="M6" s="84"/>
+      <c r="N6" s="84"/>
+      <c r="O6" s="84"/>
+      <c r="P6" s="84"/>
+      <c r="Q6" s="84"/>
+      <c r="R6" s="84"/>
+      <c r="S6" s="84"/>
+    </row>
+    <row r="7" spans="3:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C7" s="77"/>
+      <c r="D7" s="78"/>
+      <c r="E7" s="83"/>
+      <c r="F7" s="84"/>
+      <c r="G7" s="84"/>
+      <c r="H7" s="84"/>
+      <c r="I7" s="84"/>
+      <c r="J7" s="84"/>
+      <c r="K7" s="84"/>
+      <c r="L7" s="84"/>
+      <c r="M7" s="84"/>
+      <c r="N7" s="84"/>
+      <c r="O7" s="84"/>
+      <c r="P7" s="84"/>
+      <c r="Q7" s="84"/>
+      <c r="R7" s="84"/>
+      <c r="S7" s="84"/>
+    </row>
+    <row r="8" spans="3:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C8" s="79"/>
+      <c r="D8" s="80"/>
+      <c r="E8" s="83"/>
+      <c r="F8" s="84"/>
+      <c r="G8" s="84"/>
+      <c r="H8" s="84"/>
+      <c r="I8" s="84"/>
+      <c r="J8" s="84"/>
+      <c r="K8" s="84"/>
+      <c r="L8" s="84"/>
+      <c r="M8" s="84"/>
+      <c r="N8" s="84"/>
+      <c r="O8" s="84"/>
+      <c r="P8" s="84"/>
+      <c r="Q8" s="84"/>
+      <c r="R8" s="84"/>
+      <c r="S8" s="84"/>
+    </row>
+    <row r="11" spans="3:19" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C11" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="D11" s="42" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11" s="81" t="s">
+        <v>9</v>
+      </c>
+      <c r="F11" s="82"/>
+      <c r="G11" s="81" t="s">
+        <v>15</v>
+      </c>
+      <c r="H11" s="82"/>
+      <c r="I11" s="85" t="s">
+        <v>20</v>
+      </c>
+      <c r="J11" s="85"/>
+      <c r="N11" s="56" t="s">
+        <v>23</v>
+      </c>
+      <c r="O11" s="56"/>
+      <c r="P11" s="56"/>
+      <c r="Q11" s="56"/>
+      <c r="R11" s="56"/>
+      <c r="S11" s="27" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="3:19" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C12" s="1"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+    </row>
+    <row r="13" spans="3:19" ht="31.5" x14ac:dyDescent="0.5">
+      <c r="C13" s="106" t="s">
+        <v>59</v>
+      </c>
+      <c r="D13" s="106"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="8"/>
+      <c r="I13" s="8"/>
+      <c r="J13" s="8"/>
+      <c r="K13" s="168" t="s">
+        <v>77</v>
+      </c>
+      <c r="L13" s="168"/>
+      <c r="M13" s="169"/>
+      <c r="N13" s="56" t="s">
+        <v>78</v>
+      </c>
+      <c r="O13" s="56"/>
+      <c r="P13" s="56"/>
+      <c r="Q13" s="56"/>
+      <c r="R13" s="56"/>
+      <c r="S13" s="27" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="3:19" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="D14" s="145" t="s">
+        <v>64</v>
+      </c>
+      <c r="E14" s="138" t="s">
+        <v>65</v>
+      </c>
+      <c r="F14" s="141"/>
+      <c r="G14" s="142"/>
+      <c r="H14" s="143"/>
+      <c r="I14" s="144" t="s">
+        <v>29</v>
+      </c>
+      <c r="J14" s="142"/>
+      <c r="K14" s="142"/>
+      <c r="L14" s="143"/>
+      <c r="M14" s="138" t="s">
+        <v>68</v>
+      </c>
+      <c r="N14" s="141"/>
+      <c r="O14" s="138" t="s">
+        <v>69</v>
+      </c>
+      <c r="P14" s="139"/>
+      <c r="Q14" s="141" t="s">
+        <v>72</v>
+      </c>
+      <c r="R14" s="141"/>
+      <c r="S14" s="139"/>
+    </row>
+    <row r="15" spans="3:19" ht="21" x14ac:dyDescent="0.35">
+      <c r="C15" s="146" t="s">
+        <v>60</v>
+      </c>
+      <c r="D15" s="154">
+        <v>1</v>
+      </c>
+      <c r="E15" s="155" t="s">
+        <v>66</v>
+      </c>
+      <c r="F15" s="156"/>
+      <c r="G15" s="156"/>
+      <c r="H15" s="157"/>
+      <c r="I15" s="155" t="s">
+        <v>70</v>
+      </c>
+      <c r="J15" s="156"/>
+      <c r="K15" s="156"/>
+      <c r="L15" s="157"/>
+      <c r="M15" s="155" t="s">
+        <v>71</v>
+      </c>
+      <c r="N15" s="157"/>
+      <c r="O15" s="155">
+        <v>520000</v>
+      </c>
+      <c r="P15" s="157"/>
+      <c r="Q15" s="158" t="s">
+        <v>74</v>
+      </c>
+      <c r="R15" s="159"/>
+      <c r="S15" s="160"/>
+    </row>
+    <row r="16" spans="3:19" ht="21" x14ac:dyDescent="0.35">
+      <c r="C16" s="146" t="s">
+        <v>61</v>
+      </c>
+      <c r="D16" s="161"/>
+      <c r="E16" s="162"/>
+      <c r="F16" s="163"/>
+      <c r="G16" s="163"/>
+      <c r="H16" s="164"/>
+      <c r="I16" s="162"/>
+      <c r="J16" s="163"/>
+      <c r="K16" s="163"/>
+      <c r="L16" s="164"/>
+      <c r="M16" s="162"/>
+      <c r="N16" s="164"/>
+      <c r="O16" s="162"/>
+      <c r="P16" s="164"/>
+      <c r="Q16" s="165" t="s">
+        <v>75</v>
+      </c>
+      <c r="R16" s="166"/>
+      <c r="S16" s="167"/>
+    </row>
+    <row r="17" spans="3:19" ht="21" x14ac:dyDescent="0.35">
+      <c r="C17" s="146" t="s">
+        <v>62</v>
+      </c>
+      <c r="D17" s="149">
+        <v>2</v>
+      </c>
+      <c r="E17" s="150" t="s">
+        <v>67</v>
+      </c>
+      <c r="F17" s="151"/>
+      <c r="G17" s="151"/>
+      <c r="H17" s="151"/>
+      <c r="I17" s="150"/>
+      <c r="J17" s="151"/>
+      <c r="K17" s="151"/>
+      <c r="L17" s="152"/>
+      <c r="M17" s="151"/>
+      <c r="N17" s="151"/>
+      <c r="O17" s="150"/>
+      <c r="P17" s="152"/>
+      <c r="Q17" s="151"/>
+      <c r="R17" s="153"/>
+      <c r="S17" s="152"/>
+    </row>
+    <row r="18" spans="3:19" ht="21" x14ac:dyDescent="0.35">
+      <c r="C18" s="146" t="s">
+        <v>63</v>
+      </c>
+      <c r="D18" s="149">
+        <v>3</v>
+      </c>
+      <c r="E18" s="150" t="s">
+        <v>73</v>
+      </c>
+      <c r="F18" s="151"/>
+      <c r="G18" s="151"/>
+      <c r="H18" s="151"/>
+      <c r="I18" s="150"/>
+      <c r="J18" s="151"/>
+      <c r="K18" s="151"/>
+      <c r="L18" s="152"/>
+      <c r="M18" s="151"/>
+      <c r="N18" s="151"/>
+      <c r="O18" s="150"/>
+      <c r="P18" s="152"/>
+      <c r="Q18" s="151"/>
+      <c r="R18" s="151"/>
+      <c r="S18" s="152"/>
+    </row>
+    <row r="19" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="D19" s="134"/>
+      <c r="E19" s="45"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="45"/>
+      <c r="J19" s="2"/>
+      <c r="K19" s="2"/>
+      <c r="L19" s="46"/>
+      <c r="M19" s="2"/>
+      <c r="N19" s="2"/>
+      <c r="O19" s="45"/>
+      <c r="P19" s="46"/>
+      <c r="Q19" s="2"/>
+      <c r="R19" s="2"/>
+      <c r="S19" s="46"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="D20" s="134"/>
+      <c r="E20" s="45"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
+      <c r="I20" s="45"/>
+      <c r="J20" s="2"/>
+      <c r="K20" s="2"/>
+      <c r="L20" s="46"/>
+      <c r="M20" s="2"/>
+      <c r="N20" s="2"/>
+      <c r="O20" s="45"/>
+      <c r="P20" s="46"/>
+      <c r="Q20" s="2"/>
+      <c r="R20" s="2"/>
+      <c r="S20" s="46"/>
+    </row>
+    <row r="21" spans="3:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D21" s="134"/>
+      <c r="E21" s="45"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
+      <c r="I21" s="45"/>
+      <c r="J21" s="2"/>
+      <c r="K21" s="2"/>
+      <c r="L21" s="46"/>
+      <c r="M21" s="2"/>
+      <c r="N21" s="2"/>
+      <c r="O21" s="45"/>
+      <c r="P21" s="46"/>
+      <c r="Q21" s="2"/>
+      <c r="R21" s="2"/>
+      <c r="S21" s="46"/>
+    </row>
+    <row r="22" spans="3:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D22" s="134"/>
+      <c r="E22" s="45"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
+      <c r="I22" s="45"/>
+      <c r="J22" s="2"/>
+      <c r="K22" s="2"/>
+      <c r="L22" s="46"/>
+      <c r="M22" s="2"/>
+      <c r="N22" s="2"/>
+      <c r="O22" s="45"/>
+      <c r="P22" s="46"/>
+      <c r="Q22" s="2"/>
+      <c r="R22" s="2"/>
+      <c r="S22" s="46"/>
+    </row>
+    <row r="23" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="D23" s="134"/>
+      <c r="E23" s="45"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2"/>
+      <c r="I23" s="45"/>
+      <c r="J23" s="2"/>
+      <c r="K23" s="2"/>
+      <c r="L23" s="46"/>
+      <c r="M23" s="2"/>
+      <c r="N23" s="2"/>
+      <c r="O23" s="45"/>
+      <c r="P23" s="46"/>
+      <c r="Q23" s="2"/>
+      <c r="R23" s="2"/>
+      <c r="S23" s="46"/>
+    </row>
+    <row r="24" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="D24" s="134"/>
+      <c r="E24" s="45"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
+      <c r="H24" s="2"/>
+      <c r="I24" s="45"/>
+      <c r="J24" s="2"/>
+      <c r="K24" s="2"/>
+      <c r="L24" s="46"/>
+      <c r="M24" s="2"/>
+      <c r="N24" s="2"/>
+      <c r="O24" s="45"/>
+      <c r="P24" s="46"/>
+      <c r="Q24" s="2"/>
+      <c r="R24" s="2"/>
+      <c r="S24" s="46"/>
+    </row>
+    <row r="25" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="C25" s="2"/>
+      <c r="D25" s="134"/>
+      <c r="E25" s="45"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2"/>
+      <c r="H25" s="2"/>
+      <c r="I25" s="45"/>
+      <c r="J25" s="2"/>
+      <c r="K25" s="2"/>
+      <c r="L25" s="46"/>
+      <c r="M25" s="2"/>
+      <c r="N25" s="2"/>
+      <c r="O25" s="45"/>
+      <c r="P25" s="46"/>
+      <c r="Q25" s="2"/>
+      <c r="R25" s="2"/>
+      <c r="S25" s="46"/>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="C26" s="2"/>
+      <c r="D26" s="134"/>
+      <c r="E26" s="45"/>
+      <c r="F26" s="2"/>
+      <c r="G26" s="2"/>
+      <c r="H26" s="2"/>
+      <c r="I26" s="45"/>
+      <c r="J26" s="2"/>
+      <c r="K26" s="2"/>
+      <c r="L26" s="46"/>
+      <c r="M26" s="2"/>
+      <c r="N26" s="2"/>
+      <c r="O26" s="45"/>
+      <c r="P26" s="46"/>
+      <c r="Q26" s="2"/>
+      <c r="R26" s="2"/>
+      <c r="S26" s="46"/>
+    </row>
+    <row r="27" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="C27" s="2"/>
+      <c r="D27" s="134"/>
+      <c r="E27" s="45"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="2"/>
+      <c r="H27" s="2"/>
+      <c r="I27" s="45"/>
+      <c r="J27" s="2"/>
+      <c r="K27" s="2"/>
+      <c r="L27" s="46"/>
+      <c r="M27" s="2"/>
+      <c r="N27" s="2"/>
+      <c r="O27" s="45"/>
+      <c r="P27" s="46"/>
+      <c r="Q27" s="2"/>
+      <c r="R27" s="2"/>
+      <c r="S27" s="46"/>
+    </row>
+    <row r="28" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="C28" s="2"/>
+      <c r="D28" s="134"/>
+      <c r="E28" s="45"/>
+      <c r="F28" s="2"/>
+      <c r="G28" s="2"/>
+      <c r="H28" s="2"/>
+      <c r="I28" s="45"/>
+      <c r="J28" s="2"/>
+      <c r="K28" s="2"/>
+      <c r="L28" s="46"/>
+      <c r="M28" s="2"/>
+      <c r="N28" s="2"/>
+      <c r="O28" s="45"/>
+      <c r="P28" s="46"/>
+      <c r="Q28" s="2"/>
+      <c r="R28" s="2"/>
+      <c r="S28" s="46"/>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="D29" s="134"/>
+      <c r="E29" s="45"/>
+      <c r="F29" s="2"/>
+      <c r="G29" s="2"/>
+      <c r="H29" s="2"/>
+      <c r="I29" s="45"/>
+      <c r="J29" s="2"/>
+      <c r="K29" s="2"/>
+      <c r="L29" s="46"/>
+      <c r="M29" s="2"/>
+      <c r="N29" s="2"/>
+      <c r="O29" s="45"/>
+      <c r="P29" s="46"/>
+      <c r="Q29" s="2"/>
+      <c r="R29" s="2"/>
+      <c r="S29" s="46"/>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="D30" s="134"/>
+      <c r="E30" s="45"/>
+      <c r="F30" s="2"/>
+      <c r="G30" s="2"/>
+      <c r="H30" s="2"/>
+      <c r="I30" s="45"/>
+      <c r="J30" s="2"/>
+      <c r="K30" s="2"/>
+      <c r="L30" s="46"/>
+      <c r="M30" s="2"/>
+      <c r="N30" s="2"/>
+      <c r="O30" s="45"/>
+      <c r="P30" s="46"/>
+      <c r="Q30" s="2"/>
+      <c r="R30" s="2"/>
+      <c r="S30" s="46"/>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="D31" s="135"/>
+      <c r="E31" s="47"/>
+      <c r="F31" s="48"/>
+      <c r="G31" s="48"/>
+      <c r="H31" s="48"/>
+      <c r="I31" s="47"/>
+      <c r="J31" s="48"/>
+      <c r="K31" s="48"/>
+      <c r="L31" s="136"/>
+      <c r="M31" s="48"/>
+      <c r="N31" s="48"/>
+      <c r="O31" s="47"/>
+      <c r="P31" s="136"/>
+      <c r="Q31" s="48"/>
+      <c r="R31" s="48"/>
+      <c r="S31" s="136"/>
+    </row>
+    <row r="32" spans="3:19" ht="21" x14ac:dyDescent="0.25">
+      <c r="Q32" s="158" t="s">
+        <v>76</v>
+      </c>
+      <c r="R32" s="159"/>
+      <c r="S32" s="160"/>
+    </row>
+    <row r="36" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="C36" s="129"/>
+      <c r="D36" s="2"/>
+      <c r="E36" s="2"/>
+      <c r="F36" s="2"/>
+      <c r="G36" s="2"/>
+      <c r="H36" s="2"/>
+      <c r="I36" s="2"/>
+      <c r="J36" s="2"/>
+      <c r="K36" s="2"/>
+      <c r="L36" s="2"/>
+      <c r="M36" s="2"/>
+      <c r="N36" s="2"/>
+      <c r="O36" s="2"/>
+      <c r="P36" s="2"/>
+      <c r="Q36" s="2"/>
+      <c r="R36" s="3"/>
+      <c r="S36" s="3"/>
+    </row>
+    <row r="37" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="C37" s="132"/>
+      <c r="D37" s="131"/>
+      <c r="E37" s="131"/>
+      <c r="F37" s="131"/>
+      <c r="G37" s="131"/>
+      <c r="H37" s="131"/>
+      <c r="I37" s="131"/>
+      <c r="J37" s="131"/>
+      <c r="K37" s="131"/>
+      <c r="L37" s="131"/>
+      <c r="M37" s="131"/>
+      <c r="N37" s="131"/>
+      <c r="O37" s="131"/>
+      <c r="P37" s="131"/>
+      <c r="Q37" s="131"/>
+      <c r="R37" s="131"/>
+      <c r="S37" s="133"/>
+    </row>
+    <row r="38" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="C38" s="130"/>
+      <c r="D38" s="18"/>
+      <c r="E38" s="18"/>
+      <c r="F38" s="18"/>
+      <c r="G38" s="58" t="s">
+        <v>13</v>
+      </c>
+      <c r="H38" s="58"/>
+      <c r="I38" s="58"/>
+      <c r="J38" s="58"/>
+      <c r="K38" s="58"/>
+      <c r="L38" s="58"/>
+      <c r="M38" s="58"/>
+      <c r="N38" s="18"/>
+      <c r="O38" s="18"/>
+      <c r="P38" s="18"/>
+      <c r="Q38" s="18"/>
+      <c r="R38" s="19"/>
+      <c r="S38" s="19"/>
+    </row>
+    <row r="39" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="C39" s="66" t="s">
+        <v>14</v>
+      </c>
+      <c r="D39" s="67"/>
+      <c r="E39" s="67"/>
+      <c r="F39" s="67"/>
+      <c r="G39" s="58"/>
+      <c r="H39" s="58"/>
+      <c r="I39" s="58"/>
+      <c r="J39" s="58"/>
+      <c r="K39" s="58"/>
+      <c r="L39" s="58"/>
+      <c r="M39" s="58"/>
+      <c r="N39" s="18"/>
+      <c r="O39" s="18"/>
+      <c r="P39" s="18"/>
+      <c r="Q39" s="18"/>
+      <c r="R39" s="19"/>
+      <c r="S39" s="19"/>
+    </row>
+    <row r="40" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="C40" s="68"/>
+      <c r="D40" s="67"/>
+      <c r="E40" s="67"/>
+      <c r="F40" s="67"/>
+      <c r="G40" s="58"/>
+      <c r="H40" s="58"/>
+      <c r="I40" s="58"/>
+      <c r="J40" s="58"/>
+      <c r="K40" s="58"/>
+      <c r="L40" s="58"/>
+      <c r="M40" s="58"/>
+      <c r="N40" s="18"/>
+      <c r="O40" s="60" t="s">
+        <v>3</v>
+      </c>
+      <c r="P40" s="61"/>
+      <c r="Q40" s="18"/>
+      <c r="R40" s="19"/>
+      <c r="S40" s="19"/>
+    </row>
+    <row r="41" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="C41" s="69" t="s">
+        <v>11</v>
+      </c>
+      <c r="D41" s="69"/>
+      <c r="E41" s="69"/>
+      <c r="F41" s="69"/>
+      <c r="G41" s="58"/>
+      <c r="H41" s="58"/>
+      <c r="I41" s="58"/>
+      <c r="J41" s="58"/>
+      <c r="K41" s="58"/>
+      <c r="L41" s="58"/>
+      <c r="M41" s="58"/>
+      <c r="N41" s="18"/>
+      <c r="O41" s="62"/>
+      <c r="P41" s="63"/>
+      <c r="Q41" s="18"/>
+      <c r="R41" s="19"/>
+      <c r="S41" s="19"/>
+    </row>
+    <row r="42" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="C42" s="69" t="s">
+        <v>12</v>
+      </c>
+      <c r="D42" s="69"/>
+      <c r="E42" s="69"/>
+      <c r="F42" s="69"/>
+      <c r="G42" s="58"/>
+      <c r="H42" s="58"/>
+      <c r="I42" s="58"/>
+      <c r="J42" s="58"/>
+      <c r="K42" s="58"/>
+      <c r="L42" s="58"/>
+      <c r="M42" s="58"/>
+      <c r="N42" s="18"/>
+      <c r="O42" s="64"/>
+      <c r="P42" s="65"/>
+      <c r="Q42" s="18"/>
+      <c r="R42" s="19"/>
+      <c r="S42" s="19"/>
+    </row>
+    <row r="43" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="C43" s="20"/>
+      <c r="D43" s="21"/>
+      <c r="E43" s="21"/>
+      <c r="F43" s="21"/>
+      <c r="G43" s="59"/>
+      <c r="H43" s="59"/>
+      <c r="I43" s="59"/>
+      <c r="J43" s="59"/>
+      <c r="K43" s="59"/>
+      <c r="L43" s="59"/>
+      <c r="M43" s="59"/>
+      <c r="N43" s="21"/>
+      <c r="O43" s="21"/>
+      <c r="P43" s="21"/>
+      <c r="Q43" s="21"/>
+      <c r="R43" s="22"/>
+      <c r="S43" s="22"/>
+    </row>
+  </sheetData>
+  <mergeCells count="31">
+    <mergeCell ref="Q15:S15"/>
+    <mergeCell ref="Q16:S16"/>
+    <mergeCell ref="Q32:S32"/>
+    <mergeCell ref="G38:M43"/>
+    <mergeCell ref="C39:F40"/>
+    <mergeCell ref="O40:P42"/>
+    <mergeCell ref="C41:F41"/>
+    <mergeCell ref="C42:F42"/>
+    <mergeCell ref="E14:H14"/>
+    <mergeCell ref="I14:L14"/>
+    <mergeCell ref="M14:N14"/>
+    <mergeCell ref="O14:P14"/>
+    <mergeCell ref="Q14:S14"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="E15:H16"/>
+    <mergeCell ref="I15:L16"/>
+    <mergeCell ref="M15:N16"/>
+    <mergeCell ref="O15:P16"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="N11:R11"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="K13:M13"/>
+    <mergeCell ref="N13:R13"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="N1:Q1"/>
+    <mergeCell ref="R1:S1"/>
+    <mergeCell ref="C2:D8"/>
+    <mergeCell ref="E2:S8"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Design Excel.xlsx
+++ b/Design Excel.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16725" windowHeight="7905" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16725" windowHeight="7905" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Danh Muc" sheetId="1" r:id="rId1"/>
@@ -1211,234 +1211,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1450,25 +1222,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1482,37 +1236,342 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="8" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1524,74 +1583,15 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="8" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1888,157 +1888,157 @@
   </cols>
   <sheetData>
     <row r="1" spans="3:19" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="L1" s="71" t="s">
+      <c r="L1" s="79" t="s">
         <v>2</v>
       </c>
-      <c r="M1" s="72"/>
-      <c r="N1" s="73" t="s">
+      <c r="M1" s="80"/>
+      <c r="N1" s="83" t="s">
         <v>10</v>
       </c>
-      <c r="O1" s="73"/>
-      <c r="P1" s="73"/>
-      <c r="Q1" s="73"/>
-      <c r="R1" s="70" t="s">
+      <c r="O1" s="83"/>
+      <c r="P1" s="83"/>
+      <c r="Q1" s="83"/>
+      <c r="R1" s="78" t="s">
         <v>4</v>
       </c>
-      <c r="S1" s="70"/>
+      <c r="S1" s="78"/>
     </row>
     <row r="2" spans="3:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C2" s="75" t="s">
+      <c r="C2" s="85" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="76"/>
-      <c r="E2" s="83" t="s">
+      <c r="D2" s="86"/>
+      <c r="E2" s="93" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="84"/>
-      <c r="G2" s="84"/>
-      <c r="H2" s="84"/>
-      <c r="I2" s="84"/>
-      <c r="J2" s="84"/>
-      <c r="K2" s="84"/>
-      <c r="L2" s="84"/>
-      <c r="M2" s="84"/>
-      <c r="N2" s="84"/>
-      <c r="O2" s="84"/>
-      <c r="P2" s="84"/>
-      <c r="Q2" s="84"/>
-      <c r="R2" s="84"/>
-      <c r="S2" s="84"/>
+      <c r="F2" s="94"/>
+      <c r="G2" s="94"/>
+      <c r="H2" s="94"/>
+      <c r="I2" s="94"/>
+      <c r="J2" s="94"/>
+      <c r="K2" s="94"/>
+      <c r="L2" s="94"/>
+      <c r="M2" s="94"/>
+      <c r="N2" s="94"/>
+      <c r="O2" s="94"/>
+      <c r="P2" s="94"/>
+      <c r="Q2" s="94"/>
+      <c r="R2" s="94"/>
+      <c r="S2" s="94"/>
     </row>
     <row r="3" spans="3:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C3" s="77"/>
-      <c r="D3" s="78"/>
-      <c r="E3" s="83"/>
-      <c r="F3" s="84"/>
-      <c r="G3" s="84"/>
-      <c r="H3" s="84"/>
-      <c r="I3" s="84"/>
-      <c r="J3" s="84"/>
-      <c r="K3" s="84"/>
-      <c r="L3" s="84"/>
-      <c r="M3" s="84"/>
-      <c r="N3" s="84"/>
-      <c r="O3" s="84"/>
-      <c r="P3" s="84"/>
-      <c r="Q3" s="84"/>
-      <c r="R3" s="84"/>
-      <c r="S3" s="84"/>
+      <c r="C3" s="87"/>
+      <c r="D3" s="88"/>
+      <c r="E3" s="93"/>
+      <c r="F3" s="94"/>
+      <c r="G3" s="94"/>
+      <c r="H3" s="94"/>
+      <c r="I3" s="94"/>
+      <c r="J3" s="94"/>
+      <c r="K3" s="94"/>
+      <c r="L3" s="94"/>
+      <c r="M3" s="94"/>
+      <c r="N3" s="94"/>
+      <c r="O3" s="94"/>
+      <c r="P3" s="94"/>
+      <c r="Q3" s="94"/>
+      <c r="R3" s="94"/>
+      <c r="S3" s="94"/>
     </row>
     <row r="4" spans="3:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C4" s="77"/>
-      <c r="D4" s="78"/>
-      <c r="E4" s="83"/>
-      <c r="F4" s="84"/>
-      <c r="G4" s="84"/>
-      <c r="H4" s="84"/>
-      <c r="I4" s="84"/>
-      <c r="J4" s="84"/>
-      <c r="K4" s="84"/>
-      <c r="L4" s="84"/>
-      <c r="M4" s="84"/>
-      <c r="N4" s="84"/>
-      <c r="O4" s="84"/>
-      <c r="P4" s="84"/>
-      <c r="Q4" s="84"/>
-      <c r="R4" s="84"/>
-      <c r="S4" s="84"/>
+      <c r="C4" s="87"/>
+      <c r="D4" s="88"/>
+      <c r="E4" s="93"/>
+      <c r="F4" s="94"/>
+      <c r="G4" s="94"/>
+      <c r="H4" s="94"/>
+      <c r="I4" s="94"/>
+      <c r="J4" s="94"/>
+      <c r="K4" s="94"/>
+      <c r="L4" s="94"/>
+      <c r="M4" s="94"/>
+      <c r="N4" s="94"/>
+      <c r="O4" s="94"/>
+      <c r="P4" s="94"/>
+      <c r="Q4" s="94"/>
+      <c r="R4" s="94"/>
+      <c r="S4" s="94"/>
     </row>
     <row r="5" spans="3:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C5" s="77"/>
-      <c r="D5" s="78"/>
-      <c r="E5" s="83"/>
-      <c r="F5" s="84"/>
-      <c r="G5" s="84"/>
-      <c r="H5" s="84"/>
-      <c r="I5" s="84"/>
-      <c r="J5" s="84"/>
-      <c r="K5" s="84"/>
-      <c r="L5" s="84"/>
-      <c r="M5" s="84"/>
-      <c r="N5" s="84"/>
-      <c r="O5" s="84"/>
-      <c r="P5" s="84"/>
-      <c r="Q5" s="84"/>
-      <c r="R5" s="84"/>
-      <c r="S5" s="84"/>
+      <c r="C5" s="87"/>
+      <c r="D5" s="88"/>
+      <c r="E5" s="93"/>
+      <c r="F5" s="94"/>
+      <c r="G5" s="94"/>
+      <c r="H5" s="94"/>
+      <c r="I5" s="94"/>
+      <c r="J5" s="94"/>
+      <c r="K5" s="94"/>
+      <c r="L5" s="94"/>
+      <c r="M5" s="94"/>
+      <c r="N5" s="94"/>
+      <c r="O5" s="94"/>
+      <c r="P5" s="94"/>
+      <c r="Q5" s="94"/>
+      <c r="R5" s="94"/>
+      <c r="S5" s="94"/>
     </row>
     <row r="6" spans="3:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C6" s="77"/>
-      <c r="D6" s="78"/>
-      <c r="E6" s="83"/>
-      <c r="F6" s="84"/>
-      <c r="G6" s="84"/>
-      <c r="H6" s="84"/>
-      <c r="I6" s="84"/>
-      <c r="J6" s="84"/>
-      <c r="K6" s="84"/>
-      <c r="L6" s="84"/>
-      <c r="M6" s="84"/>
-      <c r="N6" s="84"/>
-      <c r="O6" s="84"/>
-      <c r="P6" s="84"/>
-      <c r="Q6" s="84"/>
-      <c r="R6" s="84"/>
-      <c r="S6" s="84"/>
+      <c r="C6" s="87"/>
+      <c r="D6" s="88"/>
+      <c r="E6" s="93"/>
+      <c r="F6" s="94"/>
+      <c r="G6" s="94"/>
+      <c r="H6" s="94"/>
+      <c r="I6" s="94"/>
+      <c r="J6" s="94"/>
+      <c r="K6" s="94"/>
+      <c r="L6" s="94"/>
+      <c r="M6" s="94"/>
+      <c r="N6" s="94"/>
+      <c r="O6" s="94"/>
+      <c r="P6" s="94"/>
+      <c r="Q6" s="94"/>
+      <c r="R6" s="94"/>
+      <c r="S6" s="94"/>
     </row>
     <row r="7" spans="3:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C7" s="77"/>
-      <c r="D7" s="78"/>
-      <c r="E7" s="83"/>
-      <c r="F7" s="84"/>
-      <c r="G7" s="84"/>
-      <c r="H7" s="84"/>
-      <c r="I7" s="84"/>
-      <c r="J7" s="84"/>
-      <c r="K7" s="84"/>
-      <c r="L7" s="84"/>
-      <c r="M7" s="84"/>
-      <c r="N7" s="84"/>
-      <c r="O7" s="84"/>
-      <c r="P7" s="84"/>
-      <c r="Q7" s="84"/>
-      <c r="R7" s="84"/>
-      <c r="S7" s="84"/>
+      <c r="C7" s="87"/>
+      <c r="D7" s="88"/>
+      <c r="E7" s="93"/>
+      <c r="F7" s="94"/>
+      <c r="G7" s="94"/>
+      <c r="H7" s="94"/>
+      <c r="I7" s="94"/>
+      <c r="J7" s="94"/>
+      <c r="K7" s="94"/>
+      <c r="L7" s="94"/>
+      <c r="M7" s="94"/>
+      <c r="N7" s="94"/>
+      <c r="O7" s="94"/>
+      <c r="P7" s="94"/>
+      <c r="Q7" s="94"/>
+      <c r="R7" s="94"/>
+      <c r="S7" s="94"/>
     </row>
     <row r="8" spans="3:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C8" s="79"/>
-      <c r="D8" s="80"/>
-      <c r="E8" s="83"/>
-      <c r="F8" s="84"/>
-      <c r="G8" s="84"/>
-      <c r="H8" s="84"/>
-      <c r="I8" s="84"/>
-      <c r="J8" s="84"/>
-      <c r="K8" s="84"/>
-      <c r="L8" s="84"/>
-      <c r="M8" s="84"/>
-      <c r="N8" s="84"/>
-      <c r="O8" s="84"/>
-      <c r="P8" s="84"/>
-      <c r="Q8" s="84"/>
-      <c r="R8" s="84"/>
-      <c r="S8" s="84"/>
+      <c r="C8" s="89"/>
+      <c r="D8" s="90"/>
+      <c r="E8" s="93"/>
+      <c r="F8" s="94"/>
+      <c r="G8" s="94"/>
+      <c r="H8" s="94"/>
+      <c r="I8" s="94"/>
+      <c r="J8" s="94"/>
+      <c r="K8" s="94"/>
+      <c r="L8" s="94"/>
+      <c r="M8" s="94"/>
+      <c r="N8" s="94"/>
+      <c r="O8" s="94"/>
+      <c r="P8" s="94"/>
+      <c r="Q8" s="94"/>
+      <c r="R8" s="94"/>
+      <c r="S8" s="94"/>
     </row>
     <row r="11" spans="3:19" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C11" s="23" t="s">
@@ -2047,25 +2047,25 @@
       <c r="D11" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="E11" s="81" t="s">
+      <c r="E11" s="91" t="s">
         <v>9</v>
       </c>
-      <c r="F11" s="82"/>
-      <c r="G11" s="81" t="s">
+      <c r="F11" s="92"/>
+      <c r="G11" s="91" t="s">
         <v>15</v>
       </c>
-      <c r="H11" s="82"/>
-      <c r="I11" s="85" t="s">
+      <c r="H11" s="92"/>
+      <c r="I11" s="95" t="s">
         <v>20</v>
       </c>
-      <c r="J11" s="85"/>
-      <c r="N11" s="56" t="s">
+      <c r="J11" s="95"/>
+      <c r="N11" s="111" t="s">
         <v>23</v>
       </c>
-      <c r="O11" s="56"/>
-      <c r="P11" s="56"/>
-      <c r="Q11" s="56"/>
-      <c r="R11" s="56"/>
+      <c r="O11" s="111"/>
+      <c r="P11" s="111"/>
+      <c r="Q11" s="111"/>
+      <c r="R11" s="111"/>
       <c r="S11" s="27" t="s">
         <v>24</v>
       </c>
@@ -2076,11 +2076,11 @@
       <c r="E12" s="2"/>
     </row>
     <row r="13" spans="3:19" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="C13" s="86" t="s">
+      <c r="C13" s="96" t="s">
         <v>21</v>
       </c>
-      <c r="D13" s="86"/>
-      <c r="E13" s="86"/>
+      <c r="D13" s="96"/>
+      <c r="E13" s="96"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c r="H13" s="8"/>
@@ -2097,9 +2097,9 @@
       <c r="S13" s="9"/>
     </row>
     <row r="14" spans="3:19" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="C14" s="86"/>
-      <c r="D14" s="86"/>
-      <c r="E14" s="86"/>
+      <c r="C14" s="96"/>
+      <c r="D14" s="96"/>
+      <c r="E14" s="96"/>
       <c r="F14" s="14"/>
       <c r="G14" s="14"/>
       <c r="H14" s="10"/>
@@ -2116,8 +2116,8 @@
       <c r="S14" s="11"/>
     </row>
     <row r="15" spans="3:19" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="C15" s="74"/>
-      <c r="D15" s="74"/>
+      <c r="C15" s="84"/>
+      <c r="D15" s="84"/>
       <c r="E15" s="10"/>
       <c r="F15" s="14"/>
       <c r="G15" s="14"/>
@@ -2135,216 +2135,216 @@
       <c r="S15" s="11"/>
     </row>
     <row r="16" spans="3:19" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="C16" s="53" t="s">
+      <c r="C16" s="81" t="s">
         <v>5</v>
       </c>
-      <c r="D16" s="53"/>
+      <c r="D16" s="81"/>
       <c r="E16" s="10"/>
-      <c r="F16" s="53" t="s">
+      <c r="F16" s="81" t="s">
         <v>5</v>
       </c>
-      <c r="G16" s="53"/>
-      <c r="H16" s="53"/>
-      <c r="I16" s="53"/>
-      <c r="K16" s="53" t="s">
+      <c r="G16" s="81"/>
+      <c r="H16" s="81"/>
+      <c r="I16" s="81"/>
+      <c r="K16" s="81" t="s">
         <v>5</v>
       </c>
-      <c r="L16" s="53"/>
-      <c r="M16" s="53"/>
-      <c r="N16" s="53"/>
+      <c r="L16" s="81"/>
+      <c r="M16" s="81"/>
+      <c r="N16" s="81"/>
       <c r="O16" s="10"/>
-      <c r="P16" s="53" t="s">
+      <c r="P16" s="81" t="s">
         <v>5</v>
       </c>
-      <c r="Q16" s="53"/>
-      <c r="R16" s="53"/>
-      <c r="S16" s="53"/>
+      <c r="Q16" s="81"/>
+      <c r="R16" s="81"/>
+      <c r="S16" s="81"/>
     </row>
     <row r="17" spans="3:19" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="C17" s="53"/>
-      <c r="D17" s="53"/>
+      <c r="C17" s="81"/>
+      <c r="D17" s="81"/>
       <c r="E17" s="10"/>
-      <c r="F17" s="53"/>
-      <c r="G17" s="53"/>
-      <c r="H17" s="53"/>
-      <c r="I17" s="53"/>
-      <c r="K17" s="53"/>
-      <c r="L17" s="53"/>
-      <c r="M17" s="53"/>
-      <c r="N17" s="53"/>
+      <c r="F17" s="81"/>
+      <c r="G17" s="81"/>
+      <c r="H17" s="81"/>
+      <c r="I17" s="81"/>
+      <c r="K17" s="81"/>
+      <c r="L17" s="81"/>
+      <c r="M17" s="81"/>
+      <c r="N17" s="81"/>
       <c r="O17" s="10"/>
-      <c r="P17" s="53"/>
-      <c r="Q17" s="53"/>
-      <c r="R17" s="53"/>
-      <c r="S17" s="53"/>
+      <c r="P17" s="81"/>
+      <c r="Q17" s="81"/>
+      <c r="R17" s="81"/>
+      <c r="S17" s="81"/>
     </row>
     <row r="18" spans="3:19" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="C18" s="53"/>
-      <c r="D18" s="53"/>
+      <c r="C18" s="81"/>
+      <c r="D18" s="81"/>
       <c r="E18" s="10"/>
-      <c r="F18" s="53"/>
-      <c r="G18" s="53"/>
-      <c r="H18" s="53"/>
-      <c r="I18" s="53"/>
-      <c r="K18" s="53"/>
-      <c r="L18" s="53"/>
-      <c r="M18" s="53"/>
-      <c r="N18" s="53"/>
+      <c r="F18" s="81"/>
+      <c r="G18" s="81"/>
+      <c r="H18" s="81"/>
+      <c r="I18" s="81"/>
+      <c r="K18" s="81"/>
+      <c r="L18" s="81"/>
+      <c r="M18" s="81"/>
+      <c r="N18" s="81"/>
       <c r="O18" s="10"/>
-      <c r="P18" s="53"/>
-      <c r="Q18" s="53"/>
-      <c r="R18" s="53"/>
-      <c r="S18" s="53"/>
+      <c r="P18" s="81"/>
+      <c r="Q18" s="81"/>
+      <c r="R18" s="81"/>
+      <c r="S18" s="81"/>
     </row>
     <row r="19" spans="3:19" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="C19" s="53"/>
-      <c r="D19" s="53"/>
+      <c r="C19" s="81"/>
+      <c r="D19" s="81"/>
       <c r="E19" s="10"/>
-      <c r="F19" s="53"/>
-      <c r="G19" s="53"/>
-      <c r="H19" s="53"/>
-      <c r="I19" s="53"/>
-      <c r="K19" s="53"/>
-      <c r="L19" s="53"/>
-      <c r="M19" s="53"/>
-      <c r="N19" s="53"/>
+      <c r="F19" s="81"/>
+      <c r="G19" s="81"/>
+      <c r="H19" s="81"/>
+      <c r="I19" s="81"/>
+      <c r="K19" s="81"/>
+      <c r="L19" s="81"/>
+      <c r="M19" s="81"/>
+      <c r="N19" s="81"/>
       <c r="O19" s="10"/>
-      <c r="P19" s="53"/>
-      <c r="Q19" s="53"/>
-      <c r="R19" s="53"/>
-      <c r="S19" s="53"/>
+      <c r="P19" s="81"/>
+      <c r="Q19" s="81"/>
+      <c r="R19" s="81"/>
+      <c r="S19" s="81"/>
     </row>
     <row r="20" spans="3:19" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="C20" s="53"/>
-      <c r="D20" s="53"/>
+      <c r="C20" s="81"/>
+      <c r="D20" s="81"/>
       <c r="E20" s="10"/>
-      <c r="F20" s="53"/>
-      <c r="G20" s="53"/>
-      <c r="H20" s="53"/>
-      <c r="I20" s="53"/>
-      <c r="K20" s="53"/>
-      <c r="L20" s="53"/>
-      <c r="M20" s="53"/>
-      <c r="N20" s="53"/>
+      <c r="F20" s="81"/>
+      <c r="G20" s="81"/>
+      <c r="H20" s="81"/>
+      <c r="I20" s="81"/>
+      <c r="K20" s="81"/>
+      <c r="L20" s="81"/>
+      <c r="M20" s="81"/>
+      <c r="N20" s="81"/>
       <c r="O20" s="10"/>
-      <c r="P20" s="53"/>
-      <c r="Q20" s="53"/>
-      <c r="R20" s="53"/>
-      <c r="S20" s="53"/>
+      <c r="P20" s="81"/>
+      <c r="Q20" s="81"/>
+      <c r="R20" s="81"/>
+      <c r="S20" s="81"/>
     </row>
     <row r="21" spans="3:19" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="C21" s="53"/>
-      <c r="D21" s="53"/>
+      <c r="C21" s="81"/>
+      <c r="D21" s="81"/>
       <c r="E21" s="10"/>
-      <c r="F21" s="53"/>
-      <c r="G21" s="53"/>
-      <c r="H21" s="53"/>
-      <c r="I21" s="53"/>
-      <c r="K21" s="53"/>
-      <c r="L21" s="53"/>
-      <c r="M21" s="53"/>
-      <c r="N21" s="53"/>
+      <c r="F21" s="81"/>
+      <c r="G21" s="81"/>
+      <c r="H21" s="81"/>
+      <c r="I21" s="81"/>
+      <c r="K21" s="81"/>
+      <c r="L21" s="81"/>
+      <c r="M21" s="81"/>
+      <c r="N21" s="81"/>
       <c r="O21" s="10"/>
-      <c r="P21" s="53"/>
-      <c r="Q21" s="53"/>
-      <c r="R21" s="53"/>
-      <c r="S21" s="53"/>
+      <c r="P21" s="81"/>
+      <c r="Q21" s="81"/>
+      <c r="R21" s="81"/>
+      <c r="S21" s="81"/>
     </row>
     <row r="22" spans="3:19" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="C22" s="53"/>
-      <c r="D22" s="53"/>
+      <c r="C22" s="81"/>
+      <c r="D22" s="81"/>
       <c r="E22" s="10"/>
-      <c r="F22" s="53"/>
-      <c r="G22" s="53"/>
-      <c r="H22" s="53"/>
-      <c r="I22" s="53"/>
-      <c r="K22" s="53"/>
-      <c r="L22" s="53"/>
-      <c r="M22" s="53"/>
-      <c r="N22" s="53"/>
+      <c r="F22" s="81"/>
+      <c r="G22" s="81"/>
+      <c r="H22" s="81"/>
+      <c r="I22" s="81"/>
+      <c r="K22" s="81"/>
+      <c r="L22" s="81"/>
+      <c r="M22" s="81"/>
+      <c r="N22" s="81"/>
       <c r="O22" s="10"/>
-      <c r="P22" s="53"/>
-      <c r="Q22" s="53"/>
-      <c r="R22" s="53"/>
-      <c r="S22" s="53"/>
+      <c r="P22" s="81"/>
+      <c r="Q22" s="81"/>
+      <c r="R22" s="81"/>
+      <c r="S22" s="81"/>
     </row>
     <row r="23" spans="3:19" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="C23" s="54" t="s">
+      <c r="C23" s="82" t="s">
         <v>6</v>
       </c>
-      <c r="D23" s="54"/>
+      <c r="D23" s="82"/>
       <c r="E23" s="10"/>
-      <c r="F23" s="54" t="s">
+      <c r="F23" s="82" t="s">
         <v>6</v>
       </c>
-      <c r="G23" s="54"/>
-      <c r="H23" s="54"/>
-      <c r="I23" s="54"/>
-      <c r="K23" s="54" t="s">
+      <c r="G23" s="82"/>
+      <c r="H23" s="82"/>
+      <c r="I23" s="82"/>
+      <c r="K23" s="82" t="s">
         <v>6</v>
       </c>
-      <c r="L23" s="54"/>
-      <c r="M23" s="54"/>
-      <c r="N23" s="54"/>
+      <c r="L23" s="82"/>
+      <c r="M23" s="82"/>
+      <c r="N23" s="82"/>
       <c r="O23" s="10"/>
-      <c r="P23" s="54" t="s">
+      <c r="P23" s="82" t="s">
         <v>6</v>
       </c>
-      <c r="Q23" s="54"/>
-      <c r="R23" s="54"/>
-      <c r="S23" s="54"/>
+      <c r="Q23" s="82"/>
+      <c r="R23" s="82"/>
+      <c r="S23" s="82"/>
     </row>
     <row r="24" spans="3:19" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="C24" s="54" t="s">
+      <c r="C24" s="82" t="s">
         <v>7</v>
       </c>
-      <c r="D24" s="54"/>
+      <c r="D24" s="82"/>
       <c r="E24" s="10"/>
-      <c r="F24" s="54" t="s">
+      <c r="F24" s="82" t="s">
         <v>7</v>
       </c>
-      <c r="G24" s="54"/>
-      <c r="H24" s="54"/>
-      <c r="I24" s="54"/>
-      <c r="K24" s="54" t="s">
+      <c r="G24" s="82"/>
+      <c r="H24" s="82"/>
+      <c r="I24" s="82"/>
+      <c r="K24" s="82" t="s">
         <v>7</v>
       </c>
-      <c r="L24" s="54"/>
-      <c r="M24" s="54"/>
-      <c r="N24" s="54"/>
+      <c r="L24" s="82"/>
+      <c r="M24" s="82"/>
+      <c r="N24" s="82"/>
       <c r="O24" s="10"/>
-      <c r="P24" s="54" t="s">
+      <c r="P24" s="82" t="s">
         <v>7</v>
       </c>
-      <c r="Q24" s="54"/>
-      <c r="R24" s="54"/>
-      <c r="S24" s="54"/>
+      <c r="Q24" s="82"/>
+      <c r="R24" s="82"/>
+      <c r="S24" s="82"/>
     </row>
     <row r="25" spans="3:19" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="C25" s="55" t="s">
+      <c r="C25" s="97" t="s">
         <v>52</v>
       </c>
-      <c r="D25" s="55"/>
+      <c r="D25" s="97"/>
       <c r="E25" s="10"/>
-      <c r="F25" s="55" t="s">
+      <c r="F25" s="97" t="s">
         <v>52</v>
       </c>
-      <c r="G25" s="55"/>
-      <c r="H25" s="55"/>
-      <c r="I25" s="55"/>
-      <c r="K25" s="55" t="s">
+      <c r="G25" s="97"/>
+      <c r="H25" s="97"/>
+      <c r="I25" s="97"/>
+      <c r="K25" s="97" t="s">
         <v>52</v>
       </c>
-      <c r="L25" s="55"/>
-      <c r="M25" s="55"/>
-      <c r="N25" s="55"/>
+      <c r="L25" s="97"/>
+      <c r="M25" s="97"/>
+      <c r="N25" s="97"/>
       <c r="O25" s="10"/>
-      <c r="P25" s="55" t="s">
+      <c r="P25" s="97" t="s">
         <v>52</v>
       </c>
-      <c r="Q25" s="55"/>
-      <c r="R25" s="55"/>
-      <c r="S25" s="55"/>
+      <c r="Q25" s="97"/>
+      <c r="R25" s="97"/>
+      <c r="S25" s="97"/>
     </row>
     <row r="26" spans="3:19" ht="23.25" x14ac:dyDescent="0.35">
       <c r="C26" s="12"/>
@@ -2364,216 +2364,216 @@
       <c r="S26" s="10"/>
     </row>
     <row r="27" spans="3:19" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="C27" s="53" t="s">
+      <c r="C27" s="81" t="s">
         <v>5</v>
       </c>
-      <c r="D27" s="53"/>
+      <c r="D27" s="81"/>
       <c r="E27" s="10"/>
-      <c r="F27" s="53" t="s">
+      <c r="F27" s="81" t="s">
         <v>5</v>
       </c>
-      <c r="G27" s="53"/>
-      <c r="H27" s="53"/>
-      <c r="I27" s="53"/>
-      <c r="K27" s="53" t="s">
+      <c r="G27" s="81"/>
+      <c r="H27" s="81"/>
+      <c r="I27" s="81"/>
+      <c r="K27" s="81" t="s">
         <v>5</v>
       </c>
-      <c r="L27" s="53"/>
-      <c r="M27" s="53"/>
-      <c r="N27" s="53"/>
+      <c r="L27" s="81"/>
+      <c r="M27" s="81"/>
+      <c r="N27" s="81"/>
       <c r="O27" s="10"/>
-      <c r="P27" s="53" t="s">
+      <c r="P27" s="81" t="s">
         <v>5</v>
       </c>
-      <c r="Q27" s="53"/>
-      <c r="R27" s="53"/>
-      <c r="S27" s="53"/>
+      <c r="Q27" s="81"/>
+      <c r="R27" s="81"/>
+      <c r="S27" s="81"/>
     </row>
     <row r="28" spans="3:19" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="C28" s="53"/>
-      <c r="D28" s="53"/>
+      <c r="C28" s="81"/>
+      <c r="D28" s="81"/>
       <c r="E28" s="10"/>
-      <c r="F28" s="53"/>
-      <c r="G28" s="53"/>
-      <c r="H28" s="53"/>
-      <c r="I28" s="53"/>
-      <c r="K28" s="53"/>
-      <c r="L28" s="53"/>
-      <c r="M28" s="53"/>
-      <c r="N28" s="53"/>
+      <c r="F28" s="81"/>
+      <c r="G28" s="81"/>
+      <c r="H28" s="81"/>
+      <c r="I28" s="81"/>
+      <c r="K28" s="81"/>
+      <c r="L28" s="81"/>
+      <c r="M28" s="81"/>
+      <c r="N28" s="81"/>
       <c r="O28" s="10"/>
-      <c r="P28" s="53"/>
-      <c r="Q28" s="53"/>
-      <c r="R28" s="53"/>
-      <c r="S28" s="53"/>
+      <c r="P28" s="81"/>
+      <c r="Q28" s="81"/>
+      <c r="R28" s="81"/>
+      <c r="S28" s="81"/>
     </row>
     <row r="29" spans="3:19" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="C29" s="53"/>
-      <c r="D29" s="53"/>
+      <c r="C29" s="81"/>
+      <c r="D29" s="81"/>
       <c r="E29" s="10"/>
-      <c r="F29" s="53"/>
-      <c r="G29" s="53"/>
-      <c r="H29" s="53"/>
-      <c r="I29" s="53"/>
-      <c r="K29" s="53"/>
-      <c r="L29" s="53"/>
-      <c r="M29" s="53"/>
-      <c r="N29" s="53"/>
+      <c r="F29" s="81"/>
+      <c r="G29" s="81"/>
+      <c r="H29" s="81"/>
+      <c r="I29" s="81"/>
+      <c r="K29" s="81"/>
+      <c r="L29" s="81"/>
+      <c r="M29" s="81"/>
+      <c r="N29" s="81"/>
       <c r="O29" s="10"/>
-      <c r="P29" s="53"/>
-      <c r="Q29" s="53"/>
-      <c r="R29" s="53"/>
-      <c r="S29" s="53"/>
+      <c r="P29" s="81"/>
+      <c r="Q29" s="81"/>
+      <c r="R29" s="81"/>
+      <c r="S29" s="81"/>
     </row>
     <row r="30" spans="3:19" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="C30" s="53"/>
-      <c r="D30" s="53"/>
+      <c r="C30" s="81"/>
+      <c r="D30" s="81"/>
       <c r="E30" s="10"/>
-      <c r="F30" s="53"/>
-      <c r="G30" s="53"/>
-      <c r="H30" s="53"/>
-      <c r="I30" s="53"/>
-      <c r="K30" s="53"/>
-      <c r="L30" s="53"/>
-      <c r="M30" s="53"/>
-      <c r="N30" s="53"/>
+      <c r="F30" s="81"/>
+      <c r="G30" s="81"/>
+      <c r="H30" s="81"/>
+      <c r="I30" s="81"/>
+      <c r="K30" s="81"/>
+      <c r="L30" s="81"/>
+      <c r="M30" s="81"/>
+      <c r="N30" s="81"/>
       <c r="O30" s="10"/>
-      <c r="P30" s="53"/>
-      <c r="Q30" s="53"/>
-      <c r="R30" s="53"/>
-      <c r="S30" s="53"/>
+      <c r="P30" s="81"/>
+      <c r="Q30" s="81"/>
+      <c r="R30" s="81"/>
+      <c r="S30" s="81"/>
     </row>
     <row r="31" spans="3:19" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="C31" s="53"/>
-      <c r="D31" s="53"/>
+      <c r="C31" s="81"/>
+      <c r="D31" s="81"/>
       <c r="E31" s="10"/>
-      <c r="F31" s="53"/>
-      <c r="G31" s="53"/>
-      <c r="H31" s="53"/>
-      <c r="I31" s="53"/>
-      <c r="K31" s="53"/>
-      <c r="L31" s="53"/>
-      <c r="M31" s="53"/>
-      <c r="N31" s="53"/>
+      <c r="F31" s="81"/>
+      <c r="G31" s="81"/>
+      <c r="H31" s="81"/>
+      <c r="I31" s="81"/>
+      <c r="K31" s="81"/>
+      <c r="L31" s="81"/>
+      <c r="M31" s="81"/>
+      <c r="N31" s="81"/>
       <c r="O31" s="10"/>
-      <c r="P31" s="53"/>
-      <c r="Q31" s="53"/>
-      <c r="R31" s="53"/>
-      <c r="S31" s="53"/>
+      <c r="P31" s="81"/>
+      <c r="Q31" s="81"/>
+      <c r="R31" s="81"/>
+      <c r="S31" s="81"/>
     </row>
     <row r="32" spans="3:19" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="C32" s="53"/>
-      <c r="D32" s="53"/>
+      <c r="C32" s="81"/>
+      <c r="D32" s="81"/>
       <c r="E32" s="10"/>
-      <c r="F32" s="53"/>
-      <c r="G32" s="53"/>
-      <c r="H32" s="53"/>
-      <c r="I32" s="53"/>
-      <c r="K32" s="53"/>
-      <c r="L32" s="53"/>
-      <c r="M32" s="53"/>
-      <c r="N32" s="53"/>
+      <c r="F32" s="81"/>
+      <c r="G32" s="81"/>
+      <c r="H32" s="81"/>
+      <c r="I32" s="81"/>
+      <c r="K32" s="81"/>
+      <c r="L32" s="81"/>
+      <c r="M32" s="81"/>
+      <c r="N32" s="81"/>
       <c r="O32" s="10"/>
-      <c r="P32" s="53"/>
-      <c r="Q32" s="53"/>
-      <c r="R32" s="53"/>
-      <c r="S32" s="53"/>
+      <c r="P32" s="81"/>
+      <c r="Q32" s="81"/>
+      <c r="R32" s="81"/>
+      <c r="S32" s="81"/>
     </row>
     <row r="33" spans="3:19" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="C33" s="53"/>
-      <c r="D33" s="53"/>
+      <c r="C33" s="81"/>
+      <c r="D33" s="81"/>
       <c r="E33" s="10"/>
-      <c r="F33" s="53"/>
-      <c r="G33" s="53"/>
-      <c r="H33" s="53"/>
-      <c r="I33" s="53"/>
-      <c r="K33" s="53"/>
-      <c r="L33" s="53"/>
-      <c r="M33" s="53"/>
-      <c r="N33" s="53"/>
+      <c r="F33" s="81"/>
+      <c r="G33" s="81"/>
+      <c r="H33" s="81"/>
+      <c r="I33" s="81"/>
+      <c r="K33" s="81"/>
+      <c r="L33" s="81"/>
+      <c r="M33" s="81"/>
+      <c r="N33" s="81"/>
       <c r="O33" s="10"/>
-      <c r="P33" s="53"/>
-      <c r="Q33" s="53"/>
-      <c r="R33" s="53"/>
-      <c r="S33" s="53"/>
+      <c r="P33" s="81"/>
+      <c r="Q33" s="81"/>
+      <c r="R33" s="81"/>
+      <c r="S33" s="81"/>
     </row>
     <row r="34" spans="3:19" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="C34" s="54" t="s">
+      <c r="C34" s="82" t="s">
         <v>6</v>
       </c>
-      <c r="D34" s="54"/>
+      <c r="D34" s="82"/>
       <c r="E34" s="10"/>
-      <c r="F34" s="54" t="s">
+      <c r="F34" s="82" t="s">
         <v>6</v>
       </c>
-      <c r="G34" s="54"/>
-      <c r="H34" s="54"/>
-      <c r="I34" s="54"/>
-      <c r="K34" s="54" t="s">
+      <c r="G34" s="82"/>
+      <c r="H34" s="82"/>
+      <c r="I34" s="82"/>
+      <c r="K34" s="82" t="s">
         <v>6</v>
       </c>
-      <c r="L34" s="54"/>
-      <c r="M34" s="54"/>
-      <c r="N34" s="54"/>
+      <c r="L34" s="82"/>
+      <c r="M34" s="82"/>
+      <c r="N34" s="82"/>
       <c r="O34" s="10"/>
-      <c r="P34" s="54" t="s">
+      <c r="P34" s="82" t="s">
         <v>6</v>
       </c>
-      <c r="Q34" s="54"/>
-      <c r="R34" s="54"/>
-      <c r="S34" s="54"/>
+      <c r="Q34" s="82"/>
+      <c r="R34" s="82"/>
+      <c r="S34" s="82"/>
     </row>
     <row r="35" spans="3:19" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="C35" s="54" t="s">
+      <c r="C35" s="82" t="s">
         <v>7</v>
       </c>
-      <c r="D35" s="54"/>
+      <c r="D35" s="82"/>
       <c r="E35" s="10"/>
-      <c r="F35" s="54" t="s">
+      <c r="F35" s="82" t="s">
         <v>7</v>
       </c>
-      <c r="G35" s="54"/>
-      <c r="H35" s="54"/>
-      <c r="I35" s="54"/>
-      <c r="K35" s="54" t="s">
+      <c r="G35" s="82"/>
+      <c r="H35" s="82"/>
+      <c r="I35" s="82"/>
+      <c r="K35" s="82" t="s">
         <v>7</v>
       </c>
-      <c r="L35" s="54"/>
-      <c r="M35" s="54"/>
-      <c r="N35" s="54"/>
+      <c r="L35" s="82"/>
+      <c r="M35" s="82"/>
+      <c r="N35" s="82"/>
       <c r="O35" s="10"/>
-      <c r="P35" s="54" t="s">
+      <c r="P35" s="82" t="s">
         <v>7</v>
       </c>
-      <c r="Q35" s="54"/>
-      <c r="R35" s="54"/>
-      <c r="S35" s="54"/>
+      <c r="Q35" s="82"/>
+      <c r="R35" s="82"/>
+      <c r="S35" s="82"/>
     </row>
     <row r="36" spans="3:19" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="C36" s="55" t="s">
+      <c r="C36" s="97" t="s">
         <v>52</v>
       </c>
-      <c r="D36" s="55"/>
+      <c r="D36" s="97"/>
       <c r="E36" s="10"/>
-      <c r="F36" s="55" t="s">
+      <c r="F36" s="97" t="s">
         <v>52</v>
       </c>
-      <c r="G36" s="55"/>
-      <c r="H36" s="55"/>
-      <c r="I36" s="55"/>
-      <c r="K36" s="55" t="s">
+      <c r="G36" s="97"/>
+      <c r="H36" s="97"/>
+      <c r="I36" s="97"/>
+      <c r="K36" s="97" t="s">
         <v>52</v>
       </c>
-      <c r="L36" s="55"/>
-      <c r="M36" s="55"/>
-      <c r="N36" s="55"/>
+      <c r="L36" s="97"/>
+      <c r="M36" s="97"/>
+      <c r="N36" s="97"/>
       <c r="O36" s="10"/>
-      <c r="P36" s="55" t="s">
+      <c r="P36" s="97" t="s">
         <v>52</v>
       </c>
-      <c r="Q36" s="55"/>
-      <c r="R36" s="55"/>
-      <c r="S36" s="55"/>
+      <c r="Q36" s="97"/>
+      <c r="R36" s="97"/>
+      <c r="S36" s="97"/>
     </row>
     <row r="37" spans="3:19" ht="23.25" x14ac:dyDescent="0.35">
       <c r="C37" s="12"/>
@@ -2701,15 +2701,15 @@
       <c r="D44" s="16"/>
       <c r="E44" s="16"/>
       <c r="F44" s="16"/>
-      <c r="G44" s="57" t="s">
+      <c r="G44" s="98" t="s">
         <v>13</v>
       </c>
-      <c r="H44" s="57"/>
-      <c r="I44" s="57"/>
-      <c r="J44" s="57"/>
-      <c r="K44" s="57"/>
-      <c r="L44" s="57"/>
-      <c r="M44" s="57"/>
+      <c r="H44" s="98"/>
+      <c r="I44" s="98"/>
+      <c r="J44" s="98"/>
+      <c r="K44" s="98"/>
+      <c r="L44" s="98"/>
+      <c r="M44" s="98"/>
       <c r="N44" s="16"/>
       <c r="O44" s="16"/>
       <c r="P44" s="16"/>
@@ -2718,19 +2718,19 @@
       <c r="S44" s="17"/>
     </row>
     <row r="45" spans="3:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C45" s="66" t="s">
+      <c r="C45" s="107" t="s">
         <v>14</v>
       </c>
-      <c r="D45" s="67"/>
-      <c r="E45" s="67"/>
-      <c r="F45" s="67"/>
-      <c r="G45" s="58"/>
-      <c r="H45" s="58"/>
-      <c r="I45" s="58"/>
-      <c r="J45" s="58"/>
-      <c r="K45" s="58"/>
-      <c r="L45" s="58"/>
-      <c r="M45" s="58"/>
+      <c r="D45" s="108"/>
+      <c r="E45" s="108"/>
+      <c r="F45" s="108"/>
+      <c r="G45" s="99"/>
+      <c r="H45" s="99"/>
+      <c r="I45" s="99"/>
+      <c r="J45" s="99"/>
+      <c r="K45" s="99"/>
+      <c r="L45" s="99"/>
+      <c r="M45" s="99"/>
       <c r="N45" s="18"/>
       <c r="O45" s="18"/>
       <c r="P45" s="18"/>
@@ -2739,64 +2739,64 @@
       <c r="S45" s="19"/>
     </row>
     <row r="46" spans="3:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C46" s="68"/>
-      <c r="D46" s="67"/>
-      <c r="E46" s="67"/>
-      <c r="F46" s="67"/>
-      <c r="G46" s="58"/>
-      <c r="H46" s="58"/>
-      <c r="I46" s="58"/>
-      <c r="J46" s="58"/>
-      <c r="K46" s="58"/>
-      <c r="L46" s="58"/>
-      <c r="M46" s="58"/>
+      <c r="C46" s="109"/>
+      <c r="D46" s="108"/>
+      <c r="E46" s="108"/>
+      <c r="F46" s="108"/>
+      <c r="G46" s="99"/>
+      <c r="H46" s="99"/>
+      <c r="I46" s="99"/>
+      <c r="J46" s="99"/>
+      <c r="K46" s="99"/>
+      <c r="L46" s="99"/>
+      <c r="M46" s="99"/>
       <c r="N46" s="18"/>
-      <c r="O46" s="60" t="s">
+      <c r="O46" s="101" t="s">
         <v>3</v>
       </c>
-      <c r="P46" s="61"/>
+      <c r="P46" s="102"/>
       <c r="Q46" s="18"/>
       <c r="R46" s="19"/>
       <c r="S46" s="19"/>
     </row>
     <row r="47" spans="3:19" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C47" s="69" t="s">
+      <c r="C47" s="110" t="s">
         <v>11</v>
       </c>
-      <c r="D47" s="69"/>
-      <c r="E47" s="69"/>
-      <c r="F47" s="69"/>
-      <c r="G47" s="58"/>
-      <c r="H47" s="58"/>
-      <c r="I47" s="58"/>
-      <c r="J47" s="58"/>
-      <c r="K47" s="58"/>
-      <c r="L47" s="58"/>
-      <c r="M47" s="58"/>
+      <c r="D47" s="110"/>
+      <c r="E47" s="110"/>
+      <c r="F47" s="110"/>
+      <c r="G47" s="99"/>
+      <c r="H47" s="99"/>
+      <c r="I47" s="99"/>
+      <c r="J47" s="99"/>
+      <c r="K47" s="99"/>
+      <c r="L47" s="99"/>
+      <c r="M47" s="99"/>
       <c r="N47" s="18"/>
-      <c r="O47" s="62"/>
-      <c r="P47" s="63"/>
+      <c r="O47" s="103"/>
+      <c r="P47" s="104"/>
       <c r="Q47" s="18"/>
       <c r="R47" s="19"/>
       <c r="S47" s="19"/>
     </row>
     <row r="48" spans="3:19" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C48" s="69" t="s">
+      <c r="C48" s="110" t="s">
         <v>12</v>
       </c>
-      <c r="D48" s="69"/>
-      <c r="E48" s="69"/>
-      <c r="F48" s="69"/>
-      <c r="G48" s="58"/>
-      <c r="H48" s="58"/>
-      <c r="I48" s="58"/>
-      <c r="J48" s="58"/>
-      <c r="K48" s="58"/>
-      <c r="L48" s="58"/>
-      <c r="M48" s="58"/>
+      <c r="D48" s="110"/>
+      <c r="E48" s="110"/>
+      <c r="F48" s="110"/>
+      <c r="G48" s="99"/>
+      <c r="H48" s="99"/>
+      <c r="I48" s="99"/>
+      <c r="J48" s="99"/>
+      <c r="K48" s="99"/>
+      <c r="L48" s="99"/>
+      <c r="M48" s="99"/>
       <c r="N48" s="18"/>
-      <c r="O48" s="64"/>
-      <c r="P48" s="65"/>
+      <c r="O48" s="105"/>
+      <c r="P48" s="106"/>
       <c r="Q48" s="18"/>
       <c r="R48" s="19"/>
       <c r="S48" s="19"/>
@@ -2806,13 +2806,13 @@
       <c r="D49" s="21"/>
       <c r="E49" s="21"/>
       <c r="F49" s="21"/>
-      <c r="G49" s="59"/>
-      <c r="H49" s="59"/>
-      <c r="I49" s="59"/>
-      <c r="J49" s="59"/>
-      <c r="K49" s="59"/>
-      <c r="L49" s="59"/>
-      <c r="M49" s="59"/>
+      <c r="G49" s="100"/>
+      <c r="H49" s="100"/>
+      <c r="I49" s="100"/>
+      <c r="J49" s="100"/>
+      <c r="K49" s="100"/>
+      <c r="L49" s="100"/>
+      <c r="M49" s="100"/>
       <c r="N49" s="21"/>
       <c r="O49" s="21"/>
       <c r="P49" s="21"/>
@@ -2822,6 +2822,38 @@
     </row>
   </sheetData>
   <mergeCells count="48">
+    <mergeCell ref="F16:I22"/>
+    <mergeCell ref="F23:I23"/>
+    <mergeCell ref="F24:I24"/>
+    <mergeCell ref="F25:I25"/>
+    <mergeCell ref="F27:I33"/>
+    <mergeCell ref="N11:R11"/>
+    <mergeCell ref="K35:N35"/>
+    <mergeCell ref="P35:S35"/>
+    <mergeCell ref="K36:N36"/>
+    <mergeCell ref="P36:S36"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="C27:D33"/>
+    <mergeCell ref="K25:N25"/>
+    <mergeCell ref="P25:S25"/>
+    <mergeCell ref="K27:N33"/>
+    <mergeCell ref="P27:S33"/>
+    <mergeCell ref="K24:N24"/>
+    <mergeCell ref="P24:S24"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="G44:M49"/>
+    <mergeCell ref="O46:P48"/>
+    <mergeCell ref="C45:F46"/>
+    <mergeCell ref="C47:F47"/>
+    <mergeCell ref="C48:F48"/>
+    <mergeCell ref="K34:N34"/>
+    <mergeCell ref="P34:S34"/>
+    <mergeCell ref="F35:I35"/>
+    <mergeCell ref="F36:I36"/>
+    <mergeCell ref="F34:I34"/>
     <mergeCell ref="R1:S1"/>
     <mergeCell ref="L1:M1"/>
     <mergeCell ref="C16:D22"/>
@@ -2838,38 +2870,6 @@
     <mergeCell ref="E2:S8"/>
     <mergeCell ref="I11:J11"/>
     <mergeCell ref="C13:E14"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="G44:M49"/>
-    <mergeCell ref="O46:P48"/>
-    <mergeCell ref="C45:F46"/>
-    <mergeCell ref="C47:F47"/>
-    <mergeCell ref="C48:F48"/>
-    <mergeCell ref="K34:N34"/>
-    <mergeCell ref="P34:S34"/>
-    <mergeCell ref="F35:I35"/>
-    <mergeCell ref="F36:I36"/>
-    <mergeCell ref="F34:I34"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="C27:D33"/>
-    <mergeCell ref="K25:N25"/>
-    <mergeCell ref="P25:S25"/>
-    <mergeCell ref="K27:N33"/>
-    <mergeCell ref="P27:S33"/>
-    <mergeCell ref="K24:N24"/>
-    <mergeCell ref="P24:S24"/>
-    <mergeCell ref="N11:R11"/>
-    <mergeCell ref="K35:N35"/>
-    <mergeCell ref="P35:S35"/>
-    <mergeCell ref="K36:N36"/>
-    <mergeCell ref="P36:S36"/>
-    <mergeCell ref="F16:I22"/>
-    <mergeCell ref="F23:I23"/>
-    <mergeCell ref="F24:I24"/>
-    <mergeCell ref="F25:I25"/>
-    <mergeCell ref="F27:I33"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2880,8 +2880,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C1:S45"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="S30" sqref="S30"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="J31" sqref="J31:R31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2894,157 +2894,157 @@
   </cols>
   <sheetData>
     <row r="1" spans="3:19" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="L1" s="71" t="s">
+      <c r="L1" s="79" t="s">
         <v>2</v>
       </c>
-      <c r="M1" s="72"/>
-      <c r="N1" s="73" t="s">
+      <c r="M1" s="80"/>
+      <c r="N1" s="83" t="s">
         <v>10</v>
       </c>
-      <c r="O1" s="73"/>
-      <c r="P1" s="73"/>
-      <c r="Q1" s="73"/>
-      <c r="R1" s="70" t="s">
+      <c r="O1" s="83"/>
+      <c r="P1" s="83"/>
+      <c r="Q1" s="83"/>
+      <c r="R1" s="78" t="s">
         <v>4</v>
       </c>
-      <c r="S1" s="70"/>
+      <c r="S1" s="78"/>
     </row>
     <row r="2" spans="3:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C2" s="75" t="s">
+      <c r="C2" s="85" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="76"/>
-      <c r="E2" s="83" t="s">
+      <c r="D2" s="86"/>
+      <c r="E2" s="93" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="84"/>
-      <c r="G2" s="84"/>
-      <c r="H2" s="84"/>
-      <c r="I2" s="84"/>
-      <c r="J2" s="84"/>
-      <c r="K2" s="84"/>
-      <c r="L2" s="84"/>
-      <c r="M2" s="84"/>
-      <c r="N2" s="84"/>
-      <c r="O2" s="84"/>
-      <c r="P2" s="84"/>
-      <c r="Q2" s="84"/>
-      <c r="R2" s="84"/>
-      <c r="S2" s="84"/>
+      <c r="F2" s="94"/>
+      <c r="G2" s="94"/>
+      <c r="H2" s="94"/>
+      <c r="I2" s="94"/>
+      <c r="J2" s="94"/>
+      <c r="K2" s="94"/>
+      <c r="L2" s="94"/>
+      <c r="M2" s="94"/>
+      <c r="N2" s="94"/>
+      <c r="O2" s="94"/>
+      <c r="P2" s="94"/>
+      <c r="Q2" s="94"/>
+      <c r="R2" s="94"/>
+      <c r="S2" s="94"/>
     </row>
     <row r="3" spans="3:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C3" s="77"/>
-      <c r="D3" s="78"/>
-      <c r="E3" s="83"/>
-      <c r="F3" s="84"/>
-      <c r="G3" s="84"/>
-      <c r="H3" s="84"/>
-      <c r="I3" s="84"/>
-      <c r="J3" s="84"/>
-      <c r="K3" s="84"/>
-      <c r="L3" s="84"/>
-      <c r="M3" s="84"/>
-      <c r="N3" s="84"/>
-      <c r="O3" s="84"/>
-      <c r="P3" s="84"/>
-      <c r="Q3" s="84"/>
-      <c r="R3" s="84"/>
-      <c r="S3" s="84"/>
+      <c r="C3" s="87"/>
+      <c r="D3" s="88"/>
+      <c r="E3" s="93"/>
+      <c r="F3" s="94"/>
+      <c r="G3" s="94"/>
+      <c r="H3" s="94"/>
+      <c r="I3" s="94"/>
+      <c r="J3" s="94"/>
+      <c r="K3" s="94"/>
+      <c r="L3" s="94"/>
+      <c r="M3" s="94"/>
+      <c r="N3" s="94"/>
+      <c r="O3" s="94"/>
+      <c r="P3" s="94"/>
+      <c r="Q3" s="94"/>
+      <c r="R3" s="94"/>
+      <c r="S3" s="94"/>
     </row>
     <row r="4" spans="3:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C4" s="77"/>
-      <c r="D4" s="78"/>
-      <c r="E4" s="83"/>
-      <c r="F4" s="84"/>
-      <c r="G4" s="84"/>
-      <c r="H4" s="84"/>
-      <c r="I4" s="84"/>
-      <c r="J4" s="84"/>
-      <c r="K4" s="84"/>
-      <c r="L4" s="84"/>
-      <c r="M4" s="84"/>
-      <c r="N4" s="84"/>
-      <c r="O4" s="84"/>
-      <c r="P4" s="84"/>
-      <c r="Q4" s="84"/>
-      <c r="R4" s="84"/>
-      <c r="S4" s="84"/>
+      <c r="C4" s="87"/>
+      <c r="D4" s="88"/>
+      <c r="E4" s="93"/>
+      <c r="F4" s="94"/>
+      <c r="G4" s="94"/>
+      <c r="H4" s="94"/>
+      <c r="I4" s="94"/>
+      <c r="J4" s="94"/>
+      <c r="K4" s="94"/>
+      <c r="L4" s="94"/>
+      <c r="M4" s="94"/>
+      <c r="N4" s="94"/>
+      <c r="O4" s="94"/>
+      <c r="P4" s="94"/>
+      <c r="Q4" s="94"/>
+      <c r="R4" s="94"/>
+      <c r="S4" s="94"/>
     </row>
     <row r="5" spans="3:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C5" s="77"/>
-      <c r="D5" s="78"/>
-      <c r="E5" s="83"/>
-      <c r="F5" s="84"/>
-      <c r="G5" s="84"/>
-      <c r="H5" s="84"/>
-      <c r="I5" s="84"/>
-      <c r="J5" s="84"/>
-      <c r="K5" s="84"/>
-      <c r="L5" s="84"/>
-      <c r="M5" s="84"/>
-      <c r="N5" s="84"/>
-      <c r="O5" s="84"/>
-      <c r="P5" s="84"/>
-      <c r="Q5" s="84"/>
-      <c r="R5" s="84"/>
-      <c r="S5" s="84"/>
+      <c r="C5" s="87"/>
+      <c r="D5" s="88"/>
+      <c r="E5" s="93"/>
+      <c r="F5" s="94"/>
+      <c r="G5" s="94"/>
+      <c r="H5" s="94"/>
+      <c r="I5" s="94"/>
+      <c r="J5" s="94"/>
+      <c r="K5" s="94"/>
+      <c r="L5" s="94"/>
+      <c r="M5" s="94"/>
+      <c r="N5" s="94"/>
+      <c r="O5" s="94"/>
+      <c r="P5" s="94"/>
+      <c r="Q5" s="94"/>
+      <c r="R5" s="94"/>
+      <c r="S5" s="94"/>
     </row>
     <row r="6" spans="3:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C6" s="77"/>
-      <c r="D6" s="78"/>
-      <c r="E6" s="83"/>
-      <c r="F6" s="84"/>
-      <c r="G6" s="84"/>
-      <c r="H6" s="84"/>
-      <c r="I6" s="84"/>
-      <c r="J6" s="84"/>
-      <c r="K6" s="84"/>
-      <c r="L6" s="84"/>
-      <c r="M6" s="84"/>
-      <c r="N6" s="84"/>
-      <c r="O6" s="84"/>
-      <c r="P6" s="84"/>
-      <c r="Q6" s="84"/>
-      <c r="R6" s="84"/>
-      <c r="S6" s="84"/>
+      <c r="C6" s="87"/>
+      <c r="D6" s="88"/>
+      <c r="E6" s="93"/>
+      <c r="F6" s="94"/>
+      <c r="G6" s="94"/>
+      <c r="H6" s="94"/>
+      <c r="I6" s="94"/>
+      <c r="J6" s="94"/>
+      <c r="K6" s="94"/>
+      <c r="L6" s="94"/>
+      <c r="M6" s="94"/>
+      <c r="N6" s="94"/>
+      <c r="O6" s="94"/>
+      <c r="P6" s="94"/>
+      <c r="Q6" s="94"/>
+      <c r="R6" s="94"/>
+      <c r="S6" s="94"/>
     </row>
     <row r="7" spans="3:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C7" s="77"/>
-      <c r="D7" s="78"/>
-      <c r="E7" s="83"/>
-      <c r="F7" s="84"/>
-      <c r="G7" s="84"/>
-      <c r="H7" s="84"/>
-      <c r="I7" s="84"/>
-      <c r="J7" s="84"/>
-      <c r="K7" s="84"/>
-      <c r="L7" s="84"/>
-      <c r="M7" s="84"/>
-      <c r="N7" s="84"/>
-      <c r="O7" s="84"/>
-      <c r="P7" s="84"/>
-      <c r="Q7" s="84"/>
-      <c r="R7" s="84"/>
-      <c r="S7" s="84"/>
+      <c r="C7" s="87"/>
+      <c r="D7" s="88"/>
+      <c r="E7" s="93"/>
+      <c r="F7" s="94"/>
+      <c r="G7" s="94"/>
+      <c r="H7" s="94"/>
+      <c r="I7" s="94"/>
+      <c r="J7" s="94"/>
+      <c r="K7" s="94"/>
+      <c r="L7" s="94"/>
+      <c r="M7" s="94"/>
+      <c r="N7" s="94"/>
+      <c r="O7" s="94"/>
+      <c r="P7" s="94"/>
+      <c r="Q7" s="94"/>
+      <c r="R7" s="94"/>
+      <c r="S7" s="94"/>
     </row>
     <row r="8" spans="3:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C8" s="79"/>
-      <c r="D8" s="80"/>
-      <c r="E8" s="83"/>
-      <c r="F8" s="84"/>
-      <c r="G8" s="84"/>
-      <c r="H8" s="84"/>
-      <c r="I8" s="84"/>
-      <c r="J8" s="84"/>
-      <c r="K8" s="84"/>
-      <c r="L8" s="84"/>
-      <c r="M8" s="84"/>
-      <c r="N8" s="84"/>
-      <c r="O8" s="84"/>
-      <c r="P8" s="84"/>
-      <c r="Q8" s="84"/>
-      <c r="R8" s="84"/>
-      <c r="S8" s="84"/>
+      <c r="C8" s="89"/>
+      <c r="D8" s="90"/>
+      <c r="E8" s="93"/>
+      <c r="F8" s="94"/>
+      <c r="G8" s="94"/>
+      <c r="H8" s="94"/>
+      <c r="I8" s="94"/>
+      <c r="J8" s="94"/>
+      <c r="K8" s="94"/>
+      <c r="L8" s="94"/>
+      <c r="M8" s="94"/>
+      <c r="N8" s="94"/>
+      <c r="O8" s="94"/>
+      <c r="P8" s="94"/>
+      <c r="Q8" s="94"/>
+      <c r="R8" s="94"/>
+      <c r="S8" s="94"/>
     </row>
     <row r="11" spans="3:19" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C11" s="23" t="s">
@@ -3053,25 +3053,25 @@
       <c r="D11" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="E11" s="81" t="s">
+      <c r="E11" s="91" t="s">
         <v>9</v>
       </c>
-      <c r="F11" s="82"/>
-      <c r="G11" s="81" t="s">
+      <c r="F11" s="92"/>
+      <c r="G11" s="91" t="s">
         <v>15</v>
       </c>
-      <c r="H11" s="82"/>
-      <c r="I11" s="85" t="s">
+      <c r="H11" s="92"/>
+      <c r="I11" s="95" t="s">
         <v>20</v>
       </c>
-      <c r="J11" s="85"/>
-      <c r="N11" s="56" t="s">
+      <c r="J11" s="95"/>
+      <c r="N11" s="111" t="s">
         <v>23</v>
       </c>
-      <c r="O11" s="56"/>
-      <c r="P11" s="56"/>
-      <c r="Q11" s="56"/>
-      <c r="R11" s="56"/>
+      <c r="O11" s="111"/>
+      <c r="P11" s="111"/>
+      <c r="Q11" s="111"/>
+      <c r="R11" s="111"/>
       <c r="S11" s="27" t="s">
         <v>24</v>
       </c>
@@ -3101,8 +3101,8 @@
       <c r="S13" s="9"/>
     </row>
     <row r="14" spans="3:19" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="C14" s="74"/>
-      <c r="D14" s="74"/>
+      <c r="C14" s="84"/>
+      <c r="D14" s="84"/>
       <c r="E14" s="10"/>
       <c r="F14" s="14"/>
       <c r="G14" s="14"/>
@@ -3120,8 +3120,8 @@
       <c r="S14" s="11"/>
     </row>
     <row r="15" spans="3:19" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="C15" s="74"/>
-      <c r="D15" s="74"/>
+      <c r="C15" s="84"/>
+      <c r="D15" s="84"/>
       <c r="E15" s="10"/>
       <c r="F15" s="14"/>
       <c r="G15" s="14"/>
@@ -3139,34 +3139,34 @@
       <c r="S15" s="11"/>
     </row>
     <row r="16" spans="3:19" ht="46.5" x14ac:dyDescent="0.25">
-      <c r="C16" s="96" t="s">
+      <c r="C16" s="117" t="s">
         <v>5</v>
       </c>
-      <c r="D16" s="97"/>
-      <c r="E16" s="98"/>
+      <c r="D16" s="118"/>
+      <c r="E16" s="119"/>
       <c r="F16" s="26"/>
       <c r="G16" s="29"/>
-      <c r="H16" s="92" t="s">
+      <c r="H16" s="113" t="s">
         <v>6</v>
       </c>
-      <c r="I16" s="92"/>
-      <c r="J16" s="92"/>
-      <c r="K16" s="92"/>
-      <c r="L16" s="92"/>
-      <c r="M16" s="92"/>
-      <c r="N16" s="92"/>
-      <c r="O16" s="92"/>
-      <c r="P16" s="92"/>
+      <c r="I16" s="113"/>
+      <c r="J16" s="113"/>
+      <c r="K16" s="113"/>
+      <c r="L16" s="113"/>
+      <c r="M16" s="113"/>
+      <c r="N16" s="113"/>
+      <c r="O16" s="113"/>
+      <c r="P16" s="113"/>
       <c r="Q16" s="30"/>
-      <c r="R16" s="91" t="s">
+      <c r="R16" s="112" t="s">
         <v>25</v>
       </c>
-      <c r="S16" s="91"/>
+      <c r="S16" s="112"/>
     </row>
     <row r="17" spans="3:19" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="C17" s="99"/>
-      <c r="D17" s="100"/>
-      <c r="E17" s="101"/>
+      <c r="C17" s="120"/>
+      <c r="D17" s="121"/>
+      <c r="E17" s="122"/>
       <c r="F17" s="26"/>
       <c r="G17" s="31"/>
       <c r="H17" s="26"/>
@@ -3183,9 +3183,9 @@
       <c r="S17" s="32"/>
     </row>
     <row r="18" spans="3:19" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="C18" s="99"/>
-      <c r="D18" s="100"/>
-      <c r="E18" s="101"/>
+      <c r="C18" s="120"/>
+      <c r="D18" s="121"/>
+      <c r="E18" s="122"/>
       <c r="F18" s="26"/>
       <c r="G18" s="31"/>
       <c r="H18" s="26"/>
@@ -3204,9 +3204,9 @@
       <c r="S18" s="32"/>
     </row>
     <row r="19" spans="3:19" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="C19" s="99"/>
-      <c r="D19" s="100"/>
-      <c r="E19" s="101"/>
+      <c r="C19" s="120"/>
+      <c r="D19" s="121"/>
+      <c r="E19" s="122"/>
       <c r="F19" s="26"/>
       <c r="G19" s="31"/>
       <c r="H19" s="26"/>
@@ -3223,118 +3223,118 @@
       <c r="S19" s="32"/>
     </row>
     <row r="20" spans="3:19" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="C20" s="99"/>
-      <c r="D20" s="100"/>
-      <c r="E20" s="101"/>
+      <c r="C20" s="120"/>
+      <c r="D20" s="121"/>
+      <c r="E20" s="122"/>
       <c r="F20" s="26"/>
       <c r="G20" s="31"/>
       <c r="H20" s="26"/>
-      <c r="I20" s="95" t="s">
+      <c r="I20" s="116" t="s">
         <v>53</v>
       </c>
-      <c r="J20" s="94"/>
-      <c r="K20" s="94"/>
-      <c r="L20" s="94"/>
-      <c r="M20" s="94"/>
-      <c r="N20" s="94"/>
-      <c r="O20" s="94"/>
-      <c r="P20" s="94"/>
-      <c r="Q20" s="94"/>
+      <c r="J20" s="115"/>
+      <c r="K20" s="115"/>
+      <c r="L20" s="115"/>
+      <c r="M20" s="115"/>
+      <c r="N20" s="115"/>
+      <c r="O20" s="115"/>
+      <c r="P20" s="115"/>
+      <c r="Q20" s="115"/>
       <c r="R20" s="26"/>
       <c r="S20" s="32"/>
     </row>
     <row r="21" spans="3:19" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="C21" s="99"/>
-      <c r="D21" s="100"/>
-      <c r="E21" s="101"/>
+      <c r="C21" s="120"/>
+      <c r="D21" s="121"/>
+      <c r="E21" s="122"/>
       <c r="F21" s="26"/>
       <c r="G21" s="31"/>
       <c r="H21" s="26"/>
-      <c r="I21" s="94"/>
-      <c r="J21" s="94"/>
-      <c r="K21" s="94"/>
-      <c r="L21" s="94"/>
-      <c r="M21" s="94"/>
-      <c r="N21" s="94"/>
-      <c r="O21" s="94"/>
-      <c r="P21" s="94"/>
-      <c r="Q21" s="94"/>
+      <c r="I21" s="115"/>
+      <c r="J21" s="115"/>
+      <c r="K21" s="115"/>
+      <c r="L21" s="115"/>
+      <c r="M21" s="115"/>
+      <c r="N21" s="115"/>
+      <c r="O21" s="115"/>
+      <c r="P21" s="115"/>
+      <c r="Q21" s="115"/>
       <c r="R21" s="26"/>
       <c r="S21" s="32"/>
     </row>
     <row r="22" spans="3:19" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="C22" s="99"/>
-      <c r="D22" s="100"/>
-      <c r="E22" s="101"/>
+      <c r="C22" s="120"/>
+      <c r="D22" s="121"/>
+      <c r="E22" s="122"/>
       <c r="F22" s="26"/>
       <c r="G22" s="31"/>
       <c r="H22" s="26"/>
-      <c r="I22" s="94"/>
-      <c r="J22" s="94"/>
-      <c r="K22" s="94"/>
-      <c r="L22" s="94"/>
-      <c r="M22" s="94"/>
-      <c r="N22" s="94"/>
-      <c r="O22" s="94"/>
-      <c r="P22" s="94"/>
-      <c r="Q22" s="94"/>
+      <c r="I22" s="115"/>
+      <c r="J22" s="115"/>
+      <c r="K22" s="115"/>
+      <c r="L22" s="115"/>
+      <c r="M22" s="115"/>
+      <c r="N22" s="115"/>
+      <c r="O22" s="115"/>
+      <c r="P22" s="115"/>
+      <c r="Q22" s="115"/>
       <c r="R22" s="26"/>
       <c r="S22" s="32"/>
     </row>
     <row r="23" spans="3:19" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="C23" s="99"/>
-      <c r="D23" s="100"/>
-      <c r="E23" s="101"/>
+      <c r="C23" s="120"/>
+      <c r="D23" s="121"/>
+      <c r="E23" s="122"/>
       <c r="F23" s="26"/>
       <c r="G23" s="31"/>
       <c r="H23" s="26"/>
-      <c r="I23" s="94"/>
-      <c r="J23" s="94"/>
-      <c r="K23" s="94"/>
-      <c r="L23" s="94"/>
-      <c r="M23" s="94"/>
-      <c r="N23" s="94"/>
-      <c r="O23" s="94"/>
-      <c r="P23" s="94"/>
-      <c r="Q23" s="94"/>
+      <c r="I23" s="115"/>
+      <c r="J23" s="115"/>
+      <c r="K23" s="115"/>
+      <c r="L23" s="115"/>
+      <c r="M23" s="115"/>
+      <c r="N23" s="115"/>
+      <c r="O23" s="115"/>
+      <c r="P23" s="115"/>
+      <c r="Q23" s="115"/>
       <c r="R23" s="26"/>
       <c r="S23" s="32"/>
     </row>
     <row r="24" spans="3:19" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="C24" s="99"/>
-      <c r="D24" s="100"/>
-      <c r="E24" s="101"/>
+      <c r="C24" s="120"/>
+      <c r="D24" s="121"/>
+      <c r="E24" s="122"/>
       <c r="F24" s="26"/>
       <c r="G24" s="31"/>
       <c r="H24" s="26"/>
-      <c r="I24" s="94"/>
-      <c r="J24" s="94"/>
-      <c r="K24" s="94"/>
-      <c r="L24" s="94"/>
-      <c r="M24" s="94"/>
-      <c r="N24" s="94"/>
-      <c r="O24" s="94"/>
-      <c r="P24" s="94"/>
-      <c r="Q24" s="94"/>
+      <c r="I24" s="115"/>
+      <c r="J24" s="115"/>
+      <c r="K24" s="115"/>
+      <c r="L24" s="115"/>
+      <c r="M24" s="115"/>
+      <c r="N24" s="115"/>
+      <c r="O24" s="115"/>
+      <c r="P24" s="115"/>
+      <c r="Q24" s="115"/>
       <c r="R24" s="26"/>
       <c r="S24" s="32"/>
     </row>
     <row r="25" spans="3:19" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="C25" s="102"/>
-      <c r="D25" s="103"/>
-      <c r="E25" s="104"/>
+      <c r="C25" s="123"/>
+      <c r="D25" s="124"/>
+      <c r="E25" s="125"/>
       <c r="F25" s="26"/>
       <c r="G25" s="31"/>
       <c r="H25" s="26"/>
-      <c r="I25" s="94"/>
-      <c r="J25" s="94"/>
-      <c r="K25" s="94"/>
-      <c r="L25" s="94"/>
-      <c r="M25" s="94"/>
-      <c r="N25" s="94"/>
-      <c r="O25" s="94"/>
-      <c r="P25" s="94"/>
-      <c r="Q25" s="94"/>
+      <c r="I25" s="115"/>
+      <c r="J25" s="115"/>
+      <c r="K25" s="115"/>
+      <c r="L25" s="115"/>
+      <c r="M25" s="115"/>
+      <c r="N25" s="115"/>
+      <c r="O25" s="115"/>
+      <c r="P25" s="115"/>
+      <c r="Q25" s="115"/>
       <c r="R25" s="26"/>
       <c r="S25" s="32"/>
     </row>
@@ -3358,11 +3358,11 @@
       <c r="S26" s="32"/>
     </row>
     <row r="27" spans="3:19" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="C27" s="93" t="s">
+      <c r="C27" s="114" t="s">
         <v>26</v>
       </c>
-      <c r="D27" s="94"/>
-      <c r="E27" s="94"/>
+      <c r="D27" s="115"/>
+      <c r="E27" s="115"/>
       <c r="F27" s="26"/>
       <c r="G27" s="33"/>
       <c r="H27" s="34"/>
@@ -3410,15 +3410,15 @@
       </c>
       <c r="H30" s="13"/>
       <c r="I30" s="26"/>
-      <c r="J30" s="87"/>
-      <c r="K30" s="88"/>
-      <c r="L30" s="88"/>
-      <c r="M30" s="88"/>
-      <c r="N30" s="88"/>
-      <c r="O30" s="88"/>
-      <c r="P30" s="88"/>
-      <c r="Q30" s="88"/>
-      <c r="R30" s="89"/>
+      <c r="J30" s="126"/>
+      <c r="K30" s="127"/>
+      <c r="L30" s="127"/>
+      <c r="M30" s="127"/>
+      <c r="N30" s="127"/>
+      <c r="O30" s="127"/>
+      <c r="P30" s="127"/>
+      <c r="Q30" s="127"/>
+      <c r="R30" s="128"/>
       <c r="S30" s="26"/>
     </row>
     <row r="31" spans="3:19" ht="26.25" x14ac:dyDescent="0.35">
@@ -3431,15 +3431,15 @@
       </c>
       <c r="H31" s="36"/>
       <c r="I31" s="26"/>
-      <c r="J31" s="87"/>
-      <c r="K31" s="88"/>
-      <c r="L31" s="88"/>
-      <c r="M31" s="88"/>
-      <c r="N31" s="88"/>
-      <c r="O31" s="88"/>
-      <c r="P31" s="88"/>
-      <c r="Q31" s="88"/>
-      <c r="R31" s="89"/>
+      <c r="J31" s="126"/>
+      <c r="K31" s="127"/>
+      <c r="L31" s="127"/>
+      <c r="M31" s="127"/>
+      <c r="N31" s="127"/>
+      <c r="O31" s="127"/>
+      <c r="P31" s="127"/>
+      <c r="Q31" s="127"/>
+      <c r="R31" s="128"/>
       <c r="S31" s="26"/>
     </row>
     <row r="32" spans="3:19" ht="26.25" x14ac:dyDescent="0.35">
@@ -3452,15 +3452,15 @@
       </c>
       <c r="H32" s="36"/>
       <c r="I32" s="26"/>
-      <c r="J32" s="87"/>
-      <c r="K32" s="88"/>
-      <c r="L32" s="88"/>
-      <c r="M32" s="88"/>
-      <c r="N32" s="88"/>
-      <c r="O32" s="88"/>
-      <c r="P32" s="88"/>
-      <c r="Q32" s="88"/>
-      <c r="R32" s="89"/>
+      <c r="J32" s="126"/>
+      <c r="K32" s="127"/>
+      <c r="L32" s="127"/>
+      <c r="M32" s="127"/>
+      <c r="N32" s="127"/>
+      <c r="O32" s="127"/>
+      <c r="P32" s="127"/>
+      <c r="Q32" s="127"/>
+      <c r="R32" s="128"/>
       <c r="S32" s="26"/>
     </row>
     <row r="33" spans="3:19" ht="26.25" x14ac:dyDescent="0.35">
@@ -3473,16 +3473,16 @@
       </c>
       <c r="H33" s="36"/>
       <c r="I33" s="26"/>
-      <c r="J33" s="87" t="s">
+      <c r="J33" s="126" t="s">
         <v>32</v>
       </c>
-      <c r="K33" s="88"/>
-      <c r="L33" s="88"/>
-      <c r="M33" s="88"/>
-      <c r="N33" s="88"/>
-      <c r="O33" s="88"/>
-      <c r="P33" s="88"/>
-      <c r="Q33" s="89"/>
+      <c r="K33" s="127"/>
+      <c r="L33" s="127"/>
+      <c r="M33" s="127"/>
+      <c r="N33" s="127"/>
+      <c r="O33" s="127"/>
+      <c r="P33" s="127"/>
+      <c r="Q33" s="128"/>
       <c r="R33" s="37" t="s">
         <v>31</v>
       </c>
@@ -3521,11 +3521,11 @@
       <c r="M35" s="26"/>
       <c r="N35" s="26"/>
       <c r="O35" s="26"/>
-      <c r="P35" s="90" t="s">
+      <c r="P35" s="129" t="s">
         <v>58</v>
       </c>
-      <c r="Q35" s="90"/>
-      <c r="R35" s="90"/>
+      <c r="Q35" s="129"/>
+      <c r="R35" s="129"/>
       <c r="S35" s="26"/>
     </row>
     <row r="36" spans="3:19" ht="23.25" x14ac:dyDescent="0.35">
@@ -3542,9 +3542,9 @@
       <c r="M36" s="26"/>
       <c r="N36" s="26"/>
       <c r="O36" s="26"/>
-      <c r="P36" s="90"/>
-      <c r="Q36" s="90"/>
-      <c r="R36" s="90"/>
+      <c r="P36" s="129"/>
+      <c r="Q36" s="129"/>
+      <c r="R36" s="129"/>
       <c r="S36" s="26"/>
     </row>
     <row r="37" spans="3:19" ht="23.25" x14ac:dyDescent="0.35">
@@ -3590,15 +3590,15 @@
       <c r="D40" s="16"/>
       <c r="E40" s="16"/>
       <c r="F40" s="16"/>
-      <c r="G40" s="57" t="s">
+      <c r="G40" s="98" t="s">
         <v>13</v>
       </c>
-      <c r="H40" s="57"/>
-      <c r="I40" s="57"/>
-      <c r="J40" s="57"/>
-      <c r="K40" s="57"/>
-      <c r="L40" s="57"/>
-      <c r="M40" s="57"/>
+      <c r="H40" s="98"/>
+      <c r="I40" s="98"/>
+      <c r="J40" s="98"/>
+      <c r="K40" s="98"/>
+      <c r="L40" s="98"/>
+      <c r="M40" s="98"/>
       <c r="N40" s="16"/>
       <c r="O40" s="16"/>
       <c r="P40" s="16"/>
@@ -3607,19 +3607,19 @@
       <c r="S40" s="17"/>
     </row>
     <row r="41" spans="3:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C41" s="66" t="s">
+      <c r="C41" s="107" t="s">
         <v>14</v>
       </c>
-      <c r="D41" s="67"/>
-      <c r="E41" s="67"/>
-      <c r="F41" s="67"/>
-      <c r="G41" s="58"/>
-      <c r="H41" s="58"/>
-      <c r="I41" s="58"/>
-      <c r="J41" s="58"/>
-      <c r="K41" s="58"/>
-      <c r="L41" s="58"/>
-      <c r="M41" s="58"/>
+      <c r="D41" s="108"/>
+      <c r="E41" s="108"/>
+      <c r="F41" s="108"/>
+      <c r="G41" s="99"/>
+      <c r="H41" s="99"/>
+      <c r="I41" s="99"/>
+      <c r="J41" s="99"/>
+      <c r="K41" s="99"/>
+      <c r="L41" s="99"/>
+      <c r="M41" s="99"/>
       <c r="N41" s="18"/>
       <c r="O41" s="18"/>
       <c r="P41" s="18"/>
@@ -3628,64 +3628,64 @@
       <c r="S41" s="19"/>
     </row>
     <row r="42" spans="3:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C42" s="68"/>
-      <c r="D42" s="67"/>
-      <c r="E42" s="67"/>
-      <c r="F42" s="67"/>
-      <c r="G42" s="58"/>
-      <c r="H42" s="58"/>
-      <c r="I42" s="58"/>
-      <c r="J42" s="58"/>
-      <c r="K42" s="58"/>
-      <c r="L42" s="58"/>
-      <c r="M42" s="58"/>
+      <c r="C42" s="109"/>
+      <c r="D42" s="108"/>
+      <c r="E42" s="108"/>
+      <c r="F42" s="108"/>
+      <c r="G42" s="99"/>
+      <c r="H42" s="99"/>
+      <c r="I42" s="99"/>
+      <c r="J42" s="99"/>
+      <c r="K42" s="99"/>
+      <c r="L42" s="99"/>
+      <c r="M42" s="99"/>
       <c r="N42" s="18"/>
-      <c r="O42" s="60" t="s">
+      <c r="O42" s="101" t="s">
         <v>3</v>
       </c>
-      <c r="P42" s="61"/>
+      <c r="P42" s="102"/>
       <c r="Q42" s="18"/>
       <c r="R42" s="19"/>
       <c r="S42" s="19"/>
     </row>
     <row r="43" spans="3:19" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C43" s="69" t="s">
+      <c r="C43" s="110" t="s">
         <v>11</v>
       </c>
-      <c r="D43" s="69"/>
-      <c r="E43" s="69"/>
-      <c r="F43" s="69"/>
-      <c r="G43" s="58"/>
-      <c r="H43" s="58"/>
-      <c r="I43" s="58"/>
-      <c r="J43" s="58"/>
-      <c r="K43" s="58"/>
-      <c r="L43" s="58"/>
-      <c r="M43" s="58"/>
+      <c r="D43" s="110"/>
+      <c r="E43" s="110"/>
+      <c r="F43" s="110"/>
+      <c r="G43" s="99"/>
+      <c r="H43" s="99"/>
+      <c r="I43" s="99"/>
+      <c r="J43" s="99"/>
+      <c r="K43" s="99"/>
+      <c r="L43" s="99"/>
+      <c r="M43" s="99"/>
       <c r="N43" s="18"/>
-      <c r="O43" s="62"/>
-      <c r="P43" s="63"/>
+      <c r="O43" s="103"/>
+      <c r="P43" s="104"/>
       <c r="Q43" s="18"/>
       <c r="R43" s="19"/>
       <c r="S43" s="19"/>
     </row>
     <row r="44" spans="3:19" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C44" s="69" t="s">
+      <c r="C44" s="110" t="s">
         <v>12</v>
       </c>
-      <c r="D44" s="69"/>
-      <c r="E44" s="69"/>
-      <c r="F44" s="69"/>
-      <c r="G44" s="58"/>
-      <c r="H44" s="58"/>
-      <c r="I44" s="58"/>
-      <c r="J44" s="58"/>
-      <c r="K44" s="58"/>
-      <c r="L44" s="58"/>
-      <c r="M44" s="58"/>
+      <c r="D44" s="110"/>
+      <c r="E44" s="110"/>
+      <c r="F44" s="110"/>
+      <c r="G44" s="99"/>
+      <c r="H44" s="99"/>
+      <c r="I44" s="99"/>
+      <c r="J44" s="99"/>
+      <c r="K44" s="99"/>
+      <c r="L44" s="99"/>
+      <c r="M44" s="99"/>
       <c r="N44" s="18"/>
-      <c r="O44" s="64"/>
-      <c r="P44" s="65"/>
+      <c r="O44" s="105"/>
+      <c r="P44" s="106"/>
       <c r="Q44" s="18"/>
       <c r="R44" s="19"/>
       <c r="S44" s="19"/>
@@ -3695,13 +3695,13 @@
       <c r="D45" s="21"/>
       <c r="E45" s="21"/>
       <c r="F45" s="21"/>
-      <c r="G45" s="59"/>
-      <c r="H45" s="59"/>
-      <c r="I45" s="59"/>
-      <c r="J45" s="59"/>
-      <c r="K45" s="59"/>
-      <c r="L45" s="59"/>
-      <c r="M45" s="59"/>
+      <c r="G45" s="100"/>
+      <c r="H45" s="100"/>
+      <c r="I45" s="100"/>
+      <c r="J45" s="100"/>
+      <c r="K45" s="100"/>
+      <c r="L45" s="100"/>
+      <c r="M45" s="100"/>
       <c r="N45" s="21"/>
       <c r="O45" s="21"/>
       <c r="P45" s="21"/>
@@ -3711,16 +3711,11 @@
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="N1:Q1"/>
-    <mergeCell ref="R1:S1"/>
-    <mergeCell ref="C2:D8"/>
-    <mergeCell ref="E2:S8"/>
-    <mergeCell ref="G40:M45"/>
-    <mergeCell ref="C41:F42"/>
-    <mergeCell ref="O42:P44"/>
-    <mergeCell ref="C43:F43"/>
-    <mergeCell ref="C44:F44"/>
+    <mergeCell ref="J30:R30"/>
+    <mergeCell ref="J31:R31"/>
+    <mergeCell ref="J32:R32"/>
+    <mergeCell ref="J33:Q33"/>
+    <mergeCell ref="P35:R36"/>
     <mergeCell ref="R16:S16"/>
     <mergeCell ref="H16:P16"/>
     <mergeCell ref="N11:R11"/>
@@ -3732,11 +3727,16 @@
     <mergeCell ref="E11:F11"/>
     <mergeCell ref="G11:H11"/>
     <mergeCell ref="I11:J11"/>
-    <mergeCell ref="J30:R30"/>
-    <mergeCell ref="J31:R31"/>
-    <mergeCell ref="J32:R32"/>
-    <mergeCell ref="J33:Q33"/>
-    <mergeCell ref="P35:R36"/>
+    <mergeCell ref="G40:M45"/>
+    <mergeCell ref="C41:F42"/>
+    <mergeCell ref="O42:P44"/>
+    <mergeCell ref="C43:F43"/>
+    <mergeCell ref="C44:F44"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="N1:Q1"/>
+    <mergeCell ref="R1:S1"/>
+    <mergeCell ref="C2:D8"/>
+    <mergeCell ref="E2:S8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3761,157 +3761,157 @@
   </cols>
   <sheetData>
     <row r="1" spans="3:19" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="L1" s="71" t="s">
+      <c r="L1" s="79" t="s">
         <v>2</v>
       </c>
-      <c r="M1" s="72"/>
-      <c r="N1" s="73" t="s">
+      <c r="M1" s="80"/>
+      <c r="N1" s="83" t="s">
         <v>10</v>
       </c>
-      <c r="O1" s="73"/>
-      <c r="P1" s="73"/>
-      <c r="Q1" s="73"/>
-      <c r="R1" s="70" t="s">
+      <c r="O1" s="83"/>
+      <c r="P1" s="83"/>
+      <c r="Q1" s="83"/>
+      <c r="R1" s="78" t="s">
         <v>4</v>
       </c>
-      <c r="S1" s="70"/>
+      <c r="S1" s="78"/>
     </row>
     <row r="2" spans="3:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C2" s="75" t="s">
+      <c r="C2" s="85" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="76"/>
-      <c r="E2" s="83" t="s">
+      <c r="D2" s="86"/>
+      <c r="E2" s="93" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="84"/>
-      <c r="G2" s="84"/>
-      <c r="H2" s="84"/>
-      <c r="I2" s="84"/>
-      <c r="J2" s="84"/>
-      <c r="K2" s="84"/>
-      <c r="L2" s="84"/>
-      <c r="M2" s="84"/>
-      <c r="N2" s="84"/>
-      <c r="O2" s="84"/>
-      <c r="P2" s="84"/>
-      <c r="Q2" s="84"/>
-      <c r="R2" s="84"/>
-      <c r="S2" s="84"/>
+      <c r="F2" s="94"/>
+      <c r="G2" s="94"/>
+      <c r="H2" s="94"/>
+      <c r="I2" s="94"/>
+      <c r="J2" s="94"/>
+      <c r="K2" s="94"/>
+      <c r="L2" s="94"/>
+      <c r="M2" s="94"/>
+      <c r="N2" s="94"/>
+      <c r="O2" s="94"/>
+      <c r="P2" s="94"/>
+      <c r="Q2" s="94"/>
+      <c r="R2" s="94"/>
+      <c r="S2" s="94"/>
     </row>
     <row r="3" spans="3:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C3" s="77"/>
-      <c r="D3" s="78"/>
-      <c r="E3" s="83"/>
-      <c r="F3" s="84"/>
-      <c r="G3" s="84"/>
-      <c r="H3" s="84"/>
-      <c r="I3" s="84"/>
-      <c r="J3" s="84"/>
-      <c r="K3" s="84"/>
-      <c r="L3" s="84"/>
-      <c r="M3" s="84"/>
-      <c r="N3" s="84"/>
-      <c r="O3" s="84"/>
-      <c r="P3" s="84"/>
-      <c r="Q3" s="84"/>
-      <c r="R3" s="84"/>
-      <c r="S3" s="84"/>
+      <c r="C3" s="87"/>
+      <c r="D3" s="88"/>
+      <c r="E3" s="93"/>
+      <c r="F3" s="94"/>
+      <c r="G3" s="94"/>
+      <c r="H3" s="94"/>
+      <c r="I3" s="94"/>
+      <c r="J3" s="94"/>
+      <c r="K3" s="94"/>
+      <c r="L3" s="94"/>
+      <c r="M3" s="94"/>
+      <c r="N3" s="94"/>
+      <c r="O3" s="94"/>
+      <c r="P3" s="94"/>
+      <c r="Q3" s="94"/>
+      <c r="R3" s="94"/>
+      <c r="S3" s="94"/>
     </row>
     <row r="4" spans="3:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C4" s="77"/>
-      <c r="D4" s="78"/>
-      <c r="E4" s="83"/>
-      <c r="F4" s="84"/>
-      <c r="G4" s="84"/>
-      <c r="H4" s="84"/>
-      <c r="I4" s="84"/>
-      <c r="J4" s="84"/>
-      <c r="K4" s="84"/>
-      <c r="L4" s="84"/>
-      <c r="M4" s="84"/>
-      <c r="N4" s="84"/>
-      <c r="O4" s="84"/>
-      <c r="P4" s="84"/>
-      <c r="Q4" s="84"/>
-      <c r="R4" s="84"/>
-      <c r="S4" s="84"/>
+      <c r="C4" s="87"/>
+      <c r="D4" s="88"/>
+      <c r="E4" s="93"/>
+      <c r="F4" s="94"/>
+      <c r="G4" s="94"/>
+      <c r="H4" s="94"/>
+      <c r="I4" s="94"/>
+      <c r="J4" s="94"/>
+      <c r="K4" s="94"/>
+      <c r="L4" s="94"/>
+      <c r="M4" s="94"/>
+      <c r="N4" s="94"/>
+      <c r="O4" s="94"/>
+      <c r="P4" s="94"/>
+      <c r="Q4" s="94"/>
+      <c r="R4" s="94"/>
+      <c r="S4" s="94"/>
     </row>
     <row r="5" spans="3:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C5" s="77"/>
-      <c r="D5" s="78"/>
-      <c r="E5" s="83"/>
-      <c r="F5" s="84"/>
-      <c r="G5" s="84"/>
-      <c r="H5" s="84"/>
-      <c r="I5" s="84"/>
-      <c r="J5" s="84"/>
-      <c r="K5" s="84"/>
-      <c r="L5" s="84"/>
-      <c r="M5" s="84"/>
-      <c r="N5" s="84"/>
-      <c r="O5" s="84"/>
-      <c r="P5" s="84"/>
-      <c r="Q5" s="84"/>
-      <c r="R5" s="84"/>
-      <c r="S5" s="84"/>
+      <c r="C5" s="87"/>
+      <c r="D5" s="88"/>
+      <c r="E5" s="93"/>
+      <c r="F5" s="94"/>
+      <c r="G5" s="94"/>
+      <c r="H5" s="94"/>
+      <c r="I5" s="94"/>
+      <c r="J5" s="94"/>
+      <c r="K5" s="94"/>
+      <c r="L5" s="94"/>
+      <c r="M5" s="94"/>
+      <c r="N5" s="94"/>
+      <c r="O5" s="94"/>
+      <c r="P5" s="94"/>
+      <c r="Q5" s="94"/>
+      <c r="R5" s="94"/>
+      <c r="S5" s="94"/>
     </row>
     <row r="6" spans="3:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C6" s="77"/>
-      <c r="D6" s="78"/>
-      <c r="E6" s="83"/>
-      <c r="F6" s="84"/>
-      <c r="G6" s="84"/>
-      <c r="H6" s="84"/>
-      <c r="I6" s="84"/>
-      <c r="J6" s="84"/>
-      <c r="K6" s="84"/>
-      <c r="L6" s="84"/>
-      <c r="M6" s="84"/>
-      <c r="N6" s="84"/>
-      <c r="O6" s="84"/>
-      <c r="P6" s="84"/>
-      <c r="Q6" s="84"/>
-      <c r="R6" s="84"/>
-      <c r="S6" s="84"/>
+      <c r="C6" s="87"/>
+      <c r="D6" s="88"/>
+      <c r="E6" s="93"/>
+      <c r="F6" s="94"/>
+      <c r="G6" s="94"/>
+      <c r="H6" s="94"/>
+      <c r="I6" s="94"/>
+      <c r="J6" s="94"/>
+      <c r="K6" s="94"/>
+      <c r="L6" s="94"/>
+      <c r="M6" s="94"/>
+      <c r="N6" s="94"/>
+      <c r="O6" s="94"/>
+      <c r="P6" s="94"/>
+      <c r="Q6" s="94"/>
+      <c r="R6" s="94"/>
+      <c r="S6" s="94"/>
     </row>
     <row r="7" spans="3:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C7" s="77"/>
-      <c r="D7" s="78"/>
-      <c r="E7" s="83"/>
-      <c r="F7" s="84"/>
-      <c r="G7" s="84"/>
-      <c r="H7" s="84"/>
-      <c r="I7" s="84"/>
-      <c r="J7" s="84"/>
-      <c r="K7" s="84"/>
-      <c r="L7" s="84"/>
-      <c r="M7" s="84"/>
-      <c r="N7" s="84"/>
-      <c r="O7" s="84"/>
-      <c r="P7" s="84"/>
-      <c r="Q7" s="84"/>
-      <c r="R7" s="84"/>
-      <c r="S7" s="84"/>
+      <c r="C7" s="87"/>
+      <c r="D7" s="88"/>
+      <c r="E7" s="93"/>
+      <c r="F7" s="94"/>
+      <c r="G7" s="94"/>
+      <c r="H7" s="94"/>
+      <c r="I7" s="94"/>
+      <c r="J7" s="94"/>
+      <c r="K7" s="94"/>
+      <c r="L7" s="94"/>
+      <c r="M7" s="94"/>
+      <c r="N7" s="94"/>
+      <c r="O7" s="94"/>
+      <c r="P7" s="94"/>
+      <c r="Q7" s="94"/>
+      <c r="R7" s="94"/>
+      <c r="S7" s="94"/>
     </row>
     <row r="8" spans="3:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C8" s="79"/>
-      <c r="D8" s="80"/>
-      <c r="E8" s="83"/>
-      <c r="F8" s="84"/>
-      <c r="G8" s="84"/>
-      <c r="H8" s="84"/>
-      <c r="I8" s="84"/>
-      <c r="J8" s="84"/>
-      <c r="K8" s="84"/>
-      <c r="L8" s="84"/>
-      <c r="M8" s="84"/>
-      <c r="N8" s="84"/>
-      <c r="O8" s="84"/>
-      <c r="P8" s="84"/>
-      <c r="Q8" s="84"/>
-      <c r="R8" s="84"/>
-      <c r="S8" s="84"/>
+      <c r="C8" s="89"/>
+      <c r="D8" s="90"/>
+      <c r="E8" s="93"/>
+      <c r="F8" s="94"/>
+      <c r="G8" s="94"/>
+      <c r="H8" s="94"/>
+      <c r="I8" s="94"/>
+      <c r="J8" s="94"/>
+      <c r="K8" s="94"/>
+      <c r="L8" s="94"/>
+      <c r="M8" s="94"/>
+      <c r="N8" s="94"/>
+      <c r="O8" s="94"/>
+      <c r="P8" s="94"/>
+      <c r="Q8" s="94"/>
+      <c r="R8" s="94"/>
+      <c r="S8" s="94"/>
     </row>
     <row r="11" spans="3:19" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C11" s="23" t="s">
@@ -3920,25 +3920,25 @@
       <c r="D11" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="E11" s="81" t="s">
+      <c r="E11" s="91" t="s">
         <v>9</v>
       </c>
-      <c r="F11" s="82"/>
-      <c r="G11" s="81" t="s">
+      <c r="F11" s="92"/>
+      <c r="G11" s="91" t="s">
         <v>15</v>
       </c>
-      <c r="H11" s="82"/>
-      <c r="I11" s="85" t="s">
+      <c r="H11" s="92"/>
+      <c r="I11" s="95" t="s">
         <v>20</v>
       </c>
-      <c r="J11" s="85"/>
-      <c r="N11" s="56" t="s">
+      <c r="J11" s="95"/>
+      <c r="N11" s="111" t="s">
         <v>23</v>
       </c>
-      <c r="O11" s="56"/>
-      <c r="P11" s="56"/>
-      <c r="Q11" s="56"/>
-      <c r="R11" s="56"/>
+      <c r="O11" s="111"/>
+      <c r="P11" s="111"/>
+      <c r="Q11" s="111"/>
+      <c r="R11" s="111"/>
       <c r="S11" s="27" t="s">
         <v>24</v>
       </c>
@@ -3968,10 +3968,10 @@
       <c r="S13" s="9"/>
     </row>
     <row r="14" spans="3:19" ht="31.5" x14ac:dyDescent="0.5">
-      <c r="C14" s="106" t="s">
+      <c r="C14" s="131" t="s">
         <v>33</v>
       </c>
-      <c r="D14" s="106"/>
+      <c r="D14" s="131"/>
       <c r="E14" s="10"/>
       <c r="F14" s="14"/>
       <c r="G14" s="14"/>
@@ -4008,18 +4008,18 @@
       <c r="S15" s="11"/>
     </row>
     <row r="16" spans="3:19" ht="31.5" x14ac:dyDescent="0.5">
-      <c r="C16" s="110" t="s">
+      <c r="C16" s="135" t="s">
         <v>34</v>
       </c>
-      <c r="D16" s="117" t="s">
+      <c r="D16" s="142" t="s">
         <v>35</v>
       </c>
-      <c r="E16" s="117"/>
-      <c r="F16" s="117"/>
-      <c r="G16" s="117"/>
-      <c r="H16" s="117"/>
-      <c r="I16" s="117"/>
-      <c r="J16" s="118"/>
+      <c r="E16" s="142"/>
+      <c r="F16" s="142"/>
+      <c r="G16" s="142"/>
+      <c r="H16" s="142"/>
+      <c r="I16" s="142"/>
+      <c r="J16" s="143"/>
       <c r="K16" s="10"/>
       <c r="L16" s="10"/>
       <c r="M16" s="10"/>
@@ -4031,7 +4031,7 @@
       <c r="S16" s="11"/>
     </row>
     <row r="17" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C17" s="111"/>
+      <c r="C17" s="136"/>
       <c r="D17" s="2"/>
       <c r="E17" s="2" t="s">
         <v>30</v>
@@ -4045,15 +4045,15 @@
       <c r="J17" s="3"/>
     </row>
     <row r="18" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C18" s="111"/>
+      <c r="C18" s="136"/>
       <c r="D18" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="E18" s="107" t="s">
+      <c r="E18" s="132" t="s">
         <v>32</v>
       </c>
-      <c r="F18" s="108"/>
-      <c r="G18" s="109"/>
+      <c r="F18" s="133"/>
+      <c r="G18" s="134"/>
       <c r="H18" s="40" t="s">
         <v>37</v>
       </c>
@@ -4065,7 +4065,7 @@
       </c>
     </row>
     <row r="19" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C19" s="112"/>
+      <c r="C19" s="137"/>
       <c r="D19" s="2" t="s">
         <v>41</v>
       </c>
@@ -4089,31 +4089,31 @@
       <c r="J20" s="6"/>
     </row>
     <row r="22" spans="3:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C22" s="110" t="s">
+      <c r="C22" s="135" t="s">
         <v>34</v>
       </c>
-      <c r="D22" s="113" t="s">
+      <c r="D22" s="138" t="s">
         <v>35</v>
       </c>
-      <c r="E22" s="113"/>
-      <c r="F22" s="113"/>
-      <c r="G22" s="113"/>
-      <c r="H22" s="113"/>
-      <c r="I22" s="113"/>
-      <c r="J22" s="114"/>
+      <c r="E22" s="138"/>
+      <c r="F22" s="138"/>
+      <c r="G22" s="138"/>
+      <c r="H22" s="138"/>
+      <c r="I22" s="138"/>
+      <c r="J22" s="139"/>
     </row>
     <row r="23" spans="3:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C23" s="111"/>
-      <c r="D23" s="115"/>
-      <c r="E23" s="115"/>
-      <c r="F23" s="115"/>
-      <c r="G23" s="115"/>
-      <c r="H23" s="115"/>
-      <c r="I23" s="115"/>
-      <c r="J23" s="116"/>
+      <c r="C23" s="136"/>
+      <c r="D23" s="140"/>
+      <c r="E23" s="140"/>
+      <c r="F23" s="140"/>
+      <c r="G23" s="140"/>
+      <c r="H23" s="140"/>
+      <c r="I23" s="140"/>
+      <c r="J23" s="141"/>
     </row>
     <row r="24" spans="3:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C24" s="111"/>
+      <c r="C24" s="136"/>
       <c r="D24" s="2" t="s">
         <v>36</v>
       </c>
@@ -4129,15 +4129,15 @@
       <c r="J24" s="3"/>
     </row>
     <row r="25" spans="3:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C25" s="112"/>
+      <c r="C25" s="137"/>
       <c r="D25" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="E25" s="107" t="s">
+      <c r="E25" s="132" t="s">
         <v>45</v>
       </c>
-      <c r="F25" s="108"/>
-      <c r="G25" s="109"/>
+      <c r="F25" s="133"/>
+      <c r="G25" s="134"/>
       <c r="H25" s="40" t="s">
         <v>37</v>
       </c>
@@ -4159,31 +4159,31 @@
       <c r="J26" s="6"/>
     </row>
     <row r="28" spans="3:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C28" s="110" t="s">
+      <c r="C28" s="135" t="s">
         <v>34</v>
       </c>
-      <c r="D28" s="113" t="s">
+      <c r="D28" s="138" t="s">
         <v>48</v>
       </c>
-      <c r="E28" s="113"/>
-      <c r="F28" s="113"/>
-      <c r="G28" s="113"/>
-      <c r="H28" s="113"/>
-      <c r="I28" s="113"/>
-      <c r="J28" s="114"/>
+      <c r="E28" s="138"/>
+      <c r="F28" s="138"/>
+      <c r="G28" s="138"/>
+      <c r="H28" s="138"/>
+      <c r="I28" s="138"/>
+      <c r="J28" s="139"/>
     </row>
     <row r="29" spans="3:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C29" s="111"/>
-      <c r="D29" s="115"/>
-      <c r="E29" s="115"/>
-      <c r="F29" s="115"/>
-      <c r="G29" s="115"/>
-      <c r="H29" s="115"/>
-      <c r="I29" s="115"/>
-      <c r="J29" s="116"/>
+      <c r="C29" s="136"/>
+      <c r="D29" s="140"/>
+      <c r="E29" s="140"/>
+      <c r="F29" s="140"/>
+      <c r="G29" s="140"/>
+      <c r="H29" s="140"/>
+      <c r="I29" s="140"/>
+      <c r="J29" s="141"/>
     </row>
     <row r="30" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C30" s="111"/>
+      <c r="C30" s="136"/>
       <c r="D30" s="2" t="s">
         <v>36</v>
       </c>
@@ -4199,15 +4199,15 @@
       <c r="J30" s="3"/>
     </row>
     <row r="31" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C31" s="112"/>
+      <c r="C31" s="137"/>
       <c r="D31" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="E31" s="107" t="s">
+      <c r="E31" s="132" t="s">
         <v>46</v>
       </c>
-      <c r="F31" s="108"/>
-      <c r="G31" s="109"/>
+      <c r="F31" s="133"/>
+      <c r="G31" s="134"/>
       <c r="H31" s="40" t="s">
         <v>37</v>
       </c>
@@ -4238,30 +4238,30 @@
       <c r="J34" s="39"/>
     </row>
     <row r="35" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C35" s="105" t="s">
+      <c r="C35" s="130" t="s">
         <v>44</v>
       </c>
-      <c r="E35" s="105" t="s">
+      <c r="E35" s="130" t="s">
         <v>42</v>
       </c>
-      <c r="F35" s="105"/>
-      <c r="H35" s="105" t="s">
+      <c r="F35" s="130"/>
+      <c r="H35" s="130" t="s">
         <v>43</v>
       </c>
-      <c r="I35" s="105"/>
-      <c r="J35" s="105"/>
+      <c r="I35" s="130"/>
+      <c r="J35" s="130"/>
     </row>
     <row r="36" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C36" s="105"/>
-      <c r="E36" s="105"/>
-      <c r="F36" s="105"/>
-      <c r="H36" s="105"/>
-      <c r="I36" s="105"/>
-      <c r="J36" s="105"/>
+      <c r="C36" s="130"/>
+      <c r="E36" s="130"/>
+      <c r="F36" s="130"/>
+      <c r="H36" s="130"/>
+      <c r="I36" s="130"/>
+      <c r="J36" s="130"/>
     </row>
     <row r="38" spans="3:19" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="C38" s="74"/>
-      <c r="D38" s="74"/>
+      <c r="C38" s="84"/>
+      <c r="D38" s="84"/>
       <c r="E38" s="10"/>
       <c r="F38" s="14"/>
       <c r="G38" s="14"/>
@@ -4321,15 +4321,15 @@
       <c r="D42" s="16"/>
       <c r="E42" s="16"/>
       <c r="F42" s="16"/>
-      <c r="G42" s="57" t="s">
+      <c r="G42" s="98" t="s">
         <v>13</v>
       </c>
-      <c r="H42" s="57"/>
-      <c r="I42" s="57"/>
-      <c r="J42" s="57"/>
-      <c r="K42" s="57"/>
-      <c r="L42" s="57"/>
-      <c r="M42" s="57"/>
+      <c r="H42" s="98"/>
+      <c r="I42" s="98"/>
+      <c r="J42" s="98"/>
+      <c r="K42" s="98"/>
+      <c r="L42" s="98"/>
+      <c r="M42" s="98"/>
       <c r="N42" s="16"/>
       <c r="O42" s="16"/>
       <c r="P42" s="16"/>
@@ -4338,19 +4338,19 @@
       <c r="S42" s="17"/>
     </row>
     <row r="43" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C43" s="66" t="s">
+      <c r="C43" s="107" t="s">
         <v>14</v>
       </c>
-      <c r="D43" s="67"/>
-      <c r="E43" s="67"/>
-      <c r="F43" s="67"/>
-      <c r="G43" s="58"/>
-      <c r="H43" s="58"/>
-      <c r="I43" s="58"/>
-      <c r="J43" s="58"/>
-      <c r="K43" s="58"/>
-      <c r="L43" s="58"/>
-      <c r="M43" s="58"/>
+      <c r="D43" s="108"/>
+      <c r="E43" s="108"/>
+      <c r="F43" s="108"/>
+      <c r="G43" s="99"/>
+      <c r="H43" s="99"/>
+      <c r="I43" s="99"/>
+      <c r="J43" s="99"/>
+      <c r="K43" s="99"/>
+      <c r="L43" s="99"/>
+      <c r="M43" s="99"/>
       <c r="N43" s="18"/>
       <c r="O43" s="18"/>
       <c r="P43" s="18"/>
@@ -4359,64 +4359,64 @@
       <c r="S43" s="19"/>
     </row>
     <row r="44" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C44" s="68"/>
-      <c r="D44" s="67"/>
-      <c r="E44" s="67"/>
-      <c r="F44" s="67"/>
-      <c r="G44" s="58"/>
-      <c r="H44" s="58"/>
-      <c r="I44" s="58"/>
-      <c r="J44" s="58"/>
-      <c r="K44" s="58"/>
-      <c r="L44" s="58"/>
-      <c r="M44" s="58"/>
+      <c r="C44" s="109"/>
+      <c r="D44" s="108"/>
+      <c r="E44" s="108"/>
+      <c r="F44" s="108"/>
+      <c r="G44" s="99"/>
+      <c r="H44" s="99"/>
+      <c r="I44" s="99"/>
+      <c r="J44" s="99"/>
+      <c r="K44" s="99"/>
+      <c r="L44" s="99"/>
+      <c r="M44" s="99"/>
       <c r="N44" s="18"/>
-      <c r="O44" s="60" t="s">
+      <c r="O44" s="101" t="s">
         <v>3</v>
       </c>
-      <c r="P44" s="61"/>
+      <c r="P44" s="102"/>
       <c r="Q44" s="18"/>
       <c r="R44" s="19"/>
       <c r="S44" s="19"/>
     </row>
     <row r="45" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C45" s="69" t="s">
+      <c r="C45" s="110" t="s">
         <v>11</v>
       </c>
-      <c r="D45" s="69"/>
-      <c r="E45" s="69"/>
-      <c r="F45" s="69"/>
-      <c r="G45" s="58"/>
-      <c r="H45" s="58"/>
-      <c r="I45" s="58"/>
-      <c r="J45" s="58"/>
-      <c r="K45" s="58"/>
-      <c r="L45" s="58"/>
-      <c r="M45" s="58"/>
+      <c r="D45" s="110"/>
+      <c r="E45" s="110"/>
+      <c r="F45" s="110"/>
+      <c r="G45" s="99"/>
+      <c r="H45" s="99"/>
+      <c r="I45" s="99"/>
+      <c r="J45" s="99"/>
+      <c r="K45" s="99"/>
+      <c r="L45" s="99"/>
+      <c r="M45" s="99"/>
       <c r="N45" s="18"/>
-      <c r="O45" s="62"/>
-      <c r="P45" s="63"/>
+      <c r="O45" s="103"/>
+      <c r="P45" s="104"/>
       <c r="Q45" s="18"/>
       <c r="R45" s="19"/>
       <c r="S45" s="19"/>
     </row>
     <row r="46" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C46" s="69" t="s">
+      <c r="C46" s="110" t="s">
         <v>12</v>
       </c>
-      <c r="D46" s="69"/>
-      <c r="E46" s="69"/>
-      <c r="F46" s="69"/>
-      <c r="G46" s="58"/>
-      <c r="H46" s="58"/>
-      <c r="I46" s="58"/>
-      <c r="J46" s="58"/>
-      <c r="K46" s="58"/>
-      <c r="L46" s="58"/>
-      <c r="M46" s="58"/>
+      <c r="D46" s="110"/>
+      <c r="E46" s="110"/>
+      <c r="F46" s="110"/>
+      <c r="G46" s="99"/>
+      <c r="H46" s="99"/>
+      <c r="I46" s="99"/>
+      <c r="J46" s="99"/>
+      <c r="K46" s="99"/>
+      <c r="L46" s="99"/>
+      <c r="M46" s="99"/>
       <c r="N46" s="18"/>
-      <c r="O46" s="64"/>
-      <c r="P46" s="65"/>
+      <c r="O46" s="105"/>
+      <c r="P46" s="106"/>
       <c r="Q46" s="18"/>
       <c r="R46" s="19"/>
       <c r="S46" s="19"/>
@@ -4426,13 +4426,13 @@
       <c r="D47" s="21"/>
       <c r="E47" s="21"/>
       <c r="F47" s="21"/>
-      <c r="G47" s="59"/>
-      <c r="H47" s="59"/>
-      <c r="I47" s="59"/>
-      <c r="J47" s="59"/>
-      <c r="K47" s="59"/>
-      <c r="L47" s="59"/>
-      <c r="M47" s="59"/>
+      <c r="G47" s="100"/>
+      <c r="H47" s="100"/>
+      <c r="I47" s="100"/>
+      <c r="J47" s="100"/>
+      <c r="K47" s="100"/>
+      <c r="L47" s="100"/>
+      <c r="M47" s="100"/>
       <c r="N47" s="21"/>
       <c r="O47" s="21"/>
       <c r="P47" s="21"/>
@@ -4442,12 +4442,12 @@
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="N11:R11"/>
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="N1:Q1"/>
-    <mergeCell ref="R1:S1"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="G42:M47"/>
+    <mergeCell ref="C43:F44"/>
+    <mergeCell ref="O44:P46"/>
+    <mergeCell ref="C45:F45"/>
+    <mergeCell ref="C46:F46"/>
     <mergeCell ref="C2:D8"/>
     <mergeCell ref="E2:S8"/>
     <mergeCell ref="C35:C36"/>
@@ -4464,12 +4464,12 @@
     <mergeCell ref="C22:C25"/>
     <mergeCell ref="E25:G25"/>
     <mergeCell ref="E11:F11"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="G42:M47"/>
-    <mergeCell ref="C43:F44"/>
-    <mergeCell ref="O44:P46"/>
-    <mergeCell ref="C45:F45"/>
-    <mergeCell ref="C46:F46"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="N11:R11"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="N1:Q1"/>
+    <mergeCell ref="R1:S1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4494,157 +4494,157 @@
   </cols>
   <sheetData>
     <row r="1" spans="3:19" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="L1" s="71" t="s">
+      <c r="L1" s="79" t="s">
         <v>2</v>
       </c>
-      <c r="M1" s="72"/>
-      <c r="N1" s="73" t="s">
+      <c r="M1" s="80"/>
+      <c r="N1" s="83" t="s">
         <v>10</v>
       </c>
-      <c r="O1" s="73"/>
-      <c r="P1" s="73"/>
-      <c r="Q1" s="73"/>
-      <c r="R1" s="70" t="s">
+      <c r="O1" s="83"/>
+      <c r="P1" s="83"/>
+      <c r="Q1" s="83"/>
+      <c r="R1" s="78" t="s">
         <v>4</v>
       </c>
-      <c r="S1" s="70"/>
+      <c r="S1" s="78"/>
     </row>
     <row r="2" spans="3:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C2" s="75" t="s">
+      <c r="C2" s="85" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="76"/>
-      <c r="E2" s="83" t="s">
+      <c r="D2" s="86"/>
+      <c r="E2" s="93" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="84"/>
-      <c r="G2" s="84"/>
-      <c r="H2" s="84"/>
-      <c r="I2" s="84"/>
-      <c r="J2" s="84"/>
-      <c r="K2" s="84"/>
-      <c r="L2" s="84"/>
-      <c r="M2" s="84"/>
-      <c r="N2" s="84"/>
-      <c r="O2" s="84"/>
-      <c r="P2" s="84"/>
-      <c r="Q2" s="84"/>
-      <c r="R2" s="84"/>
-      <c r="S2" s="84"/>
+      <c r="F2" s="94"/>
+      <c r="G2" s="94"/>
+      <c r="H2" s="94"/>
+      <c r="I2" s="94"/>
+      <c r="J2" s="94"/>
+      <c r="K2" s="94"/>
+      <c r="L2" s="94"/>
+      <c r="M2" s="94"/>
+      <c r="N2" s="94"/>
+      <c r="O2" s="94"/>
+      <c r="P2" s="94"/>
+      <c r="Q2" s="94"/>
+      <c r="R2" s="94"/>
+      <c r="S2" s="94"/>
     </row>
     <row r="3" spans="3:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C3" s="77"/>
-      <c r="D3" s="78"/>
-      <c r="E3" s="83"/>
-      <c r="F3" s="84"/>
-      <c r="G3" s="84"/>
-      <c r="H3" s="84"/>
-      <c r="I3" s="84"/>
-      <c r="J3" s="84"/>
-      <c r="K3" s="84"/>
-      <c r="L3" s="84"/>
-      <c r="M3" s="84"/>
-      <c r="N3" s="84"/>
-      <c r="O3" s="84"/>
-      <c r="P3" s="84"/>
-      <c r="Q3" s="84"/>
-      <c r="R3" s="84"/>
-      <c r="S3" s="84"/>
+      <c r="C3" s="87"/>
+      <c r="D3" s="88"/>
+      <c r="E3" s="93"/>
+      <c r="F3" s="94"/>
+      <c r="G3" s="94"/>
+      <c r="H3" s="94"/>
+      <c r="I3" s="94"/>
+      <c r="J3" s="94"/>
+      <c r="K3" s="94"/>
+      <c r="L3" s="94"/>
+      <c r="M3" s="94"/>
+      <c r="N3" s="94"/>
+      <c r="O3" s="94"/>
+      <c r="P3" s="94"/>
+      <c r="Q3" s="94"/>
+      <c r="R3" s="94"/>
+      <c r="S3" s="94"/>
     </row>
     <row r="4" spans="3:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C4" s="77"/>
-      <c r="D4" s="78"/>
-      <c r="E4" s="83"/>
-      <c r="F4" s="84"/>
-      <c r="G4" s="84"/>
-      <c r="H4" s="84"/>
-      <c r="I4" s="84"/>
-      <c r="J4" s="84"/>
-      <c r="K4" s="84"/>
-      <c r="L4" s="84"/>
-      <c r="M4" s="84"/>
-      <c r="N4" s="84"/>
-      <c r="O4" s="84"/>
-      <c r="P4" s="84"/>
-      <c r="Q4" s="84"/>
-      <c r="R4" s="84"/>
-      <c r="S4" s="84"/>
+      <c r="C4" s="87"/>
+      <c r="D4" s="88"/>
+      <c r="E4" s="93"/>
+      <c r="F4" s="94"/>
+      <c r="G4" s="94"/>
+      <c r="H4" s="94"/>
+      <c r="I4" s="94"/>
+      <c r="J4" s="94"/>
+      <c r="K4" s="94"/>
+      <c r="L4" s="94"/>
+      <c r="M4" s="94"/>
+      <c r="N4" s="94"/>
+      <c r="O4" s="94"/>
+      <c r="P4" s="94"/>
+      <c r="Q4" s="94"/>
+      <c r="R4" s="94"/>
+      <c r="S4" s="94"/>
     </row>
     <row r="5" spans="3:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C5" s="77"/>
-      <c r="D5" s="78"/>
-      <c r="E5" s="83"/>
-      <c r="F5" s="84"/>
-      <c r="G5" s="84"/>
-      <c r="H5" s="84"/>
-      <c r="I5" s="84"/>
-      <c r="J5" s="84"/>
-      <c r="K5" s="84"/>
-      <c r="L5" s="84"/>
-      <c r="M5" s="84"/>
-      <c r="N5" s="84"/>
-      <c r="O5" s="84"/>
-      <c r="P5" s="84"/>
-      <c r="Q5" s="84"/>
-      <c r="R5" s="84"/>
-      <c r="S5" s="84"/>
+      <c r="C5" s="87"/>
+      <c r="D5" s="88"/>
+      <c r="E5" s="93"/>
+      <c r="F5" s="94"/>
+      <c r="G5" s="94"/>
+      <c r="H5" s="94"/>
+      <c r="I5" s="94"/>
+      <c r="J5" s="94"/>
+      <c r="K5" s="94"/>
+      <c r="L5" s="94"/>
+      <c r="M5" s="94"/>
+      <c r="N5" s="94"/>
+      <c r="O5" s="94"/>
+      <c r="P5" s="94"/>
+      <c r="Q5" s="94"/>
+      <c r="R5" s="94"/>
+      <c r="S5" s="94"/>
     </row>
     <row r="6" spans="3:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C6" s="77"/>
-      <c r="D6" s="78"/>
-      <c r="E6" s="83"/>
-      <c r="F6" s="84"/>
-      <c r="G6" s="84"/>
-      <c r="H6" s="84"/>
-      <c r="I6" s="84"/>
-      <c r="J6" s="84"/>
-      <c r="K6" s="84"/>
-      <c r="L6" s="84"/>
-      <c r="M6" s="84"/>
-      <c r="N6" s="84"/>
-      <c r="O6" s="84"/>
-      <c r="P6" s="84"/>
-      <c r="Q6" s="84"/>
-      <c r="R6" s="84"/>
-      <c r="S6" s="84"/>
+      <c r="C6" s="87"/>
+      <c r="D6" s="88"/>
+      <c r="E6" s="93"/>
+      <c r="F6" s="94"/>
+      <c r="G6" s="94"/>
+      <c r="H6" s="94"/>
+      <c r="I6" s="94"/>
+      <c r="J6" s="94"/>
+      <c r="K6" s="94"/>
+      <c r="L6" s="94"/>
+      <c r="M6" s="94"/>
+      <c r="N6" s="94"/>
+      <c r="O6" s="94"/>
+      <c r="P6" s="94"/>
+      <c r="Q6" s="94"/>
+      <c r="R6" s="94"/>
+      <c r="S6" s="94"/>
     </row>
     <row r="7" spans="3:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C7" s="77"/>
-      <c r="D7" s="78"/>
-      <c r="E7" s="83"/>
-      <c r="F7" s="84"/>
-      <c r="G7" s="84"/>
-      <c r="H7" s="84"/>
-      <c r="I7" s="84"/>
-      <c r="J7" s="84"/>
-      <c r="K7" s="84"/>
-      <c r="L7" s="84"/>
-      <c r="M7" s="84"/>
-      <c r="N7" s="84"/>
-      <c r="O7" s="84"/>
-      <c r="P7" s="84"/>
-      <c r="Q7" s="84"/>
-      <c r="R7" s="84"/>
-      <c r="S7" s="84"/>
+      <c r="C7" s="87"/>
+      <c r="D7" s="88"/>
+      <c r="E7" s="93"/>
+      <c r="F7" s="94"/>
+      <c r="G7" s="94"/>
+      <c r="H7" s="94"/>
+      <c r="I7" s="94"/>
+      <c r="J7" s="94"/>
+      <c r="K7" s="94"/>
+      <c r="L7" s="94"/>
+      <c r="M7" s="94"/>
+      <c r="N7" s="94"/>
+      <c r="O7" s="94"/>
+      <c r="P7" s="94"/>
+      <c r="Q7" s="94"/>
+      <c r="R7" s="94"/>
+      <c r="S7" s="94"/>
     </row>
     <row r="8" spans="3:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C8" s="79"/>
-      <c r="D8" s="80"/>
-      <c r="E8" s="83"/>
-      <c r="F8" s="84"/>
-      <c r="G8" s="84"/>
-      <c r="H8" s="84"/>
-      <c r="I8" s="84"/>
-      <c r="J8" s="84"/>
-      <c r="K8" s="84"/>
-      <c r="L8" s="84"/>
-      <c r="M8" s="84"/>
-      <c r="N8" s="84"/>
-      <c r="O8" s="84"/>
-      <c r="P8" s="84"/>
-      <c r="Q8" s="84"/>
-      <c r="R8" s="84"/>
-      <c r="S8" s="84"/>
+      <c r="C8" s="89"/>
+      <c r="D8" s="90"/>
+      <c r="E8" s="93"/>
+      <c r="F8" s="94"/>
+      <c r="G8" s="94"/>
+      <c r="H8" s="94"/>
+      <c r="I8" s="94"/>
+      <c r="J8" s="94"/>
+      <c r="K8" s="94"/>
+      <c r="L8" s="94"/>
+      <c r="M8" s="94"/>
+      <c r="N8" s="94"/>
+      <c r="O8" s="94"/>
+      <c r="P8" s="94"/>
+      <c r="Q8" s="94"/>
+      <c r="R8" s="94"/>
+      <c r="S8" s="94"/>
     </row>
     <row r="11" spans="3:19" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C11" s="23" t="s">
@@ -4653,25 +4653,25 @@
       <c r="D11" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="E11" s="81" t="s">
+      <c r="E11" s="91" t="s">
         <v>9</v>
       </c>
-      <c r="F11" s="82"/>
-      <c r="G11" s="81" t="s">
+      <c r="F11" s="92"/>
+      <c r="G11" s="91" t="s">
         <v>15</v>
       </c>
-      <c r="H11" s="82"/>
-      <c r="I11" s="85" t="s">
+      <c r="H11" s="92"/>
+      <c r="I11" s="95" t="s">
         <v>20</v>
       </c>
-      <c r="J11" s="85"/>
-      <c r="N11" s="56" t="s">
+      <c r="J11" s="95"/>
+      <c r="N11" s="111" t="s">
         <v>23</v>
       </c>
-      <c r="O11" s="56"/>
-      <c r="P11" s="56"/>
-      <c r="Q11" s="56"/>
-      <c r="R11" s="56"/>
+      <c r="O11" s="111"/>
+      <c r="P11" s="111"/>
+      <c r="Q11" s="111"/>
+      <c r="R11" s="111"/>
       <c r="S11" s="27" t="s">
         <v>24</v>
       </c>
@@ -4682,10 +4682,10 @@
       <c r="E12" s="2"/>
     </row>
     <row r="13" spans="3:19" ht="31.5" x14ac:dyDescent="0.5">
-      <c r="C13" s="106" t="s">
+      <c r="C13" s="131" t="s">
         <v>49</v>
       </c>
-      <c r="D13" s="106"/>
+      <c r="D13" s="131"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
@@ -4720,16 +4720,16 @@
       <c r="S14" s="11"/>
     </row>
     <row r="15" spans="3:19" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="C15" s="125" t="s">
+      <c r="C15" s="150" t="s">
         <v>51</v>
       </c>
-      <c r="D15" s="125"/>
-      <c r="E15" s="127" t="s">
+      <c r="D15" s="150"/>
+      <c r="E15" s="152" t="s">
         <v>50</v>
       </c>
-      <c r="F15" s="127"/>
-      <c r="G15" s="127"/>
-      <c r="H15" s="127"/>
+      <c r="F15" s="152"/>
+      <c r="G15" s="152"/>
+      <c r="H15" s="152"/>
       <c r="I15" s="49"/>
       <c r="J15" s="10"/>
       <c r="K15" s="10"/>
@@ -4743,12 +4743,12 @@
       <c r="S15" s="11"/>
     </row>
     <row r="16" spans="3:19" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="C16" s="126"/>
-      <c r="D16" s="126"/>
-      <c r="E16" s="128"/>
-      <c r="F16" s="128"/>
-      <c r="G16" s="128"/>
-      <c r="H16" s="128"/>
+      <c r="C16" s="151"/>
+      <c r="D16" s="151"/>
+      <c r="E16" s="153"/>
+      <c r="F16" s="153"/>
+      <c r="G16" s="153"/>
+      <c r="H16" s="153"/>
       <c r="I16" s="10"/>
       <c r="J16" s="10"/>
       <c r="K16" s="10"/>
@@ -4836,12 +4836,12 @@
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
-      <c r="G23" s="119" t="s">
+      <c r="G23" s="144" t="s">
         <v>56</v>
       </c>
-      <c r="H23" s="120"/>
-      <c r="I23" s="120"/>
-      <c r="J23" s="121"/>
+      <c r="H23" s="145"/>
+      <c r="I23" s="145"/>
+      <c r="J23" s="146"/>
       <c r="K23" s="2"/>
       <c r="L23" s="2"/>
     </row>
@@ -4850,10 +4850,10 @@
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
       <c r="F24" s="2"/>
-      <c r="G24" s="122"/>
-      <c r="H24" s="123"/>
-      <c r="I24" s="123"/>
-      <c r="J24" s="124"/>
+      <c r="G24" s="147"/>
+      <c r="H24" s="148"/>
+      <c r="I24" s="148"/>
+      <c r="J24" s="149"/>
       <c r="K24" s="2"/>
       <c r="L24" s="2"/>
     </row>
@@ -4906,7 +4906,7 @@
       <c r="L28" s="2"/>
     </row>
     <row r="36" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C36" s="129"/>
+      <c r="C36" s="53"/>
       <c r="D36" s="2"/>
       <c r="E36" s="2"/>
       <c r="F36" s="2"/>
@@ -4925,38 +4925,38 @@
       <c r="S36" s="3"/>
     </row>
     <row r="37" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C37" s="132"/>
-      <c r="D37" s="131"/>
-      <c r="E37" s="131"/>
-      <c r="F37" s="131"/>
-      <c r="G37" s="131"/>
-      <c r="H37" s="131"/>
-      <c r="I37" s="131"/>
-      <c r="J37" s="131"/>
-      <c r="K37" s="131"/>
-      <c r="L37" s="131"/>
-      <c r="M37" s="131"/>
-      <c r="N37" s="131"/>
-      <c r="O37" s="131"/>
-      <c r="P37" s="131"/>
-      <c r="Q37" s="131"/>
-      <c r="R37" s="131"/>
-      <c r="S37" s="133"/>
+      <c r="C37" s="56"/>
+      <c r="D37" s="55"/>
+      <c r="E37" s="55"/>
+      <c r="F37" s="55"/>
+      <c r="G37" s="55"/>
+      <c r="H37" s="55"/>
+      <c r="I37" s="55"/>
+      <c r="J37" s="55"/>
+      <c r="K37" s="55"/>
+      <c r="L37" s="55"/>
+      <c r="M37" s="55"/>
+      <c r="N37" s="55"/>
+      <c r="O37" s="55"/>
+      <c r="P37" s="55"/>
+      <c r="Q37" s="55"/>
+      <c r="R37" s="55"/>
+      <c r="S37" s="57"/>
     </row>
     <row r="38" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C38" s="130"/>
+      <c r="C38" s="54"/>
       <c r="D38" s="18"/>
       <c r="E38" s="18"/>
       <c r="F38" s="18"/>
-      <c r="G38" s="58" t="s">
+      <c r="G38" s="99" t="s">
         <v>13</v>
       </c>
-      <c r="H38" s="58"/>
-      <c r="I38" s="58"/>
-      <c r="J38" s="58"/>
-      <c r="K38" s="58"/>
-      <c r="L38" s="58"/>
-      <c r="M38" s="58"/>
+      <c r="H38" s="99"/>
+      <c r="I38" s="99"/>
+      <c r="J38" s="99"/>
+      <c r="K38" s="99"/>
+      <c r="L38" s="99"/>
+      <c r="M38" s="99"/>
       <c r="N38" s="18"/>
       <c r="O38" s="18"/>
       <c r="P38" s="18"/>
@@ -4965,19 +4965,19 @@
       <c r="S38" s="19"/>
     </row>
     <row r="39" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C39" s="66" t="s">
+      <c r="C39" s="107" t="s">
         <v>14</v>
       </c>
-      <c r="D39" s="67"/>
-      <c r="E39" s="67"/>
-      <c r="F39" s="67"/>
-      <c r="G39" s="58"/>
-      <c r="H39" s="58"/>
-      <c r="I39" s="58"/>
-      <c r="J39" s="58"/>
-      <c r="K39" s="58"/>
-      <c r="L39" s="58"/>
-      <c r="M39" s="58"/>
+      <c r="D39" s="108"/>
+      <c r="E39" s="108"/>
+      <c r="F39" s="108"/>
+      <c r="G39" s="99"/>
+      <c r="H39" s="99"/>
+      <c r="I39" s="99"/>
+      <c r="J39" s="99"/>
+      <c r="K39" s="99"/>
+      <c r="L39" s="99"/>
+      <c r="M39" s="99"/>
       <c r="N39" s="18"/>
       <c r="O39" s="18"/>
       <c r="P39" s="18"/>
@@ -4986,64 +4986,64 @@
       <c r="S39" s="19"/>
     </row>
     <row r="40" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C40" s="68"/>
-      <c r="D40" s="67"/>
-      <c r="E40" s="67"/>
-      <c r="F40" s="67"/>
-      <c r="G40" s="58"/>
-      <c r="H40" s="58"/>
-      <c r="I40" s="58"/>
-      <c r="J40" s="58"/>
-      <c r="K40" s="58"/>
-      <c r="L40" s="58"/>
-      <c r="M40" s="58"/>
+      <c r="C40" s="109"/>
+      <c r="D40" s="108"/>
+      <c r="E40" s="108"/>
+      <c r="F40" s="108"/>
+      <c r="G40" s="99"/>
+      <c r="H40" s="99"/>
+      <c r="I40" s="99"/>
+      <c r="J40" s="99"/>
+      <c r="K40" s="99"/>
+      <c r="L40" s="99"/>
+      <c r="M40" s="99"/>
       <c r="N40" s="18"/>
-      <c r="O40" s="60" t="s">
+      <c r="O40" s="101" t="s">
         <v>3</v>
       </c>
-      <c r="P40" s="61"/>
+      <c r="P40" s="102"/>
       <c r="Q40" s="18"/>
       <c r="R40" s="19"/>
       <c r="S40" s="19"/>
     </row>
     <row r="41" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C41" s="69" t="s">
+      <c r="C41" s="110" t="s">
         <v>11</v>
       </c>
-      <c r="D41" s="69"/>
-      <c r="E41" s="69"/>
-      <c r="F41" s="69"/>
-      <c r="G41" s="58"/>
-      <c r="H41" s="58"/>
-      <c r="I41" s="58"/>
-      <c r="J41" s="58"/>
-      <c r="K41" s="58"/>
-      <c r="L41" s="58"/>
-      <c r="M41" s="58"/>
+      <c r="D41" s="110"/>
+      <c r="E41" s="110"/>
+      <c r="F41" s="110"/>
+      <c r="G41" s="99"/>
+      <c r="H41" s="99"/>
+      <c r="I41" s="99"/>
+      <c r="J41" s="99"/>
+      <c r="K41" s="99"/>
+      <c r="L41" s="99"/>
+      <c r="M41" s="99"/>
       <c r="N41" s="18"/>
-      <c r="O41" s="62"/>
-      <c r="P41" s="63"/>
+      <c r="O41" s="103"/>
+      <c r="P41" s="104"/>
       <c r="Q41" s="18"/>
       <c r="R41" s="19"/>
       <c r="S41" s="19"/>
     </row>
     <row r="42" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C42" s="69" t="s">
+      <c r="C42" s="110" t="s">
         <v>12</v>
       </c>
-      <c r="D42" s="69"/>
-      <c r="E42" s="69"/>
-      <c r="F42" s="69"/>
-      <c r="G42" s="58"/>
-      <c r="H42" s="58"/>
-      <c r="I42" s="58"/>
-      <c r="J42" s="58"/>
-      <c r="K42" s="58"/>
-      <c r="L42" s="58"/>
-      <c r="M42" s="58"/>
+      <c r="D42" s="110"/>
+      <c r="E42" s="110"/>
+      <c r="F42" s="110"/>
+      <c r="G42" s="99"/>
+      <c r="H42" s="99"/>
+      <c r="I42" s="99"/>
+      <c r="J42" s="99"/>
+      <c r="K42" s="99"/>
+      <c r="L42" s="99"/>
+      <c r="M42" s="99"/>
       <c r="N42" s="18"/>
-      <c r="O42" s="64"/>
-      <c r="P42" s="65"/>
+      <c r="O42" s="105"/>
+      <c r="P42" s="106"/>
       <c r="Q42" s="18"/>
       <c r="R42" s="19"/>
       <c r="S42" s="19"/>
@@ -5053,13 +5053,13 @@
       <c r="D43" s="21"/>
       <c r="E43" s="21"/>
       <c r="F43" s="21"/>
-      <c r="G43" s="59"/>
-      <c r="H43" s="59"/>
-      <c r="I43" s="59"/>
-      <c r="J43" s="59"/>
-      <c r="K43" s="59"/>
-      <c r="L43" s="59"/>
-      <c r="M43" s="59"/>
+      <c r="G43" s="100"/>
+      <c r="H43" s="100"/>
+      <c r="I43" s="100"/>
+      <c r="J43" s="100"/>
+      <c r="K43" s="100"/>
+      <c r="L43" s="100"/>
+      <c r="M43" s="100"/>
       <c r="N43" s="21"/>
       <c r="O43" s="21"/>
       <c r="P43" s="21"/>
@@ -5069,13 +5069,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="R1:S1"/>
-    <mergeCell ref="C2:D8"/>
-    <mergeCell ref="E2:S8"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="N11:R11"/>
     <mergeCell ref="O40:P42"/>
     <mergeCell ref="C41:F41"/>
     <mergeCell ref="C42:F42"/>
@@ -5087,6 +5080,13 @@
     <mergeCell ref="E15:H16"/>
     <mergeCell ref="G38:M43"/>
     <mergeCell ref="C39:F40"/>
+    <mergeCell ref="R1:S1"/>
+    <mergeCell ref="C2:D8"/>
+    <mergeCell ref="E2:S8"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="N11:R11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -5097,8 +5097,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C1:CM43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="X1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="AX32" sqref="AX32"/>
+    <sheetView topLeftCell="X1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="AN15" sqref="AN15:AP15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5116,161 +5116,161 @@
   </cols>
   <sheetData>
     <row r="1" spans="3:91" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J1" s="71" t="s">
+      <c r="J1" s="79" t="s">
         <v>59</v>
       </c>
-      <c r="K1" s="72"/>
-      <c r="L1" s="71" t="s">
+      <c r="K1" s="80"/>
+      <c r="L1" s="79" t="s">
         <v>2</v>
       </c>
-      <c r="M1" s="72"/>
-      <c r="N1" s="73" t="s">
+      <c r="M1" s="80"/>
+      <c r="N1" s="83" t="s">
         <v>10</v>
       </c>
-      <c r="O1" s="73"/>
-      <c r="P1" s="73"/>
-      <c r="Q1" s="73"/>
-      <c r="R1" s="70" t="s">
+      <c r="O1" s="83"/>
+      <c r="P1" s="83"/>
+      <c r="Q1" s="83"/>
+      <c r="R1" s="78" t="s">
         <v>4</v>
       </c>
-      <c r="S1" s="70"/>
+      <c r="S1" s="78"/>
     </row>
     <row r="2" spans="3:91" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C2" s="75" t="s">
+      <c r="C2" s="85" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="76"/>
-      <c r="E2" s="83" t="s">
+      <c r="D2" s="86"/>
+      <c r="E2" s="93" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="84"/>
-      <c r="G2" s="84"/>
-      <c r="H2" s="84"/>
-      <c r="I2" s="84"/>
-      <c r="J2" s="84"/>
-      <c r="K2" s="84"/>
-      <c r="L2" s="84"/>
-      <c r="M2" s="84"/>
-      <c r="N2" s="84"/>
-      <c r="O2" s="84"/>
-      <c r="P2" s="84"/>
-      <c r="Q2" s="84"/>
-      <c r="R2" s="84"/>
-      <c r="S2" s="84"/>
+      <c r="F2" s="94"/>
+      <c r="G2" s="94"/>
+      <c r="H2" s="94"/>
+      <c r="I2" s="94"/>
+      <c r="J2" s="94"/>
+      <c r="K2" s="94"/>
+      <c r="L2" s="94"/>
+      <c r="M2" s="94"/>
+      <c r="N2" s="94"/>
+      <c r="O2" s="94"/>
+      <c r="P2" s="94"/>
+      <c r="Q2" s="94"/>
+      <c r="R2" s="94"/>
+      <c r="S2" s="94"/>
     </row>
     <row r="3" spans="3:91" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C3" s="77"/>
-      <c r="D3" s="78"/>
-      <c r="E3" s="83"/>
-      <c r="F3" s="84"/>
-      <c r="G3" s="84"/>
-      <c r="H3" s="84"/>
-      <c r="I3" s="84"/>
-      <c r="J3" s="84"/>
-      <c r="K3" s="84"/>
-      <c r="L3" s="84"/>
-      <c r="M3" s="84"/>
-      <c r="N3" s="84"/>
-      <c r="O3" s="84"/>
-      <c r="P3" s="84"/>
-      <c r="Q3" s="84"/>
-      <c r="R3" s="84"/>
-      <c r="S3" s="84"/>
+      <c r="C3" s="87"/>
+      <c r="D3" s="88"/>
+      <c r="E3" s="93"/>
+      <c r="F3" s="94"/>
+      <c r="G3" s="94"/>
+      <c r="H3" s="94"/>
+      <c r="I3" s="94"/>
+      <c r="J3" s="94"/>
+      <c r="K3" s="94"/>
+      <c r="L3" s="94"/>
+      <c r="M3" s="94"/>
+      <c r="N3" s="94"/>
+      <c r="O3" s="94"/>
+      <c r="P3" s="94"/>
+      <c r="Q3" s="94"/>
+      <c r="R3" s="94"/>
+      <c r="S3" s="94"/>
     </row>
     <row r="4" spans="3:91" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C4" s="77"/>
-      <c r="D4" s="78"/>
-      <c r="E4" s="83"/>
-      <c r="F4" s="84"/>
-      <c r="G4" s="84"/>
-      <c r="H4" s="84"/>
-      <c r="I4" s="84"/>
-      <c r="J4" s="84"/>
-      <c r="K4" s="84"/>
-      <c r="L4" s="84"/>
-      <c r="M4" s="84"/>
-      <c r="N4" s="84"/>
-      <c r="O4" s="84"/>
-      <c r="P4" s="84"/>
-      <c r="Q4" s="84"/>
-      <c r="R4" s="84"/>
-      <c r="S4" s="84"/>
+      <c r="C4" s="87"/>
+      <c r="D4" s="88"/>
+      <c r="E4" s="93"/>
+      <c r="F4" s="94"/>
+      <c r="G4" s="94"/>
+      <c r="H4" s="94"/>
+      <c r="I4" s="94"/>
+      <c r="J4" s="94"/>
+      <c r="K4" s="94"/>
+      <c r="L4" s="94"/>
+      <c r="M4" s="94"/>
+      <c r="N4" s="94"/>
+      <c r="O4" s="94"/>
+      <c r="P4" s="94"/>
+      <c r="Q4" s="94"/>
+      <c r="R4" s="94"/>
+      <c r="S4" s="94"/>
     </row>
     <row r="5" spans="3:91" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C5" s="77"/>
-      <c r="D5" s="78"/>
-      <c r="E5" s="83"/>
-      <c r="F5" s="84"/>
-      <c r="G5" s="84"/>
-      <c r="H5" s="84"/>
-      <c r="I5" s="84"/>
-      <c r="J5" s="84"/>
-      <c r="K5" s="84"/>
-      <c r="L5" s="84"/>
-      <c r="M5" s="84"/>
-      <c r="N5" s="84"/>
-      <c r="O5" s="84"/>
-      <c r="P5" s="84"/>
-      <c r="Q5" s="84"/>
-      <c r="R5" s="84"/>
-      <c r="S5" s="84"/>
+      <c r="C5" s="87"/>
+      <c r="D5" s="88"/>
+      <c r="E5" s="93"/>
+      <c r="F5" s="94"/>
+      <c r="G5" s="94"/>
+      <c r="H5" s="94"/>
+      <c r="I5" s="94"/>
+      <c r="J5" s="94"/>
+      <c r="K5" s="94"/>
+      <c r="L5" s="94"/>
+      <c r="M5" s="94"/>
+      <c r="N5" s="94"/>
+      <c r="O5" s="94"/>
+      <c r="P5" s="94"/>
+      <c r="Q5" s="94"/>
+      <c r="R5" s="94"/>
+      <c r="S5" s="94"/>
     </row>
     <row r="6" spans="3:91" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C6" s="77"/>
-      <c r="D6" s="78"/>
-      <c r="E6" s="83"/>
-      <c r="F6" s="84"/>
-      <c r="G6" s="84"/>
-      <c r="H6" s="84"/>
-      <c r="I6" s="84"/>
-      <c r="J6" s="84"/>
-      <c r="K6" s="84"/>
-      <c r="L6" s="84"/>
-      <c r="M6" s="84"/>
-      <c r="N6" s="84"/>
-      <c r="O6" s="84"/>
-      <c r="P6" s="84"/>
-      <c r="Q6" s="84"/>
-      <c r="R6" s="84"/>
-      <c r="S6" s="84"/>
+      <c r="C6" s="87"/>
+      <c r="D6" s="88"/>
+      <c r="E6" s="93"/>
+      <c r="F6" s="94"/>
+      <c r="G6" s="94"/>
+      <c r="H6" s="94"/>
+      <c r="I6" s="94"/>
+      <c r="J6" s="94"/>
+      <c r="K6" s="94"/>
+      <c r="L6" s="94"/>
+      <c r="M6" s="94"/>
+      <c r="N6" s="94"/>
+      <c r="O6" s="94"/>
+      <c r="P6" s="94"/>
+      <c r="Q6" s="94"/>
+      <c r="R6" s="94"/>
+      <c r="S6" s="94"/>
     </row>
     <row r="7" spans="3:91" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C7" s="77"/>
-      <c r="D7" s="78"/>
-      <c r="E7" s="83"/>
-      <c r="F7" s="84"/>
-      <c r="G7" s="84"/>
-      <c r="H7" s="84"/>
-      <c r="I7" s="84"/>
-      <c r="J7" s="84"/>
-      <c r="K7" s="84"/>
-      <c r="L7" s="84"/>
-      <c r="M7" s="84"/>
-      <c r="N7" s="84"/>
-      <c r="O7" s="84"/>
-      <c r="P7" s="84"/>
-      <c r="Q7" s="84"/>
-      <c r="R7" s="84"/>
-      <c r="S7" s="84"/>
+      <c r="C7" s="87"/>
+      <c r="D7" s="88"/>
+      <c r="E7" s="93"/>
+      <c r="F7" s="94"/>
+      <c r="G7" s="94"/>
+      <c r="H7" s="94"/>
+      <c r="I7" s="94"/>
+      <c r="J7" s="94"/>
+      <c r="K7" s="94"/>
+      <c r="L7" s="94"/>
+      <c r="M7" s="94"/>
+      <c r="N7" s="94"/>
+      <c r="O7" s="94"/>
+      <c r="P7" s="94"/>
+      <c r="Q7" s="94"/>
+      <c r="R7" s="94"/>
+      <c r="S7" s="94"/>
     </row>
     <row r="8" spans="3:91" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C8" s="79"/>
-      <c r="D8" s="80"/>
-      <c r="E8" s="83"/>
-      <c r="F8" s="84"/>
-      <c r="G8" s="84"/>
-      <c r="H8" s="84"/>
-      <c r="I8" s="84"/>
-      <c r="J8" s="84"/>
-      <c r="K8" s="84"/>
-      <c r="L8" s="84"/>
-      <c r="M8" s="84"/>
-      <c r="N8" s="84"/>
-      <c r="O8" s="84"/>
-      <c r="P8" s="84"/>
-      <c r="Q8" s="84"/>
-      <c r="R8" s="84"/>
-      <c r="S8" s="84"/>
+      <c r="C8" s="89"/>
+      <c r="D8" s="90"/>
+      <c r="E8" s="93"/>
+      <c r="F8" s="94"/>
+      <c r="G8" s="94"/>
+      <c r="H8" s="94"/>
+      <c r="I8" s="94"/>
+      <c r="J8" s="94"/>
+      <c r="K8" s="94"/>
+      <c r="L8" s="94"/>
+      <c r="M8" s="94"/>
+      <c r="N8" s="94"/>
+      <c r="O8" s="94"/>
+      <c r="P8" s="94"/>
+      <c r="Q8" s="94"/>
+      <c r="R8" s="94"/>
+      <c r="S8" s="94"/>
     </row>
     <row r="11" spans="3:91" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C11" s="23" t="s">
@@ -5279,697 +5279,697 @@
       <c r="D11" s="42" t="s">
         <v>8</v>
       </c>
-      <c r="E11" s="81" t="s">
+      <c r="E11" s="91" t="s">
         <v>9</v>
       </c>
-      <c r="F11" s="82"/>
-      <c r="G11" s="81" t="s">
+      <c r="F11" s="92"/>
+      <c r="G11" s="91" t="s">
         <v>15</v>
       </c>
-      <c r="H11" s="82"/>
-      <c r="I11" s="85" t="s">
+      <c r="H11" s="92"/>
+      <c r="I11" s="95" t="s">
         <v>20</v>
       </c>
-      <c r="J11" s="85"/>
-      <c r="N11" s="56" t="s">
+      <c r="J11" s="95"/>
+      <c r="N11" s="111" t="s">
         <v>23</v>
       </c>
-      <c r="O11" s="56"/>
-      <c r="P11" s="56"/>
-      <c r="Q11" s="56"/>
-      <c r="R11" s="56"/>
+      <c r="O11" s="111"/>
+      <c r="P11" s="111"/>
+      <c r="Q11" s="111"/>
+      <c r="R11" s="111"/>
       <c r="S11" s="27" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="12" spans="3:91" ht="64.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="C12" s="171" t="s">
+      <c r="C12" s="185" t="s">
         <v>59</v>
       </c>
-      <c r="D12" s="171"/>
+      <c r="D12" s="185"/>
       <c r="E12" s="2"/>
-      <c r="BY12" s="191" t="s">
+      <c r="BY12" s="77" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="13" spans="3:91" ht="31.5" x14ac:dyDescent="0.5">
-      <c r="C13" s="106"/>
-      <c r="D13" s="106"/>
+      <c r="C13" s="131"/>
+      <c r="D13" s="131"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c r="H13" s="8"/>
       <c r="I13" s="8"/>
       <c r="J13" s="8"/>
-      <c r="K13" s="168" t="s">
+      <c r="K13" s="183" t="s">
         <v>77</v>
       </c>
-      <c r="L13" s="168"/>
-      <c r="M13" s="169"/>
-      <c r="N13" s="56" t="s">
+      <c r="L13" s="183"/>
+      <c r="M13" s="184"/>
+      <c r="N13" s="111" t="s">
         <v>78</v>
       </c>
-      <c r="O13" s="56"/>
-      <c r="P13" s="56"/>
-      <c r="Q13" s="56"/>
-      <c r="R13" s="56"/>
+      <c r="O13" s="111"/>
+      <c r="P13" s="111"/>
+      <c r="Q13" s="111"/>
+      <c r="R13" s="111"/>
       <c r="S13" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="Z13" s="106"/>
-      <c r="AA13" s="106"/>
+      <c r="Z13" s="131"/>
+      <c r="AA13" s="131"/>
       <c r="AB13" s="8"/>
       <c r="AC13" s="8"/>
       <c r="AD13" s="8"/>
       <c r="AE13" s="8"/>
       <c r="AF13" s="8"/>
       <c r="AG13" s="8"/>
-      <c r="AH13" s="172" t="s">
+      <c r="AH13" s="73" t="s">
         <v>87</v>
       </c>
-      <c r="AI13" s="172"/>
-      <c r="AJ13" s="179" t="s">
+      <c r="AI13" s="73"/>
+      <c r="AJ13" s="175" t="s">
         <v>78</v>
       </c>
-      <c r="AK13" s="180"/>
-      <c r="AL13" s="180"/>
-      <c r="AM13" s="180"/>
-      <c r="AN13" s="180"/>
-      <c r="AO13" s="181"/>
+      <c r="AK13" s="176"/>
+      <c r="AL13" s="176"/>
+      <c r="AM13" s="176"/>
+      <c r="AN13" s="176"/>
+      <c r="AO13" s="177"/>
       <c r="AP13" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="AX13" s="106"/>
-      <c r="AY13" s="106"/>
+      <c r="AX13" s="131"/>
+      <c r="AY13" s="131"/>
       <c r="AZ13" s="8"/>
       <c r="BA13" s="8"/>
       <c r="BB13" s="8"/>
       <c r="BC13" s="8"/>
       <c r="BD13" s="8"/>
       <c r="BE13" s="8"/>
-      <c r="BF13" s="172" t="s">
+      <c r="BF13" s="73" t="s">
         <v>87</v>
       </c>
-      <c r="BG13" s="172"/>
-      <c r="BH13" s="188" t="s">
+      <c r="BG13" s="73"/>
+      <c r="BH13" s="74" t="s">
         <v>78</v>
       </c>
-      <c r="BI13" s="189"/>
-      <c r="BJ13" s="189"/>
-      <c r="BK13" s="189"/>
-      <c r="BL13" s="189"/>
-      <c r="BM13" s="190"/>
+      <c r="BI13" s="75"/>
+      <c r="BJ13" s="75"/>
+      <c r="BK13" s="75"/>
+      <c r="BL13" s="75"/>
+      <c r="BM13" s="76"/>
       <c r="BN13" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="BW13" s="106"/>
-      <c r="BX13" s="106"/>
+      <c r="BW13" s="131"/>
+      <c r="BX13" s="131"/>
       <c r="BY13" s="8"/>
       <c r="BZ13" s="8"/>
       <c r="CA13" s="8"/>
       <c r="CB13" s="8"/>
       <c r="CC13" s="8"/>
       <c r="CD13" s="8"/>
-      <c r="CE13" s="172" t="s">
+      <c r="CE13" s="73" t="s">
         <v>87</v>
       </c>
-      <c r="CF13" s="172"/>
-      <c r="CG13" s="179" t="s">
+      <c r="CF13" s="73"/>
+      <c r="CG13" s="175" t="s">
         <v>78</v>
       </c>
-      <c r="CH13" s="180"/>
-      <c r="CI13" s="180"/>
-      <c r="CJ13" s="180"/>
-      <c r="CK13" s="180"/>
-      <c r="CL13" s="181"/>
+      <c r="CH13" s="176"/>
+      <c r="CI13" s="176"/>
+      <c r="CJ13" s="176"/>
+      <c r="CK13" s="176"/>
+      <c r="CL13" s="177"/>
       <c r="CM13" s="27" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="14" spans="3:91" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="D14" s="145" t="s">
+      <c r="D14" s="63" t="s">
         <v>64</v>
       </c>
-      <c r="E14" s="138" t="s">
+      <c r="E14" s="161" t="s">
         <v>81</v>
       </c>
-      <c r="F14" s="141"/>
-      <c r="G14" s="138" t="s">
+      <c r="F14" s="178"/>
+      <c r="G14" s="161" t="s">
         <v>79</v>
       </c>
-      <c r="H14" s="139"/>
-      <c r="I14" s="144" t="s">
+      <c r="H14" s="162"/>
+      <c r="I14" s="189" t="s">
         <v>29</v>
       </c>
-      <c r="J14" s="142"/>
-      <c r="K14" s="142"/>
-      <c r="L14" s="143"/>
-      <c r="M14" s="138" t="s">
+      <c r="J14" s="190"/>
+      <c r="K14" s="190"/>
+      <c r="L14" s="191"/>
+      <c r="M14" s="161" t="s">
         <v>68</v>
       </c>
-      <c r="N14" s="141"/>
-      <c r="O14" s="138" t="s">
+      <c r="N14" s="178"/>
+      <c r="O14" s="161" t="s">
         <v>69</v>
       </c>
-      <c r="P14" s="139"/>
-      <c r="Q14" s="141" t="s">
+      <c r="P14" s="162"/>
+      <c r="Q14" s="178" t="s">
         <v>72</v>
       </c>
-      <c r="R14" s="141"/>
-      <c r="S14" s="139"/>
-      <c r="AA14" s="145" t="s">
+      <c r="R14" s="178"/>
+      <c r="S14" s="162"/>
+      <c r="AA14" s="63" t="s">
         <v>82</v>
       </c>
-      <c r="AB14" s="138" t="s">
+      <c r="AB14" s="161" t="s">
         <v>83</v>
       </c>
-      <c r="AC14" s="139"/>
-      <c r="AD14" s="137" t="s">
+      <c r="AC14" s="162"/>
+      <c r="AD14" s="61" t="s">
         <v>84</v>
       </c>
-      <c r="AE14" s="140" t="s">
+      <c r="AE14" s="62" t="s">
         <v>91</v>
       </c>
-      <c r="AF14" s="138" t="s">
+      <c r="AF14" s="161" t="s">
         <v>29</v>
       </c>
-      <c r="AG14" s="141"/>
-      <c r="AH14" s="141"/>
-      <c r="AI14" s="139"/>
-      <c r="AJ14" s="175" t="s">
+      <c r="AG14" s="178"/>
+      <c r="AH14" s="178"/>
+      <c r="AI14" s="162"/>
+      <c r="AJ14" s="179" t="s">
         <v>90</v>
       </c>
-      <c r="AK14" s="177"/>
-      <c r="AL14" s="175" t="s">
+      <c r="AK14" s="180"/>
+      <c r="AL14" s="179" t="s">
         <v>79</v>
       </c>
-      <c r="AM14" s="177"/>
-      <c r="AN14" s="175" t="s">
+      <c r="AM14" s="180"/>
+      <c r="AN14" s="179" t="s">
         <v>72</v>
       </c>
-      <c r="AO14" s="176"/>
-      <c r="AP14" s="177"/>
-      <c r="AY14" s="145" t="s">
+      <c r="AO14" s="181"/>
+      <c r="AP14" s="180"/>
+      <c r="AY14" s="63" t="s">
         <v>82</v>
       </c>
-      <c r="AZ14" s="138" t="s">
+      <c r="AZ14" s="161" t="s">
         <v>83</v>
       </c>
-      <c r="BA14" s="139"/>
-      <c r="BB14" s="138" t="s">
+      <c r="BA14" s="162"/>
+      <c r="BB14" s="161" t="s">
         <v>97</v>
       </c>
-      <c r="BC14" s="139"/>
-      <c r="BD14" s="138" t="s">
+      <c r="BC14" s="162"/>
+      <c r="BD14" s="161" t="s">
         <v>96</v>
       </c>
-      <c r="BE14" s="141"/>
-      <c r="BF14" s="141"/>
-      <c r="BG14" s="139"/>
-      <c r="BH14" s="175" t="s">
+      <c r="BE14" s="178"/>
+      <c r="BF14" s="178"/>
+      <c r="BG14" s="162"/>
+      <c r="BH14" s="179" t="s">
         <v>100</v>
       </c>
-      <c r="BI14" s="177"/>
-      <c r="BJ14" s="175" t="s">
+      <c r="BI14" s="180"/>
+      <c r="BJ14" s="179" t="s">
         <v>79</v>
       </c>
-      <c r="BK14" s="177"/>
-      <c r="BL14" s="175" t="s">
+      <c r="BK14" s="180"/>
+      <c r="BL14" s="179" t="s">
         <v>72</v>
       </c>
-      <c r="BM14" s="176"/>
-      <c r="BN14" s="176"/>
-      <c r="BX14" s="145" t="s">
+      <c r="BM14" s="181"/>
+      <c r="BN14" s="181"/>
+      <c r="BX14" s="63" t="s">
         <v>82</v>
       </c>
-      <c r="BY14" s="138" t="s">
+      <c r="BY14" s="161" t="s">
         <v>83</v>
       </c>
-      <c r="BZ14" s="139"/>
-      <c r="CA14" s="137" t="s">
+      <c r="BZ14" s="162"/>
+      <c r="CA14" s="61" t="s">
         <v>84</v>
       </c>
-      <c r="CB14" s="140" t="s">
+      <c r="CB14" s="62" t="s">
         <v>91</v>
       </c>
-      <c r="CC14" s="138" t="s">
+      <c r="CC14" s="161" t="s">
         <v>29</v>
       </c>
-      <c r="CD14" s="141"/>
-      <c r="CE14" s="141"/>
-      <c r="CF14" s="139"/>
-      <c r="CG14" s="175" t="s">
+      <c r="CD14" s="178"/>
+      <c r="CE14" s="178"/>
+      <c r="CF14" s="162"/>
+      <c r="CG14" s="179" t="s">
         <v>90</v>
       </c>
-      <c r="CH14" s="177"/>
-      <c r="CI14" s="175" t="s">
+      <c r="CH14" s="180"/>
+      <c r="CI14" s="179" t="s">
         <v>79</v>
       </c>
-      <c r="CJ14" s="177"/>
-      <c r="CK14" s="175" t="s">
+      <c r="CJ14" s="180"/>
+      <c r="CK14" s="179" t="s">
         <v>72</v>
       </c>
-      <c r="CL14" s="176"/>
-      <c r="CM14" s="177"/>
+      <c r="CL14" s="181"/>
+      <c r="CM14" s="180"/>
     </row>
     <row r="15" spans="3:91" ht="21" x14ac:dyDescent="0.35">
-      <c r="C15" s="170" t="s">
+      <c r="C15" s="72" t="s">
         <v>60</v>
       </c>
-      <c r="D15" s="154">
+      <c r="D15" s="171">
         <v>1</v>
       </c>
-      <c r="E15" s="155" t="s">
+      <c r="E15" s="167" t="s">
         <v>66</v>
       </c>
-      <c r="F15" s="156"/>
-      <c r="G15" s="155" t="s">
+      <c r="F15" s="173"/>
+      <c r="G15" s="167" t="s">
         <v>80</v>
       </c>
-      <c r="H15" s="157"/>
-      <c r="I15" s="155" t="s">
+      <c r="H15" s="168"/>
+      <c r="I15" s="167" t="s">
         <v>70</v>
       </c>
-      <c r="J15" s="156"/>
-      <c r="K15" s="156"/>
-      <c r="L15" s="157"/>
-      <c r="M15" s="155" t="s">
+      <c r="J15" s="173"/>
+      <c r="K15" s="173"/>
+      <c r="L15" s="168"/>
+      <c r="M15" s="167" t="s">
         <v>71</v>
       </c>
-      <c r="N15" s="157"/>
-      <c r="O15" s="155">
+      <c r="N15" s="168"/>
+      <c r="O15" s="167">
         <v>520000</v>
       </c>
-      <c r="P15" s="157"/>
-      <c r="Q15" s="158" t="s">
+      <c r="P15" s="168"/>
+      <c r="Q15" s="156" t="s">
         <v>74</v>
       </c>
-      <c r="R15" s="159"/>
-      <c r="S15" s="160"/>
-      <c r="X15" s="178" t="s">
+      <c r="R15" s="157"/>
+      <c r="S15" s="158"/>
+      <c r="X15" s="159" t="s">
         <v>60</v>
       </c>
-      <c r="Y15" s="178"/>
-      <c r="Z15" s="178"/>
-      <c r="AA15" s="154">
+      <c r="Y15" s="159"/>
+      <c r="Z15" s="159"/>
+      <c r="AA15" s="171">
         <v>1</v>
       </c>
-      <c r="AB15" s="155" t="s">
+      <c r="AB15" s="167" t="s">
         <v>86</v>
       </c>
-      <c r="AC15" s="157"/>
-      <c r="AD15" s="154" t="s">
+      <c r="AC15" s="168"/>
+      <c r="AD15" s="171" t="s">
         <v>85</v>
       </c>
-      <c r="AE15" s="154" t="s">
+      <c r="AE15" s="171" t="s">
         <v>92</v>
       </c>
-      <c r="AF15" s="155" t="s">
+      <c r="AF15" s="167" t="s">
         <v>70</v>
       </c>
-      <c r="AG15" s="156"/>
-      <c r="AH15" s="156"/>
-      <c r="AI15" s="157"/>
-      <c r="AJ15" s="155">
+      <c r="AG15" s="173"/>
+      <c r="AH15" s="173"/>
+      <c r="AI15" s="168"/>
+      <c r="AJ15" s="167">
         <v>50</v>
       </c>
-      <c r="AK15" s="157"/>
-      <c r="AL15" s="155" t="s">
+      <c r="AK15" s="168"/>
+      <c r="AL15" s="167" t="s">
         <v>93</v>
       </c>
-      <c r="AM15" s="157"/>
-      <c r="AN15" s="158" t="s">
+      <c r="AM15" s="168"/>
+      <c r="AN15" s="156" t="s">
         <v>89</v>
       </c>
-      <c r="AO15" s="159"/>
-      <c r="AP15" s="160"/>
-      <c r="AV15" s="178" t="s">
+      <c r="AO15" s="157"/>
+      <c r="AP15" s="158"/>
+      <c r="AV15" s="159" t="s">
         <v>60</v>
       </c>
-      <c r="AW15" s="178"/>
-      <c r="AX15" s="178"/>
-      <c r="AY15" s="154">
+      <c r="AW15" s="159"/>
+      <c r="AX15" s="159"/>
+      <c r="AY15" s="171">
         <v>1</v>
       </c>
-      <c r="AZ15" s="155" t="s">
+      <c r="AZ15" s="167" t="s">
         <v>66</v>
       </c>
-      <c r="BA15" s="157"/>
-      <c r="BB15" s="182" t="s">
+      <c r="BA15" s="168"/>
+      <c r="BB15" s="163" t="s">
         <v>98</v>
       </c>
-      <c r="BC15" s="183"/>
-      <c r="BD15" s="155" t="s">
+      <c r="BC15" s="164"/>
+      <c r="BD15" s="167" t="s">
         <v>99</v>
       </c>
-      <c r="BE15" s="156"/>
-      <c r="BF15" s="156"/>
-      <c r="BG15" s="157"/>
-      <c r="BH15" s="155">
+      <c r="BE15" s="173"/>
+      <c r="BF15" s="173"/>
+      <c r="BG15" s="168"/>
+      <c r="BH15" s="167">
         <v>1000</v>
       </c>
-      <c r="BI15" s="157"/>
-      <c r="BJ15" s="155" t="s">
+      <c r="BI15" s="168"/>
+      <c r="BJ15" s="167" t="s">
         <v>101</v>
       </c>
-      <c r="BK15" s="157"/>
-      <c r="BL15" s="158" t="s">
+      <c r="BK15" s="168"/>
+      <c r="BL15" s="156" t="s">
         <v>102</v>
       </c>
-      <c r="BM15" s="159"/>
-      <c r="BN15" s="159"/>
-      <c r="BU15" s="178" t="s">
+      <c r="BM15" s="157"/>
+      <c r="BN15" s="157"/>
+      <c r="BU15" s="159" t="s">
         <v>60</v>
       </c>
-      <c r="BV15" s="178"/>
-      <c r="BW15" s="178"/>
-      <c r="BX15" s="154">
+      <c r="BV15" s="159"/>
+      <c r="BW15" s="159"/>
+      <c r="BX15" s="171">
         <v>1</v>
       </c>
-      <c r="BY15" s="155" t="s">
+      <c r="BY15" s="167" t="s">
         <v>86</v>
       </c>
-      <c r="BZ15" s="157"/>
-      <c r="CA15" s="154" t="s">
+      <c r="BZ15" s="168"/>
+      <c r="CA15" s="171" t="s">
         <v>85</v>
       </c>
-      <c r="CB15" s="154" t="s">
+      <c r="CB15" s="171" t="s">
         <v>92</v>
       </c>
-      <c r="CC15" s="155" t="s">
+      <c r="CC15" s="167" t="s">
         <v>70</v>
       </c>
-      <c r="CD15" s="156"/>
-      <c r="CE15" s="156"/>
-      <c r="CF15" s="157"/>
-      <c r="CG15" s="155">
+      <c r="CD15" s="173"/>
+      <c r="CE15" s="173"/>
+      <c r="CF15" s="168"/>
+      <c r="CG15" s="167">
         <v>50</v>
       </c>
-      <c r="CH15" s="157"/>
-      <c r="CI15" s="155" t="s">
+      <c r="CH15" s="168"/>
+      <c r="CI15" s="167" t="s">
         <v>93</v>
       </c>
-      <c r="CJ15" s="157"/>
-      <c r="CK15" s="158" t="s">
+      <c r="CJ15" s="168"/>
+      <c r="CK15" s="156" t="s">
         <v>89</v>
       </c>
-      <c r="CL15" s="159"/>
-      <c r="CM15" s="160"/>
+      <c r="CL15" s="157"/>
+      <c r="CM15" s="158"/>
     </row>
     <row r="16" spans="3:91" ht="21" x14ac:dyDescent="0.35">
-      <c r="C16" s="146" t="s">
+      <c r="C16" s="64" t="s">
         <v>61</v>
       </c>
-      <c r="D16" s="161"/>
-      <c r="E16" s="162"/>
-      <c r="F16" s="163"/>
-      <c r="G16" s="162"/>
-      <c r="H16" s="164"/>
-      <c r="I16" s="162"/>
-      <c r="J16" s="163"/>
-      <c r="K16" s="163"/>
-      <c r="L16" s="164"/>
-      <c r="M16" s="162"/>
-      <c r="N16" s="164"/>
-      <c r="O16" s="162"/>
-      <c r="P16" s="164"/>
-      <c r="Q16" s="165" t="s">
+      <c r="D16" s="172"/>
+      <c r="E16" s="169"/>
+      <c r="F16" s="174"/>
+      <c r="G16" s="169"/>
+      <c r="H16" s="170"/>
+      <c r="I16" s="169"/>
+      <c r="J16" s="174"/>
+      <c r="K16" s="174"/>
+      <c r="L16" s="170"/>
+      <c r="M16" s="169"/>
+      <c r="N16" s="170"/>
+      <c r="O16" s="169"/>
+      <c r="P16" s="170"/>
+      <c r="Q16" s="186" t="s">
         <v>75</v>
       </c>
-      <c r="R16" s="166"/>
-      <c r="S16" s="167"/>
-      <c r="X16" s="173" t="s">
+      <c r="R16" s="187"/>
+      <c r="S16" s="188"/>
+      <c r="X16" s="160" t="s">
         <v>61</v>
       </c>
-      <c r="Y16" s="173"/>
-      <c r="Z16" s="173"/>
-      <c r="AA16" s="161"/>
-      <c r="AB16" s="162"/>
-      <c r="AC16" s="164"/>
-      <c r="AD16" s="161"/>
-      <c r="AE16" s="161"/>
-      <c r="AF16" s="162"/>
-      <c r="AG16" s="163"/>
-      <c r="AH16" s="163"/>
-      <c r="AI16" s="164"/>
-      <c r="AJ16" s="162"/>
-      <c r="AK16" s="164"/>
-      <c r="AL16" s="162"/>
-      <c r="AM16" s="164"/>
-      <c r="AN16" s="158" t="s">
+      <c r="Y16" s="160"/>
+      <c r="Z16" s="160"/>
+      <c r="AA16" s="172"/>
+      <c r="AB16" s="169"/>
+      <c r="AC16" s="170"/>
+      <c r="AD16" s="172"/>
+      <c r="AE16" s="172"/>
+      <c r="AF16" s="169"/>
+      <c r="AG16" s="174"/>
+      <c r="AH16" s="174"/>
+      <c r="AI16" s="170"/>
+      <c r="AJ16" s="169"/>
+      <c r="AK16" s="170"/>
+      <c r="AL16" s="169"/>
+      <c r="AM16" s="170"/>
+      <c r="AN16" s="156" t="s">
         <v>88</v>
       </c>
-      <c r="AO16" s="159"/>
-      <c r="AP16" s="160"/>
-      <c r="AV16" s="178" t="s">
+      <c r="AO16" s="157"/>
+      <c r="AP16" s="158"/>
+      <c r="AV16" s="159" t="s">
         <v>61</v>
       </c>
-      <c r="AW16" s="178"/>
-      <c r="AX16" s="178"/>
-      <c r="AY16" s="161"/>
-      <c r="AZ16" s="162"/>
-      <c r="BA16" s="164"/>
-      <c r="BB16" s="184"/>
-      <c r="BC16" s="185"/>
-      <c r="BD16" s="162"/>
-      <c r="BE16" s="163"/>
-      <c r="BF16" s="163"/>
-      <c r="BG16" s="164"/>
-      <c r="BH16" s="162"/>
-      <c r="BI16" s="164"/>
-      <c r="BJ16" s="162"/>
-      <c r="BK16" s="164"/>
-      <c r="BL16" s="158" t="s">
+      <c r="AW16" s="159"/>
+      <c r="AX16" s="159"/>
+      <c r="AY16" s="172"/>
+      <c r="AZ16" s="169"/>
+      <c r="BA16" s="170"/>
+      <c r="BB16" s="165"/>
+      <c r="BC16" s="166"/>
+      <c r="BD16" s="169"/>
+      <c r="BE16" s="174"/>
+      <c r="BF16" s="174"/>
+      <c r="BG16" s="170"/>
+      <c r="BH16" s="169"/>
+      <c r="BI16" s="170"/>
+      <c r="BJ16" s="169"/>
+      <c r="BK16" s="170"/>
+      <c r="BL16" s="156" t="s">
         <v>103</v>
       </c>
-      <c r="BM16" s="159"/>
-      <c r="BN16" s="159"/>
-      <c r="BU16" s="178" t="s">
+      <c r="BM16" s="157"/>
+      <c r="BN16" s="157"/>
+      <c r="BU16" s="159" t="s">
         <v>61</v>
       </c>
-      <c r="BV16" s="178"/>
-      <c r="BW16" s="178"/>
-      <c r="BX16" s="161"/>
-      <c r="BY16" s="162"/>
-      <c r="BZ16" s="164"/>
-      <c r="CA16" s="161"/>
-      <c r="CB16" s="161"/>
-      <c r="CC16" s="162"/>
-      <c r="CD16" s="163"/>
-      <c r="CE16" s="163"/>
-      <c r="CF16" s="164"/>
-      <c r="CG16" s="162"/>
-      <c r="CH16" s="164"/>
-      <c r="CI16" s="162"/>
-      <c r="CJ16" s="164"/>
-      <c r="CK16" s="158" t="s">
+      <c r="BV16" s="159"/>
+      <c r="BW16" s="159"/>
+      <c r="BX16" s="172"/>
+      <c r="BY16" s="169"/>
+      <c r="BZ16" s="170"/>
+      <c r="CA16" s="172"/>
+      <c r="CB16" s="172"/>
+      <c r="CC16" s="169"/>
+      <c r="CD16" s="174"/>
+      <c r="CE16" s="174"/>
+      <c r="CF16" s="170"/>
+      <c r="CG16" s="169"/>
+      <c r="CH16" s="170"/>
+      <c r="CI16" s="169"/>
+      <c r="CJ16" s="170"/>
+      <c r="CK16" s="156" t="s">
         <v>88</v>
       </c>
-      <c r="CL16" s="159"/>
-      <c r="CM16" s="160"/>
+      <c r="CL16" s="157"/>
+      <c r="CM16" s="158"/>
     </row>
     <row r="17" spans="3:91" ht="21" x14ac:dyDescent="0.35">
-      <c r="C17" s="146" t="s">
+      <c r="C17" s="64" t="s">
         <v>62</v>
       </c>
-      <c r="D17" s="149">
+      <c r="D17" s="67">
         <v>2</v>
       </c>
-      <c r="E17" s="150" t="s">
+      <c r="E17" s="68" t="s">
         <v>67</v>
       </c>
-      <c r="F17" s="151"/>
-      <c r="G17" s="150"/>
-      <c r="H17" s="152"/>
-      <c r="I17" s="150"/>
-      <c r="J17" s="151"/>
-      <c r="K17" s="151"/>
-      <c r="L17" s="152"/>
-      <c r="M17" s="151"/>
-      <c r="N17" s="151"/>
-      <c r="O17" s="150"/>
-      <c r="P17" s="152"/>
-      <c r="Q17" s="151"/>
-      <c r="R17" s="153"/>
-      <c r="S17" s="152"/>
-      <c r="X17" s="174" t="s">
+      <c r="F17" s="69"/>
+      <c r="G17" s="68"/>
+      <c r="H17" s="70"/>
+      <c r="I17" s="68"/>
+      <c r="J17" s="69"/>
+      <c r="K17" s="69"/>
+      <c r="L17" s="70"/>
+      <c r="M17" s="69"/>
+      <c r="N17" s="69"/>
+      <c r="O17" s="68"/>
+      <c r="P17" s="70"/>
+      <c r="Q17" s="69"/>
+      <c r="R17" s="71"/>
+      <c r="S17" s="70"/>
+      <c r="X17" s="182" t="s">
         <v>62</v>
       </c>
-      <c r="Y17" s="174"/>
-      <c r="Z17" s="174"/>
-      <c r="AA17" s="149">
+      <c r="Y17" s="182"/>
+      <c r="Z17" s="182"/>
+      <c r="AA17" s="67">
         <v>2</v>
       </c>
-      <c r="AB17" s="150" t="s">
+      <c r="AB17" s="68" t="s">
         <v>94</v>
       </c>
-      <c r="AC17" s="151"/>
-      <c r="AD17" s="149"/>
-      <c r="AE17" s="152"/>
-      <c r="AF17" s="150"/>
-      <c r="AG17" s="151"/>
-      <c r="AH17" s="151"/>
-      <c r="AI17" s="152"/>
-      <c r="AJ17" s="151"/>
-      <c r="AK17" s="151"/>
-      <c r="AL17" s="150"/>
-      <c r="AM17" s="152"/>
-      <c r="AN17" s="151"/>
-      <c r="AO17" s="153"/>
-      <c r="AP17" s="152"/>
-      <c r="AV17" s="173" t="s">
+      <c r="AC17" s="69"/>
+      <c r="AD17" s="67"/>
+      <c r="AE17" s="70"/>
+      <c r="AF17" s="68"/>
+      <c r="AG17" s="69"/>
+      <c r="AH17" s="69"/>
+      <c r="AI17" s="70"/>
+      <c r="AJ17" s="69"/>
+      <c r="AK17" s="69"/>
+      <c r="AL17" s="68"/>
+      <c r="AM17" s="70"/>
+      <c r="AN17" s="69"/>
+      <c r="AO17" s="71"/>
+      <c r="AP17" s="70"/>
+      <c r="AV17" s="160" t="s">
         <v>62</v>
       </c>
-      <c r="AW17" s="173"/>
-      <c r="AX17" s="173"/>
-      <c r="AY17" s="149">
+      <c r="AW17" s="160"/>
+      <c r="AX17" s="160"/>
+      <c r="AY17" s="67">
         <v>2</v>
       </c>
-      <c r="AZ17" s="150" t="s">
+      <c r="AZ17" s="68" t="s">
         <v>105</v>
       </c>
-      <c r="BA17" s="151"/>
-      <c r="BB17" s="147"/>
-      <c r="BC17" s="148"/>
-      <c r="BD17" s="151"/>
-      <c r="BE17" s="151"/>
-      <c r="BF17" s="151"/>
-      <c r="BG17" s="152"/>
-      <c r="BH17" s="151"/>
-      <c r="BI17" s="151"/>
-      <c r="BJ17" s="150"/>
-      <c r="BK17" s="152"/>
-      <c r="BL17" s="151"/>
-      <c r="BM17" s="153"/>
-      <c r="BN17" s="151"/>
-      <c r="BU17" s="178" t="s">
+      <c r="BA17" s="69"/>
+      <c r="BB17" s="65"/>
+      <c r="BC17" s="66"/>
+      <c r="BD17" s="69"/>
+      <c r="BE17" s="69"/>
+      <c r="BF17" s="69"/>
+      <c r="BG17" s="70"/>
+      <c r="BH17" s="69"/>
+      <c r="BI17" s="69"/>
+      <c r="BJ17" s="68"/>
+      <c r="BK17" s="70"/>
+      <c r="BL17" s="69"/>
+      <c r="BM17" s="71"/>
+      <c r="BN17" s="69"/>
+      <c r="BU17" s="159" t="s">
         <v>62</v>
       </c>
-      <c r="BV17" s="178"/>
-      <c r="BW17" s="178"/>
-      <c r="BX17" s="149">
+      <c r="BV17" s="159"/>
+      <c r="BW17" s="159"/>
+      <c r="BX17" s="67">
         <v>2</v>
       </c>
-      <c r="BY17" s="150" t="s">
+      <c r="BY17" s="68" t="s">
         <v>94</v>
       </c>
-      <c r="BZ17" s="151"/>
-      <c r="CA17" s="149"/>
-      <c r="CB17" s="152"/>
-      <c r="CC17" s="150"/>
-      <c r="CD17" s="151"/>
-      <c r="CE17" s="151"/>
-      <c r="CF17" s="152"/>
-      <c r="CG17" s="151"/>
-      <c r="CH17" s="151"/>
-      <c r="CI17" s="150"/>
-      <c r="CJ17" s="152"/>
-      <c r="CK17" s="151"/>
-      <c r="CL17" s="153"/>
-      <c r="CM17" s="152"/>
+      <c r="BZ17" s="69"/>
+      <c r="CA17" s="67"/>
+      <c r="CB17" s="70"/>
+      <c r="CC17" s="68"/>
+      <c r="CD17" s="69"/>
+      <c r="CE17" s="69"/>
+      <c r="CF17" s="70"/>
+      <c r="CG17" s="69"/>
+      <c r="CH17" s="69"/>
+      <c r="CI17" s="68"/>
+      <c r="CJ17" s="70"/>
+      <c r="CK17" s="69"/>
+      <c r="CL17" s="71"/>
+      <c r="CM17" s="70"/>
     </row>
     <row r="18" spans="3:91" ht="21" x14ac:dyDescent="0.35">
-      <c r="C18" s="146" t="s">
+      <c r="C18" s="64" t="s">
         <v>63</v>
       </c>
-      <c r="D18" s="149">
+      <c r="D18" s="67">
         <v>3</v>
       </c>
-      <c r="E18" s="150" t="s">
+      <c r="E18" s="68" t="s">
         <v>73</v>
       </c>
-      <c r="F18" s="151"/>
-      <c r="G18" s="150"/>
-      <c r="H18" s="152"/>
-      <c r="I18" s="150"/>
-      <c r="J18" s="151"/>
-      <c r="K18" s="151"/>
-      <c r="L18" s="152"/>
-      <c r="M18" s="151"/>
-      <c r="N18" s="151"/>
-      <c r="O18" s="150"/>
-      <c r="P18" s="152"/>
-      <c r="Q18" s="151"/>
-      <c r="R18" s="151"/>
-      <c r="S18" s="152"/>
-      <c r="X18" s="174" t="s">
+      <c r="F18" s="69"/>
+      <c r="G18" s="68"/>
+      <c r="H18" s="70"/>
+      <c r="I18" s="68"/>
+      <c r="J18" s="69"/>
+      <c r="K18" s="69"/>
+      <c r="L18" s="70"/>
+      <c r="M18" s="69"/>
+      <c r="N18" s="69"/>
+      <c r="O18" s="68"/>
+      <c r="P18" s="70"/>
+      <c r="Q18" s="69"/>
+      <c r="R18" s="69"/>
+      <c r="S18" s="70"/>
+      <c r="X18" s="182" t="s">
         <v>63</v>
       </c>
-      <c r="Y18" s="174"/>
-      <c r="Z18" s="174"/>
-      <c r="AA18" s="149">
+      <c r="Y18" s="182"/>
+      <c r="Z18" s="182"/>
+      <c r="AA18" s="67">
         <v>3</v>
       </c>
-      <c r="AB18" s="150" t="s">
+      <c r="AB18" s="68" t="s">
         <v>95</v>
       </c>
-      <c r="AC18" s="151"/>
-      <c r="AD18" s="149"/>
-      <c r="AE18" s="152"/>
-      <c r="AF18" s="150"/>
-      <c r="AG18" s="151"/>
-      <c r="AH18" s="151"/>
-      <c r="AI18" s="152"/>
-      <c r="AJ18" s="151"/>
-      <c r="AK18" s="151"/>
-      <c r="AL18" s="150"/>
-      <c r="AM18" s="152"/>
-      <c r="AN18" s="151"/>
-      <c r="AO18" s="151"/>
-      <c r="AP18" s="152"/>
-      <c r="AV18" s="174" t="s">
+      <c r="AC18" s="69"/>
+      <c r="AD18" s="67"/>
+      <c r="AE18" s="70"/>
+      <c r="AF18" s="68"/>
+      <c r="AG18" s="69"/>
+      <c r="AH18" s="69"/>
+      <c r="AI18" s="70"/>
+      <c r="AJ18" s="69"/>
+      <c r="AK18" s="69"/>
+      <c r="AL18" s="68"/>
+      <c r="AM18" s="70"/>
+      <c r="AN18" s="69"/>
+      <c r="AO18" s="69"/>
+      <c r="AP18" s="70"/>
+      <c r="AV18" s="182" t="s">
         <v>63</v>
       </c>
-      <c r="AW18" s="174"/>
-      <c r="AX18" s="174"/>
-      <c r="AY18" s="149">
+      <c r="AW18" s="182"/>
+      <c r="AX18" s="182"/>
+      <c r="AY18" s="67">
         <v>3</v>
       </c>
-      <c r="AZ18" s="150" t="s">
+      <c r="AZ18" s="68" t="s">
         <v>106</v>
       </c>
-      <c r="BA18" s="151"/>
-      <c r="BB18" s="150"/>
-      <c r="BC18" s="152"/>
-      <c r="BD18" s="151"/>
-      <c r="BE18" s="151"/>
-      <c r="BF18" s="151"/>
-      <c r="BG18" s="152"/>
-      <c r="BH18" s="151"/>
-      <c r="BI18" s="151"/>
-      <c r="BJ18" s="150"/>
-      <c r="BK18" s="152"/>
-      <c r="BL18" s="151"/>
-      <c r="BM18" s="151"/>
-      <c r="BN18" s="151"/>
-      <c r="BU18" s="173" t="s">
+      <c r="BA18" s="69"/>
+      <c r="BB18" s="68"/>
+      <c r="BC18" s="70"/>
+      <c r="BD18" s="69"/>
+      <c r="BE18" s="69"/>
+      <c r="BF18" s="69"/>
+      <c r="BG18" s="70"/>
+      <c r="BH18" s="69"/>
+      <c r="BI18" s="69"/>
+      <c r="BJ18" s="68"/>
+      <c r="BK18" s="70"/>
+      <c r="BL18" s="69"/>
+      <c r="BM18" s="69"/>
+      <c r="BN18" s="69"/>
+      <c r="BU18" s="160" t="s">
         <v>63</v>
       </c>
-      <c r="BV18" s="173"/>
-      <c r="BW18" s="173"/>
-      <c r="BX18" s="149">
+      <c r="BV18" s="160"/>
+      <c r="BW18" s="160"/>
+      <c r="BX18" s="67">
         <v>3</v>
       </c>
-      <c r="BY18" s="150" t="s">
+      <c r="BY18" s="68" t="s">
         <v>95</v>
       </c>
-      <c r="BZ18" s="151"/>
-      <c r="CA18" s="149"/>
-      <c r="CB18" s="152"/>
-      <c r="CC18" s="150"/>
-      <c r="CD18" s="151"/>
-      <c r="CE18" s="151"/>
-      <c r="CF18" s="152"/>
-      <c r="CG18" s="151"/>
-      <c r="CH18" s="151"/>
-      <c r="CI18" s="150"/>
-      <c r="CJ18" s="152"/>
-      <c r="CK18" s="151"/>
-      <c r="CL18" s="151"/>
-      <c r="CM18" s="152"/>
+      <c r="BZ18" s="69"/>
+      <c r="CA18" s="67"/>
+      <c r="CB18" s="70"/>
+      <c r="CC18" s="68"/>
+      <c r="CD18" s="69"/>
+      <c r="CE18" s="69"/>
+      <c r="CF18" s="70"/>
+      <c r="CG18" s="69"/>
+      <c r="CH18" s="69"/>
+      <c r="CI18" s="68"/>
+      <c r="CJ18" s="70"/>
+      <c r="CK18" s="69"/>
+      <c r="CL18" s="69"/>
+      <c r="CM18" s="70"/>
     </row>
     <row r="19" spans="3:91" x14ac:dyDescent="0.25">
-      <c r="D19" s="134"/>
+      <c r="D19" s="58"/>
       <c r="E19" s="45"/>
       <c r="F19" s="2"/>
       <c r="G19" s="45"/>
@@ -5985,10 +5985,10 @@
       <c r="Q19" s="2"/>
       <c r="R19" s="2"/>
       <c r="S19" s="46"/>
-      <c r="AA19" s="134"/>
+      <c r="AA19" s="58"/>
       <c r="AB19" s="45"/>
       <c r="AC19" s="2"/>
-      <c r="AD19" s="134"/>
+      <c r="AD19" s="58"/>
       <c r="AE19" s="46"/>
       <c r="AF19" s="45"/>
       <c r="AG19" s="2"/>
@@ -6001,7 +6001,7 @@
       <c r="AN19" s="2"/>
       <c r="AO19" s="2"/>
       <c r="AP19" s="46"/>
-      <c r="AY19" s="134"/>
+      <c r="AY19" s="58"/>
       <c r="AZ19" s="45"/>
       <c r="BA19" s="2"/>
       <c r="BB19" s="45"/>
@@ -6017,10 +6017,10 @@
       <c r="BL19" s="2"/>
       <c r="BM19" s="2"/>
       <c r="BN19" s="2"/>
-      <c r="BX19" s="134"/>
+      <c r="BX19" s="58"/>
       <c r="BY19" s="45"/>
       <c r="BZ19" s="2"/>
-      <c r="CA19" s="134"/>
+      <c r="CA19" s="58"/>
       <c r="CB19" s="46"/>
       <c r="CC19" s="45"/>
       <c r="CD19" s="2"/>
@@ -6035,7 +6035,7 @@
       <c r="CM19" s="46"/>
     </row>
     <row r="20" spans="3:91" x14ac:dyDescent="0.25">
-      <c r="D20" s="134"/>
+      <c r="D20" s="58"/>
       <c r="E20" s="45"/>
       <c r="F20" s="2"/>
       <c r="G20" s="45"/>
@@ -6051,10 +6051,10 @@
       <c r="Q20" s="2"/>
       <c r="R20" s="2"/>
       <c r="S20" s="46"/>
-      <c r="AA20" s="134"/>
+      <c r="AA20" s="58"/>
       <c r="AB20" s="45"/>
       <c r="AC20" s="2"/>
-      <c r="AD20" s="134"/>
+      <c r="AD20" s="58"/>
       <c r="AE20" s="46"/>
       <c r="AF20" s="45"/>
       <c r="AG20" s="2"/>
@@ -6067,7 +6067,7 @@
       <c r="AN20" s="2"/>
       <c r="AO20" s="2"/>
       <c r="AP20" s="46"/>
-      <c r="AY20" s="134"/>
+      <c r="AY20" s="58"/>
       <c r="AZ20" s="45"/>
       <c r="BA20" s="2"/>
       <c r="BB20" s="45"/>
@@ -6083,10 +6083,10 @@
       <c r="BL20" s="2"/>
       <c r="BM20" s="2"/>
       <c r="BN20" s="2"/>
-      <c r="BX20" s="134"/>
+      <c r="BX20" s="58"/>
       <c r="BY20" s="45"/>
       <c r="BZ20" s="2"/>
-      <c r="CA20" s="134"/>
+      <c r="CA20" s="58"/>
       <c r="CB20" s="46"/>
       <c r="CC20" s="45"/>
       <c r="CD20" s="2"/>
@@ -6101,7 +6101,7 @@
       <c r="CM20" s="46"/>
     </row>
     <row r="21" spans="3:91" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D21" s="134"/>
+      <c r="D21" s="58"/>
       <c r="E21" s="45"/>
       <c r="F21" s="2"/>
       <c r="G21" s="45"/>
@@ -6117,10 +6117,10 @@
       <c r="Q21" s="2"/>
       <c r="R21" s="2"/>
       <c r="S21" s="46"/>
-      <c r="AA21" s="134"/>
+      <c r="AA21" s="58"/>
       <c r="AB21" s="45"/>
       <c r="AC21" s="2"/>
-      <c r="AD21" s="134"/>
+      <c r="AD21" s="58"/>
       <c r="AE21" s="46"/>
       <c r="AF21" s="45"/>
       <c r="AG21" s="2"/>
@@ -6133,7 +6133,7 @@
       <c r="AN21" s="2"/>
       <c r="AO21" s="2"/>
       <c r="AP21" s="46"/>
-      <c r="AY21" s="134"/>
+      <c r="AY21" s="58"/>
       <c r="AZ21" s="45"/>
       <c r="BA21" s="2"/>
       <c r="BB21" s="45"/>
@@ -6149,10 +6149,10 @@
       <c r="BL21" s="2"/>
       <c r="BM21" s="2"/>
       <c r="BN21" s="2"/>
-      <c r="BX21" s="134"/>
+      <c r="BX21" s="58"/>
       <c r="BY21" s="45"/>
       <c r="BZ21" s="2"/>
-      <c r="CA21" s="134"/>
+      <c r="CA21" s="58"/>
       <c r="CB21" s="46"/>
       <c r="CC21" s="45"/>
       <c r="CD21" s="2"/>
@@ -6167,7 +6167,7 @@
       <c r="CM21" s="46"/>
     </row>
     <row r="22" spans="3:91" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D22" s="134"/>
+      <c r="D22" s="58"/>
       <c r="E22" s="45"/>
       <c r="F22" s="2"/>
       <c r="G22" s="45"/>
@@ -6183,10 +6183,10 @@
       <c r="Q22" s="2"/>
       <c r="R22" s="2"/>
       <c r="S22" s="46"/>
-      <c r="AA22" s="134"/>
+      <c r="AA22" s="58"/>
       <c r="AB22" s="45"/>
       <c r="AC22" s="2"/>
-      <c r="AD22" s="134"/>
+      <c r="AD22" s="58"/>
       <c r="AE22" s="46"/>
       <c r="AF22" s="45"/>
       <c r="AG22" s="2"/>
@@ -6199,7 +6199,7 @@
       <c r="AN22" s="2"/>
       <c r="AO22" s="2"/>
       <c r="AP22" s="46"/>
-      <c r="AY22" s="134"/>
+      <c r="AY22" s="58"/>
       <c r="AZ22" s="45"/>
       <c r="BA22" s="2"/>
       <c r="BB22" s="45"/>
@@ -6215,10 +6215,10 @@
       <c r="BL22" s="2"/>
       <c r="BM22" s="2"/>
       <c r="BN22" s="2"/>
-      <c r="BX22" s="134"/>
+      <c r="BX22" s="58"/>
       <c r="BY22" s="45"/>
       <c r="BZ22" s="2"/>
-      <c r="CA22" s="134"/>
+      <c r="CA22" s="58"/>
       <c r="CB22" s="46"/>
       <c r="CC22" s="45"/>
       <c r="CD22" s="2"/>
@@ -6233,7 +6233,7 @@
       <c r="CM22" s="46"/>
     </row>
     <row r="23" spans="3:91" x14ac:dyDescent="0.25">
-      <c r="D23" s="134"/>
+      <c r="D23" s="58"/>
       <c r="E23" s="45"/>
       <c r="F23" s="2"/>
       <c r="G23" s="45"/>
@@ -6249,10 +6249,10 @@
       <c r="Q23" s="2"/>
       <c r="R23" s="2"/>
       <c r="S23" s="46"/>
-      <c r="AA23" s="134"/>
+      <c r="AA23" s="58"/>
       <c r="AB23" s="45"/>
       <c r="AC23" s="2"/>
-      <c r="AD23" s="134"/>
+      <c r="AD23" s="58"/>
       <c r="AE23" s="46"/>
       <c r="AF23" s="45"/>
       <c r="AG23" s="2"/>
@@ -6265,7 +6265,7 @@
       <c r="AN23" s="2"/>
       <c r="AO23" s="2"/>
       <c r="AP23" s="46"/>
-      <c r="AY23" s="134"/>
+      <c r="AY23" s="58"/>
       <c r="AZ23" s="45"/>
       <c r="BA23" s="2"/>
       <c r="BB23" s="45"/>
@@ -6281,10 +6281,10 @@
       <c r="BL23" s="2"/>
       <c r="BM23" s="2"/>
       <c r="BN23" s="2"/>
-      <c r="BX23" s="134"/>
+      <c r="BX23" s="58"/>
       <c r="BY23" s="45"/>
       <c r="BZ23" s="2"/>
-      <c r="CA23" s="134"/>
+      <c r="CA23" s="58"/>
       <c r="CB23" s="46"/>
       <c r="CC23" s="45"/>
       <c r="CD23" s="2"/>
@@ -6299,7 +6299,7 @@
       <c r="CM23" s="46"/>
     </row>
     <row r="24" spans="3:91" x14ac:dyDescent="0.25">
-      <c r="D24" s="134"/>
+      <c r="D24" s="58"/>
       <c r="E24" s="45"/>
       <c r="F24" s="2"/>
       <c r="G24" s="45"/>
@@ -6315,10 +6315,10 @@
       <c r="Q24" s="2"/>
       <c r="R24" s="2"/>
       <c r="S24" s="46"/>
-      <c r="AA24" s="134"/>
+      <c r="AA24" s="58"/>
       <c r="AB24" s="45"/>
       <c r="AC24" s="2"/>
-      <c r="AD24" s="134"/>
+      <c r="AD24" s="58"/>
       <c r="AE24" s="46"/>
       <c r="AF24" s="45"/>
       <c r="AG24" s="2"/>
@@ -6331,7 +6331,7 @@
       <c r="AN24" s="2"/>
       <c r="AO24" s="2"/>
       <c r="AP24" s="46"/>
-      <c r="AY24" s="134"/>
+      <c r="AY24" s="58"/>
       <c r="AZ24" s="45"/>
       <c r="BA24" s="2"/>
       <c r="BB24" s="45"/>
@@ -6347,10 +6347,10 @@
       <c r="BL24" s="2"/>
       <c r="BM24" s="2"/>
       <c r="BN24" s="2"/>
-      <c r="BX24" s="134"/>
+      <c r="BX24" s="58"/>
       <c r="BY24" s="45"/>
       <c r="BZ24" s="2"/>
-      <c r="CA24" s="134"/>
+      <c r="CA24" s="58"/>
       <c r="CB24" s="46"/>
       <c r="CC24" s="45"/>
       <c r="CD24" s="2"/>
@@ -6366,7 +6366,7 @@
     </row>
     <row r="25" spans="3:91" x14ac:dyDescent="0.25">
       <c r="C25" s="2"/>
-      <c r="D25" s="134"/>
+      <c r="D25" s="58"/>
       <c r="E25" s="45"/>
       <c r="F25" s="2"/>
       <c r="G25" s="45"/>
@@ -6383,10 +6383,10 @@
       <c r="R25" s="2"/>
       <c r="S25" s="46"/>
       <c r="Z25" s="2"/>
-      <c r="AA25" s="134"/>
+      <c r="AA25" s="58"/>
       <c r="AB25" s="45"/>
       <c r="AC25" s="2"/>
-      <c r="AD25" s="134"/>
+      <c r="AD25" s="58"/>
       <c r="AE25" s="46"/>
       <c r="AF25" s="45"/>
       <c r="AG25" s="2"/>
@@ -6400,7 +6400,7 @@
       <c r="AO25" s="2"/>
       <c r="AP25" s="46"/>
       <c r="AX25" s="2"/>
-      <c r="AY25" s="134"/>
+      <c r="AY25" s="58"/>
       <c r="AZ25" s="45"/>
       <c r="BA25" s="2"/>
       <c r="BB25" s="45"/>
@@ -6417,10 +6417,10 @@
       <c r="BM25" s="2"/>
       <c r="BN25" s="2"/>
       <c r="BW25" s="2"/>
-      <c r="BX25" s="134"/>
+      <c r="BX25" s="58"/>
       <c r="BY25" s="45"/>
       <c r="BZ25" s="2"/>
-      <c r="CA25" s="134"/>
+      <c r="CA25" s="58"/>
       <c r="CB25" s="46"/>
       <c r="CC25" s="45"/>
       <c r="CD25" s="2"/>
@@ -6436,7 +6436,7 @@
     </row>
     <row r="26" spans="3:91" x14ac:dyDescent="0.25">
       <c r="C26" s="2"/>
-      <c r="D26" s="134"/>
+      <c r="D26" s="58"/>
       <c r="E26" s="45"/>
       <c r="F26" s="2"/>
       <c r="G26" s="45"/>
@@ -6453,10 +6453,10 @@
       <c r="R26" s="2"/>
       <c r="S26" s="46"/>
       <c r="Z26" s="2"/>
-      <c r="AA26" s="134"/>
+      <c r="AA26" s="58"/>
       <c r="AB26" s="45"/>
       <c r="AC26" s="2"/>
-      <c r="AD26" s="134"/>
+      <c r="AD26" s="58"/>
       <c r="AE26" s="46"/>
       <c r="AF26" s="45"/>
       <c r="AG26" s="2"/>
@@ -6470,7 +6470,7 @@
       <c r="AO26" s="2"/>
       <c r="AP26" s="46"/>
       <c r="AX26" s="2"/>
-      <c r="AY26" s="134"/>
+      <c r="AY26" s="58"/>
       <c r="AZ26" s="45"/>
       <c r="BA26" s="2"/>
       <c r="BB26" s="45"/>
@@ -6487,10 +6487,10 @@
       <c r="BM26" s="2"/>
       <c r="BN26" s="2"/>
       <c r="BW26" s="2"/>
-      <c r="BX26" s="134"/>
+      <c r="BX26" s="58"/>
       <c r="BY26" s="45"/>
       <c r="BZ26" s="2"/>
-      <c r="CA26" s="134"/>
+      <c r="CA26" s="58"/>
       <c r="CB26" s="46"/>
       <c r="CC26" s="45"/>
       <c r="CD26" s="2"/>
@@ -6506,7 +6506,7 @@
     </row>
     <row r="27" spans="3:91" x14ac:dyDescent="0.25">
       <c r="C27" s="2"/>
-      <c r="D27" s="134"/>
+      <c r="D27" s="58"/>
       <c r="E27" s="45"/>
       <c r="F27" s="2"/>
       <c r="G27" s="45"/>
@@ -6523,10 +6523,10 @@
       <c r="R27" s="2"/>
       <c r="S27" s="46"/>
       <c r="Z27" s="2"/>
-      <c r="AA27" s="134"/>
+      <c r="AA27" s="58"/>
       <c r="AB27" s="45"/>
       <c r="AC27" s="2"/>
-      <c r="AD27" s="134"/>
+      <c r="AD27" s="58"/>
       <c r="AE27" s="46"/>
       <c r="AF27" s="45"/>
       <c r="AG27" s="2"/>
@@ -6540,7 +6540,7 @@
       <c r="AO27" s="2"/>
       <c r="AP27" s="46"/>
       <c r="AX27" s="2"/>
-      <c r="AY27" s="134"/>
+      <c r="AY27" s="58"/>
       <c r="AZ27" s="45"/>
       <c r="BA27" s="2"/>
       <c r="BB27" s="45"/>
@@ -6557,10 +6557,10 @@
       <c r="BM27" s="2"/>
       <c r="BN27" s="2"/>
       <c r="BW27" s="2"/>
-      <c r="BX27" s="134"/>
+      <c r="BX27" s="58"/>
       <c r="BY27" s="45"/>
       <c r="BZ27" s="2"/>
-      <c r="CA27" s="134"/>
+      <c r="CA27" s="58"/>
       <c r="CB27" s="46"/>
       <c r="CC27" s="45"/>
       <c r="CD27" s="2"/>
@@ -6576,7 +6576,7 @@
     </row>
     <row r="28" spans="3:91" x14ac:dyDescent="0.25">
       <c r="C28" s="2"/>
-      <c r="D28" s="134"/>
+      <c r="D28" s="58"/>
       <c r="E28" s="45"/>
       <c r="F28" s="2"/>
       <c r="G28" s="45"/>
@@ -6593,10 +6593,10 @@
       <c r="R28" s="2"/>
       <c r="S28" s="46"/>
       <c r="Z28" s="2"/>
-      <c r="AA28" s="134"/>
+      <c r="AA28" s="58"/>
       <c r="AB28" s="45"/>
       <c r="AC28" s="2"/>
-      <c r="AD28" s="134"/>
+      <c r="AD28" s="58"/>
       <c r="AE28" s="46"/>
       <c r="AF28" s="45"/>
       <c r="AG28" s="2"/>
@@ -6610,7 +6610,7 @@
       <c r="AO28" s="2"/>
       <c r="AP28" s="46"/>
       <c r="AX28" s="2"/>
-      <c r="AY28" s="134"/>
+      <c r="AY28" s="58"/>
       <c r="AZ28" s="45"/>
       <c r="BA28" s="2"/>
       <c r="BB28" s="45"/>
@@ -6627,10 +6627,10 @@
       <c r="BM28" s="2"/>
       <c r="BN28" s="2"/>
       <c r="BW28" s="2"/>
-      <c r="BX28" s="134"/>
+      <c r="BX28" s="58"/>
       <c r="BY28" s="45"/>
       <c r="BZ28" s="2"/>
-      <c r="CA28" s="134"/>
+      <c r="CA28" s="58"/>
       <c r="CB28" s="46"/>
       <c r="CC28" s="45"/>
       <c r="CD28" s="2"/>
@@ -6645,7 +6645,7 @@
       <c r="CM28" s="46"/>
     </row>
     <row r="29" spans="3:91" x14ac:dyDescent="0.25">
-      <c r="D29" s="134"/>
+      <c r="D29" s="58"/>
       <c r="E29" s="45"/>
       <c r="F29" s="2"/>
       <c r="G29" s="45"/>
@@ -6661,10 +6661,10 @@
       <c r="Q29" s="2"/>
       <c r="R29" s="2"/>
       <c r="S29" s="46"/>
-      <c r="AA29" s="134"/>
+      <c r="AA29" s="58"/>
       <c r="AB29" s="45"/>
       <c r="AC29" s="2"/>
-      <c r="AD29" s="134"/>
+      <c r="AD29" s="58"/>
       <c r="AE29" s="46"/>
       <c r="AF29" s="45"/>
       <c r="AG29" s="2"/>
@@ -6677,7 +6677,7 @@
       <c r="AN29" s="2"/>
       <c r="AO29" s="2"/>
       <c r="AP29" s="46"/>
-      <c r="AY29" s="134"/>
+      <c r="AY29" s="58"/>
       <c r="AZ29" s="45"/>
       <c r="BA29" s="2"/>
       <c r="BB29" s="45"/>
@@ -6693,10 +6693,10 @@
       <c r="BL29" s="2"/>
       <c r="BM29" s="2"/>
       <c r="BN29" s="2"/>
-      <c r="BX29" s="134"/>
+      <c r="BX29" s="58"/>
       <c r="BY29" s="45"/>
       <c r="BZ29" s="2"/>
-      <c r="CA29" s="134"/>
+      <c r="CA29" s="58"/>
       <c r="CB29" s="46"/>
       <c r="CC29" s="45"/>
       <c r="CD29" s="2"/>
@@ -6711,7 +6711,7 @@
       <c r="CM29" s="46"/>
     </row>
     <row r="30" spans="3:91" x14ac:dyDescent="0.25">
-      <c r="D30" s="134"/>
+      <c r="D30" s="58"/>
       <c r="E30" s="45"/>
       <c r="F30" s="2"/>
       <c r="G30" s="45"/>
@@ -6727,10 +6727,10 @@
       <c r="Q30" s="2"/>
       <c r="R30" s="2"/>
       <c r="S30" s="46"/>
-      <c r="AA30" s="134"/>
+      <c r="AA30" s="58"/>
       <c r="AB30" s="45"/>
       <c r="AC30" s="2"/>
-      <c r="AD30" s="134"/>
+      <c r="AD30" s="58"/>
       <c r="AE30" s="46"/>
       <c r="AF30" s="45"/>
       <c r="AG30" s="2"/>
@@ -6743,7 +6743,7 @@
       <c r="AN30" s="2"/>
       <c r="AO30" s="2"/>
       <c r="AP30" s="46"/>
-      <c r="AY30" s="134"/>
+      <c r="AY30" s="58"/>
       <c r="AZ30" s="45"/>
       <c r="BA30" s="2"/>
       <c r="BB30" s="45"/>
@@ -6759,10 +6759,10 @@
       <c r="BL30" s="2"/>
       <c r="BM30" s="2"/>
       <c r="BN30" s="2"/>
-      <c r="BX30" s="134"/>
+      <c r="BX30" s="58"/>
       <c r="BY30" s="45"/>
       <c r="BZ30" s="2"/>
-      <c r="CA30" s="134"/>
+      <c r="CA30" s="58"/>
       <c r="CB30" s="46"/>
       <c r="CC30" s="45"/>
       <c r="CD30" s="2"/>
@@ -6777,85 +6777,85 @@
       <c r="CM30" s="46"/>
     </row>
     <row r="31" spans="3:91" x14ac:dyDescent="0.25">
-      <c r="D31" s="135"/>
+      <c r="D31" s="59"/>
       <c r="E31" s="47"/>
       <c r="F31" s="48"/>
       <c r="G31" s="47"/>
-      <c r="H31" s="136"/>
+      <c r="H31" s="60"/>
       <c r="I31" s="47"/>
       <c r="J31" s="48"/>
       <c r="K31" s="48"/>
-      <c r="L31" s="136"/>
+      <c r="L31" s="60"/>
       <c r="M31" s="48"/>
       <c r="N31" s="48"/>
       <c r="O31" s="47"/>
-      <c r="P31" s="136"/>
+      <c r="P31" s="60"/>
       <c r="Q31" s="48"/>
       <c r="R31" s="48"/>
-      <c r="S31" s="136"/>
-      <c r="AA31" s="135"/>
+      <c r="S31" s="60"/>
+      <c r="AA31" s="59"/>
       <c r="AB31" s="47"/>
       <c r="AC31" s="48"/>
-      <c r="AD31" s="135"/>
-      <c r="AE31" s="136"/>
+      <c r="AD31" s="59"/>
+      <c r="AE31" s="60"/>
       <c r="AF31" s="47"/>
       <c r="AG31" s="48"/>
       <c r="AH31" s="48"/>
-      <c r="AI31" s="136"/>
+      <c r="AI31" s="60"/>
       <c r="AJ31" s="48"/>
       <c r="AK31" s="48"/>
       <c r="AL31" s="47"/>
-      <c r="AM31" s="136"/>
+      <c r="AM31" s="60"/>
       <c r="AN31" s="48"/>
       <c r="AO31" s="48"/>
-      <c r="AP31" s="136"/>
-      <c r="AY31" s="135"/>
+      <c r="AP31" s="60"/>
+      <c r="AY31" s="59"/>
       <c r="AZ31" s="47"/>
       <c r="BA31" s="48"/>
       <c r="BB31" s="47"/>
-      <c r="BC31" s="136"/>
+      <c r="BC31" s="60"/>
       <c r="BD31" s="48"/>
       <c r="BE31" s="48"/>
       <c r="BF31" s="48"/>
-      <c r="BG31" s="136"/>
+      <c r="BG31" s="60"/>
       <c r="BH31" s="48"/>
       <c r="BI31" s="48"/>
       <c r="BJ31" s="47"/>
-      <c r="BK31" s="136"/>
+      <c r="BK31" s="60"/>
       <c r="BL31" s="48"/>
       <c r="BM31" s="48"/>
       <c r="BN31" s="48"/>
-      <c r="BX31" s="135"/>
+      <c r="BX31" s="59"/>
       <c r="BY31" s="47"/>
       <c r="BZ31" s="48"/>
-      <c r="CA31" s="135"/>
-      <c r="CB31" s="136"/>
+      <c r="CA31" s="59"/>
+      <c r="CB31" s="60"/>
       <c r="CC31" s="47"/>
       <c r="CD31" s="48"/>
       <c r="CE31" s="48"/>
-      <c r="CF31" s="136"/>
+      <c r="CF31" s="60"/>
       <c r="CG31" s="48"/>
       <c r="CH31" s="48"/>
       <c r="CI31" s="47"/>
-      <c r="CJ31" s="136"/>
+      <c r="CJ31" s="60"/>
       <c r="CK31" s="48"/>
       <c r="CL31" s="48"/>
-      <c r="CM31" s="136"/>
+      <c r="CM31" s="60"/>
     </row>
     <row r="32" spans="3:91" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="Q32" s="158" t="s">
+      <c r="Q32" s="156" t="s">
         <v>76</v>
       </c>
-      <c r="R32" s="159"/>
-      <c r="S32" s="160"/>
-      <c r="BL32" s="186" t="s">
+      <c r="R32" s="157"/>
+      <c r="S32" s="158"/>
+      <c r="BL32" s="154" t="s">
         <v>104</v>
       </c>
-      <c r="BM32" s="187"/>
-      <c r="BN32" s="187"/>
+      <c r="BM32" s="155"/>
+      <c r="BN32" s="155"/>
     </row>
     <row r="36" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C36" s="129"/>
+      <c r="C36" s="53"/>
       <c r="D36" s="2"/>
       <c r="E36" s="2"/>
       <c r="F36" s="2"/>
@@ -6874,38 +6874,38 @@
       <c r="S36" s="3"/>
     </row>
     <row r="37" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C37" s="132"/>
-      <c r="D37" s="131"/>
-      <c r="E37" s="131"/>
-      <c r="F37" s="131"/>
-      <c r="G37" s="131"/>
-      <c r="H37" s="131"/>
-      <c r="I37" s="131"/>
-      <c r="J37" s="131"/>
-      <c r="K37" s="131"/>
-      <c r="L37" s="131"/>
-      <c r="M37" s="131"/>
-      <c r="N37" s="131"/>
-      <c r="O37" s="131"/>
-      <c r="P37" s="131"/>
-      <c r="Q37" s="131"/>
-      <c r="R37" s="131"/>
-      <c r="S37" s="133"/>
+      <c r="C37" s="56"/>
+      <c r="D37" s="55"/>
+      <c r="E37" s="55"/>
+      <c r="F37" s="55"/>
+      <c r="G37" s="55"/>
+      <c r="H37" s="55"/>
+      <c r="I37" s="55"/>
+      <c r="J37" s="55"/>
+      <c r="K37" s="55"/>
+      <c r="L37" s="55"/>
+      <c r="M37" s="55"/>
+      <c r="N37" s="55"/>
+      <c r="O37" s="55"/>
+      <c r="P37" s="55"/>
+      <c r="Q37" s="55"/>
+      <c r="R37" s="55"/>
+      <c r="S37" s="57"/>
     </row>
     <row r="38" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C38" s="130"/>
+      <c r="C38" s="54"/>
       <c r="D38" s="18"/>
       <c r="E38" s="18"/>
       <c r="F38" s="18"/>
-      <c r="G38" s="58" t="s">
+      <c r="G38" s="99" t="s">
         <v>13</v>
       </c>
-      <c r="H38" s="58"/>
-      <c r="I38" s="58"/>
-      <c r="J38" s="58"/>
-      <c r="K38" s="58"/>
-      <c r="L38" s="58"/>
-      <c r="M38" s="58"/>
+      <c r="H38" s="99"/>
+      <c r="I38" s="99"/>
+      <c r="J38" s="99"/>
+      <c r="K38" s="99"/>
+      <c r="L38" s="99"/>
+      <c r="M38" s="99"/>
       <c r="N38" s="18"/>
       <c r="O38" s="18"/>
       <c r="P38" s="18"/>
@@ -6914,19 +6914,19 @@
       <c r="S38" s="19"/>
     </row>
     <row r="39" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C39" s="66" t="s">
+      <c r="C39" s="107" t="s">
         <v>14</v>
       </c>
-      <c r="D39" s="67"/>
-      <c r="E39" s="67"/>
-      <c r="F39" s="67"/>
-      <c r="G39" s="58"/>
-      <c r="H39" s="58"/>
-      <c r="I39" s="58"/>
-      <c r="J39" s="58"/>
-      <c r="K39" s="58"/>
-      <c r="L39" s="58"/>
-      <c r="M39" s="58"/>
+      <c r="D39" s="108"/>
+      <c r="E39" s="108"/>
+      <c r="F39" s="108"/>
+      <c r="G39" s="99"/>
+      <c r="H39" s="99"/>
+      <c r="I39" s="99"/>
+      <c r="J39" s="99"/>
+      <c r="K39" s="99"/>
+      <c r="L39" s="99"/>
+      <c r="M39" s="99"/>
       <c r="N39" s="18"/>
       <c r="O39" s="18"/>
       <c r="P39" s="18"/>
@@ -6935,64 +6935,64 @@
       <c r="S39" s="19"/>
     </row>
     <row r="40" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C40" s="68"/>
-      <c r="D40" s="67"/>
-      <c r="E40" s="67"/>
-      <c r="F40" s="67"/>
-      <c r="G40" s="58"/>
-      <c r="H40" s="58"/>
-      <c r="I40" s="58"/>
-      <c r="J40" s="58"/>
-      <c r="K40" s="58"/>
-      <c r="L40" s="58"/>
-      <c r="M40" s="58"/>
+      <c r="C40" s="109"/>
+      <c r="D40" s="108"/>
+      <c r="E40" s="108"/>
+      <c r="F40" s="108"/>
+      <c r="G40" s="99"/>
+      <c r="H40" s="99"/>
+      <c r="I40" s="99"/>
+      <c r="J40" s="99"/>
+      <c r="K40" s="99"/>
+      <c r="L40" s="99"/>
+      <c r="M40" s="99"/>
       <c r="N40" s="18"/>
-      <c r="O40" s="60" t="s">
+      <c r="O40" s="101" t="s">
         <v>3</v>
       </c>
-      <c r="P40" s="61"/>
+      <c r="P40" s="102"/>
       <c r="Q40" s="18"/>
       <c r="R40" s="19"/>
       <c r="S40" s="19"/>
     </row>
     <row r="41" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C41" s="69" t="s">
+      <c r="C41" s="110" t="s">
         <v>11</v>
       </c>
-      <c r="D41" s="69"/>
-      <c r="E41" s="69"/>
-      <c r="F41" s="69"/>
-      <c r="G41" s="58"/>
-      <c r="H41" s="58"/>
-      <c r="I41" s="58"/>
-      <c r="J41" s="58"/>
-      <c r="K41" s="58"/>
-      <c r="L41" s="58"/>
-      <c r="M41" s="58"/>
+      <c r="D41" s="110"/>
+      <c r="E41" s="110"/>
+      <c r="F41" s="110"/>
+      <c r="G41" s="99"/>
+      <c r="H41" s="99"/>
+      <c r="I41" s="99"/>
+      <c r="J41" s="99"/>
+      <c r="K41" s="99"/>
+      <c r="L41" s="99"/>
+      <c r="M41" s="99"/>
       <c r="N41" s="18"/>
-      <c r="O41" s="62"/>
-      <c r="P41" s="63"/>
+      <c r="O41" s="103"/>
+      <c r="P41" s="104"/>
       <c r="Q41" s="18"/>
       <c r="R41" s="19"/>
       <c r="S41" s="19"/>
     </row>
     <row r="42" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C42" s="69" t="s">
+      <c r="C42" s="110" t="s">
         <v>12</v>
       </c>
-      <c r="D42" s="69"/>
-      <c r="E42" s="69"/>
-      <c r="F42" s="69"/>
-      <c r="G42" s="58"/>
-      <c r="H42" s="58"/>
-      <c r="I42" s="58"/>
-      <c r="J42" s="58"/>
-      <c r="K42" s="58"/>
-      <c r="L42" s="58"/>
-      <c r="M42" s="58"/>
+      <c r="D42" s="110"/>
+      <c r="E42" s="110"/>
+      <c r="F42" s="110"/>
+      <c r="G42" s="99"/>
+      <c r="H42" s="99"/>
+      <c r="I42" s="99"/>
+      <c r="J42" s="99"/>
+      <c r="K42" s="99"/>
+      <c r="L42" s="99"/>
+      <c r="M42" s="99"/>
       <c r="N42" s="18"/>
-      <c r="O42" s="64"/>
-      <c r="P42" s="65"/>
+      <c r="O42" s="105"/>
+      <c r="P42" s="106"/>
       <c r="Q42" s="18"/>
       <c r="R42" s="19"/>
       <c r="S42" s="19"/>
@@ -7002,13 +7002,13 @@
       <c r="D43" s="21"/>
       <c r="E43" s="21"/>
       <c r="F43" s="21"/>
-      <c r="G43" s="59"/>
-      <c r="H43" s="59"/>
-      <c r="I43" s="59"/>
-      <c r="J43" s="59"/>
-      <c r="K43" s="59"/>
-      <c r="L43" s="59"/>
-      <c r="M43" s="59"/>
+      <c r="G43" s="100"/>
+      <c r="H43" s="100"/>
+      <c r="I43" s="100"/>
+      <c r="J43" s="100"/>
+      <c r="K43" s="100"/>
+      <c r="L43" s="100"/>
+      <c r="M43" s="100"/>
       <c r="N43" s="21"/>
       <c r="O43" s="21"/>
       <c r="P43" s="21"/>
@@ -7018,27 +7018,62 @@
     </row>
   </sheetData>
   <mergeCells count="94">
-    <mergeCell ref="BL32:BN32"/>
-    <mergeCell ref="CK15:CM15"/>
-    <mergeCell ref="BU16:BW16"/>
-    <mergeCell ref="CK16:CM16"/>
-    <mergeCell ref="BU17:BW17"/>
-    <mergeCell ref="BU18:BW18"/>
-    <mergeCell ref="BB14:BC14"/>
-    <mergeCell ref="BB15:BC16"/>
-    <mergeCell ref="BY15:BZ16"/>
-    <mergeCell ref="CA15:CA16"/>
-    <mergeCell ref="CB15:CB16"/>
-    <mergeCell ref="CC15:CF16"/>
-    <mergeCell ref="CG15:CH16"/>
-    <mergeCell ref="CI15:CJ16"/>
-    <mergeCell ref="CG13:CL13"/>
-    <mergeCell ref="BY14:BZ14"/>
-    <mergeCell ref="CC14:CF14"/>
-    <mergeCell ref="CG14:CH14"/>
-    <mergeCell ref="CI14:CJ14"/>
-    <mergeCell ref="CK14:CM14"/>
-    <mergeCell ref="BL15:BN15"/>
+    <mergeCell ref="R1:S1"/>
+    <mergeCell ref="C2:D8"/>
+    <mergeCell ref="E2:S8"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="N11:R11"/>
+    <mergeCell ref="O40:P42"/>
+    <mergeCell ref="C41:F41"/>
+    <mergeCell ref="C42:F42"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="I14:L14"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="G38:M43"/>
+    <mergeCell ref="C39:F40"/>
+    <mergeCell ref="M14:N14"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="N1:Q1"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="O14:P14"/>
+    <mergeCell ref="Q14:S14"/>
+    <mergeCell ref="Q16:S16"/>
+    <mergeCell ref="Q15:S15"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="I15:L16"/>
+    <mergeCell ref="M15:N16"/>
+    <mergeCell ref="O15:P16"/>
+    <mergeCell ref="Z13:AA13"/>
+    <mergeCell ref="Q32:S32"/>
+    <mergeCell ref="N13:R13"/>
+    <mergeCell ref="K13:M13"/>
+    <mergeCell ref="E15:F16"/>
+    <mergeCell ref="G15:H16"/>
+    <mergeCell ref="X15:Z15"/>
+    <mergeCell ref="X16:Z16"/>
+    <mergeCell ref="X17:Z17"/>
+    <mergeCell ref="X18:Z18"/>
+    <mergeCell ref="AN16:AP16"/>
+    <mergeCell ref="AA15:AA16"/>
+    <mergeCell ref="AV15:AX15"/>
+    <mergeCell ref="AY15:AY16"/>
+    <mergeCell ref="AJ13:AO13"/>
+    <mergeCell ref="AL15:AM16"/>
+    <mergeCell ref="AB15:AC16"/>
+    <mergeCell ref="AD15:AD16"/>
+    <mergeCell ref="AE15:AE16"/>
+    <mergeCell ref="AF15:AI16"/>
+    <mergeCell ref="AJ15:AK16"/>
+    <mergeCell ref="AB14:AC14"/>
+    <mergeCell ref="AF14:AI14"/>
+    <mergeCell ref="AN15:AP15"/>
+    <mergeCell ref="AN14:AP14"/>
+    <mergeCell ref="AL14:AM14"/>
+    <mergeCell ref="AJ14:AK14"/>
     <mergeCell ref="AV16:AX16"/>
     <mergeCell ref="BL16:BN16"/>
     <mergeCell ref="AV17:AX17"/>
@@ -7055,63 +7090,28 @@
     <mergeCell ref="BD14:BG14"/>
     <mergeCell ref="BH14:BI14"/>
     <mergeCell ref="BJ14:BK14"/>
+    <mergeCell ref="CG13:CL13"/>
+    <mergeCell ref="BY14:BZ14"/>
+    <mergeCell ref="CC14:CF14"/>
+    <mergeCell ref="CG14:CH14"/>
+    <mergeCell ref="CI14:CJ14"/>
+    <mergeCell ref="CK14:CM14"/>
+    <mergeCell ref="BB14:BC14"/>
+    <mergeCell ref="BB15:BC16"/>
+    <mergeCell ref="BY15:BZ16"/>
+    <mergeCell ref="CA15:CA16"/>
+    <mergeCell ref="CB15:CB16"/>
+    <mergeCell ref="BL15:BN15"/>
     <mergeCell ref="BL14:BN14"/>
-    <mergeCell ref="AV15:AX15"/>
-    <mergeCell ref="AY15:AY16"/>
-    <mergeCell ref="AJ13:AO13"/>
-    <mergeCell ref="AL15:AM16"/>
-    <mergeCell ref="AB15:AC16"/>
-    <mergeCell ref="AD15:AD16"/>
-    <mergeCell ref="AE15:AE16"/>
-    <mergeCell ref="AF15:AI16"/>
-    <mergeCell ref="AJ15:AK16"/>
-    <mergeCell ref="AB14:AC14"/>
-    <mergeCell ref="AF14:AI14"/>
-    <mergeCell ref="AN15:AP15"/>
-    <mergeCell ref="AN14:AP14"/>
-    <mergeCell ref="AL14:AM14"/>
-    <mergeCell ref="AJ14:AK14"/>
-    <mergeCell ref="X15:Z15"/>
-    <mergeCell ref="X16:Z16"/>
-    <mergeCell ref="X17:Z17"/>
-    <mergeCell ref="X18:Z18"/>
-    <mergeCell ref="AN16:AP16"/>
-    <mergeCell ref="AA15:AA16"/>
-    <mergeCell ref="Z13:AA13"/>
-    <mergeCell ref="Q32:S32"/>
-    <mergeCell ref="N13:R13"/>
-    <mergeCell ref="K13:M13"/>
-    <mergeCell ref="E15:F16"/>
-    <mergeCell ref="G15:H16"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="O14:P14"/>
-    <mergeCell ref="Q14:S14"/>
-    <mergeCell ref="Q16:S16"/>
-    <mergeCell ref="Q15:S15"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="I15:L16"/>
-    <mergeCell ref="M15:N16"/>
-    <mergeCell ref="O15:P16"/>
-    <mergeCell ref="O40:P42"/>
-    <mergeCell ref="C41:F41"/>
-    <mergeCell ref="C42:F42"/>
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="I14:L14"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="G38:M43"/>
-    <mergeCell ref="C39:F40"/>
-    <mergeCell ref="M14:N14"/>
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="N1:Q1"/>
-    <mergeCell ref="R1:S1"/>
-    <mergeCell ref="C2:D8"/>
-    <mergeCell ref="E2:S8"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="N11:R11"/>
+    <mergeCell ref="BL32:BN32"/>
+    <mergeCell ref="CK15:CM15"/>
+    <mergeCell ref="BU16:BW16"/>
+    <mergeCell ref="CK16:CM16"/>
+    <mergeCell ref="BU17:BW17"/>
+    <mergeCell ref="BU18:BW18"/>
+    <mergeCell ref="CC15:CF16"/>
+    <mergeCell ref="CG15:CH16"/>
+    <mergeCell ref="CI15:CJ16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -7139,161 +7139,161 @@
   </cols>
   <sheetData>
     <row r="1" spans="3:19" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J1" s="71" t="s">
+      <c r="J1" s="79" t="s">
         <v>59</v>
       </c>
-      <c r="K1" s="72"/>
-      <c r="L1" s="71" t="s">
+      <c r="K1" s="80"/>
+      <c r="L1" s="79" t="s">
         <v>2</v>
       </c>
-      <c r="M1" s="72"/>
-      <c r="N1" s="73" t="s">
+      <c r="M1" s="80"/>
+      <c r="N1" s="83" t="s">
         <v>10</v>
       </c>
-      <c r="O1" s="73"/>
-      <c r="P1" s="73"/>
-      <c r="Q1" s="73"/>
-      <c r="R1" s="70" t="s">
+      <c r="O1" s="83"/>
+      <c r="P1" s="83"/>
+      <c r="Q1" s="83"/>
+      <c r="R1" s="78" t="s">
         <v>4</v>
       </c>
-      <c r="S1" s="70"/>
+      <c r="S1" s="78"/>
     </row>
     <row r="2" spans="3:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C2" s="75" t="s">
+      <c r="C2" s="85" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="76"/>
-      <c r="E2" s="83" t="s">
+      <c r="D2" s="86"/>
+      <c r="E2" s="93" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="84"/>
-      <c r="G2" s="84"/>
-      <c r="H2" s="84"/>
-      <c r="I2" s="84"/>
-      <c r="J2" s="84"/>
-      <c r="K2" s="84"/>
-      <c r="L2" s="84"/>
-      <c r="M2" s="84"/>
-      <c r="N2" s="84"/>
-      <c r="O2" s="84"/>
-      <c r="P2" s="84"/>
-      <c r="Q2" s="84"/>
-      <c r="R2" s="84"/>
-      <c r="S2" s="84"/>
+      <c r="F2" s="94"/>
+      <c r="G2" s="94"/>
+      <c r="H2" s="94"/>
+      <c r="I2" s="94"/>
+      <c r="J2" s="94"/>
+      <c r="K2" s="94"/>
+      <c r="L2" s="94"/>
+      <c r="M2" s="94"/>
+      <c r="N2" s="94"/>
+      <c r="O2" s="94"/>
+      <c r="P2" s="94"/>
+      <c r="Q2" s="94"/>
+      <c r="R2" s="94"/>
+      <c r="S2" s="94"/>
     </row>
     <row r="3" spans="3:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C3" s="77"/>
-      <c r="D3" s="78"/>
-      <c r="E3" s="83"/>
-      <c r="F3" s="84"/>
-      <c r="G3" s="84"/>
-      <c r="H3" s="84"/>
-      <c r="I3" s="84"/>
-      <c r="J3" s="84"/>
-      <c r="K3" s="84"/>
-      <c r="L3" s="84"/>
-      <c r="M3" s="84"/>
-      <c r="N3" s="84"/>
-      <c r="O3" s="84"/>
-      <c r="P3" s="84"/>
-      <c r="Q3" s="84"/>
-      <c r="R3" s="84"/>
-      <c r="S3" s="84"/>
+      <c r="C3" s="87"/>
+      <c r="D3" s="88"/>
+      <c r="E3" s="93"/>
+      <c r="F3" s="94"/>
+      <c r="G3" s="94"/>
+      <c r="H3" s="94"/>
+      <c r="I3" s="94"/>
+      <c r="J3" s="94"/>
+      <c r="K3" s="94"/>
+      <c r="L3" s="94"/>
+      <c r="M3" s="94"/>
+      <c r="N3" s="94"/>
+      <c r="O3" s="94"/>
+      <c r="P3" s="94"/>
+      <c r="Q3" s="94"/>
+      <c r="R3" s="94"/>
+      <c r="S3" s="94"/>
     </row>
     <row r="4" spans="3:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C4" s="77"/>
-      <c r="D4" s="78"/>
-      <c r="E4" s="83"/>
-      <c r="F4" s="84"/>
-      <c r="G4" s="84"/>
-      <c r="H4" s="84"/>
-      <c r="I4" s="84"/>
-      <c r="J4" s="84"/>
-      <c r="K4" s="84"/>
-      <c r="L4" s="84"/>
-      <c r="M4" s="84"/>
-      <c r="N4" s="84"/>
-      <c r="O4" s="84"/>
-      <c r="P4" s="84"/>
-      <c r="Q4" s="84"/>
-      <c r="R4" s="84"/>
-      <c r="S4" s="84"/>
+      <c r="C4" s="87"/>
+      <c r="D4" s="88"/>
+      <c r="E4" s="93"/>
+      <c r="F4" s="94"/>
+      <c r="G4" s="94"/>
+      <c r="H4" s="94"/>
+      <c r="I4" s="94"/>
+      <c r="J4" s="94"/>
+      <c r="K4" s="94"/>
+      <c r="L4" s="94"/>
+      <c r="M4" s="94"/>
+      <c r="N4" s="94"/>
+      <c r="O4" s="94"/>
+      <c r="P4" s="94"/>
+      <c r="Q4" s="94"/>
+      <c r="R4" s="94"/>
+      <c r="S4" s="94"/>
     </row>
     <row r="5" spans="3:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C5" s="77"/>
-      <c r="D5" s="78"/>
-      <c r="E5" s="83"/>
-      <c r="F5" s="84"/>
-      <c r="G5" s="84"/>
-      <c r="H5" s="84"/>
-      <c r="I5" s="84"/>
-      <c r="J5" s="84"/>
-      <c r="K5" s="84"/>
-      <c r="L5" s="84"/>
-      <c r="M5" s="84"/>
-      <c r="N5" s="84"/>
-      <c r="O5" s="84"/>
-      <c r="P5" s="84"/>
-      <c r="Q5" s="84"/>
-      <c r="R5" s="84"/>
-      <c r="S5" s="84"/>
+      <c r="C5" s="87"/>
+      <c r="D5" s="88"/>
+      <c r="E5" s="93"/>
+      <c r="F5" s="94"/>
+      <c r="G5" s="94"/>
+      <c r="H5" s="94"/>
+      <c r="I5" s="94"/>
+      <c r="J5" s="94"/>
+      <c r="K5" s="94"/>
+      <c r="L5" s="94"/>
+      <c r="M5" s="94"/>
+      <c r="N5" s="94"/>
+      <c r="O5" s="94"/>
+      <c r="P5" s="94"/>
+      <c r="Q5" s="94"/>
+      <c r="R5" s="94"/>
+      <c r="S5" s="94"/>
     </row>
     <row r="6" spans="3:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C6" s="77"/>
-      <c r="D6" s="78"/>
-      <c r="E6" s="83"/>
-      <c r="F6" s="84"/>
-      <c r="G6" s="84"/>
-      <c r="H6" s="84"/>
-      <c r="I6" s="84"/>
-      <c r="J6" s="84"/>
-      <c r="K6" s="84"/>
-      <c r="L6" s="84"/>
-      <c r="M6" s="84"/>
-      <c r="N6" s="84"/>
-      <c r="O6" s="84"/>
-      <c r="P6" s="84"/>
-      <c r="Q6" s="84"/>
-      <c r="R6" s="84"/>
-      <c r="S6" s="84"/>
+      <c r="C6" s="87"/>
+      <c r="D6" s="88"/>
+      <c r="E6" s="93"/>
+      <c r="F6" s="94"/>
+      <c r="G6" s="94"/>
+      <c r="H6" s="94"/>
+      <c r="I6" s="94"/>
+      <c r="J6" s="94"/>
+      <c r="K6" s="94"/>
+      <c r="L6" s="94"/>
+      <c r="M6" s="94"/>
+      <c r="N6" s="94"/>
+      <c r="O6" s="94"/>
+      <c r="P6" s="94"/>
+      <c r="Q6" s="94"/>
+      <c r="R6" s="94"/>
+      <c r="S6" s="94"/>
     </row>
     <row r="7" spans="3:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C7" s="77"/>
-      <c r="D7" s="78"/>
-      <c r="E7" s="83"/>
-      <c r="F7" s="84"/>
-      <c r="G7" s="84"/>
-      <c r="H7" s="84"/>
-      <c r="I7" s="84"/>
-      <c r="J7" s="84"/>
-      <c r="K7" s="84"/>
-      <c r="L7" s="84"/>
-      <c r="M7" s="84"/>
-      <c r="N7" s="84"/>
-      <c r="O7" s="84"/>
-      <c r="P7" s="84"/>
-      <c r="Q7" s="84"/>
-      <c r="R7" s="84"/>
-      <c r="S7" s="84"/>
+      <c r="C7" s="87"/>
+      <c r="D7" s="88"/>
+      <c r="E7" s="93"/>
+      <c r="F7" s="94"/>
+      <c r="G7" s="94"/>
+      <c r="H7" s="94"/>
+      <c r="I7" s="94"/>
+      <c r="J7" s="94"/>
+      <c r="K7" s="94"/>
+      <c r="L7" s="94"/>
+      <c r="M7" s="94"/>
+      <c r="N7" s="94"/>
+      <c r="O7" s="94"/>
+      <c r="P7" s="94"/>
+      <c r="Q7" s="94"/>
+      <c r="R7" s="94"/>
+      <c r="S7" s="94"/>
     </row>
     <row r="8" spans="3:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C8" s="79"/>
-      <c r="D8" s="80"/>
-      <c r="E8" s="83"/>
-      <c r="F8" s="84"/>
-      <c r="G8" s="84"/>
-      <c r="H8" s="84"/>
-      <c r="I8" s="84"/>
-      <c r="J8" s="84"/>
-      <c r="K8" s="84"/>
-      <c r="L8" s="84"/>
-      <c r="M8" s="84"/>
-      <c r="N8" s="84"/>
-      <c r="O8" s="84"/>
-      <c r="P8" s="84"/>
-      <c r="Q8" s="84"/>
-      <c r="R8" s="84"/>
-      <c r="S8" s="84"/>
+      <c r="C8" s="89"/>
+      <c r="D8" s="90"/>
+      <c r="E8" s="93"/>
+      <c r="F8" s="94"/>
+      <c r="G8" s="94"/>
+      <c r="H8" s="94"/>
+      <c r="I8" s="94"/>
+      <c r="J8" s="94"/>
+      <c r="K8" s="94"/>
+      <c r="L8" s="94"/>
+      <c r="M8" s="94"/>
+      <c r="N8" s="94"/>
+      <c r="O8" s="94"/>
+      <c r="P8" s="94"/>
+      <c r="Q8" s="94"/>
+      <c r="R8" s="94"/>
+      <c r="S8" s="94"/>
     </row>
     <row r="11" spans="3:19" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C11" s="23" t="s">
@@ -7302,25 +7302,25 @@
       <c r="D11" s="42" t="s">
         <v>8</v>
       </c>
-      <c r="E11" s="81" t="s">
+      <c r="E11" s="91" t="s">
         <v>9</v>
       </c>
-      <c r="F11" s="82"/>
-      <c r="G11" s="81" t="s">
+      <c r="F11" s="92"/>
+      <c r="G11" s="91" t="s">
         <v>15</v>
       </c>
-      <c r="H11" s="82"/>
-      <c r="I11" s="85" t="s">
+      <c r="H11" s="92"/>
+      <c r="I11" s="95" t="s">
         <v>20</v>
       </c>
-      <c r="J11" s="85"/>
-      <c r="N11" s="56" t="s">
+      <c r="J11" s="95"/>
+      <c r="N11" s="111" t="s">
         <v>23</v>
       </c>
-      <c r="O11" s="56"/>
-      <c r="P11" s="56"/>
-      <c r="Q11" s="56"/>
-      <c r="R11" s="56"/>
+      <c r="O11" s="111"/>
+      <c r="P11" s="111"/>
+      <c r="Q11" s="111"/>
+      <c r="R11" s="111"/>
       <c r="S11" s="27" t="s">
         <v>24</v>
       </c>
@@ -7331,170 +7331,170 @@
       <c r="E12" s="2"/>
     </row>
     <row r="13" spans="3:19" ht="31.5" x14ac:dyDescent="0.5">
-      <c r="C13" s="106" t="s">
+      <c r="C13" s="131" t="s">
         <v>59</v>
       </c>
-      <c r="D13" s="106"/>
+      <c r="D13" s="131"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c r="H13" s="8"/>
       <c r="I13" s="8"/>
       <c r="J13" s="8"/>
-      <c r="K13" s="168" t="s">
+      <c r="K13" s="183" t="s">
         <v>77</v>
       </c>
-      <c r="L13" s="168"/>
-      <c r="M13" s="169"/>
-      <c r="N13" s="56" t="s">
+      <c r="L13" s="183"/>
+      <c r="M13" s="184"/>
+      <c r="N13" s="111" t="s">
         <v>78</v>
       </c>
-      <c r="O13" s="56"/>
-      <c r="P13" s="56"/>
-      <c r="Q13" s="56"/>
-      <c r="R13" s="56"/>
+      <c r="O13" s="111"/>
+      <c r="P13" s="111"/>
+      <c r="Q13" s="111"/>
+      <c r="R13" s="111"/>
       <c r="S13" s="27" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="14" spans="3:19" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="D14" s="145" t="s">
+      <c r="D14" s="63" t="s">
         <v>64</v>
       </c>
-      <c r="E14" s="138" t="s">
+      <c r="E14" s="161" t="s">
         <v>65</v>
       </c>
-      <c r="F14" s="141"/>
-      <c r="G14" s="142"/>
-      <c r="H14" s="143"/>
-      <c r="I14" s="144" t="s">
+      <c r="F14" s="178"/>
+      <c r="G14" s="190"/>
+      <c r="H14" s="191"/>
+      <c r="I14" s="189" t="s">
         <v>29</v>
       </c>
-      <c r="J14" s="142"/>
-      <c r="K14" s="142"/>
-      <c r="L14" s="143"/>
-      <c r="M14" s="138" t="s">
+      <c r="J14" s="190"/>
+      <c r="K14" s="190"/>
+      <c r="L14" s="191"/>
+      <c r="M14" s="161" t="s">
         <v>68</v>
       </c>
-      <c r="N14" s="141"/>
-      <c r="O14" s="138" t="s">
+      <c r="N14" s="178"/>
+      <c r="O14" s="161" t="s">
         <v>69</v>
       </c>
-      <c r="P14" s="139"/>
-      <c r="Q14" s="141" t="s">
+      <c r="P14" s="162"/>
+      <c r="Q14" s="178" t="s">
         <v>72</v>
       </c>
-      <c r="R14" s="141"/>
-      <c r="S14" s="139"/>
+      <c r="R14" s="178"/>
+      <c r="S14" s="162"/>
     </row>
     <row r="15" spans="3:19" ht="21" x14ac:dyDescent="0.35">
-      <c r="C15" s="146" t="s">
+      <c r="C15" s="64" t="s">
         <v>60</v>
       </c>
-      <c r="D15" s="154">
+      <c r="D15" s="171">
         <v>1</v>
       </c>
-      <c r="E15" s="155" t="s">
+      <c r="E15" s="167" t="s">
         <v>66</v>
       </c>
-      <c r="F15" s="156"/>
-      <c r="G15" s="156"/>
-      <c r="H15" s="157"/>
-      <c r="I15" s="155" t="s">
+      <c r="F15" s="173"/>
+      <c r="G15" s="173"/>
+      <c r="H15" s="168"/>
+      <c r="I15" s="167" t="s">
         <v>70</v>
       </c>
-      <c r="J15" s="156"/>
-      <c r="K15" s="156"/>
-      <c r="L15" s="157"/>
-      <c r="M15" s="155" t="s">
+      <c r="J15" s="173"/>
+      <c r="K15" s="173"/>
+      <c r="L15" s="168"/>
+      <c r="M15" s="167" t="s">
         <v>71</v>
       </c>
-      <c r="N15" s="157"/>
-      <c r="O15" s="155">
+      <c r="N15" s="168"/>
+      <c r="O15" s="167">
         <v>520000</v>
       </c>
-      <c r="P15" s="157"/>
-      <c r="Q15" s="158" t="s">
+      <c r="P15" s="168"/>
+      <c r="Q15" s="156" t="s">
         <v>74</v>
       </c>
-      <c r="R15" s="159"/>
-      <c r="S15" s="160"/>
+      <c r="R15" s="157"/>
+      <c r="S15" s="158"/>
     </row>
     <row r="16" spans="3:19" ht="21" x14ac:dyDescent="0.35">
-      <c r="C16" s="146" t="s">
+      <c r="C16" s="64" t="s">
         <v>61</v>
       </c>
-      <c r="D16" s="161"/>
-      <c r="E16" s="162"/>
-      <c r="F16" s="163"/>
-      <c r="G16" s="163"/>
-      <c r="H16" s="164"/>
-      <c r="I16" s="162"/>
-      <c r="J16" s="163"/>
-      <c r="K16" s="163"/>
-      <c r="L16" s="164"/>
-      <c r="M16" s="162"/>
-      <c r="N16" s="164"/>
-      <c r="O16" s="162"/>
-      <c r="P16" s="164"/>
-      <c r="Q16" s="165" t="s">
+      <c r="D16" s="172"/>
+      <c r="E16" s="169"/>
+      <c r="F16" s="174"/>
+      <c r="G16" s="174"/>
+      <c r="H16" s="170"/>
+      <c r="I16" s="169"/>
+      <c r="J16" s="174"/>
+      <c r="K16" s="174"/>
+      <c r="L16" s="170"/>
+      <c r="M16" s="169"/>
+      <c r="N16" s="170"/>
+      <c r="O16" s="169"/>
+      <c r="P16" s="170"/>
+      <c r="Q16" s="186" t="s">
         <v>75</v>
       </c>
-      <c r="R16" s="166"/>
-      <c r="S16" s="167"/>
+      <c r="R16" s="187"/>
+      <c r="S16" s="188"/>
     </row>
     <row r="17" spans="3:19" ht="21" x14ac:dyDescent="0.35">
-      <c r="C17" s="146" t="s">
+      <c r="C17" s="64" t="s">
         <v>62</v>
       </c>
-      <c r="D17" s="149">
+      <c r="D17" s="67">
         <v>2</v>
       </c>
-      <c r="E17" s="150" t="s">
+      <c r="E17" s="68" t="s">
         <v>67</v>
       </c>
-      <c r="F17" s="151"/>
-      <c r="G17" s="151"/>
-      <c r="H17" s="151"/>
-      <c r="I17" s="150"/>
-      <c r="J17" s="151"/>
-      <c r="K17" s="151"/>
-      <c r="L17" s="152"/>
-      <c r="M17" s="151"/>
-      <c r="N17" s="151"/>
-      <c r="O17" s="150"/>
-      <c r="P17" s="152"/>
-      <c r="Q17" s="151"/>
-      <c r="R17" s="153"/>
-      <c r="S17" s="152"/>
+      <c r="F17" s="69"/>
+      <c r="G17" s="69"/>
+      <c r="H17" s="69"/>
+      <c r="I17" s="68"/>
+      <c r="J17" s="69"/>
+      <c r="K17" s="69"/>
+      <c r="L17" s="70"/>
+      <c r="M17" s="69"/>
+      <c r="N17" s="69"/>
+      <c r="O17" s="68"/>
+      <c r="P17" s="70"/>
+      <c r="Q17" s="69"/>
+      <c r="R17" s="71"/>
+      <c r="S17" s="70"/>
     </row>
     <row r="18" spans="3:19" ht="21" x14ac:dyDescent="0.35">
-      <c r="C18" s="146" t="s">
+      <c r="C18" s="64" t="s">
         <v>63</v>
       </c>
-      <c r="D18" s="149">
+      <c r="D18" s="67">
         <v>3</v>
       </c>
-      <c r="E18" s="150" t="s">
+      <c r="E18" s="68" t="s">
         <v>73</v>
       </c>
-      <c r="F18" s="151"/>
-      <c r="G18" s="151"/>
-      <c r="H18" s="151"/>
-      <c r="I18" s="150"/>
-      <c r="J18" s="151"/>
-      <c r="K18" s="151"/>
-      <c r="L18" s="152"/>
-      <c r="M18" s="151"/>
-      <c r="N18" s="151"/>
-      <c r="O18" s="150"/>
-      <c r="P18" s="152"/>
-      <c r="Q18" s="151"/>
-      <c r="R18" s="151"/>
-      <c r="S18" s="152"/>
+      <c r="F18" s="69"/>
+      <c r="G18" s="69"/>
+      <c r="H18" s="69"/>
+      <c r="I18" s="68"/>
+      <c r="J18" s="69"/>
+      <c r="K18" s="69"/>
+      <c r="L18" s="70"/>
+      <c r="M18" s="69"/>
+      <c r="N18" s="69"/>
+      <c r="O18" s="68"/>
+      <c r="P18" s="70"/>
+      <c r="Q18" s="69"/>
+      <c r="R18" s="69"/>
+      <c r="S18" s="70"/>
     </row>
     <row r="19" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="D19" s="134"/>
+      <c r="D19" s="58"/>
       <c r="E19" s="45"/>
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
@@ -7512,7 +7512,7 @@
       <c r="S19" s="46"/>
     </row>
     <row r="20" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="D20" s="134"/>
+      <c r="D20" s="58"/>
       <c r="E20" s="45"/>
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
@@ -7530,7 +7530,7 @@
       <c r="S20" s="46"/>
     </row>
     <row r="21" spans="3:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D21" s="134"/>
+      <c r="D21" s="58"/>
       <c r="E21" s="45"/>
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
@@ -7548,7 +7548,7 @@
       <c r="S21" s="46"/>
     </row>
     <row r="22" spans="3:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D22" s="134"/>
+      <c r="D22" s="58"/>
       <c r="E22" s="45"/>
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
@@ -7566,7 +7566,7 @@
       <c r="S22" s="46"/>
     </row>
     <row r="23" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="D23" s="134"/>
+      <c r="D23" s="58"/>
       <c r="E23" s="45"/>
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
@@ -7584,7 +7584,7 @@
       <c r="S23" s="46"/>
     </row>
     <row r="24" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="D24" s="134"/>
+      <c r="D24" s="58"/>
       <c r="E24" s="45"/>
       <c r="F24" s="2"/>
       <c r="G24" s="2"/>
@@ -7603,7 +7603,7 @@
     </row>
     <row r="25" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C25" s="2"/>
-      <c r="D25" s="134"/>
+      <c r="D25" s="58"/>
       <c r="E25" s="45"/>
       <c r="F25" s="2"/>
       <c r="G25" s="2"/>
@@ -7622,7 +7622,7 @@
     </row>
     <row r="26" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C26" s="2"/>
-      <c r="D26" s="134"/>
+      <c r="D26" s="58"/>
       <c r="E26" s="45"/>
       <c r="F26" s="2"/>
       <c r="G26" s="2"/>
@@ -7641,7 +7641,7 @@
     </row>
     <row r="27" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C27" s="2"/>
-      <c r="D27" s="134"/>
+      <c r="D27" s="58"/>
       <c r="E27" s="45"/>
       <c r="F27" s="2"/>
       <c r="G27" s="2"/>
@@ -7660,7 +7660,7 @@
     </row>
     <row r="28" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C28" s="2"/>
-      <c r="D28" s="134"/>
+      <c r="D28" s="58"/>
       <c r="E28" s="45"/>
       <c r="F28" s="2"/>
       <c r="G28" s="2"/>
@@ -7678,7 +7678,7 @@
       <c r="S28" s="46"/>
     </row>
     <row r="29" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="D29" s="134"/>
+      <c r="D29" s="58"/>
       <c r="E29" s="45"/>
       <c r="F29" s="2"/>
       <c r="G29" s="2"/>
@@ -7696,7 +7696,7 @@
       <c r="S29" s="46"/>
     </row>
     <row r="30" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="D30" s="134"/>
+      <c r="D30" s="58"/>
       <c r="E30" s="45"/>
       <c r="F30" s="2"/>
       <c r="G30" s="2"/>
@@ -7714,7 +7714,7 @@
       <c r="S30" s="46"/>
     </row>
     <row r="31" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="D31" s="135"/>
+      <c r="D31" s="59"/>
       <c r="E31" s="47"/>
       <c r="F31" s="48"/>
       <c r="G31" s="48"/>
@@ -7722,24 +7722,24 @@
       <c r="I31" s="47"/>
       <c r="J31" s="48"/>
       <c r="K31" s="48"/>
-      <c r="L31" s="136"/>
+      <c r="L31" s="60"/>
       <c r="M31" s="48"/>
       <c r="N31" s="48"/>
       <c r="O31" s="47"/>
-      <c r="P31" s="136"/>
+      <c r="P31" s="60"/>
       <c r="Q31" s="48"/>
       <c r="R31" s="48"/>
-      <c r="S31" s="136"/>
+      <c r="S31" s="60"/>
     </row>
     <row r="32" spans="3:19" ht="21" x14ac:dyDescent="0.25">
-      <c r="Q32" s="158" t="s">
+      <c r="Q32" s="156" t="s">
         <v>76</v>
       </c>
-      <c r="R32" s="159"/>
-      <c r="S32" s="160"/>
+      <c r="R32" s="157"/>
+      <c r="S32" s="158"/>
     </row>
     <row r="36" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C36" s="129"/>
+      <c r="C36" s="53"/>
       <c r="D36" s="2"/>
       <c r="E36" s="2"/>
       <c r="F36" s="2"/>
@@ -7758,38 +7758,38 @@
       <c r="S36" s="3"/>
     </row>
     <row r="37" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C37" s="132"/>
-      <c r="D37" s="131"/>
-      <c r="E37" s="131"/>
-      <c r="F37" s="131"/>
-      <c r="G37" s="131"/>
-      <c r="H37" s="131"/>
-      <c r="I37" s="131"/>
-      <c r="J37" s="131"/>
-      <c r="K37" s="131"/>
-      <c r="L37" s="131"/>
-      <c r="M37" s="131"/>
-      <c r="N37" s="131"/>
-      <c r="O37" s="131"/>
-      <c r="P37" s="131"/>
-      <c r="Q37" s="131"/>
-      <c r="R37" s="131"/>
-      <c r="S37" s="133"/>
+      <c r="C37" s="56"/>
+      <c r="D37" s="55"/>
+      <c r="E37" s="55"/>
+      <c r="F37" s="55"/>
+      <c r="G37" s="55"/>
+      <c r="H37" s="55"/>
+      <c r="I37" s="55"/>
+      <c r="J37" s="55"/>
+      <c r="K37" s="55"/>
+      <c r="L37" s="55"/>
+      <c r="M37" s="55"/>
+      <c r="N37" s="55"/>
+      <c r="O37" s="55"/>
+      <c r="P37" s="55"/>
+      <c r="Q37" s="55"/>
+      <c r="R37" s="55"/>
+      <c r="S37" s="57"/>
     </row>
     <row r="38" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C38" s="130"/>
+      <c r="C38" s="54"/>
       <c r="D38" s="18"/>
       <c r="E38" s="18"/>
       <c r="F38" s="18"/>
-      <c r="G38" s="58" t="s">
+      <c r="G38" s="99" t="s">
         <v>13</v>
       </c>
-      <c r="H38" s="58"/>
-      <c r="I38" s="58"/>
-      <c r="J38" s="58"/>
-      <c r="K38" s="58"/>
-      <c r="L38" s="58"/>
-      <c r="M38" s="58"/>
+      <c r="H38" s="99"/>
+      <c r="I38" s="99"/>
+      <c r="J38" s="99"/>
+      <c r="K38" s="99"/>
+      <c r="L38" s="99"/>
+      <c r="M38" s="99"/>
       <c r="N38" s="18"/>
       <c r="O38" s="18"/>
       <c r="P38" s="18"/>
@@ -7798,19 +7798,19 @@
       <c r="S38" s="19"/>
     </row>
     <row r="39" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C39" s="66" t="s">
+      <c r="C39" s="107" t="s">
         <v>14</v>
       </c>
-      <c r="D39" s="67"/>
-      <c r="E39" s="67"/>
-      <c r="F39" s="67"/>
-      <c r="G39" s="58"/>
-      <c r="H39" s="58"/>
-      <c r="I39" s="58"/>
-      <c r="J39" s="58"/>
-      <c r="K39" s="58"/>
-      <c r="L39" s="58"/>
-      <c r="M39" s="58"/>
+      <c r="D39" s="108"/>
+      <c r="E39" s="108"/>
+      <c r="F39" s="108"/>
+      <c r="G39" s="99"/>
+      <c r="H39" s="99"/>
+      <c r="I39" s="99"/>
+      <c r="J39" s="99"/>
+      <c r="K39" s="99"/>
+      <c r="L39" s="99"/>
+      <c r="M39" s="99"/>
       <c r="N39" s="18"/>
       <c r="O39" s="18"/>
       <c r="P39" s="18"/>
@@ -7819,64 +7819,64 @@
       <c r="S39" s="19"/>
     </row>
     <row r="40" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C40" s="68"/>
-      <c r="D40" s="67"/>
-      <c r="E40" s="67"/>
-      <c r="F40" s="67"/>
-      <c r="G40" s="58"/>
-      <c r="H40" s="58"/>
-      <c r="I40" s="58"/>
-      <c r="J40" s="58"/>
-      <c r="K40" s="58"/>
-      <c r="L40" s="58"/>
-      <c r="M40" s="58"/>
+      <c r="C40" s="109"/>
+      <c r="D40" s="108"/>
+      <c r="E40" s="108"/>
+      <c r="F40" s="108"/>
+      <c r="G40" s="99"/>
+      <c r="H40" s="99"/>
+      <c r="I40" s="99"/>
+      <c r="J40" s="99"/>
+      <c r="K40" s="99"/>
+      <c r="L40" s="99"/>
+      <c r="M40" s="99"/>
       <c r="N40" s="18"/>
-      <c r="O40" s="60" t="s">
+      <c r="O40" s="101" t="s">
         <v>3</v>
       </c>
-      <c r="P40" s="61"/>
+      <c r="P40" s="102"/>
       <c r="Q40" s="18"/>
       <c r="R40" s="19"/>
       <c r="S40" s="19"/>
     </row>
     <row r="41" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C41" s="69" t="s">
+      <c r="C41" s="110" t="s">
         <v>11</v>
       </c>
-      <c r="D41" s="69"/>
-      <c r="E41" s="69"/>
-      <c r="F41" s="69"/>
-      <c r="G41" s="58"/>
-      <c r="H41" s="58"/>
-      <c r="I41" s="58"/>
-      <c r="J41" s="58"/>
-      <c r="K41" s="58"/>
-      <c r="L41" s="58"/>
-      <c r="M41" s="58"/>
+      <c r="D41" s="110"/>
+      <c r="E41" s="110"/>
+      <c r="F41" s="110"/>
+      <c r="G41" s="99"/>
+      <c r="H41" s="99"/>
+      <c r="I41" s="99"/>
+      <c r="J41" s="99"/>
+      <c r="K41" s="99"/>
+      <c r="L41" s="99"/>
+      <c r="M41" s="99"/>
       <c r="N41" s="18"/>
-      <c r="O41" s="62"/>
-      <c r="P41" s="63"/>
+      <c r="O41" s="103"/>
+      <c r="P41" s="104"/>
       <c r="Q41" s="18"/>
       <c r="R41" s="19"/>
       <c r="S41" s="19"/>
     </row>
     <row r="42" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C42" s="69" t="s">
+      <c r="C42" s="110" t="s">
         <v>12</v>
       </c>
-      <c r="D42" s="69"/>
-      <c r="E42" s="69"/>
-      <c r="F42" s="69"/>
-      <c r="G42" s="58"/>
-      <c r="H42" s="58"/>
-      <c r="I42" s="58"/>
-      <c r="J42" s="58"/>
-      <c r="K42" s="58"/>
-      <c r="L42" s="58"/>
-      <c r="M42" s="58"/>
+      <c r="D42" s="110"/>
+      <c r="E42" s="110"/>
+      <c r="F42" s="110"/>
+      <c r="G42" s="99"/>
+      <c r="H42" s="99"/>
+      <c r="I42" s="99"/>
+      <c r="J42" s="99"/>
+      <c r="K42" s="99"/>
+      <c r="L42" s="99"/>
+      <c r="M42" s="99"/>
       <c r="N42" s="18"/>
-      <c r="O42" s="64"/>
-      <c r="P42" s="65"/>
+      <c r="O42" s="105"/>
+      <c r="P42" s="106"/>
       <c r="Q42" s="18"/>
       <c r="R42" s="19"/>
       <c r="S42" s="19"/>
@@ -7886,13 +7886,13 @@
       <c r="D43" s="21"/>
       <c r="E43" s="21"/>
       <c r="F43" s="21"/>
-      <c r="G43" s="59"/>
-      <c r="H43" s="59"/>
-      <c r="I43" s="59"/>
-      <c r="J43" s="59"/>
-      <c r="K43" s="59"/>
-      <c r="L43" s="59"/>
-      <c r="M43" s="59"/>
+      <c r="G43" s="100"/>
+      <c r="H43" s="100"/>
+      <c r="I43" s="100"/>
+      <c r="J43" s="100"/>
+      <c r="K43" s="100"/>
+      <c r="L43" s="100"/>
+      <c r="M43" s="100"/>
       <c r="N43" s="21"/>
       <c r="O43" s="21"/>
       <c r="P43" s="21"/>
@@ -7902,6 +7902,24 @@
     </row>
   </sheetData>
   <mergeCells count="31">
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="N1:Q1"/>
+    <mergeCell ref="R1:S1"/>
+    <mergeCell ref="C2:D8"/>
+    <mergeCell ref="E2:S8"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="N11:R11"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="K13:M13"/>
+    <mergeCell ref="N13:R13"/>
+    <mergeCell ref="E14:H14"/>
+    <mergeCell ref="I14:L14"/>
+    <mergeCell ref="M14:N14"/>
+    <mergeCell ref="O14:P14"/>
+    <mergeCell ref="Q14:S14"/>
     <mergeCell ref="Q15:S15"/>
     <mergeCell ref="Q16:S16"/>
     <mergeCell ref="Q32:S32"/>
@@ -7910,29 +7928,11 @@
     <mergeCell ref="O40:P42"/>
     <mergeCell ref="C41:F41"/>
     <mergeCell ref="C42:F42"/>
-    <mergeCell ref="E14:H14"/>
-    <mergeCell ref="I14:L14"/>
-    <mergeCell ref="M14:N14"/>
-    <mergeCell ref="O14:P14"/>
-    <mergeCell ref="Q14:S14"/>
     <mergeCell ref="D15:D16"/>
     <mergeCell ref="E15:H16"/>
     <mergeCell ref="I15:L16"/>
     <mergeCell ref="M15:N16"/>
     <mergeCell ref="O15:P16"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="N11:R11"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="K13:M13"/>
-    <mergeCell ref="N13:R13"/>
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="N1:Q1"/>
-    <mergeCell ref="R1:S1"/>
-    <mergeCell ref="C2:D8"/>
-    <mergeCell ref="E2:S8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Design Excel.xlsx
+++ b/Design Excel.xlsx
@@ -1,18 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19226"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\PuppyDRyuki\Documents\GitHub\Web NC\dat-bao-truc-tuyen\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vinhn\Documents\GitHub\dat-bao-truc-tuyen\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{85B747FD-D8F2-4DBA-B6A7-1B3C07E4AF14}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16725" windowHeight="7905" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16728" windowHeight="7908" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Danh Muc" sheetId="1" r:id="rId1"/>
+    <sheet name="index" sheetId="1" r:id="rId1"/>
     <sheet name="Chi Tiêt bao" sheetId="4" r:id="rId2"/>
     <sheet name="Giỏ báo" sheetId="5" r:id="rId3"/>
     <sheet name="Thanh toán" sheetId="6" r:id="rId4"/>
@@ -365,7 +366,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="25" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1250,6 +1251,57 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1259,12 +1311,6 @@
     <xf numFmtId="0" fontId="7" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1307,49 +1353,16 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1394,18 +1407,6 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1478,118 +1479,118 @@
     <xf numFmtId="0" fontId="18" fillId="5" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="8" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="8" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1871,216 +1872,216 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C1:S49"/>
   <sheetViews>
     <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <selection activeCell="O46" sqref="O46:P48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="18.28515625" customWidth="1"/>
-    <col min="4" max="4" width="18.140625" customWidth="1"/>
-    <col min="5" max="5" width="9.5703125" customWidth="1"/>
-    <col min="6" max="6" width="10.28515625" customWidth="1"/>
-    <col min="7" max="7" width="9.85546875" customWidth="1"/>
+    <col min="3" max="3" width="18.33203125" customWidth="1"/>
+    <col min="4" max="4" width="18.109375" customWidth="1"/>
+    <col min="5" max="5" width="9.5546875" customWidth="1"/>
+    <col min="6" max="6" width="10.33203125" customWidth="1"/>
+    <col min="7" max="7" width="9.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:19" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="L1" s="79" t="s">
+    <row r="1" spans="3:19" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L1" s="96" t="s">
         <v>2</v>
       </c>
-      <c r="M1" s="80"/>
-      <c r="N1" s="83" t="s">
+      <c r="M1" s="97"/>
+      <c r="N1" s="98" t="s">
         <v>10</v>
       </c>
-      <c r="O1" s="83"/>
-      <c r="P1" s="83"/>
-      <c r="Q1" s="83"/>
-      <c r="R1" s="78" t="s">
+      <c r="O1" s="98"/>
+      <c r="P1" s="98"/>
+      <c r="Q1" s="98"/>
+      <c r="R1" s="95" t="s">
         <v>4</v>
       </c>
-      <c r="S1" s="78"/>
-    </row>
-    <row r="2" spans="3:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C2" s="85" t="s">
+      <c r="S1" s="95"/>
+    </row>
+    <row r="2" spans="3:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C2" s="100" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="86"/>
-      <c r="E2" s="93" t="s">
+      <c r="D2" s="101"/>
+      <c r="E2" s="108" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="94"/>
-      <c r="G2" s="94"/>
-      <c r="H2" s="94"/>
-      <c r="I2" s="94"/>
-      <c r="J2" s="94"/>
-      <c r="K2" s="94"/>
-      <c r="L2" s="94"/>
-      <c r="M2" s="94"/>
-      <c r="N2" s="94"/>
-      <c r="O2" s="94"/>
-      <c r="P2" s="94"/>
-      <c r="Q2" s="94"/>
-      <c r="R2" s="94"/>
-      <c r="S2" s="94"/>
-    </row>
-    <row r="3" spans="3:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C3" s="87"/>
-      <c r="D3" s="88"/>
-      <c r="E3" s="93"/>
-      <c r="F3" s="94"/>
-      <c r="G3" s="94"/>
-      <c r="H3" s="94"/>
-      <c r="I3" s="94"/>
-      <c r="J3" s="94"/>
-      <c r="K3" s="94"/>
-      <c r="L3" s="94"/>
-      <c r="M3" s="94"/>
-      <c r="N3" s="94"/>
-      <c r="O3" s="94"/>
-      <c r="P3" s="94"/>
-      <c r="Q3" s="94"/>
-      <c r="R3" s="94"/>
-      <c r="S3" s="94"/>
-    </row>
-    <row r="4" spans="3:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C4" s="87"/>
-      <c r="D4" s="88"/>
-      <c r="E4" s="93"/>
-      <c r="F4" s="94"/>
-      <c r="G4" s="94"/>
-      <c r="H4" s="94"/>
-      <c r="I4" s="94"/>
-      <c r="J4" s="94"/>
-      <c r="K4" s="94"/>
-      <c r="L4" s="94"/>
-      <c r="M4" s="94"/>
-      <c r="N4" s="94"/>
-      <c r="O4" s="94"/>
-      <c r="P4" s="94"/>
-      <c r="Q4" s="94"/>
-      <c r="R4" s="94"/>
-      <c r="S4" s="94"/>
-    </row>
-    <row r="5" spans="3:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C5" s="87"/>
-      <c r="D5" s="88"/>
-      <c r="E5" s="93"/>
-      <c r="F5" s="94"/>
-      <c r="G5" s="94"/>
-      <c r="H5" s="94"/>
-      <c r="I5" s="94"/>
-      <c r="J5" s="94"/>
-      <c r="K5" s="94"/>
-      <c r="L5" s="94"/>
-      <c r="M5" s="94"/>
-      <c r="N5" s="94"/>
-      <c r="O5" s="94"/>
-      <c r="P5" s="94"/>
-      <c r="Q5" s="94"/>
-      <c r="R5" s="94"/>
-      <c r="S5" s="94"/>
-    </row>
-    <row r="6" spans="3:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C6" s="87"/>
-      <c r="D6" s="88"/>
-      <c r="E6" s="93"/>
-      <c r="F6" s="94"/>
-      <c r="G6" s="94"/>
-      <c r="H6" s="94"/>
-      <c r="I6" s="94"/>
-      <c r="J6" s="94"/>
-      <c r="K6" s="94"/>
-      <c r="L6" s="94"/>
-      <c r="M6" s="94"/>
-      <c r="N6" s="94"/>
-      <c r="O6" s="94"/>
-      <c r="P6" s="94"/>
-      <c r="Q6" s="94"/>
-      <c r="R6" s="94"/>
-      <c r="S6" s="94"/>
-    </row>
-    <row r="7" spans="3:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C7" s="87"/>
-      <c r="D7" s="88"/>
-      <c r="E7" s="93"/>
-      <c r="F7" s="94"/>
-      <c r="G7" s="94"/>
-      <c r="H7" s="94"/>
-      <c r="I7" s="94"/>
-      <c r="J7" s="94"/>
-      <c r="K7" s="94"/>
-      <c r="L7" s="94"/>
-      <c r="M7" s="94"/>
-      <c r="N7" s="94"/>
-      <c r="O7" s="94"/>
-      <c r="P7" s="94"/>
-      <c r="Q7" s="94"/>
-      <c r="R7" s="94"/>
-      <c r="S7" s="94"/>
-    </row>
-    <row r="8" spans="3:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C8" s="89"/>
-      <c r="D8" s="90"/>
-      <c r="E8" s="93"/>
-      <c r="F8" s="94"/>
-      <c r="G8" s="94"/>
-      <c r="H8" s="94"/>
-      <c r="I8" s="94"/>
-      <c r="J8" s="94"/>
-      <c r="K8" s="94"/>
-      <c r="L8" s="94"/>
-      <c r="M8" s="94"/>
-      <c r="N8" s="94"/>
-      <c r="O8" s="94"/>
-      <c r="P8" s="94"/>
-      <c r="Q8" s="94"/>
-      <c r="R8" s="94"/>
-      <c r="S8" s="94"/>
-    </row>
-    <row r="11" spans="3:19" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F2" s="109"/>
+      <c r="G2" s="109"/>
+      <c r="H2" s="109"/>
+      <c r="I2" s="109"/>
+      <c r="J2" s="109"/>
+      <c r="K2" s="109"/>
+      <c r="L2" s="109"/>
+      <c r="M2" s="109"/>
+      <c r="N2" s="109"/>
+      <c r="O2" s="109"/>
+      <c r="P2" s="109"/>
+      <c r="Q2" s="109"/>
+      <c r="R2" s="109"/>
+      <c r="S2" s="109"/>
+    </row>
+    <row r="3" spans="3:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C3" s="102"/>
+      <c r="D3" s="103"/>
+      <c r="E3" s="108"/>
+      <c r="F3" s="109"/>
+      <c r="G3" s="109"/>
+      <c r="H3" s="109"/>
+      <c r="I3" s="109"/>
+      <c r="J3" s="109"/>
+      <c r="K3" s="109"/>
+      <c r="L3" s="109"/>
+      <c r="M3" s="109"/>
+      <c r="N3" s="109"/>
+      <c r="O3" s="109"/>
+      <c r="P3" s="109"/>
+      <c r="Q3" s="109"/>
+      <c r="R3" s="109"/>
+      <c r="S3" s="109"/>
+    </row>
+    <row r="4" spans="3:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C4" s="102"/>
+      <c r="D4" s="103"/>
+      <c r="E4" s="108"/>
+      <c r="F4" s="109"/>
+      <c r="G4" s="109"/>
+      <c r="H4" s="109"/>
+      <c r="I4" s="109"/>
+      <c r="J4" s="109"/>
+      <c r="K4" s="109"/>
+      <c r="L4" s="109"/>
+      <c r="M4" s="109"/>
+      <c r="N4" s="109"/>
+      <c r="O4" s="109"/>
+      <c r="P4" s="109"/>
+      <c r="Q4" s="109"/>
+      <c r="R4" s="109"/>
+      <c r="S4" s="109"/>
+    </row>
+    <row r="5" spans="3:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C5" s="102"/>
+      <c r="D5" s="103"/>
+      <c r="E5" s="108"/>
+      <c r="F5" s="109"/>
+      <c r="G5" s="109"/>
+      <c r="H5" s="109"/>
+      <c r="I5" s="109"/>
+      <c r="J5" s="109"/>
+      <c r="K5" s="109"/>
+      <c r="L5" s="109"/>
+      <c r="M5" s="109"/>
+      <c r="N5" s="109"/>
+      <c r="O5" s="109"/>
+      <c r="P5" s="109"/>
+      <c r="Q5" s="109"/>
+      <c r="R5" s="109"/>
+      <c r="S5" s="109"/>
+    </row>
+    <row r="6" spans="3:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C6" s="102"/>
+      <c r="D6" s="103"/>
+      <c r="E6" s="108"/>
+      <c r="F6" s="109"/>
+      <c r="G6" s="109"/>
+      <c r="H6" s="109"/>
+      <c r="I6" s="109"/>
+      <c r="J6" s="109"/>
+      <c r="K6" s="109"/>
+      <c r="L6" s="109"/>
+      <c r="M6" s="109"/>
+      <c r="N6" s="109"/>
+      <c r="O6" s="109"/>
+      <c r="P6" s="109"/>
+      <c r="Q6" s="109"/>
+      <c r="R6" s="109"/>
+      <c r="S6" s="109"/>
+    </row>
+    <row r="7" spans="3:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C7" s="102"/>
+      <c r="D7" s="103"/>
+      <c r="E7" s="108"/>
+      <c r="F7" s="109"/>
+      <c r="G7" s="109"/>
+      <c r="H7" s="109"/>
+      <c r="I7" s="109"/>
+      <c r="J7" s="109"/>
+      <c r="K7" s="109"/>
+      <c r="L7" s="109"/>
+      <c r="M7" s="109"/>
+      <c r="N7" s="109"/>
+      <c r="O7" s="109"/>
+      <c r="P7" s="109"/>
+      <c r="Q7" s="109"/>
+      <c r="R7" s="109"/>
+      <c r="S7" s="109"/>
+    </row>
+    <row r="8" spans="3:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C8" s="104"/>
+      <c r="D8" s="105"/>
+      <c r="E8" s="108"/>
+      <c r="F8" s="109"/>
+      <c r="G8" s="109"/>
+      <c r="H8" s="109"/>
+      <c r="I8" s="109"/>
+      <c r="J8" s="109"/>
+      <c r="K8" s="109"/>
+      <c r="L8" s="109"/>
+      <c r="M8" s="109"/>
+      <c r="N8" s="109"/>
+      <c r="O8" s="109"/>
+      <c r="P8" s="109"/>
+      <c r="Q8" s="109"/>
+      <c r="R8" s="109"/>
+      <c r="S8" s="109"/>
+    </row>
+    <row r="11" spans="3:19" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C11" s="23" t="s">
         <v>1</v>
       </c>
       <c r="D11" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="E11" s="91" t="s">
+      <c r="E11" s="106" t="s">
         <v>9</v>
       </c>
-      <c r="F11" s="92"/>
-      <c r="G11" s="91" t="s">
+      <c r="F11" s="107"/>
+      <c r="G11" s="106" t="s">
         <v>15</v>
       </c>
-      <c r="H11" s="92"/>
-      <c r="I11" s="95" t="s">
+      <c r="H11" s="107"/>
+      <c r="I11" s="110" t="s">
         <v>20</v>
       </c>
-      <c r="J11" s="95"/>
-      <c r="N11" s="111" t="s">
+      <c r="J11" s="110"/>
+      <c r="N11" s="81" t="s">
         <v>23</v>
       </c>
-      <c r="O11" s="111"/>
-      <c r="P11" s="111"/>
-      <c r="Q11" s="111"/>
-      <c r="R11" s="111"/>
+      <c r="O11" s="81"/>
+      <c r="P11" s="81"/>
+      <c r="Q11" s="81"/>
+      <c r="R11" s="81"/>
       <c r="S11" s="27" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="12" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="12" spans="3:19" x14ac:dyDescent="0.3">
       <c r="C12" s="1"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
     </row>
-    <row r="13" spans="3:19" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="C13" s="96" t="s">
+    <row r="13" spans="3:19" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="C13" s="111" t="s">
         <v>21</v>
       </c>
-      <c r="D13" s="96"/>
-      <c r="E13" s="96"/>
+      <c r="D13" s="111"/>
+      <c r="E13" s="111"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c r="H13" s="8"/>
@@ -2096,10 +2097,10 @@
       <c r="R13" s="9"/>
       <c r="S13" s="9"/>
     </row>
-    <row r="14" spans="3:19" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="C14" s="96"/>
-      <c r="D14" s="96"/>
-      <c r="E14" s="96"/>
+    <row r="14" spans="3:19" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="C14" s="111"/>
+      <c r="D14" s="111"/>
+      <c r="E14" s="111"/>
       <c r="F14" s="14"/>
       <c r="G14" s="14"/>
       <c r="H14" s="10"/>
@@ -2115,9 +2116,9 @@
       <c r="R14" s="11"/>
       <c r="S14" s="11"/>
     </row>
-    <row r="15" spans="3:19" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="C15" s="84"/>
-      <c r="D15" s="84"/>
+    <row r="15" spans="3:19" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="C15" s="99"/>
+      <c r="D15" s="99"/>
       <c r="E15" s="10"/>
       <c r="F15" s="14"/>
       <c r="G15" s="14"/>
@@ -2134,219 +2135,219 @@
       <c r="R15" s="11"/>
       <c r="S15" s="11"/>
     </row>
-    <row r="16" spans="3:19" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="C16" s="81" t="s">
+    <row r="16" spans="3:19" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="C16" s="78" t="s">
         <v>5</v>
       </c>
-      <c r="D16" s="81"/>
+      <c r="D16" s="78"/>
       <c r="E16" s="10"/>
-      <c r="F16" s="81" t="s">
+      <c r="F16" s="78" t="s">
         <v>5</v>
       </c>
-      <c r="G16" s="81"/>
-      <c r="H16" s="81"/>
-      <c r="I16" s="81"/>
-      <c r="K16" s="81" t="s">
+      <c r="G16" s="78"/>
+      <c r="H16" s="78"/>
+      <c r="I16" s="78"/>
+      <c r="K16" s="78" t="s">
         <v>5</v>
       </c>
-      <c r="L16" s="81"/>
-      <c r="M16" s="81"/>
-      <c r="N16" s="81"/>
+      <c r="L16" s="78"/>
+      <c r="M16" s="78"/>
+      <c r="N16" s="78"/>
       <c r="O16" s="10"/>
-      <c r="P16" s="81" t="s">
+      <c r="P16" s="78" t="s">
         <v>5</v>
       </c>
-      <c r="Q16" s="81"/>
-      <c r="R16" s="81"/>
-      <c r="S16" s="81"/>
-    </row>
-    <row r="17" spans="3:19" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="C17" s="81"/>
-      <c r="D17" s="81"/>
+      <c r="Q16" s="78"/>
+      <c r="R16" s="78"/>
+      <c r="S16" s="78"/>
+    </row>
+    <row r="17" spans="3:19" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="C17" s="78"/>
+      <c r="D17" s="78"/>
       <c r="E17" s="10"/>
-      <c r="F17" s="81"/>
-      <c r="G17" s="81"/>
-      <c r="H17" s="81"/>
-      <c r="I17" s="81"/>
-      <c r="K17" s="81"/>
-      <c r="L17" s="81"/>
-      <c r="M17" s="81"/>
-      <c r="N17" s="81"/>
+      <c r="F17" s="78"/>
+      <c r="G17" s="78"/>
+      <c r="H17" s="78"/>
+      <c r="I17" s="78"/>
+      <c r="K17" s="78"/>
+      <c r="L17" s="78"/>
+      <c r="M17" s="78"/>
+      <c r="N17" s="78"/>
       <c r="O17" s="10"/>
-      <c r="P17" s="81"/>
-      <c r="Q17" s="81"/>
-      <c r="R17" s="81"/>
-      <c r="S17" s="81"/>
-    </row>
-    <row r="18" spans="3:19" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="C18" s="81"/>
-      <c r="D18" s="81"/>
+      <c r="P17" s="78"/>
+      <c r="Q17" s="78"/>
+      <c r="R17" s="78"/>
+      <c r="S17" s="78"/>
+    </row>
+    <row r="18" spans="3:19" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="C18" s="78"/>
+      <c r="D18" s="78"/>
       <c r="E18" s="10"/>
-      <c r="F18" s="81"/>
-      <c r="G18" s="81"/>
-      <c r="H18" s="81"/>
-      <c r="I18" s="81"/>
-      <c r="K18" s="81"/>
-      <c r="L18" s="81"/>
-      <c r="M18" s="81"/>
-      <c r="N18" s="81"/>
+      <c r="F18" s="78"/>
+      <c r="G18" s="78"/>
+      <c r="H18" s="78"/>
+      <c r="I18" s="78"/>
+      <c r="K18" s="78"/>
+      <c r="L18" s="78"/>
+      <c r="M18" s="78"/>
+      <c r="N18" s="78"/>
       <c r="O18" s="10"/>
-      <c r="P18" s="81"/>
-      <c r="Q18" s="81"/>
-      <c r="R18" s="81"/>
-      <c r="S18" s="81"/>
-    </row>
-    <row r="19" spans="3:19" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="C19" s="81"/>
-      <c r="D19" s="81"/>
+      <c r="P18" s="78"/>
+      <c r="Q18" s="78"/>
+      <c r="R18" s="78"/>
+      <c r="S18" s="78"/>
+    </row>
+    <row r="19" spans="3:19" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="C19" s="78"/>
+      <c r="D19" s="78"/>
       <c r="E19" s="10"/>
-      <c r="F19" s="81"/>
-      <c r="G19" s="81"/>
-      <c r="H19" s="81"/>
-      <c r="I19" s="81"/>
-      <c r="K19" s="81"/>
-      <c r="L19" s="81"/>
-      <c r="M19" s="81"/>
-      <c r="N19" s="81"/>
+      <c r="F19" s="78"/>
+      <c r="G19" s="78"/>
+      <c r="H19" s="78"/>
+      <c r="I19" s="78"/>
+      <c r="K19" s="78"/>
+      <c r="L19" s="78"/>
+      <c r="M19" s="78"/>
+      <c r="N19" s="78"/>
       <c r="O19" s="10"/>
-      <c r="P19" s="81"/>
-      <c r="Q19" s="81"/>
-      <c r="R19" s="81"/>
-      <c r="S19" s="81"/>
-    </row>
-    <row r="20" spans="3:19" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="C20" s="81"/>
-      <c r="D20" s="81"/>
+      <c r="P19" s="78"/>
+      <c r="Q19" s="78"/>
+      <c r="R19" s="78"/>
+      <c r="S19" s="78"/>
+    </row>
+    <row r="20" spans="3:19" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="C20" s="78"/>
+      <c r="D20" s="78"/>
       <c r="E20" s="10"/>
-      <c r="F20" s="81"/>
-      <c r="G20" s="81"/>
-      <c r="H20" s="81"/>
-      <c r="I20" s="81"/>
-      <c r="K20" s="81"/>
-      <c r="L20" s="81"/>
-      <c r="M20" s="81"/>
-      <c r="N20" s="81"/>
+      <c r="F20" s="78"/>
+      <c r="G20" s="78"/>
+      <c r="H20" s="78"/>
+      <c r="I20" s="78"/>
+      <c r="K20" s="78"/>
+      <c r="L20" s="78"/>
+      <c r="M20" s="78"/>
+      <c r="N20" s="78"/>
       <c r="O20" s="10"/>
-      <c r="P20" s="81"/>
-      <c r="Q20" s="81"/>
-      <c r="R20" s="81"/>
-      <c r="S20" s="81"/>
-    </row>
-    <row r="21" spans="3:19" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="C21" s="81"/>
-      <c r="D21" s="81"/>
+      <c r="P20" s="78"/>
+      <c r="Q20" s="78"/>
+      <c r="R20" s="78"/>
+      <c r="S20" s="78"/>
+    </row>
+    <row r="21" spans="3:19" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="C21" s="78"/>
+      <c r="D21" s="78"/>
       <c r="E21" s="10"/>
-      <c r="F21" s="81"/>
-      <c r="G21" s="81"/>
-      <c r="H21" s="81"/>
-      <c r="I21" s="81"/>
-      <c r="K21" s="81"/>
-      <c r="L21" s="81"/>
-      <c r="M21" s="81"/>
-      <c r="N21" s="81"/>
+      <c r="F21" s="78"/>
+      <c r="G21" s="78"/>
+      <c r="H21" s="78"/>
+      <c r="I21" s="78"/>
+      <c r="K21" s="78"/>
+      <c r="L21" s="78"/>
+      <c r="M21" s="78"/>
+      <c r="N21" s="78"/>
       <c r="O21" s="10"/>
-      <c r="P21" s="81"/>
-      <c r="Q21" s="81"/>
-      <c r="R21" s="81"/>
-      <c r="S21" s="81"/>
-    </row>
-    <row r="22" spans="3:19" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="C22" s="81"/>
-      <c r="D22" s="81"/>
+      <c r="P21" s="78"/>
+      <c r="Q21" s="78"/>
+      <c r="R21" s="78"/>
+      <c r="S21" s="78"/>
+    </row>
+    <row r="22" spans="3:19" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="C22" s="78"/>
+      <c r="D22" s="78"/>
       <c r="E22" s="10"/>
-      <c r="F22" s="81"/>
-      <c r="G22" s="81"/>
-      <c r="H22" s="81"/>
-      <c r="I22" s="81"/>
-      <c r="K22" s="81"/>
-      <c r="L22" s="81"/>
-      <c r="M22" s="81"/>
-      <c r="N22" s="81"/>
+      <c r="F22" s="78"/>
+      <c r="G22" s="78"/>
+      <c r="H22" s="78"/>
+      <c r="I22" s="78"/>
+      <c r="K22" s="78"/>
+      <c r="L22" s="78"/>
+      <c r="M22" s="78"/>
+      <c r="N22" s="78"/>
       <c r="O22" s="10"/>
-      <c r="P22" s="81"/>
-      <c r="Q22" s="81"/>
-      <c r="R22" s="81"/>
-      <c r="S22" s="81"/>
-    </row>
-    <row r="23" spans="3:19" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="C23" s="82" t="s">
+      <c r="P22" s="78"/>
+      <c r="Q22" s="78"/>
+      <c r="R22" s="78"/>
+      <c r="S22" s="78"/>
+    </row>
+    <row r="23" spans="3:19" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="C23" s="79" t="s">
         <v>6</v>
       </c>
-      <c r="D23" s="82"/>
+      <c r="D23" s="79"/>
       <c r="E23" s="10"/>
-      <c r="F23" s="82" t="s">
+      <c r="F23" s="79" t="s">
         <v>6</v>
       </c>
-      <c r="G23" s="82"/>
-      <c r="H23" s="82"/>
-      <c r="I23" s="82"/>
-      <c r="K23" s="82" t="s">
+      <c r="G23" s="79"/>
+      <c r="H23" s="79"/>
+      <c r="I23" s="79"/>
+      <c r="K23" s="79" t="s">
         <v>6</v>
       </c>
-      <c r="L23" s="82"/>
-      <c r="M23" s="82"/>
-      <c r="N23" s="82"/>
+      <c r="L23" s="79"/>
+      <c r="M23" s="79"/>
+      <c r="N23" s="79"/>
       <c r="O23" s="10"/>
-      <c r="P23" s="82" t="s">
+      <c r="P23" s="79" t="s">
         <v>6</v>
       </c>
-      <c r="Q23" s="82"/>
-      <c r="R23" s="82"/>
-      <c r="S23" s="82"/>
-    </row>
-    <row r="24" spans="3:19" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="C24" s="82" t="s">
+      <c r="Q23" s="79"/>
+      <c r="R23" s="79"/>
+      <c r="S23" s="79"/>
+    </row>
+    <row r="24" spans="3:19" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="C24" s="79" t="s">
         <v>7</v>
       </c>
-      <c r="D24" s="82"/>
+      <c r="D24" s="79"/>
       <c r="E24" s="10"/>
-      <c r="F24" s="82" t="s">
+      <c r="F24" s="79" t="s">
         <v>7</v>
       </c>
-      <c r="G24" s="82"/>
-      <c r="H24" s="82"/>
-      <c r="I24" s="82"/>
-      <c r="K24" s="82" t="s">
+      <c r="G24" s="79"/>
+      <c r="H24" s="79"/>
+      <c r="I24" s="79"/>
+      <c r="K24" s="79" t="s">
         <v>7</v>
       </c>
-      <c r="L24" s="82"/>
-      <c r="M24" s="82"/>
-      <c r="N24" s="82"/>
+      <c r="L24" s="79"/>
+      <c r="M24" s="79"/>
+      <c r="N24" s="79"/>
       <c r="O24" s="10"/>
-      <c r="P24" s="82" t="s">
+      <c r="P24" s="79" t="s">
         <v>7</v>
       </c>
-      <c r="Q24" s="82"/>
-      <c r="R24" s="82"/>
-      <c r="S24" s="82"/>
-    </row>
-    <row r="25" spans="3:19" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="C25" s="97" t="s">
+      <c r="Q24" s="79"/>
+      <c r="R24" s="79"/>
+      <c r="S24" s="79"/>
+    </row>
+    <row r="25" spans="3:19" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="C25" s="80" t="s">
         <v>52</v>
       </c>
-      <c r="D25" s="97"/>
+      <c r="D25" s="80"/>
       <c r="E25" s="10"/>
-      <c r="F25" s="97" t="s">
+      <c r="F25" s="80" t="s">
         <v>52</v>
       </c>
-      <c r="G25" s="97"/>
-      <c r="H25" s="97"/>
-      <c r="I25" s="97"/>
-      <c r="K25" s="97" t="s">
+      <c r="G25" s="80"/>
+      <c r="H25" s="80"/>
+      <c r="I25" s="80"/>
+      <c r="K25" s="80" t="s">
         <v>52</v>
       </c>
-      <c r="L25" s="97"/>
-      <c r="M25" s="97"/>
-      <c r="N25" s="97"/>
+      <c r="L25" s="80"/>
+      <c r="M25" s="80"/>
+      <c r="N25" s="80"/>
       <c r="O25" s="10"/>
-      <c r="P25" s="97" t="s">
+      <c r="P25" s="80" t="s">
         <v>52</v>
       </c>
-      <c r="Q25" s="97"/>
-      <c r="R25" s="97"/>
-      <c r="S25" s="97"/>
-    </row>
-    <row r="26" spans="3:19" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="Q25" s="80"/>
+      <c r="R25" s="80"/>
+      <c r="S25" s="80"/>
+    </row>
+    <row r="26" spans="3:19" ht="23.4" x14ac:dyDescent="0.45">
       <c r="C26" s="12"/>
       <c r="D26" s="10"/>
       <c r="E26" s="10"/>
@@ -2363,219 +2364,219 @@
       <c r="R26" s="10"/>
       <c r="S26" s="10"/>
     </row>
-    <row r="27" spans="3:19" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="C27" s="81" t="s">
+    <row r="27" spans="3:19" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="C27" s="78" t="s">
         <v>5</v>
       </c>
-      <c r="D27" s="81"/>
+      <c r="D27" s="78"/>
       <c r="E27" s="10"/>
-      <c r="F27" s="81" t="s">
+      <c r="F27" s="78" t="s">
         <v>5</v>
       </c>
-      <c r="G27" s="81"/>
-      <c r="H27" s="81"/>
-      <c r="I27" s="81"/>
-      <c r="K27" s="81" t="s">
+      <c r="G27" s="78"/>
+      <c r="H27" s="78"/>
+      <c r="I27" s="78"/>
+      <c r="K27" s="78" t="s">
         <v>5</v>
       </c>
-      <c r="L27" s="81"/>
-      <c r="M27" s="81"/>
-      <c r="N27" s="81"/>
+      <c r="L27" s="78"/>
+      <c r="M27" s="78"/>
+      <c r="N27" s="78"/>
       <c r="O27" s="10"/>
-      <c r="P27" s="81" t="s">
+      <c r="P27" s="78" t="s">
         <v>5</v>
       </c>
-      <c r="Q27" s="81"/>
-      <c r="R27" s="81"/>
-      <c r="S27" s="81"/>
-    </row>
-    <row r="28" spans="3:19" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="C28" s="81"/>
-      <c r="D28" s="81"/>
+      <c r="Q27" s="78"/>
+      <c r="R27" s="78"/>
+      <c r="S27" s="78"/>
+    </row>
+    <row r="28" spans="3:19" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="C28" s="78"/>
+      <c r="D28" s="78"/>
       <c r="E28" s="10"/>
-      <c r="F28" s="81"/>
-      <c r="G28" s="81"/>
-      <c r="H28" s="81"/>
-      <c r="I28" s="81"/>
-      <c r="K28" s="81"/>
-      <c r="L28" s="81"/>
-      <c r="M28" s="81"/>
-      <c r="N28" s="81"/>
+      <c r="F28" s="78"/>
+      <c r="G28" s="78"/>
+      <c r="H28" s="78"/>
+      <c r="I28" s="78"/>
+      <c r="K28" s="78"/>
+      <c r="L28" s="78"/>
+      <c r="M28" s="78"/>
+      <c r="N28" s="78"/>
       <c r="O28" s="10"/>
-      <c r="P28" s="81"/>
-      <c r="Q28" s="81"/>
-      <c r="R28" s="81"/>
-      <c r="S28" s="81"/>
-    </row>
-    <row r="29" spans="3:19" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="C29" s="81"/>
-      <c r="D29" s="81"/>
+      <c r="P28" s="78"/>
+      <c r="Q28" s="78"/>
+      <c r="R28" s="78"/>
+      <c r="S28" s="78"/>
+    </row>
+    <row r="29" spans="3:19" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="C29" s="78"/>
+      <c r="D29" s="78"/>
       <c r="E29" s="10"/>
-      <c r="F29" s="81"/>
-      <c r="G29" s="81"/>
-      <c r="H29" s="81"/>
-      <c r="I29" s="81"/>
-      <c r="K29" s="81"/>
-      <c r="L29" s="81"/>
-      <c r="M29" s="81"/>
-      <c r="N29" s="81"/>
+      <c r="F29" s="78"/>
+      <c r="G29" s="78"/>
+      <c r="H29" s="78"/>
+      <c r="I29" s="78"/>
+      <c r="K29" s="78"/>
+      <c r="L29" s="78"/>
+      <c r="M29" s="78"/>
+      <c r="N29" s="78"/>
       <c r="O29" s="10"/>
-      <c r="P29" s="81"/>
-      <c r="Q29" s="81"/>
-      <c r="R29" s="81"/>
-      <c r="S29" s="81"/>
-    </row>
-    <row r="30" spans="3:19" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="C30" s="81"/>
-      <c r="D30" s="81"/>
+      <c r="P29" s="78"/>
+      <c r="Q29" s="78"/>
+      <c r="R29" s="78"/>
+      <c r="S29" s="78"/>
+    </row>
+    <row r="30" spans="3:19" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="C30" s="78"/>
+      <c r="D30" s="78"/>
       <c r="E30" s="10"/>
-      <c r="F30" s="81"/>
-      <c r="G30" s="81"/>
-      <c r="H30" s="81"/>
-      <c r="I30" s="81"/>
-      <c r="K30" s="81"/>
-      <c r="L30" s="81"/>
-      <c r="M30" s="81"/>
-      <c r="N30" s="81"/>
+      <c r="F30" s="78"/>
+      <c r="G30" s="78"/>
+      <c r="H30" s="78"/>
+      <c r="I30" s="78"/>
+      <c r="K30" s="78"/>
+      <c r="L30" s="78"/>
+      <c r="M30" s="78"/>
+      <c r="N30" s="78"/>
       <c r="O30" s="10"/>
-      <c r="P30" s="81"/>
-      <c r="Q30" s="81"/>
-      <c r="R30" s="81"/>
-      <c r="S30" s="81"/>
-    </row>
-    <row r="31" spans="3:19" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="C31" s="81"/>
-      <c r="D31" s="81"/>
+      <c r="P30" s="78"/>
+      <c r="Q30" s="78"/>
+      <c r="R30" s="78"/>
+      <c r="S30" s="78"/>
+    </row>
+    <row r="31" spans="3:19" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="C31" s="78"/>
+      <c r="D31" s="78"/>
       <c r="E31" s="10"/>
-      <c r="F31" s="81"/>
-      <c r="G31" s="81"/>
-      <c r="H31" s="81"/>
-      <c r="I31" s="81"/>
-      <c r="K31" s="81"/>
-      <c r="L31" s="81"/>
-      <c r="M31" s="81"/>
-      <c r="N31" s="81"/>
+      <c r="F31" s="78"/>
+      <c r="G31" s="78"/>
+      <c r="H31" s="78"/>
+      <c r="I31" s="78"/>
+      <c r="K31" s="78"/>
+      <c r="L31" s="78"/>
+      <c r="M31" s="78"/>
+      <c r="N31" s="78"/>
       <c r="O31" s="10"/>
-      <c r="P31" s="81"/>
-      <c r="Q31" s="81"/>
-      <c r="R31" s="81"/>
-      <c r="S31" s="81"/>
-    </row>
-    <row r="32" spans="3:19" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="C32" s="81"/>
-      <c r="D32" s="81"/>
+      <c r="P31" s="78"/>
+      <c r="Q31" s="78"/>
+      <c r="R31" s="78"/>
+      <c r="S31" s="78"/>
+    </row>
+    <row r="32" spans="3:19" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="C32" s="78"/>
+      <c r="D32" s="78"/>
       <c r="E32" s="10"/>
-      <c r="F32" s="81"/>
-      <c r="G32" s="81"/>
-      <c r="H32" s="81"/>
-      <c r="I32" s="81"/>
-      <c r="K32" s="81"/>
-      <c r="L32" s="81"/>
-      <c r="M32" s="81"/>
-      <c r="N32" s="81"/>
+      <c r="F32" s="78"/>
+      <c r="G32" s="78"/>
+      <c r="H32" s="78"/>
+      <c r="I32" s="78"/>
+      <c r="K32" s="78"/>
+      <c r="L32" s="78"/>
+      <c r="M32" s="78"/>
+      <c r="N32" s="78"/>
       <c r="O32" s="10"/>
-      <c r="P32" s="81"/>
-      <c r="Q32" s="81"/>
-      <c r="R32" s="81"/>
-      <c r="S32" s="81"/>
-    </row>
-    <row r="33" spans="3:19" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="C33" s="81"/>
-      <c r="D33" s="81"/>
+      <c r="P32" s="78"/>
+      <c r="Q32" s="78"/>
+      <c r="R32" s="78"/>
+      <c r="S32" s="78"/>
+    </row>
+    <row r="33" spans="3:19" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="C33" s="78"/>
+      <c r="D33" s="78"/>
       <c r="E33" s="10"/>
-      <c r="F33" s="81"/>
-      <c r="G33" s="81"/>
-      <c r="H33" s="81"/>
-      <c r="I33" s="81"/>
-      <c r="K33" s="81"/>
-      <c r="L33" s="81"/>
-      <c r="M33" s="81"/>
-      <c r="N33" s="81"/>
+      <c r="F33" s="78"/>
+      <c r="G33" s="78"/>
+      <c r="H33" s="78"/>
+      <c r="I33" s="78"/>
+      <c r="K33" s="78"/>
+      <c r="L33" s="78"/>
+      <c r="M33" s="78"/>
+      <c r="N33" s="78"/>
       <c r="O33" s="10"/>
-      <c r="P33" s="81"/>
-      <c r="Q33" s="81"/>
-      <c r="R33" s="81"/>
-      <c r="S33" s="81"/>
-    </row>
-    <row r="34" spans="3:19" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="C34" s="82" t="s">
+      <c r="P33" s="78"/>
+      <c r="Q33" s="78"/>
+      <c r="R33" s="78"/>
+      <c r="S33" s="78"/>
+    </row>
+    <row r="34" spans="3:19" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="C34" s="79" t="s">
         <v>6</v>
       </c>
-      <c r="D34" s="82"/>
+      <c r="D34" s="79"/>
       <c r="E34" s="10"/>
-      <c r="F34" s="82" t="s">
+      <c r="F34" s="79" t="s">
         <v>6</v>
       </c>
-      <c r="G34" s="82"/>
-      <c r="H34" s="82"/>
-      <c r="I34" s="82"/>
-      <c r="K34" s="82" t="s">
+      <c r="G34" s="79"/>
+      <c r="H34" s="79"/>
+      <c r="I34" s="79"/>
+      <c r="K34" s="79" t="s">
         <v>6</v>
       </c>
-      <c r="L34" s="82"/>
-      <c r="M34" s="82"/>
-      <c r="N34" s="82"/>
+      <c r="L34" s="79"/>
+      <c r="M34" s="79"/>
+      <c r="N34" s="79"/>
       <c r="O34" s="10"/>
-      <c r="P34" s="82" t="s">
+      <c r="P34" s="79" t="s">
         <v>6</v>
       </c>
-      <c r="Q34" s="82"/>
-      <c r="R34" s="82"/>
-      <c r="S34" s="82"/>
-    </row>
-    <row r="35" spans="3:19" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="C35" s="82" t="s">
+      <c r="Q34" s="79"/>
+      <c r="R34" s="79"/>
+      <c r="S34" s="79"/>
+    </row>
+    <row r="35" spans="3:19" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="C35" s="79" t="s">
         <v>7</v>
       </c>
-      <c r="D35" s="82"/>
+      <c r="D35" s="79"/>
       <c r="E35" s="10"/>
-      <c r="F35" s="82" t="s">
+      <c r="F35" s="79" t="s">
         <v>7</v>
       </c>
-      <c r="G35" s="82"/>
-      <c r="H35" s="82"/>
-      <c r="I35" s="82"/>
-      <c r="K35" s="82" t="s">
+      <c r="G35" s="79"/>
+      <c r="H35" s="79"/>
+      <c r="I35" s="79"/>
+      <c r="K35" s="79" t="s">
         <v>7</v>
       </c>
-      <c r="L35" s="82"/>
-      <c r="M35" s="82"/>
-      <c r="N35" s="82"/>
+      <c r="L35" s="79"/>
+      <c r="M35" s="79"/>
+      <c r="N35" s="79"/>
       <c r="O35" s="10"/>
-      <c r="P35" s="82" t="s">
+      <c r="P35" s="79" t="s">
         <v>7</v>
       </c>
-      <c r="Q35" s="82"/>
-      <c r="R35" s="82"/>
-      <c r="S35" s="82"/>
-    </row>
-    <row r="36" spans="3:19" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="C36" s="97" t="s">
+      <c r="Q35" s="79"/>
+      <c r="R35" s="79"/>
+      <c r="S35" s="79"/>
+    </row>
+    <row r="36" spans="3:19" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="C36" s="80" t="s">
         <v>52</v>
       </c>
-      <c r="D36" s="97"/>
+      <c r="D36" s="80"/>
       <c r="E36" s="10"/>
-      <c r="F36" s="97" t="s">
+      <c r="F36" s="80" t="s">
         <v>52</v>
       </c>
-      <c r="G36" s="97"/>
-      <c r="H36" s="97"/>
-      <c r="I36" s="97"/>
-      <c r="K36" s="97" t="s">
+      <c r="G36" s="80"/>
+      <c r="H36" s="80"/>
+      <c r="I36" s="80"/>
+      <c r="K36" s="80" t="s">
         <v>52</v>
       </c>
-      <c r="L36" s="97"/>
-      <c r="M36" s="97"/>
-      <c r="N36" s="97"/>
+      <c r="L36" s="80"/>
+      <c r="M36" s="80"/>
+      <c r="N36" s="80"/>
       <c r="O36" s="10"/>
-      <c r="P36" s="97" t="s">
+      <c r="P36" s="80" t="s">
         <v>52</v>
       </c>
-      <c r="Q36" s="97"/>
-      <c r="R36" s="97"/>
-      <c r="S36" s="97"/>
-    </row>
-    <row r="37" spans="3:19" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="Q36" s="80"/>
+      <c r="R36" s="80"/>
+      <c r="S36" s="80"/>
+    </row>
+    <row r="37" spans="3:19" ht="23.4" x14ac:dyDescent="0.45">
       <c r="C37" s="12"/>
       <c r="D37" s="10"/>
       <c r="E37" s="10"/>
@@ -2594,7 +2595,7 @@
       <c r="R37" s="11"/>
       <c r="S37" s="11"/>
     </row>
-    <row r="38" spans="3:19" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="38" spans="3:19" ht="23.4" x14ac:dyDescent="0.45">
       <c r="C38" s="12"/>
       <c r="D38" s="10"/>
       <c r="E38" s="10"/>
@@ -2613,7 +2614,7 @@
       <c r="R38" s="11"/>
       <c r="S38" s="11"/>
     </row>
-    <row r="39" spans="3:19" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="39" spans="3:19" ht="23.4" x14ac:dyDescent="0.45">
       <c r="C39" s="12"/>
       <c r="D39" s="10"/>
       <c r="E39" s="10"/>
@@ -2632,7 +2633,7 @@
       <c r="R39" s="11"/>
       <c r="S39" s="11"/>
     </row>
-    <row r="40" spans="3:19" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="40" spans="3:19" ht="23.4" x14ac:dyDescent="0.45">
       <c r="C40" s="12"/>
       <c r="D40" s="10"/>
       <c r="E40" s="10"/>
@@ -2651,7 +2652,7 @@
       <c r="R40" s="11"/>
       <c r="S40" s="11"/>
     </row>
-    <row r="41" spans="3:19" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="41" spans="3:19" ht="23.4" x14ac:dyDescent="0.45">
       <c r="C41" s="12"/>
       <c r="D41" s="10"/>
       <c r="E41" s="10"/>
@@ -2677,7 +2678,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="42" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="42" spans="3:19" x14ac:dyDescent="0.3">
       <c r="C42" s="4"/>
       <c r="D42" s="5"/>
       <c r="E42" s="5"/>
@@ -2696,20 +2697,20 @@
       <c r="R42" s="6"/>
       <c r="S42" s="6"/>
     </row>
-    <row r="44" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="44" spans="3:19" x14ac:dyDescent="0.3">
       <c r="C44" s="15"/>
       <c r="D44" s="16"/>
       <c r="E44" s="16"/>
       <c r="F44" s="16"/>
-      <c r="G44" s="98" t="s">
+      <c r="G44" s="82" t="s">
         <v>13</v>
       </c>
-      <c r="H44" s="98"/>
-      <c r="I44" s="98"/>
-      <c r="J44" s="98"/>
-      <c r="K44" s="98"/>
-      <c r="L44" s="98"/>
-      <c r="M44" s="98"/>
+      <c r="H44" s="82"/>
+      <c r="I44" s="82"/>
+      <c r="J44" s="82"/>
+      <c r="K44" s="82"/>
+      <c r="L44" s="82"/>
+      <c r="M44" s="82"/>
       <c r="N44" s="16"/>
       <c r="O44" s="16"/>
       <c r="P44" s="16"/>
@@ -2717,20 +2718,20 @@
       <c r="R44" s="17"/>
       <c r="S44" s="17"/>
     </row>
-    <row r="45" spans="3:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C45" s="107" t="s">
+    <row r="45" spans="3:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C45" s="91" t="s">
         <v>14</v>
       </c>
-      <c r="D45" s="108"/>
-      <c r="E45" s="108"/>
-      <c r="F45" s="108"/>
-      <c r="G45" s="99"/>
-      <c r="H45" s="99"/>
-      <c r="I45" s="99"/>
-      <c r="J45" s="99"/>
-      <c r="K45" s="99"/>
-      <c r="L45" s="99"/>
-      <c r="M45" s="99"/>
+      <c r="D45" s="92"/>
+      <c r="E45" s="92"/>
+      <c r="F45" s="92"/>
+      <c r="G45" s="83"/>
+      <c r="H45" s="83"/>
+      <c r="I45" s="83"/>
+      <c r="J45" s="83"/>
+      <c r="K45" s="83"/>
+      <c r="L45" s="83"/>
+      <c r="M45" s="83"/>
       <c r="N45" s="18"/>
       <c r="O45" s="18"/>
       <c r="P45" s="18"/>
@@ -2738,81 +2739,81 @@
       <c r="R45" s="19"/>
       <c r="S45" s="19"/>
     </row>
-    <row r="46" spans="3:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C46" s="109"/>
-      <c r="D46" s="108"/>
-      <c r="E46" s="108"/>
-      <c r="F46" s="108"/>
-      <c r="G46" s="99"/>
-      <c r="H46" s="99"/>
-      <c r="I46" s="99"/>
-      <c r="J46" s="99"/>
-      <c r="K46" s="99"/>
-      <c r="L46" s="99"/>
-      <c r="M46" s="99"/>
+    <row r="46" spans="3:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C46" s="93"/>
+      <c r="D46" s="92"/>
+      <c r="E46" s="92"/>
+      <c r="F46" s="92"/>
+      <c r="G46" s="83"/>
+      <c r="H46" s="83"/>
+      <c r="I46" s="83"/>
+      <c r="J46" s="83"/>
+      <c r="K46" s="83"/>
+      <c r="L46" s="83"/>
+      <c r="M46" s="83"/>
       <c r="N46" s="18"/>
-      <c r="O46" s="101" t="s">
+      <c r="O46" s="85" t="s">
         <v>3</v>
       </c>
-      <c r="P46" s="102"/>
+      <c r="P46" s="86"/>
       <c r="Q46" s="18"/>
       <c r="R46" s="19"/>
       <c r="S46" s="19"/>
     </row>
-    <row r="47" spans="3:19" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C47" s="110" t="s">
+    <row r="47" spans="3:19" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C47" s="94" t="s">
         <v>11</v>
       </c>
-      <c r="D47" s="110"/>
-      <c r="E47" s="110"/>
-      <c r="F47" s="110"/>
-      <c r="G47" s="99"/>
-      <c r="H47" s="99"/>
-      <c r="I47" s="99"/>
-      <c r="J47" s="99"/>
-      <c r="K47" s="99"/>
-      <c r="L47" s="99"/>
-      <c r="M47" s="99"/>
+      <c r="D47" s="94"/>
+      <c r="E47" s="94"/>
+      <c r="F47" s="94"/>
+      <c r="G47" s="83"/>
+      <c r="H47" s="83"/>
+      <c r="I47" s="83"/>
+      <c r="J47" s="83"/>
+      <c r="K47" s="83"/>
+      <c r="L47" s="83"/>
+      <c r="M47" s="83"/>
       <c r="N47" s="18"/>
-      <c r="O47" s="103"/>
-      <c r="P47" s="104"/>
+      <c r="O47" s="87"/>
+      <c r="P47" s="88"/>
       <c r="Q47" s="18"/>
       <c r="R47" s="19"/>
       <c r="S47" s="19"/>
     </row>
-    <row r="48" spans="3:19" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C48" s="110" t="s">
+    <row r="48" spans="3:19" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C48" s="94" t="s">
         <v>12</v>
       </c>
-      <c r="D48" s="110"/>
-      <c r="E48" s="110"/>
-      <c r="F48" s="110"/>
-      <c r="G48" s="99"/>
-      <c r="H48" s="99"/>
-      <c r="I48" s="99"/>
-      <c r="J48" s="99"/>
-      <c r="K48" s="99"/>
-      <c r="L48" s="99"/>
-      <c r="M48" s="99"/>
+      <c r="D48" s="94"/>
+      <c r="E48" s="94"/>
+      <c r="F48" s="94"/>
+      <c r="G48" s="83"/>
+      <c r="H48" s="83"/>
+      <c r="I48" s="83"/>
+      <c r="J48" s="83"/>
+      <c r="K48" s="83"/>
+      <c r="L48" s="83"/>
+      <c r="M48" s="83"/>
       <c r="N48" s="18"/>
-      <c r="O48" s="105"/>
-      <c r="P48" s="106"/>
+      <c r="O48" s="89"/>
+      <c r="P48" s="90"/>
       <c r="Q48" s="18"/>
       <c r="R48" s="19"/>
       <c r="S48" s="19"/>
     </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:19" x14ac:dyDescent="0.3">
       <c r="C49" s="20"/>
       <c r="D49" s="21"/>
       <c r="E49" s="21"/>
       <c r="F49" s="21"/>
-      <c r="G49" s="100"/>
-      <c r="H49" s="100"/>
-      <c r="I49" s="100"/>
-      <c r="J49" s="100"/>
-      <c r="K49" s="100"/>
-      <c r="L49" s="100"/>
-      <c r="M49" s="100"/>
+      <c r="G49" s="84"/>
+      <c r="H49" s="84"/>
+      <c r="I49" s="84"/>
+      <c r="J49" s="84"/>
+      <c r="K49" s="84"/>
+      <c r="L49" s="84"/>
+      <c r="M49" s="84"/>
       <c r="N49" s="21"/>
       <c r="O49" s="21"/>
       <c r="P49" s="21"/>
@@ -2822,38 +2823,6 @@
     </row>
   </sheetData>
   <mergeCells count="48">
-    <mergeCell ref="F16:I22"/>
-    <mergeCell ref="F23:I23"/>
-    <mergeCell ref="F24:I24"/>
-    <mergeCell ref="F25:I25"/>
-    <mergeCell ref="F27:I33"/>
-    <mergeCell ref="N11:R11"/>
-    <mergeCell ref="K35:N35"/>
-    <mergeCell ref="P35:S35"/>
-    <mergeCell ref="K36:N36"/>
-    <mergeCell ref="P36:S36"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="C27:D33"/>
-    <mergeCell ref="K25:N25"/>
-    <mergeCell ref="P25:S25"/>
-    <mergeCell ref="K27:N33"/>
-    <mergeCell ref="P27:S33"/>
-    <mergeCell ref="K24:N24"/>
-    <mergeCell ref="P24:S24"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="G44:M49"/>
-    <mergeCell ref="O46:P48"/>
-    <mergeCell ref="C45:F46"/>
-    <mergeCell ref="C47:F47"/>
-    <mergeCell ref="C48:F48"/>
-    <mergeCell ref="K34:N34"/>
-    <mergeCell ref="P34:S34"/>
-    <mergeCell ref="F35:I35"/>
-    <mergeCell ref="F36:I36"/>
-    <mergeCell ref="F34:I34"/>
     <mergeCell ref="R1:S1"/>
     <mergeCell ref="L1:M1"/>
     <mergeCell ref="C16:D22"/>
@@ -2870,6 +2839,38 @@
     <mergeCell ref="E2:S8"/>
     <mergeCell ref="I11:J11"/>
     <mergeCell ref="C13:E14"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="G44:M49"/>
+    <mergeCell ref="O46:P48"/>
+    <mergeCell ref="C45:F46"/>
+    <mergeCell ref="C47:F47"/>
+    <mergeCell ref="C48:F48"/>
+    <mergeCell ref="K34:N34"/>
+    <mergeCell ref="P34:S34"/>
+    <mergeCell ref="F35:I35"/>
+    <mergeCell ref="F36:I36"/>
+    <mergeCell ref="F34:I34"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="C27:D33"/>
+    <mergeCell ref="K25:N25"/>
+    <mergeCell ref="P25:S25"/>
+    <mergeCell ref="K27:N33"/>
+    <mergeCell ref="P27:S33"/>
+    <mergeCell ref="K24:N24"/>
+    <mergeCell ref="P24:S24"/>
+    <mergeCell ref="N11:R11"/>
+    <mergeCell ref="K35:N35"/>
+    <mergeCell ref="P35:S35"/>
+    <mergeCell ref="K36:N36"/>
+    <mergeCell ref="P36:S36"/>
+    <mergeCell ref="F16:I22"/>
+    <mergeCell ref="F23:I23"/>
+    <mergeCell ref="F24:I24"/>
+    <mergeCell ref="F25:I25"/>
+    <mergeCell ref="F27:I33"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2877,211 +2878,211 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="C1:S45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <selection activeCell="J31" sqref="J31:R31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="18.28515625" customWidth="1"/>
-    <col min="4" max="4" width="18.140625" customWidth="1"/>
-    <col min="5" max="5" width="9.5703125" customWidth="1"/>
-    <col min="6" max="6" width="10.28515625" customWidth="1"/>
-    <col min="7" max="7" width="9.85546875" customWidth="1"/>
+    <col min="3" max="3" width="18.33203125" customWidth="1"/>
+    <col min="4" max="4" width="18.109375" customWidth="1"/>
+    <col min="5" max="5" width="9.5546875" customWidth="1"/>
+    <col min="6" max="6" width="10.33203125" customWidth="1"/>
+    <col min="7" max="7" width="9.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:19" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="L1" s="79" t="s">
+    <row r="1" spans="3:19" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L1" s="96" t="s">
         <v>2</v>
       </c>
-      <c r="M1" s="80"/>
-      <c r="N1" s="83" t="s">
+      <c r="M1" s="97"/>
+      <c r="N1" s="98" t="s">
         <v>10</v>
       </c>
-      <c r="O1" s="83"/>
-      <c r="P1" s="83"/>
-      <c r="Q1" s="83"/>
-      <c r="R1" s="78" t="s">
+      <c r="O1" s="98"/>
+      <c r="P1" s="98"/>
+      <c r="Q1" s="98"/>
+      <c r="R1" s="95" t="s">
         <v>4</v>
       </c>
-      <c r="S1" s="78"/>
-    </row>
-    <row r="2" spans="3:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C2" s="85" t="s">
+      <c r="S1" s="95"/>
+    </row>
+    <row r="2" spans="3:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C2" s="100" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="86"/>
-      <c r="E2" s="93" t="s">
+      <c r="D2" s="101"/>
+      <c r="E2" s="108" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="94"/>
-      <c r="G2" s="94"/>
-      <c r="H2" s="94"/>
-      <c r="I2" s="94"/>
-      <c r="J2" s="94"/>
-      <c r="K2" s="94"/>
-      <c r="L2" s="94"/>
-      <c r="M2" s="94"/>
-      <c r="N2" s="94"/>
-      <c r="O2" s="94"/>
-      <c r="P2" s="94"/>
-      <c r="Q2" s="94"/>
-      <c r="R2" s="94"/>
-      <c r="S2" s="94"/>
-    </row>
-    <row r="3" spans="3:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C3" s="87"/>
-      <c r="D3" s="88"/>
-      <c r="E3" s="93"/>
-      <c r="F3" s="94"/>
-      <c r="G3" s="94"/>
-      <c r="H3" s="94"/>
-      <c r="I3" s="94"/>
-      <c r="J3" s="94"/>
-      <c r="K3" s="94"/>
-      <c r="L3" s="94"/>
-      <c r="M3" s="94"/>
-      <c r="N3" s="94"/>
-      <c r="O3" s="94"/>
-      <c r="P3" s="94"/>
-      <c r="Q3" s="94"/>
-      <c r="R3" s="94"/>
-      <c r="S3" s="94"/>
-    </row>
-    <row r="4" spans="3:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C4" s="87"/>
-      <c r="D4" s="88"/>
-      <c r="E4" s="93"/>
-      <c r="F4" s="94"/>
-      <c r="G4" s="94"/>
-      <c r="H4" s="94"/>
-      <c r="I4" s="94"/>
-      <c r="J4" s="94"/>
-      <c r="K4" s="94"/>
-      <c r="L4" s="94"/>
-      <c r="M4" s="94"/>
-      <c r="N4" s="94"/>
-      <c r="O4" s="94"/>
-      <c r="P4" s="94"/>
-      <c r="Q4" s="94"/>
-      <c r="R4" s="94"/>
-      <c r="S4" s="94"/>
-    </row>
-    <row r="5" spans="3:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C5" s="87"/>
-      <c r="D5" s="88"/>
-      <c r="E5" s="93"/>
-      <c r="F5" s="94"/>
-      <c r="G5" s="94"/>
-      <c r="H5" s="94"/>
-      <c r="I5" s="94"/>
-      <c r="J5" s="94"/>
-      <c r="K5" s="94"/>
-      <c r="L5" s="94"/>
-      <c r="M5" s="94"/>
-      <c r="N5" s="94"/>
-      <c r="O5" s="94"/>
-      <c r="P5" s="94"/>
-      <c r="Q5" s="94"/>
-      <c r="R5" s="94"/>
-      <c r="S5" s="94"/>
-    </row>
-    <row r="6" spans="3:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C6" s="87"/>
-      <c r="D6" s="88"/>
-      <c r="E6" s="93"/>
-      <c r="F6" s="94"/>
-      <c r="G6" s="94"/>
-      <c r="H6" s="94"/>
-      <c r="I6" s="94"/>
-      <c r="J6" s="94"/>
-      <c r="K6" s="94"/>
-      <c r="L6" s="94"/>
-      <c r="M6" s="94"/>
-      <c r="N6" s="94"/>
-      <c r="O6" s="94"/>
-      <c r="P6" s="94"/>
-      <c r="Q6" s="94"/>
-      <c r="R6" s="94"/>
-      <c r="S6" s="94"/>
-    </row>
-    <row r="7" spans="3:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C7" s="87"/>
-      <c r="D7" s="88"/>
-      <c r="E7" s="93"/>
-      <c r="F7" s="94"/>
-      <c r="G7" s="94"/>
-      <c r="H7" s="94"/>
-      <c r="I7" s="94"/>
-      <c r="J7" s="94"/>
-      <c r="K7" s="94"/>
-      <c r="L7" s="94"/>
-      <c r="M7" s="94"/>
-      <c r="N7" s="94"/>
-      <c r="O7" s="94"/>
-      <c r="P7" s="94"/>
-      <c r="Q7" s="94"/>
-      <c r="R7" s="94"/>
-      <c r="S7" s="94"/>
-    </row>
-    <row r="8" spans="3:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C8" s="89"/>
-      <c r="D8" s="90"/>
-      <c r="E8" s="93"/>
-      <c r="F8" s="94"/>
-      <c r="G8" s="94"/>
-      <c r="H8" s="94"/>
-      <c r="I8" s="94"/>
-      <c r="J8" s="94"/>
-      <c r="K8" s="94"/>
-      <c r="L8" s="94"/>
-      <c r="M8" s="94"/>
-      <c r="N8" s="94"/>
-      <c r="O8" s="94"/>
-      <c r="P8" s="94"/>
-      <c r="Q8" s="94"/>
-      <c r="R8" s="94"/>
-      <c r="S8" s="94"/>
-    </row>
-    <row r="11" spans="3:19" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F2" s="109"/>
+      <c r="G2" s="109"/>
+      <c r="H2" s="109"/>
+      <c r="I2" s="109"/>
+      <c r="J2" s="109"/>
+      <c r="K2" s="109"/>
+      <c r="L2" s="109"/>
+      <c r="M2" s="109"/>
+      <c r="N2" s="109"/>
+      <c r="O2" s="109"/>
+      <c r="P2" s="109"/>
+      <c r="Q2" s="109"/>
+      <c r="R2" s="109"/>
+      <c r="S2" s="109"/>
+    </row>
+    <row r="3" spans="3:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C3" s="102"/>
+      <c r="D3" s="103"/>
+      <c r="E3" s="108"/>
+      <c r="F3" s="109"/>
+      <c r="G3" s="109"/>
+      <c r="H3" s="109"/>
+      <c r="I3" s="109"/>
+      <c r="J3" s="109"/>
+      <c r="K3" s="109"/>
+      <c r="L3" s="109"/>
+      <c r="M3" s="109"/>
+      <c r="N3" s="109"/>
+      <c r="O3" s="109"/>
+      <c r="P3" s="109"/>
+      <c r="Q3" s="109"/>
+      <c r="R3" s="109"/>
+      <c r="S3" s="109"/>
+    </row>
+    <row r="4" spans="3:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C4" s="102"/>
+      <c r="D4" s="103"/>
+      <c r="E4" s="108"/>
+      <c r="F4" s="109"/>
+      <c r="G4" s="109"/>
+      <c r="H4" s="109"/>
+      <c r="I4" s="109"/>
+      <c r="J4" s="109"/>
+      <c r="K4" s="109"/>
+      <c r="L4" s="109"/>
+      <c r="M4" s="109"/>
+      <c r="N4" s="109"/>
+      <c r="O4" s="109"/>
+      <c r="P4" s="109"/>
+      <c r="Q4" s="109"/>
+      <c r="R4" s="109"/>
+      <c r="S4" s="109"/>
+    </row>
+    <row r="5" spans="3:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C5" s="102"/>
+      <c r="D5" s="103"/>
+      <c r="E5" s="108"/>
+      <c r="F5" s="109"/>
+      <c r="G5" s="109"/>
+      <c r="H5" s="109"/>
+      <c r="I5" s="109"/>
+      <c r="J5" s="109"/>
+      <c r="K5" s="109"/>
+      <c r="L5" s="109"/>
+      <c r="M5" s="109"/>
+      <c r="N5" s="109"/>
+      <c r="O5" s="109"/>
+      <c r="P5" s="109"/>
+      <c r="Q5" s="109"/>
+      <c r="R5" s="109"/>
+      <c r="S5" s="109"/>
+    </row>
+    <row r="6" spans="3:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C6" s="102"/>
+      <c r="D6" s="103"/>
+      <c r="E6" s="108"/>
+      <c r="F6" s="109"/>
+      <c r="G6" s="109"/>
+      <c r="H6" s="109"/>
+      <c r="I6" s="109"/>
+      <c r="J6" s="109"/>
+      <c r="K6" s="109"/>
+      <c r="L6" s="109"/>
+      <c r="M6" s="109"/>
+      <c r="N6" s="109"/>
+      <c r="O6" s="109"/>
+      <c r="P6" s="109"/>
+      <c r="Q6" s="109"/>
+      <c r="R6" s="109"/>
+      <c r="S6" s="109"/>
+    </row>
+    <row r="7" spans="3:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C7" s="102"/>
+      <c r="D7" s="103"/>
+      <c r="E7" s="108"/>
+      <c r="F7" s="109"/>
+      <c r="G7" s="109"/>
+      <c r="H7" s="109"/>
+      <c r="I7" s="109"/>
+      <c r="J7" s="109"/>
+      <c r="K7" s="109"/>
+      <c r="L7" s="109"/>
+      <c r="M7" s="109"/>
+      <c r="N7" s="109"/>
+      <c r="O7" s="109"/>
+      <c r="P7" s="109"/>
+      <c r="Q7" s="109"/>
+      <c r="R7" s="109"/>
+      <c r="S7" s="109"/>
+    </row>
+    <row r="8" spans="3:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C8" s="104"/>
+      <c r="D8" s="105"/>
+      <c r="E8" s="108"/>
+      <c r="F8" s="109"/>
+      <c r="G8" s="109"/>
+      <c r="H8" s="109"/>
+      <c r="I8" s="109"/>
+      <c r="J8" s="109"/>
+      <c r="K8" s="109"/>
+      <c r="L8" s="109"/>
+      <c r="M8" s="109"/>
+      <c r="N8" s="109"/>
+      <c r="O8" s="109"/>
+      <c r="P8" s="109"/>
+      <c r="Q8" s="109"/>
+      <c r="R8" s="109"/>
+      <c r="S8" s="109"/>
+    </row>
+    <row r="11" spans="3:19" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C11" s="23" t="s">
         <v>1</v>
       </c>
       <c r="D11" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="E11" s="91" t="s">
+      <c r="E11" s="106" t="s">
         <v>9</v>
       </c>
-      <c r="F11" s="92"/>
-      <c r="G11" s="91" t="s">
+      <c r="F11" s="107"/>
+      <c r="G11" s="106" t="s">
         <v>15</v>
       </c>
-      <c r="H11" s="92"/>
-      <c r="I11" s="95" t="s">
+      <c r="H11" s="107"/>
+      <c r="I11" s="110" t="s">
         <v>20</v>
       </c>
-      <c r="J11" s="95"/>
-      <c r="N11" s="111" t="s">
+      <c r="J11" s="110"/>
+      <c r="N11" s="81" t="s">
         <v>23</v>
       </c>
-      <c r="O11" s="111"/>
-      <c r="P11" s="111"/>
-      <c r="Q11" s="111"/>
-      <c r="R11" s="111"/>
+      <c r="O11" s="81"/>
+      <c r="P11" s="81"/>
+      <c r="Q11" s="81"/>
+      <c r="R11" s="81"/>
       <c r="S11" s="27" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="12" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="12" spans="3:19" x14ac:dyDescent="0.3">
       <c r="C12" s="1"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
     </row>
-    <row r="13" spans="3:19" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="13" spans="3:19" ht="23.4" x14ac:dyDescent="0.45">
       <c r="C13" s="7"/>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
@@ -3100,9 +3101,9 @@
       <c r="R13" s="9"/>
       <c r="S13" s="9"/>
     </row>
-    <row r="14" spans="3:19" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="C14" s="84"/>
-      <c r="D14" s="84"/>
+    <row r="14" spans="3:19" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="C14" s="99"/>
+      <c r="D14" s="99"/>
       <c r="E14" s="10"/>
       <c r="F14" s="14"/>
       <c r="G14" s="14"/>
@@ -3119,9 +3120,9 @@
       <c r="R14" s="11"/>
       <c r="S14" s="11"/>
     </row>
-    <row r="15" spans="3:19" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="C15" s="84"/>
-      <c r="D15" s="84"/>
+    <row r="15" spans="3:19" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="C15" s="99"/>
+      <c r="D15" s="99"/>
       <c r="E15" s="10"/>
       <c r="F15" s="14"/>
       <c r="G15" s="14"/>
@@ -3138,35 +3139,35 @@
       <c r="R15" s="11"/>
       <c r="S15" s="11"/>
     </row>
-    <row r="16" spans="3:19" ht="46.5" x14ac:dyDescent="0.25">
-      <c r="C16" s="117" t="s">
+    <row r="16" spans="3:19" ht="46.2" x14ac:dyDescent="0.3">
+      <c r="C16" s="121" t="s">
         <v>5</v>
       </c>
-      <c r="D16" s="118"/>
-      <c r="E16" s="119"/>
+      <c r="D16" s="122"/>
+      <c r="E16" s="123"/>
       <c r="F16" s="26"/>
       <c r="G16" s="29"/>
-      <c r="H16" s="113" t="s">
+      <c r="H16" s="117" t="s">
         <v>6</v>
       </c>
-      <c r="I16" s="113"/>
-      <c r="J16" s="113"/>
-      <c r="K16" s="113"/>
-      <c r="L16" s="113"/>
-      <c r="M16" s="113"/>
-      <c r="N16" s="113"/>
-      <c r="O16" s="113"/>
-      <c r="P16" s="113"/>
+      <c r="I16" s="117"/>
+      <c r="J16" s="117"/>
+      <c r="K16" s="117"/>
+      <c r="L16" s="117"/>
+      <c r="M16" s="117"/>
+      <c r="N16" s="117"/>
+      <c r="O16" s="117"/>
+      <c r="P16" s="117"/>
       <c r="Q16" s="30"/>
-      <c r="R16" s="112" t="s">
+      <c r="R16" s="116" t="s">
         <v>25</v>
       </c>
-      <c r="S16" s="112"/>
-    </row>
-    <row r="17" spans="3:19" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="C17" s="120"/>
-      <c r="D17" s="121"/>
-      <c r="E17" s="122"/>
+      <c r="S16" s="116"/>
+    </row>
+    <row r="17" spans="3:19" ht="23.4" x14ac:dyDescent="0.3">
+      <c r="C17" s="124"/>
+      <c r="D17" s="125"/>
+      <c r="E17" s="126"/>
       <c r="F17" s="26"/>
       <c r="G17" s="31"/>
       <c r="H17" s="26"/>
@@ -3182,10 +3183,10 @@
       <c r="R17" s="26"/>
       <c r="S17" s="32"/>
     </row>
-    <row r="18" spans="3:19" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="C18" s="120"/>
-      <c r="D18" s="121"/>
-      <c r="E18" s="122"/>
+    <row r="18" spans="3:19" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="C18" s="124"/>
+      <c r="D18" s="125"/>
+      <c r="E18" s="126"/>
       <c r="F18" s="26"/>
       <c r="G18" s="31"/>
       <c r="H18" s="26"/>
@@ -3203,10 +3204,10 @@
       <c r="R18" s="26"/>
       <c r="S18" s="32"/>
     </row>
-    <row r="19" spans="3:19" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="C19" s="120"/>
-      <c r="D19" s="121"/>
-      <c r="E19" s="122"/>
+    <row r="19" spans="3:19" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="C19" s="124"/>
+      <c r="D19" s="125"/>
+      <c r="E19" s="126"/>
       <c r="F19" s="26"/>
       <c r="G19" s="31"/>
       <c r="H19" s="26"/>
@@ -3222,123 +3223,123 @@
       <c r="R19" s="26"/>
       <c r="S19" s="32"/>
     </row>
-    <row r="20" spans="3:19" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="C20" s="120"/>
-      <c r="D20" s="121"/>
-      <c r="E20" s="122"/>
+    <row r="20" spans="3:19" ht="23.4" x14ac:dyDescent="0.3">
+      <c r="C20" s="124"/>
+      <c r="D20" s="125"/>
+      <c r="E20" s="126"/>
       <c r="F20" s="26"/>
       <c r="G20" s="31"/>
       <c r="H20" s="26"/>
-      <c r="I20" s="116" t="s">
+      <c r="I20" s="120" t="s">
         <v>53</v>
       </c>
-      <c r="J20" s="115"/>
-      <c r="K20" s="115"/>
-      <c r="L20" s="115"/>
-      <c r="M20" s="115"/>
-      <c r="N20" s="115"/>
-      <c r="O20" s="115"/>
-      <c r="P20" s="115"/>
-      <c r="Q20" s="115"/>
+      <c r="J20" s="119"/>
+      <c r="K20" s="119"/>
+      <c r="L20" s="119"/>
+      <c r="M20" s="119"/>
+      <c r="N20" s="119"/>
+      <c r="O20" s="119"/>
+      <c r="P20" s="119"/>
+      <c r="Q20" s="119"/>
       <c r="R20" s="26"/>
       <c r="S20" s="32"/>
     </row>
-    <row r="21" spans="3:19" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="C21" s="120"/>
-      <c r="D21" s="121"/>
-      <c r="E21" s="122"/>
+    <row r="21" spans="3:19" ht="23.4" x14ac:dyDescent="0.3">
+      <c r="C21" s="124"/>
+      <c r="D21" s="125"/>
+      <c r="E21" s="126"/>
       <c r="F21" s="26"/>
       <c r="G21" s="31"/>
       <c r="H21" s="26"/>
-      <c r="I21" s="115"/>
-      <c r="J21" s="115"/>
-      <c r="K21" s="115"/>
-      <c r="L21" s="115"/>
-      <c r="M21" s="115"/>
-      <c r="N21" s="115"/>
-      <c r="O21" s="115"/>
-      <c r="P21" s="115"/>
-      <c r="Q21" s="115"/>
+      <c r="I21" s="119"/>
+      <c r="J21" s="119"/>
+      <c r="K21" s="119"/>
+      <c r="L21" s="119"/>
+      <c r="M21" s="119"/>
+      <c r="N21" s="119"/>
+      <c r="O21" s="119"/>
+      <c r="P21" s="119"/>
+      <c r="Q21" s="119"/>
       <c r="R21" s="26"/>
       <c r="S21" s="32"/>
     </row>
-    <row r="22" spans="3:19" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="C22" s="120"/>
-      <c r="D22" s="121"/>
-      <c r="E22" s="122"/>
+    <row r="22" spans="3:19" ht="23.4" x14ac:dyDescent="0.3">
+      <c r="C22" s="124"/>
+      <c r="D22" s="125"/>
+      <c r="E22" s="126"/>
       <c r="F22" s="26"/>
       <c r="G22" s="31"/>
       <c r="H22" s="26"/>
-      <c r="I22" s="115"/>
-      <c r="J22" s="115"/>
-      <c r="K22" s="115"/>
-      <c r="L22" s="115"/>
-      <c r="M22" s="115"/>
-      <c r="N22" s="115"/>
-      <c r="O22" s="115"/>
-      <c r="P22" s="115"/>
-      <c r="Q22" s="115"/>
+      <c r="I22" s="119"/>
+      <c r="J22" s="119"/>
+      <c r="K22" s="119"/>
+      <c r="L22" s="119"/>
+      <c r="M22" s="119"/>
+      <c r="N22" s="119"/>
+      <c r="O22" s="119"/>
+      <c r="P22" s="119"/>
+      <c r="Q22" s="119"/>
       <c r="R22" s="26"/>
       <c r="S22" s="32"/>
     </row>
-    <row r="23" spans="3:19" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="C23" s="120"/>
-      <c r="D23" s="121"/>
-      <c r="E23" s="122"/>
+    <row r="23" spans="3:19" ht="23.4" x14ac:dyDescent="0.3">
+      <c r="C23" s="124"/>
+      <c r="D23" s="125"/>
+      <c r="E23" s="126"/>
       <c r="F23" s="26"/>
       <c r="G23" s="31"/>
       <c r="H23" s="26"/>
-      <c r="I23" s="115"/>
-      <c r="J23" s="115"/>
-      <c r="K23" s="115"/>
-      <c r="L23" s="115"/>
-      <c r="M23" s="115"/>
-      <c r="N23" s="115"/>
-      <c r="O23" s="115"/>
-      <c r="P23" s="115"/>
-      <c r="Q23" s="115"/>
+      <c r="I23" s="119"/>
+      <c r="J23" s="119"/>
+      <c r="K23" s="119"/>
+      <c r="L23" s="119"/>
+      <c r="M23" s="119"/>
+      <c r="N23" s="119"/>
+      <c r="O23" s="119"/>
+      <c r="P23" s="119"/>
+      <c r="Q23" s="119"/>
       <c r="R23" s="26"/>
       <c r="S23" s="32"/>
     </row>
-    <row r="24" spans="3:19" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="C24" s="120"/>
-      <c r="D24" s="121"/>
-      <c r="E24" s="122"/>
+    <row r="24" spans="3:19" ht="23.4" x14ac:dyDescent="0.3">
+      <c r="C24" s="124"/>
+      <c r="D24" s="125"/>
+      <c r="E24" s="126"/>
       <c r="F24" s="26"/>
       <c r="G24" s="31"/>
       <c r="H24" s="26"/>
-      <c r="I24" s="115"/>
-      <c r="J24" s="115"/>
-      <c r="K24" s="115"/>
-      <c r="L24" s="115"/>
-      <c r="M24" s="115"/>
-      <c r="N24" s="115"/>
-      <c r="O24" s="115"/>
-      <c r="P24" s="115"/>
-      <c r="Q24" s="115"/>
+      <c r="I24" s="119"/>
+      <c r="J24" s="119"/>
+      <c r="K24" s="119"/>
+      <c r="L24" s="119"/>
+      <c r="M24" s="119"/>
+      <c r="N24" s="119"/>
+      <c r="O24" s="119"/>
+      <c r="P24" s="119"/>
+      <c r="Q24" s="119"/>
       <c r="R24" s="26"/>
       <c r="S24" s="32"/>
     </row>
-    <row r="25" spans="3:19" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="C25" s="123"/>
-      <c r="D25" s="124"/>
-      <c r="E25" s="125"/>
+    <row r="25" spans="3:19" ht="23.4" x14ac:dyDescent="0.3">
+      <c r="C25" s="127"/>
+      <c r="D25" s="128"/>
+      <c r="E25" s="129"/>
       <c r="F25" s="26"/>
       <c r="G25" s="31"/>
       <c r="H25" s="26"/>
-      <c r="I25" s="115"/>
-      <c r="J25" s="115"/>
-      <c r="K25" s="115"/>
-      <c r="L25" s="115"/>
-      <c r="M25" s="115"/>
-      <c r="N25" s="115"/>
-      <c r="O25" s="115"/>
-      <c r="P25" s="115"/>
-      <c r="Q25" s="115"/>
+      <c r="I25" s="119"/>
+      <c r="J25" s="119"/>
+      <c r="K25" s="119"/>
+      <c r="L25" s="119"/>
+      <c r="M25" s="119"/>
+      <c r="N25" s="119"/>
+      <c r="O25" s="119"/>
+      <c r="P25" s="119"/>
+      <c r="Q25" s="119"/>
       <c r="R25" s="26"/>
       <c r="S25" s="32"/>
     </row>
-    <row r="26" spans="3:19" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="26" spans="3:19" ht="23.4" x14ac:dyDescent="0.45">
       <c r="C26" s="12"/>
       <c r="D26" s="10"/>
       <c r="E26" s="10"/>
@@ -3357,12 +3358,12 @@
       <c r="R26" s="26"/>
       <c r="S26" s="32"/>
     </row>
-    <row r="27" spans="3:19" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="C27" s="114" t="s">
+    <row r="27" spans="3:19" ht="23.4" x14ac:dyDescent="0.3">
+      <c r="C27" s="118" t="s">
         <v>26</v>
       </c>
-      <c r="D27" s="115"/>
-      <c r="E27" s="115"/>
+      <c r="D27" s="119"/>
+      <c r="E27" s="119"/>
       <c r="F27" s="26"/>
       <c r="G27" s="33"/>
       <c r="H27" s="34"/>
@@ -3378,7 +3379,7 @@
       <c r="R27" s="34"/>
       <c r="S27" s="35"/>
     </row>
-    <row r="28" spans="3:19" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="28" spans="3:19" ht="23.4" x14ac:dyDescent="0.45">
       <c r="I28" s="26"/>
       <c r="J28" s="26"/>
       <c r="K28" s="10"/>
@@ -3391,7 +3392,7 @@
       <c r="R28" s="26"/>
       <c r="S28" s="26"/>
     </row>
-    <row r="29" spans="3:19" ht="46.5" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:19" ht="46.2" x14ac:dyDescent="0.3">
       <c r="J29" s="26"/>
       <c r="K29" s="28" t="s">
         <v>58</v>
@@ -3404,24 +3405,24 @@
       <c r="R29" s="26"/>
       <c r="S29" s="26"/>
     </row>
-    <row r="30" spans="3:19" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="30" spans="3:19" ht="25.8" x14ac:dyDescent="0.5">
       <c r="G30" s="13" t="s">
         <v>27</v>
       </c>
       <c r="H30" s="13"/>
       <c r="I30" s="26"/>
-      <c r="J30" s="126"/>
-      <c r="K30" s="127"/>
-      <c r="L30" s="127"/>
-      <c r="M30" s="127"/>
-      <c r="N30" s="127"/>
-      <c r="O30" s="127"/>
-      <c r="P30" s="127"/>
-      <c r="Q30" s="127"/>
-      <c r="R30" s="128"/>
+      <c r="J30" s="112"/>
+      <c r="K30" s="113"/>
+      <c r="L30" s="113"/>
+      <c r="M30" s="113"/>
+      <c r="N30" s="113"/>
+      <c r="O30" s="113"/>
+      <c r="P30" s="113"/>
+      <c r="Q30" s="113"/>
+      <c r="R30" s="114"/>
       <c r="S30" s="26"/>
     </row>
-    <row r="31" spans="3:19" ht="26.25" x14ac:dyDescent="0.35">
+    <row r="31" spans="3:19" ht="25.8" x14ac:dyDescent="0.45">
       <c r="C31" s="26"/>
       <c r="D31" s="26"/>
       <c r="E31" s="10"/>
@@ -3431,18 +3432,18 @@
       </c>
       <c r="H31" s="36"/>
       <c r="I31" s="26"/>
-      <c r="J31" s="126"/>
-      <c r="K31" s="127"/>
-      <c r="L31" s="127"/>
-      <c r="M31" s="127"/>
-      <c r="N31" s="127"/>
-      <c r="O31" s="127"/>
-      <c r="P31" s="127"/>
-      <c r="Q31" s="127"/>
-      <c r="R31" s="128"/>
+      <c r="J31" s="112"/>
+      <c r="K31" s="113"/>
+      <c r="L31" s="113"/>
+      <c r="M31" s="113"/>
+      <c r="N31" s="113"/>
+      <c r="O31" s="113"/>
+      <c r="P31" s="113"/>
+      <c r="Q31" s="113"/>
+      <c r="R31" s="114"/>
       <c r="S31" s="26"/>
     </row>
-    <row r="32" spans="3:19" ht="26.25" x14ac:dyDescent="0.35">
+    <row r="32" spans="3:19" ht="25.8" x14ac:dyDescent="0.45">
       <c r="C32" s="26"/>
       <c r="D32" s="26"/>
       <c r="E32" s="10"/>
@@ -3452,18 +3453,18 @@
       </c>
       <c r="H32" s="36"/>
       <c r="I32" s="26"/>
-      <c r="J32" s="126"/>
-      <c r="K32" s="127"/>
-      <c r="L32" s="127"/>
-      <c r="M32" s="127"/>
-      <c r="N32" s="127"/>
-      <c r="O32" s="127"/>
-      <c r="P32" s="127"/>
-      <c r="Q32" s="127"/>
-      <c r="R32" s="128"/>
+      <c r="J32" s="112"/>
+      <c r="K32" s="113"/>
+      <c r="L32" s="113"/>
+      <c r="M32" s="113"/>
+      <c r="N32" s="113"/>
+      <c r="O32" s="113"/>
+      <c r="P32" s="113"/>
+      <c r="Q32" s="113"/>
+      <c r="R32" s="114"/>
       <c r="S32" s="26"/>
     </row>
-    <row r="33" spans="3:19" ht="26.25" x14ac:dyDescent="0.35">
+    <row r="33" spans="3:19" ht="25.8" x14ac:dyDescent="0.45">
       <c r="C33" s="26"/>
       <c r="D33" s="26"/>
       <c r="E33" s="10"/>
@@ -3473,22 +3474,22 @@
       </c>
       <c r="H33" s="36"/>
       <c r="I33" s="26"/>
-      <c r="J33" s="126" t="s">
+      <c r="J33" s="112" t="s">
         <v>32</v>
       </c>
-      <c r="K33" s="127"/>
-      <c r="L33" s="127"/>
-      <c r="M33" s="127"/>
-      <c r="N33" s="127"/>
-      <c r="O33" s="127"/>
-      <c r="P33" s="127"/>
-      <c r="Q33" s="128"/>
+      <c r="K33" s="113"/>
+      <c r="L33" s="113"/>
+      <c r="M33" s="113"/>
+      <c r="N33" s="113"/>
+      <c r="O33" s="113"/>
+      <c r="P33" s="113"/>
+      <c r="Q33" s="114"/>
       <c r="R33" s="37" t="s">
         <v>31</v>
       </c>
       <c r="S33" s="26"/>
     </row>
-    <row r="34" spans="3:19" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="34" spans="3:19" ht="23.4" x14ac:dyDescent="0.45">
       <c r="C34" s="26"/>
       <c r="D34" s="26"/>
       <c r="E34" s="10"/>
@@ -3507,7 +3508,7 @@
       <c r="R34" s="26"/>
       <c r="S34" s="26"/>
     </row>
-    <row r="35" spans="3:19" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="35" spans="3:19" ht="23.4" x14ac:dyDescent="0.45">
       <c r="C35" s="26"/>
       <c r="D35" s="26"/>
       <c r="E35" s="10"/>
@@ -3521,14 +3522,14 @@
       <c r="M35" s="26"/>
       <c r="N35" s="26"/>
       <c r="O35" s="26"/>
-      <c r="P35" s="129" t="s">
+      <c r="P35" s="115" t="s">
         <v>58</v>
       </c>
-      <c r="Q35" s="129"/>
-      <c r="R35" s="129"/>
+      <c r="Q35" s="115"/>
+      <c r="R35" s="115"/>
       <c r="S35" s="26"/>
     </row>
-    <row r="36" spans="3:19" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="36" spans="3:19" ht="23.4" x14ac:dyDescent="0.45">
       <c r="C36" s="26"/>
       <c r="D36" s="26"/>
       <c r="E36" s="10"/>
@@ -3542,12 +3543,12 @@
       <c r="M36" s="26"/>
       <c r="N36" s="26"/>
       <c r="O36" s="26"/>
-      <c r="P36" s="129"/>
-      <c r="Q36" s="129"/>
-      <c r="R36" s="129"/>
+      <c r="P36" s="115"/>
+      <c r="Q36" s="115"/>
+      <c r="R36" s="115"/>
       <c r="S36" s="26"/>
     </row>
-    <row r="37" spans="3:19" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="37" spans="3:19" ht="23.4" x14ac:dyDescent="0.45">
       <c r="C37" s="12"/>
       <c r="D37" s="10"/>
       <c r="E37" s="10"/>
@@ -3566,7 +3567,7 @@
       <c r="R37" s="11"/>
       <c r="S37" s="11"/>
     </row>
-    <row r="38" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:19" x14ac:dyDescent="0.3">
       <c r="C38" s="4"/>
       <c r="D38" s="5"/>
       <c r="E38" s="5"/>
@@ -3585,20 +3586,20 @@
       <c r="R38" s="6"/>
       <c r="S38" s="6"/>
     </row>
-    <row r="40" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="40" spans="3:19" x14ac:dyDescent="0.3">
       <c r="C40" s="15"/>
       <c r="D40" s="16"/>
       <c r="E40" s="16"/>
       <c r="F40" s="16"/>
-      <c r="G40" s="98" t="s">
+      <c r="G40" s="82" t="s">
         <v>13</v>
       </c>
-      <c r="H40" s="98"/>
-      <c r="I40" s="98"/>
-      <c r="J40" s="98"/>
-      <c r="K40" s="98"/>
-      <c r="L40" s="98"/>
-      <c r="M40" s="98"/>
+      <c r="H40" s="82"/>
+      <c r="I40" s="82"/>
+      <c r="J40" s="82"/>
+      <c r="K40" s="82"/>
+      <c r="L40" s="82"/>
+      <c r="M40" s="82"/>
       <c r="N40" s="16"/>
       <c r="O40" s="16"/>
       <c r="P40" s="16"/>
@@ -3606,20 +3607,20 @@
       <c r="R40" s="17"/>
       <c r="S40" s="17"/>
     </row>
-    <row r="41" spans="3:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C41" s="107" t="s">
+    <row r="41" spans="3:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C41" s="91" t="s">
         <v>14</v>
       </c>
-      <c r="D41" s="108"/>
-      <c r="E41" s="108"/>
-      <c r="F41" s="108"/>
-      <c r="G41" s="99"/>
-      <c r="H41" s="99"/>
-      <c r="I41" s="99"/>
-      <c r="J41" s="99"/>
-      <c r="K41" s="99"/>
-      <c r="L41" s="99"/>
-      <c r="M41" s="99"/>
+      <c r="D41" s="92"/>
+      <c r="E41" s="92"/>
+      <c r="F41" s="92"/>
+      <c r="G41" s="83"/>
+      <c r="H41" s="83"/>
+      <c r="I41" s="83"/>
+      <c r="J41" s="83"/>
+      <c r="K41" s="83"/>
+      <c r="L41" s="83"/>
+      <c r="M41" s="83"/>
       <c r="N41" s="18"/>
       <c r="O41" s="18"/>
       <c r="P41" s="18"/>
@@ -3627,81 +3628,81 @@
       <c r="R41" s="19"/>
       <c r="S41" s="19"/>
     </row>
-    <row r="42" spans="3:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C42" s="109"/>
-      <c r="D42" s="108"/>
-      <c r="E42" s="108"/>
-      <c r="F42" s="108"/>
-      <c r="G42" s="99"/>
-      <c r="H42" s="99"/>
-      <c r="I42" s="99"/>
-      <c r="J42" s="99"/>
-      <c r="K42" s="99"/>
-      <c r="L42" s="99"/>
-      <c r="M42" s="99"/>
+    <row r="42" spans="3:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C42" s="93"/>
+      <c r="D42" s="92"/>
+      <c r="E42" s="92"/>
+      <c r="F42" s="92"/>
+      <c r="G42" s="83"/>
+      <c r="H42" s="83"/>
+      <c r="I42" s="83"/>
+      <c r="J42" s="83"/>
+      <c r="K42" s="83"/>
+      <c r="L42" s="83"/>
+      <c r="M42" s="83"/>
       <c r="N42" s="18"/>
-      <c r="O42" s="101" t="s">
+      <c r="O42" s="85" t="s">
         <v>3</v>
       </c>
-      <c r="P42" s="102"/>
+      <c r="P42" s="86"/>
       <c r="Q42" s="18"/>
       <c r="R42" s="19"/>
       <c r="S42" s="19"/>
     </row>
-    <row r="43" spans="3:19" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C43" s="110" t="s">
+    <row r="43" spans="3:19" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C43" s="94" t="s">
         <v>11</v>
       </c>
-      <c r="D43" s="110"/>
-      <c r="E43" s="110"/>
-      <c r="F43" s="110"/>
-      <c r="G43" s="99"/>
-      <c r="H43" s="99"/>
-      <c r="I43" s="99"/>
-      <c r="J43" s="99"/>
-      <c r="K43" s="99"/>
-      <c r="L43" s="99"/>
-      <c r="M43" s="99"/>
+      <c r="D43" s="94"/>
+      <c r="E43" s="94"/>
+      <c r="F43" s="94"/>
+      <c r="G43" s="83"/>
+      <c r="H43" s="83"/>
+      <c r="I43" s="83"/>
+      <c r="J43" s="83"/>
+      <c r="K43" s="83"/>
+      <c r="L43" s="83"/>
+      <c r="M43" s="83"/>
       <c r="N43" s="18"/>
-      <c r="O43" s="103"/>
-      <c r="P43" s="104"/>
+      <c r="O43" s="87"/>
+      <c r="P43" s="88"/>
       <c r="Q43" s="18"/>
       <c r="R43" s="19"/>
       <c r="S43" s="19"/>
     </row>
-    <row r="44" spans="3:19" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C44" s="110" t="s">
+    <row r="44" spans="3:19" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C44" s="94" t="s">
         <v>12</v>
       </c>
-      <c r="D44" s="110"/>
-      <c r="E44" s="110"/>
-      <c r="F44" s="110"/>
-      <c r="G44" s="99"/>
-      <c r="H44" s="99"/>
-      <c r="I44" s="99"/>
-      <c r="J44" s="99"/>
-      <c r="K44" s="99"/>
-      <c r="L44" s="99"/>
-      <c r="M44" s="99"/>
+      <c r="D44" s="94"/>
+      <c r="E44" s="94"/>
+      <c r="F44" s="94"/>
+      <c r="G44" s="83"/>
+      <c r="H44" s="83"/>
+      <c r="I44" s="83"/>
+      <c r="J44" s="83"/>
+      <c r="K44" s="83"/>
+      <c r="L44" s="83"/>
+      <c r="M44" s="83"/>
       <c r="N44" s="18"/>
-      <c r="O44" s="105"/>
-      <c r="P44" s="106"/>
+      <c r="O44" s="89"/>
+      <c r="P44" s="90"/>
       <c r="Q44" s="18"/>
       <c r="R44" s="19"/>
       <c r="S44" s="19"/>
     </row>
-    <row r="45" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="45" spans="3:19" x14ac:dyDescent="0.3">
       <c r="C45" s="20"/>
       <c r="D45" s="21"/>
       <c r="E45" s="21"/>
       <c r="F45" s="21"/>
-      <c r="G45" s="100"/>
-      <c r="H45" s="100"/>
-      <c r="I45" s="100"/>
-      <c r="J45" s="100"/>
-      <c r="K45" s="100"/>
-      <c r="L45" s="100"/>
-      <c r="M45" s="100"/>
+      <c r="G45" s="84"/>
+      <c r="H45" s="84"/>
+      <c r="I45" s="84"/>
+      <c r="J45" s="84"/>
+      <c r="K45" s="84"/>
+      <c r="L45" s="84"/>
+      <c r="M45" s="84"/>
       <c r="N45" s="21"/>
       <c r="O45" s="21"/>
       <c r="P45" s="21"/>
@@ -3711,11 +3712,16 @@
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="J30:R30"/>
-    <mergeCell ref="J31:R31"/>
-    <mergeCell ref="J32:R32"/>
-    <mergeCell ref="J33:Q33"/>
-    <mergeCell ref="P35:R36"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="N1:Q1"/>
+    <mergeCell ref="R1:S1"/>
+    <mergeCell ref="C2:D8"/>
+    <mergeCell ref="E2:S8"/>
+    <mergeCell ref="G40:M45"/>
+    <mergeCell ref="C41:F42"/>
+    <mergeCell ref="O42:P44"/>
+    <mergeCell ref="C43:F43"/>
+    <mergeCell ref="C44:F44"/>
     <mergeCell ref="R16:S16"/>
     <mergeCell ref="H16:P16"/>
     <mergeCell ref="N11:R11"/>
@@ -3727,16 +3733,11 @@
     <mergeCell ref="E11:F11"/>
     <mergeCell ref="G11:H11"/>
     <mergeCell ref="I11:J11"/>
-    <mergeCell ref="G40:M45"/>
-    <mergeCell ref="C41:F42"/>
-    <mergeCell ref="O42:P44"/>
-    <mergeCell ref="C43:F43"/>
-    <mergeCell ref="C44:F44"/>
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="N1:Q1"/>
-    <mergeCell ref="R1:S1"/>
-    <mergeCell ref="C2:D8"/>
-    <mergeCell ref="E2:S8"/>
+    <mergeCell ref="J30:R30"/>
+    <mergeCell ref="J31:R31"/>
+    <mergeCell ref="J32:R32"/>
+    <mergeCell ref="J33:Q33"/>
+    <mergeCell ref="P35:R36"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3744,211 +3745,211 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="C1:S47"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="A10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="C42" sqref="C42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="18.28515625" customWidth="1"/>
-    <col min="4" max="4" width="18.140625" customWidth="1"/>
-    <col min="5" max="5" width="9.5703125" customWidth="1"/>
-    <col min="6" max="6" width="10.28515625" customWidth="1"/>
-    <col min="7" max="7" width="9.85546875" customWidth="1"/>
+    <col min="3" max="3" width="18.33203125" customWidth="1"/>
+    <col min="4" max="4" width="18.109375" customWidth="1"/>
+    <col min="5" max="5" width="9.5546875" customWidth="1"/>
+    <col min="6" max="6" width="10.33203125" customWidth="1"/>
+    <col min="7" max="7" width="9.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:19" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="L1" s="79" t="s">
+    <row r="1" spans="3:19" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L1" s="96" t="s">
         <v>2</v>
       </c>
-      <c r="M1" s="80"/>
-      <c r="N1" s="83" t="s">
+      <c r="M1" s="97"/>
+      <c r="N1" s="98" t="s">
         <v>10</v>
       </c>
-      <c r="O1" s="83"/>
-      <c r="P1" s="83"/>
-      <c r="Q1" s="83"/>
-      <c r="R1" s="78" t="s">
+      <c r="O1" s="98"/>
+      <c r="P1" s="98"/>
+      <c r="Q1" s="98"/>
+      <c r="R1" s="95" t="s">
         <v>4</v>
       </c>
-      <c r="S1" s="78"/>
-    </row>
-    <row r="2" spans="3:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C2" s="85" t="s">
+      <c r="S1" s="95"/>
+    </row>
+    <row r="2" spans="3:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C2" s="100" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="86"/>
-      <c r="E2" s="93" t="s">
+      <c r="D2" s="101"/>
+      <c r="E2" s="108" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="94"/>
-      <c r="G2" s="94"/>
-      <c r="H2" s="94"/>
-      <c r="I2" s="94"/>
-      <c r="J2" s="94"/>
-      <c r="K2" s="94"/>
-      <c r="L2" s="94"/>
-      <c r="M2" s="94"/>
-      <c r="N2" s="94"/>
-      <c r="O2" s="94"/>
-      <c r="P2" s="94"/>
-      <c r="Q2" s="94"/>
-      <c r="R2" s="94"/>
-      <c r="S2" s="94"/>
-    </row>
-    <row r="3" spans="3:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C3" s="87"/>
-      <c r="D3" s="88"/>
-      <c r="E3" s="93"/>
-      <c r="F3" s="94"/>
-      <c r="G3" s="94"/>
-      <c r="H3" s="94"/>
-      <c r="I3" s="94"/>
-      <c r="J3" s="94"/>
-      <c r="K3" s="94"/>
-      <c r="L3" s="94"/>
-      <c r="M3" s="94"/>
-      <c r="N3" s="94"/>
-      <c r="O3" s="94"/>
-      <c r="P3" s="94"/>
-      <c r="Q3" s="94"/>
-      <c r="R3" s="94"/>
-      <c r="S3" s="94"/>
-    </row>
-    <row r="4" spans="3:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C4" s="87"/>
-      <c r="D4" s="88"/>
-      <c r="E4" s="93"/>
-      <c r="F4" s="94"/>
-      <c r="G4" s="94"/>
-      <c r="H4" s="94"/>
-      <c r="I4" s="94"/>
-      <c r="J4" s="94"/>
-      <c r="K4" s="94"/>
-      <c r="L4" s="94"/>
-      <c r="M4" s="94"/>
-      <c r="N4" s="94"/>
-      <c r="O4" s="94"/>
-      <c r="P4" s="94"/>
-      <c r="Q4" s="94"/>
-      <c r="R4" s="94"/>
-      <c r="S4" s="94"/>
-    </row>
-    <row r="5" spans="3:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C5" s="87"/>
-      <c r="D5" s="88"/>
-      <c r="E5" s="93"/>
-      <c r="F5" s="94"/>
-      <c r="G5" s="94"/>
-      <c r="H5" s="94"/>
-      <c r="I5" s="94"/>
-      <c r="J5" s="94"/>
-      <c r="K5" s="94"/>
-      <c r="L5" s="94"/>
-      <c r="M5" s="94"/>
-      <c r="N5" s="94"/>
-      <c r="O5" s="94"/>
-      <c r="P5" s="94"/>
-      <c r="Q5" s="94"/>
-      <c r="R5" s="94"/>
-      <c r="S5" s="94"/>
-    </row>
-    <row r="6" spans="3:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C6" s="87"/>
-      <c r="D6" s="88"/>
-      <c r="E6" s="93"/>
-      <c r="F6" s="94"/>
-      <c r="G6" s="94"/>
-      <c r="H6" s="94"/>
-      <c r="I6" s="94"/>
-      <c r="J6" s="94"/>
-      <c r="K6" s="94"/>
-      <c r="L6" s="94"/>
-      <c r="M6" s="94"/>
-      <c r="N6" s="94"/>
-      <c r="O6" s="94"/>
-      <c r="P6" s="94"/>
-      <c r="Q6" s="94"/>
-      <c r="R6" s="94"/>
-      <c r="S6" s="94"/>
-    </row>
-    <row r="7" spans="3:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C7" s="87"/>
-      <c r="D7" s="88"/>
-      <c r="E7" s="93"/>
-      <c r="F7" s="94"/>
-      <c r="G7" s="94"/>
-      <c r="H7" s="94"/>
-      <c r="I7" s="94"/>
-      <c r="J7" s="94"/>
-      <c r="K7" s="94"/>
-      <c r="L7" s="94"/>
-      <c r="M7" s="94"/>
-      <c r="N7" s="94"/>
-      <c r="O7" s="94"/>
-      <c r="P7" s="94"/>
-      <c r="Q7" s="94"/>
-      <c r="R7" s="94"/>
-      <c r="S7" s="94"/>
-    </row>
-    <row r="8" spans="3:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C8" s="89"/>
-      <c r="D8" s="90"/>
-      <c r="E8" s="93"/>
-      <c r="F8" s="94"/>
-      <c r="G8" s="94"/>
-      <c r="H8" s="94"/>
-      <c r="I8" s="94"/>
-      <c r="J8" s="94"/>
-      <c r="K8" s="94"/>
-      <c r="L8" s="94"/>
-      <c r="M8" s="94"/>
-      <c r="N8" s="94"/>
-      <c r="O8" s="94"/>
-      <c r="P8" s="94"/>
-      <c r="Q8" s="94"/>
-      <c r="R8" s="94"/>
-      <c r="S8" s="94"/>
-    </row>
-    <row r="11" spans="3:19" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F2" s="109"/>
+      <c r="G2" s="109"/>
+      <c r="H2" s="109"/>
+      <c r="I2" s="109"/>
+      <c r="J2" s="109"/>
+      <c r="K2" s="109"/>
+      <c r="L2" s="109"/>
+      <c r="M2" s="109"/>
+      <c r="N2" s="109"/>
+      <c r="O2" s="109"/>
+      <c r="P2" s="109"/>
+      <c r="Q2" s="109"/>
+      <c r="R2" s="109"/>
+      <c r="S2" s="109"/>
+    </row>
+    <row r="3" spans="3:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C3" s="102"/>
+      <c r="D3" s="103"/>
+      <c r="E3" s="108"/>
+      <c r="F3" s="109"/>
+      <c r="G3" s="109"/>
+      <c r="H3" s="109"/>
+      <c r="I3" s="109"/>
+      <c r="J3" s="109"/>
+      <c r="K3" s="109"/>
+      <c r="L3" s="109"/>
+      <c r="M3" s="109"/>
+      <c r="N3" s="109"/>
+      <c r="O3" s="109"/>
+      <c r="P3" s="109"/>
+      <c r="Q3" s="109"/>
+      <c r="R3" s="109"/>
+      <c r="S3" s="109"/>
+    </row>
+    <row r="4" spans="3:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C4" s="102"/>
+      <c r="D4" s="103"/>
+      <c r="E4" s="108"/>
+      <c r="F4" s="109"/>
+      <c r="G4" s="109"/>
+      <c r="H4" s="109"/>
+      <c r="I4" s="109"/>
+      <c r="J4" s="109"/>
+      <c r="K4" s="109"/>
+      <c r="L4" s="109"/>
+      <c r="M4" s="109"/>
+      <c r="N4" s="109"/>
+      <c r="O4" s="109"/>
+      <c r="P4" s="109"/>
+      <c r="Q4" s="109"/>
+      <c r="R4" s="109"/>
+      <c r="S4" s="109"/>
+    </row>
+    <row r="5" spans="3:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C5" s="102"/>
+      <c r="D5" s="103"/>
+      <c r="E5" s="108"/>
+      <c r="F5" s="109"/>
+      <c r="G5" s="109"/>
+      <c r="H5" s="109"/>
+      <c r="I5" s="109"/>
+      <c r="J5" s="109"/>
+      <c r="K5" s="109"/>
+      <c r="L5" s="109"/>
+      <c r="M5" s="109"/>
+      <c r="N5" s="109"/>
+      <c r="O5" s="109"/>
+      <c r="P5" s="109"/>
+      <c r="Q5" s="109"/>
+      <c r="R5" s="109"/>
+      <c r="S5" s="109"/>
+    </row>
+    <row r="6" spans="3:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C6" s="102"/>
+      <c r="D6" s="103"/>
+      <c r="E6" s="108"/>
+      <c r="F6" s="109"/>
+      <c r="G6" s="109"/>
+      <c r="H6" s="109"/>
+      <c r="I6" s="109"/>
+      <c r="J6" s="109"/>
+      <c r="K6" s="109"/>
+      <c r="L6" s="109"/>
+      <c r="M6" s="109"/>
+      <c r="N6" s="109"/>
+      <c r="O6" s="109"/>
+      <c r="P6" s="109"/>
+      <c r="Q6" s="109"/>
+      <c r="R6" s="109"/>
+      <c r="S6" s="109"/>
+    </row>
+    <row r="7" spans="3:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C7" s="102"/>
+      <c r="D7" s="103"/>
+      <c r="E7" s="108"/>
+      <c r="F7" s="109"/>
+      <c r="G7" s="109"/>
+      <c r="H7" s="109"/>
+      <c r="I7" s="109"/>
+      <c r="J7" s="109"/>
+      <c r="K7" s="109"/>
+      <c r="L7" s="109"/>
+      <c r="M7" s="109"/>
+      <c r="N7" s="109"/>
+      <c r="O7" s="109"/>
+      <c r="P7" s="109"/>
+      <c r="Q7" s="109"/>
+      <c r="R7" s="109"/>
+      <c r="S7" s="109"/>
+    </row>
+    <row r="8" spans="3:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C8" s="104"/>
+      <c r="D8" s="105"/>
+      <c r="E8" s="108"/>
+      <c r="F8" s="109"/>
+      <c r="G8" s="109"/>
+      <c r="H8" s="109"/>
+      <c r="I8" s="109"/>
+      <c r="J8" s="109"/>
+      <c r="K8" s="109"/>
+      <c r="L8" s="109"/>
+      <c r="M8" s="109"/>
+      <c r="N8" s="109"/>
+      <c r="O8" s="109"/>
+      <c r="P8" s="109"/>
+      <c r="Q8" s="109"/>
+      <c r="R8" s="109"/>
+      <c r="S8" s="109"/>
+    </row>
+    <row r="11" spans="3:19" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C11" s="23" t="s">
         <v>1</v>
       </c>
       <c r="D11" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="E11" s="91" t="s">
+      <c r="E11" s="106" t="s">
         <v>9</v>
       </c>
-      <c r="F11" s="92"/>
-      <c r="G11" s="91" t="s">
+      <c r="F11" s="107"/>
+      <c r="G11" s="106" t="s">
         <v>15</v>
       </c>
-      <c r="H11" s="92"/>
-      <c r="I11" s="95" t="s">
+      <c r="H11" s="107"/>
+      <c r="I11" s="110" t="s">
         <v>20</v>
       </c>
-      <c r="J11" s="95"/>
-      <c r="N11" s="111" t="s">
+      <c r="J11" s="110"/>
+      <c r="N11" s="81" t="s">
         <v>23</v>
       </c>
-      <c r="O11" s="111"/>
-      <c r="P11" s="111"/>
-      <c r="Q11" s="111"/>
-      <c r="R11" s="111"/>
+      <c r="O11" s="81"/>
+      <c r="P11" s="81"/>
+      <c r="Q11" s="81"/>
+      <c r="R11" s="81"/>
       <c r="S11" s="27" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="12" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="12" spans="3:19" x14ac:dyDescent="0.3">
       <c r="C12" s="1"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
     </row>
-    <row r="13" spans="3:19" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="13" spans="3:19" ht="23.4" x14ac:dyDescent="0.45">
       <c r="C13" s="7"/>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
@@ -3967,7 +3968,7 @@
       <c r="R13" s="9"/>
       <c r="S13" s="9"/>
     </row>
-    <row r="14" spans="3:19" ht="31.5" x14ac:dyDescent="0.5">
+    <row r="14" spans="3:19" ht="31.2" x14ac:dyDescent="0.6">
       <c r="C14" s="131" t="s">
         <v>33</v>
       </c>
@@ -3988,7 +3989,7 @@
       <c r="R14" s="11"/>
       <c r="S14" s="11"/>
     </row>
-    <row r="15" spans="3:19" ht="31.5" x14ac:dyDescent="0.5">
+    <row r="15" spans="3:19" ht="31.2" x14ac:dyDescent="0.6">
       <c r="C15" s="38"/>
       <c r="D15" s="38"/>
       <c r="E15" s="10"/>
@@ -4007,7 +4008,7 @@
       <c r="R15" s="11"/>
       <c r="S15" s="11"/>
     </row>
-    <row r="16" spans="3:19" ht="31.5" x14ac:dyDescent="0.5">
+    <row r="16" spans="3:19" ht="31.2" x14ac:dyDescent="0.6">
       <c r="C16" s="135" t="s">
         <v>34</v>
       </c>
@@ -4030,7 +4031,7 @@
       <c r="R16" s="11"/>
       <c r="S16" s="11"/>
     </row>
-    <row r="17" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C17" s="136"/>
       <c r="D17" s="2"/>
       <c r="E17" s="2" t="s">
@@ -4044,7 +4045,7 @@
       </c>
       <c r="J17" s="3"/>
     </row>
-    <row r="18" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C18" s="136"/>
       <c r="D18" s="2" t="s">
         <v>36</v>
@@ -4064,7 +4065,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="19" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C19" s="137"/>
       <c r="D19" s="2" t="s">
         <v>41</v>
@@ -4078,7 +4079,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="20" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C20" s="4"/>
       <c r="D20" s="5"/>
       <c r="E20" s="5"/>
@@ -4088,7 +4089,7 @@
       <c r="I20" s="5"/>
       <c r="J20" s="6"/>
     </row>
-    <row r="22" spans="3:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C22" s="135" t="s">
         <v>34</v>
       </c>
@@ -4102,7 +4103,7 @@
       <c r="I22" s="138"/>
       <c r="J22" s="139"/>
     </row>
-    <row r="23" spans="3:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C23" s="136"/>
       <c r="D23" s="140"/>
       <c r="E23" s="140"/>
@@ -4112,7 +4113,7 @@
       <c r="I23" s="140"/>
       <c r="J23" s="141"/>
     </row>
-    <row r="24" spans="3:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C24" s="136"/>
       <c r="D24" s="2" t="s">
         <v>36</v>
@@ -4128,7 +4129,7 @@
       </c>
       <c r="J24" s="3"/>
     </row>
-    <row r="25" spans="3:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C25" s="137"/>
       <c r="D25" s="2" t="s">
         <v>41</v>
@@ -4148,7 +4149,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="26" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C26" s="4"/>
       <c r="D26" s="5"/>
       <c r="E26" s="5"/>
@@ -4158,7 +4159,7 @@
       <c r="I26" s="5"/>
       <c r="J26" s="6"/>
     </row>
-    <row r="28" spans="3:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C28" s="135" t="s">
         <v>34</v>
       </c>
@@ -4172,7 +4173,7 @@
       <c r="I28" s="138"/>
       <c r="J28" s="139"/>
     </row>
-    <row r="29" spans="3:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C29" s="136"/>
       <c r="D29" s="140"/>
       <c r="E29" s="140"/>
@@ -4182,7 +4183,7 @@
       <c r="I29" s="140"/>
       <c r="J29" s="141"/>
     </row>
-    <row r="30" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C30" s="136"/>
       <c r="D30" s="2" t="s">
         <v>36</v>
@@ -4198,7 +4199,7 @@
       </c>
       <c r="J30" s="3"/>
     </row>
-    <row r="31" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C31" s="137"/>
       <c r="D31" s="2" t="s">
         <v>41</v>
@@ -4218,7 +4219,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="32" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C32" s="4"/>
       <c r="D32" s="5"/>
       <c r="E32" s="5"/>
@@ -4230,14 +4231,14 @@
         <v>40</v>
       </c>
     </row>
-    <row r="34" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:19" x14ac:dyDescent="0.3">
       <c r="H34" s="39" t="s">
         <v>47</v>
       </c>
       <c r="I34" s="39"/>
       <c r="J34" s="39"/>
     </row>
-    <row r="35" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:19" x14ac:dyDescent="0.3">
       <c r="C35" s="130" t="s">
         <v>44</v>
       </c>
@@ -4251,7 +4252,7 @@
       <c r="I35" s="130"/>
       <c r="J35" s="130"/>
     </row>
-    <row r="36" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:19" x14ac:dyDescent="0.3">
       <c r="C36" s="130"/>
       <c r="E36" s="130"/>
       <c r="F36" s="130"/>
@@ -4259,9 +4260,9 @@
       <c r="I36" s="130"/>
       <c r="J36" s="130"/>
     </row>
-    <row r="38" spans="3:19" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="C38" s="84"/>
-      <c r="D38" s="84"/>
+    <row r="38" spans="3:19" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="C38" s="99"/>
+      <c r="D38" s="99"/>
       <c r="E38" s="10"/>
       <c r="F38" s="14"/>
       <c r="G38" s="14"/>
@@ -4278,7 +4279,7 @@
       <c r="R38" s="11"/>
       <c r="S38" s="11"/>
     </row>
-    <row r="39" spans="3:19" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="39" spans="3:19" ht="23.4" x14ac:dyDescent="0.45">
       <c r="C39" s="12"/>
       <c r="D39" s="10"/>
       <c r="E39" s="10"/>
@@ -4297,7 +4298,7 @@
       <c r="R39" s="11"/>
       <c r="S39" s="11"/>
     </row>
-    <row r="40" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="40" spans="3:19" x14ac:dyDescent="0.3">
       <c r="C40" s="4"/>
       <c r="D40" s="5"/>
       <c r="E40" s="5"/>
@@ -4316,20 +4317,20 @@
       <c r="R40" s="6"/>
       <c r="S40" s="6"/>
     </row>
-    <row r="42" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="42" spans="3:19" x14ac:dyDescent="0.3">
       <c r="C42" s="15"/>
       <c r="D42" s="16"/>
       <c r="E42" s="16"/>
       <c r="F42" s="16"/>
-      <c r="G42" s="98" t="s">
+      <c r="G42" s="82" t="s">
         <v>13</v>
       </c>
-      <c r="H42" s="98"/>
-      <c r="I42" s="98"/>
-      <c r="J42" s="98"/>
-      <c r="K42" s="98"/>
-      <c r="L42" s="98"/>
-      <c r="M42" s="98"/>
+      <c r="H42" s="82"/>
+      <c r="I42" s="82"/>
+      <c r="J42" s="82"/>
+      <c r="K42" s="82"/>
+      <c r="L42" s="82"/>
+      <c r="M42" s="82"/>
       <c r="N42" s="16"/>
       <c r="O42" s="16"/>
       <c r="P42" s="16"/>
@@ -4337,20 +4338,20 @@
       <c r="R42" s="17"/>
       <c r="S42" s="17"/>
     </row>
-    <row r="43" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C43" s="107" t="s">
+    <row r="43" spans="3:19" x14ac:dyDescent="0.3">
+      <c r="C43" s="91" t="s">
         <v>14</v>
       </c>
-      <c r="D43" s="108"/>
-      <c r="E43" s="108"/>
-      <c r="F43" s="108"/>
-      <c r="G43" s="99"/>
-      <c r="H43" s="99"/>
-      <c r="I43" s="99"/>
-      <c r="J43" s="99"/>
-      <c r="K43" s="99"/>
-      <c r="L43" s="99"/>
-      <c r="M43" s="99"/>
+      <c r="D43" s="92"/>
+      <c r="E43" s="92"/>
+      <c r="F43" s="92"/>
+      <c r="G43" s="83"/>
+      <c r="H43" s="83"/>
+      <c r="I43" s="83"/>
+      <c r="J43" s="83"/>
+      <c r="K43" s="83"/>
+      <c r="L43" s="83"/>
+      <c r="M43" s="83"/>
       <c r="N43" s="18"/>
       <c r="O43" s="18"/>
       <c r="P43" s="18"/>
@@ -4358,81 +4359,81 @@
       <c r="R43" s="19"/>
       <c r="S43" s="19"/>
     </row>
-    <row r="44" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C44" s="109"/>
-      <c r="D44" s="108"/>
-      <c r="E44" s="108"/>
-      <c r="F44" s="108"/>
-      <c r="G44" s="99"/>
-      <c r="H44" s="99"/>
-      <c r="I44" s="99"/>
-      <c r="J44" s="99"/>
-      <c r="K44" s="99"/>
-      <c r="L44" s="99"/>
-      <c r="M44" s="99"/>
+    <row r="44" spans="3:19" x14ac:dyDescent="0.3">
+      <c r="C44" s="93"/>
+      <c r="D44" s="92"/>
+      <c r="E44" s="92"/>
+      <c r="F44" s="92"/>
+      <c r="G44" s="83"/>
+      <c r="H44" s="83"/>
+      <c r="I44" s="83"/>
+      <c r="J44" s="83"/>
+      <c r="K44" s="83"/>
+      <c r="L44" s="83"/>
+      <c r="M44" s="83"/>
       <c r="N44" s="18"/>
-      <c r="O44" s="101" t="s">
+      <c r="O44" s="85" t="s">
         <v>3</v>
       </c>
-      <c r="P44" s="102"/>
+      <c r="P44" s="86"/>
       <c r="Q44" s="18"/>
       <c r="R44" s="19"/>
       <c r="S44" s="19"/>
     </row>
-    <row r="45" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C45" s="110" t="s">
+    <row r="45" spans="3:19" x14ac:dyDescent="0.3">
+      <c r="C45" s="94" t="s">
         <v>11</v>
       </c>
-      <c r="D45" s="110"/>
-      <c r="E45" s="110"/>
-      <c r="F45" s="110"/>
-      <c r="G45" s="99"/>
-      <c r="H45" s="99"/>
-      <c r="I45" s="99"/>
-      <c r="J45" s="99"/>
-      <c r="K45" s="99"/>
-      <c r="L45" s="99"/>
-      <c r="M45" s="99"/>
+      <c r="D45" s="94"/>
+      <c r="E45" s="94"/>
+      <c r="F45" s="94"/>
+      <c r="G45" s="83"/>
+      <c r="H45" s="83"/>
+      <c r="I45" s="83"/>
+      <c r="J45" s="83"/>
+      <c r="K45" s="83"/>
+      <c r="L45" s="83"/>
+      <c r="M45" s="83"/>
       <c r="N45" s="18"/>
-      <c r="O45" s="103"/>
-      <c r="P45" s="104"/>
+      <c r="O45" s="87"/>
+      <c r="P45" s="88"/>
       <c r="Q45" s="18"/>
       <c r="R45" s="19"/>
       <c r="S45" s="19"/>
     </row>
-    <row r="46" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C46" s="110" t="s">
+    <row r="46" spans="3:19" x14ac:dyDescent="0.3">
+      <c r="C46" s="94" t="s">
         <v>12</v>
       </c>
-      <c r="D46" s="110"/>
-      <c r="E46" s="110"/>
-      <c r="F46" s="110"/>
-      <c r="G46" s="99"/>
-      <c r="H46" s="99"/>
-      <c r="I46" s="99"/>
-      <c r="J46" s="99"/>
-      <c r="K46" s="99"/>
-      <c r="L46" s="99"/>
-      <c r="M46" s="99"/>
+      <c r="D46" s="94"/>
+      <c r="E46" s="94"/>
+      <c r="F46" s="94"/>
+      <c r="G46" s="83"/>
+      <c r="H46" s="83"/>
+      <c r="I46" s="83"/>
+      <c r="J46" s="83"/>
+      <c r="K46" s="83"/>
+      <c r="L46" s="83"/>
+      <c r="M46" s="83"/>
       <c r="N46" s="18"/>
-      <c r="O46" s="105"/>
-      <c r="P46" s="106"/>
+      <c r="O46" s="89"/>
+      <c r="P46" s="90"/>
       <c r="Q46" s="18"/>
       <c r="R46" s="19"/>
       <c r="S46" s="19"/>
     </row>
-    <row r="47" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="47" spans="3:19" x14ac:dyDescent="0.3">
       <c r="C47" s="20"/>
       <c r="D47" s="21"/>
       <c r="E47" s="21"/>
       <c r="F47" s="21"/>
-      <c r="G47" s="100"/>
-      <c r="H47" s="100"/>
-      <c r="I47" s="100"/>
-      <c r="J47" s="100"/>
-      <c r="K47" s="100"/>
-      <c r="L47" s="100"/>
-      <c r="M47" s="100"/>
+      <c r="G47" s="84"/>
+      <c r="H47" s="84"/>
+      <c r="I47" s="84"/>
+      <c r="J47" s="84"/>
+      <c r="K47" s="84"/>
+      <c r="L47" s="84"/>
+      <c r="M47" s="84"/>
       <c r="N47" s="21"/>
       <c r="O47" s="21"/>
       <c r="P47" s="21"/>
@@ -4442,12 +4443,12 @@
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="G42:M47"/>
-    <mergeCell ref="C43:F44"/>
-    <mergeCell ref="O44:P46"/>
-    <mergeCell ref="C45:F45"/>
-    <mergeCell ref="C46:F46"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="N11:R11"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="N1:Q1"/>
+    <mergeCell ref="R1:S1"/>
     <mergeCell ref="C2:D8"/>
     <mergeCell ref="E2:S8"/>
     <mergeCell ref="C35:C36"/>
@@ -4464,12 +4465,12 @@
     <mergeCell ref="C22:C25"/>
     <mergeCell ref="E25:G25"/>
     <mergeCell ref="E11:F11"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="N11:R11"/>
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="N1:Q1"/>
-    <mergeCell ref="R1:S1"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="G42:M47"/>
+    <mergeCell ref="C43:F44"/>
+    <mergeCell ref="O44:P46"/>
+    <mergeCell ref="C45:F45"/>
+    <mergeCell ref="C46:F46"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4477,211 +4478,211 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="C1:S43"/>
   <sheetViews>
     <sheetView topLeftCell="A10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="I32" sqref="I32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="18.28515625" customWidth="1"/>
-    <col min="4" max="4" width="18.140625" customWidth="1"/>
-    <col min="5" max="5" width="9.5703125" customWidth="1"/>
-    <col min="6" max="6" width="10.28515625" customWidth="1"/>
-    <col min="7" max="7" width="9.85546875" customWidth="1"/>
+    <col min="3" max="3" width="18.33203125" customWidth="1"/>
+    <col min="4" max="4" width="18.109375" customWidth="1"/>
+    <col min="5" max="5" width="9.5546875" customWidth="1"/>
+    <col min="6" max="6" width="10.33203125" customWidth="1"/>
+    <col min="7" max="7" width="9.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:19" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="L1" s="79" t="s">
+    <row r="1" spans="3:19" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L1" s="96" t="s">
         <v>2</v>
       </c>
-      <c r="M1" s="80"/>
-      <c r="N1" s="83" t="s">
+      <c r="M1" s="97"/>
+      <c r="N1" s="98" t="s">
         <v>10</v>
       </c>
-      <c r="O1" s="83"/>
-      <c r="P1" s="83"/>
-      <c r="Q1" s="83"/>
-      <c r="R1" s="78" t="s">
+      <c r="O1" s="98"/>
+      <c r="P1" s="98"/>
+      <c r="Q1" s="98"/>
+      <c r="R1" s="95" t="s">
         <v>4</v>
       </c>
-      <c r="S1" s="78"/>
-    </row>
-    <row r="2" spans="3:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C2" s="85" t="s">
+      <c r="S1" s="95"/>
+    </row>
+    <row r="2" spans="3:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C2" s="100" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="86"/>
-      <c r="E2" s="93" t="s">
+      <c r="D2" s="101"/>
+      <c r="E2" s="108" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="94"/>
-      <c r="G2" s="94"/>
-      <c r="H2" s="94"/>
-      <c r="I2" s="94"/>
-      <c r="J2" s="94"/>
-      <c r="K2" s="94"/>
-      <c r="L2" s="94"/>
-      <c r="M2" s="94"/>
-      <c r="N2" s="94"/>
-      <c r="O2" s="94"/>
-      <c r="P2" s="94"/>
-      <c r="Q2" s="94"/>
-      <c r="R2" s="94"/>
-      <c r="S2" s="94"/>
-    </row>
-    <row r="3" spans="3:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C3" s="87"/>
-      <c r="D3" s="88"/>
-      <c r="E3" s="93"/>
-      <c r="F3" s="94"/>
-      <c r="G3" s="94"/>
-      <c r="H3" s="94"/>
-      <c r="I3" s="94"/>
-      <c r="J3" s="94"/>
-      <c r="K3" s="94"/>
-      <c r="L3" s="94"/>
-      <c r="M3" s="94"/>
-      <c r="N3" s="94"/>
-      <c r="O3" s="94"/>
-      <c r="P3" s="94"/>
-      <c r="Q3" s="94"/>
-      <c r="R3" s="94"/>
-      <c r="S3" s="94"/>
-    </row>
-    <row r="4" spans="3:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C4" s="87"/>
-      <c r="D4" s="88"/>
-      <c r="E4" s="93"/>
-      <c r="F4" s="94"/>
-      <c r="G4" s="94"/>
-      <c r="H4" s="94"/>
-      <c r="I4" s="94"/>
-      <c r="J4" s="94"/>
-      <c r="K4" s="94"/>
-      <c r="L4" s="94"/>
-      <c r="M4" s="94"/>
-      <c r="N4" s="94"/>
-      <c r="O4" s="94"/>
-      <c r="P4" s="94"/>
-      <c r="Q4" s="94"/>
-      <c r="R4" s="94"/>
-      <c r="S4" s="94"/>
-    </row>
-    <row r="5" spans="3:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C5" s="87"/>
-      <c r="D5" s="88"/>
-      <c r="E5" s="93"/>
-      <c r="F5" s="94"/>
-      <c r="G5" s="94"/>
-      <c r="H5" s="94"/>
-      <c r="I5" s="94"/>
-      <c r="J5" s="94"/>
-      <c r="K5" s="94"/>
-      <c r="L5" s="94"/>
-      <c r="M5" s="94"/>
-      <c r="N5" s="94"/>
-      <c r="O5" s="94"/>
-      <c r="P5" s="94"/>
-      <c r="Q5" s="94"/>
-      <c r="R5" s="94"/>
-      <c r="S5" s="94"/>
-    </row>
-    <row r="6" spans="3:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C6" s="87"/>
-      <c r="D6" s="88"/>
-      <c r="E6" s="93"/>
-      <c r="F6" s="94"/>
-      <c r="G6" s="94"/>
-      <c r="H6" s="94"/>
-      <c r="I6" s="94"/>
-      <c r="J6" s="94"/>
-      <c r="K6" s="94"/>
-      <c r="L6" s="94"/>
-      <c r="M6" s="94"/>
-      <c r="N6" s="94"/>
-      <c r="O6" s="94"/>
-      <c r="P6" s="94"/>
-      <c r="Q6" s="94"/>
-      <c r="R6" s="94"/>
-      <c r="S6" s="94"/>
-    </row>
-    <row r="7" spans="3:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C7" s="87"/>
-      <c r="D7" s="88"/>
-      <c r="E7" s="93"/>
-      <c r="F7" s="94"/>
-      <c r="G7" s="94"/>
-      <c r="H7" s="94"/>
-      <c r="I7" s="94"/>
-      <c r="J7" s="94"/>
-      <c r="K7" s="94"/>
-      <c r="L7" s="94"/>
-      <c r="M7" s="94"/>
-      <c r="N7" s="94"/>
-      <c r="O7" s="94"/>
-      <c r="P7" s="94"/>
-      <c r="Q7" s="94"/>
-      <c r="R7" s="94"/>
-      <c r="S7" s="94"/>
-    </row>
-    <row r="8" spans="3:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C8" s="89"/>
-      <c r="D8" s="90"/>
-      <c r="E8" s="93"/>
-      <c r="F8" s="94"/>
-      <c r="G8" s="94"/>
-      <c r="H8" s="94"/>
-      <c r="I8" s="94"/>
-      <c r="J8" s="94"/>
-      <c r="K8" s="94"/>
-      <c r="L8" s="94"/>
-      <c r="M8" s="94"/>
-      <c r="N8" s="94"/>
-      <c r="O8" s="94"/>
-      <c r="P8" s="94"/>
-      <c r="Q8" s="94"/>
-      <c r="R8" s="94"/>
-      <c r="S8" s="94"/>
-    </row>
-    <row r="11" spans="3:19" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F2" s="109"/>
+      <c r="G2" s="109"/>
+      <c r="H2" s="109"/>
+      <c r="I2" s="109"/>
+      <c r="J2" s="109"/>
+      <c r="K2" s="109"/>
+      <c r="L2" s="109"/>
+      <c r="M2" s="109"/>
+      <c r="N2" s="109"/>
+      <c r="O2" s="109"/>
+      <c r="P2" s="109"/>
+      <c r="Q2" s="109"/>
+      <c r="R2" s="109"/>
+      <c r="S2" s="109"/>
+    </row>
+    <row r="3" spans="3:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C3" s="102"/>
+      <c r="D3" s="103"/>
+      <c r="E3" s="108"/>
+      <c r="F3" s="109"/>
+      <c r="G3" s="109"/>
+      <c r="H3" s="109"/>
+      <c r="I3" s="109"/>
+      <c r="J3" s="109"/>
+      <c r="K3" s="109"/>
+      <c r="L3" s="109"/>
+      <c r="M3" s="109"/>
+      <c r="N3" s="109"/>
+      <c r="O3" s="109"/>
+      <c r="P3" s="109"/>
+      <c r="Q3" s="109"/>
+      <c r="R3" s="109"/>
+      <c r="S3" s="109"/>
+    </row>
+    <row r="4" spans="3:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C4" s="102"/>
+      <c r="D4" s="103"/>
+      <c r="E4" s="108"/>
+      <c r="F4" s="109"/>
+      <c r="G4" s="109"/>
+      <c r="H4" s="109"/>
+      <c r="I4" s="109"/>
+      <c r="J4" s="109"/>
+      <c r="K4" s="109"/>
+      <c r="L4" s="109"/>
+      <c r="M4" s="109"/>
+      <c r="N4" s="109"/>
+      <c r="O4" s="109"/>
+      <c r="P4" s="109"/>
+      <c r="Q4" s="109"/>
+      <c r="R4" s="109"/>
+      <c r="S4" s="109"/>
+    </row>
+    <row r="5" spans="3:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C5" s="102"/>
+      <c r="D5" s="103"/>
+      <c r="E5" s="108"/>
+      <c r="F5" s="109"/>
+      <c r="G5" s="109"/>
+      <c r="H5" s="109"/>
+      <c r="I5" s="109"/>
+      <c r="J5" s="109"/>
+      <c r="K5" s="109"/>
+      <c r="L5" s="109"/>
+      <c r="M5" s="109"/>
+      <c r="N5" s="109"/>
+      <c r="O5" s="109"/>
+      <c r="P5" s="109"/>
+      <c r="Q5" s="109"/>
+      <c r="R5" s="109"/>
+      <c r="S5" s="109"/>
+    </row>
+    <row r="6" spans="3:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C6" s="102"/>
+      <c r="D6" s="103"/>
+      <c r="E6" s="108"/>
+      <c r="F6" s="109"/>
+      <c r="G6" s="109"/>
+      <c r="H6" s="109"/>
+      <c r="I6" s="109"/>
+      <c r="J6" s="109"/>
+      <c r="K6" s="109"/>
+      <c r="L6" s="109"/>
+      <c r="M6" s="109"/>
+      <c r="N6" s="109"/>
+      <c r="O6" s="109"/>
+      <c r="P6" s="109"/>
+      <c r="Q6" s="109"/>
+      <c r="R6" s="109"/>
+      <c r="S6" s="109"/>
+    </row>
+    <row r="7" spans="3:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C7" s="102"/>
+      <c r="D7" s="103"/>
+      <c r="E7" s="108"/>
+      <c r="F7" s="109"/>
+      <c r="G7" s="109"/>
+      <c r="H7" s="109"/>
+      <c r="I7" s="109"/>
+      <c r="J7" s="109"/>
+      <c r="K7" s="109"/>
+      <c r="L7" s="109"/>
+      <c r="M7" s="109"/>
+      <c r="N7" s="109"/>
+      <c r="O7" s="109"/>
+      <c r="P7" s="109"/>
+      <c r="Q7" s="109"/>
+      <c r="R7" s="109"/>
+      <c r="S7" s="109"/>
+    </row>
+    <row r="8" spans="3:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C8" s="104"/>
+      <c r="D8" s="105"/>
+      <c r="E8" s="108"/>
+      <c r="F8" s="109"/>
+      <c r="G8" s="109"/>
+      <c r="H8" s="109"/>
+      <c r="I8" s="109"/>
+      <c r="J8" s="109"/>
+      <c r="K8" s="109"/>
+      <c r="L8" s="109"/>
+      <c r="M8" s="109"/>
+      <c r="N8" s="109"/>
+      <c r="O8" s="109"/>
+      <c r="P8" s="109"/>
+      <c r="Q8" s="109"/>
+      <c r="R8" s="109"/>
+      <c r="S8" s="109"/>
+    </row>
+    <row r="11" spans="3:19" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C11" s="23" t="s">
         <v>1</v>
       </c>
       <c r="D11" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="E11" s="91" t="s">
+      <c r="E11" s="106" t="s">
         <v>9</v>
       </c>
-      <c r="F11" s="92"/>
-      <c r="G11" s="91" t="s">
+      <c r="F11" s="107"/>
+      <c r="G11" s="106" t="s">
         <v>15</v>
       </c>
-      <c r="H11" s="92"/>
-      <c r="I11" s="95" t="s">
+      <c r="H11" s="107"/>
+      <c r="I11" s="110" t="s">
         <v>20</v>
       </c>
-      <c r="J11" s="95"/>
-      <c r="N11" s="111" t="s">
+      <c r="J11" s="110"/>
+      <c r="N11" s="81" t="s">
         <v>23</v>
       </c>
-      <c r="O11" s="111"/>
-      <c r="P11" s="111"/>
-      <c r="Q11" s="111"/>
-      <c r="R11" s="111"/>
+      <c r="O11" s="81"/>
+      <c r="P11" s="81"/>
+      <c r="Q11" s="81"/>
+      <c r="R11" s="81"/>
       <c r="S11" s="27" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="12" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="12" spans="3:19" x14ac:dyDescent="0.3">
       <c r="C12" s="1"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
     </row>
-    <row r="13" spans="3:19" ht="31.5" x14ac:dyDescent="0.5">
+    <row r="13" spans="3:19" ht="31.2" x14ac:dyDescent="0.6">
       <c r="C13" s="131" t="s">
         <v>49</v>
       </c>
@@ -4702,7 +4703,7 @@
       <c r="R13" s="9"/>
       <c r="S13" s="9"/>
     </row>
-    <row r="14" spans="3:19" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="14" spans="3:19" ht="23.4" x14ac:dyDescent="0.45">
       <c r="E14" s="10"/>
       <c r="F14" s="41"/>
       <c r="G14" s="41"/>
@@ -4719,7 +4720,7 @@
       <c r="R14" s="11"/>
       <c r="S14" s="11"/>
     </row>
-    <row r="15" spans="3:19" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="15" spans="3:19" ht="23.4" x14ac:dyDescent="0.45">
       <c r="C15" s="150" t="s">
         <v>51</v>
       </c>
@@ -4742,7 +4743,7 @@
       <c r="R15" s="11"/>
       <c r="S15" s="11"/>
     </row>
-    <row r="16" spans="3:19" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="16" spans="3:19" ht="23.4" x14ac:dyDescent="0.45">
       <c r="C16" s="151"/>
       <c r="D16" s="151"/>
       <c r="E16" s="153"/>
@@ -4761,7 +4762,7 @@
       <c r="R16" s="11"/>
       <c r="S16" s="11"/>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C17" s="43"/>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
@@ -4773,7 +4774,7 @@
       <c r="K17" s="2"/>
       <c r="L17" s="2"/>
     </row>
-    <row r="18" spans="3:12" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="18" spans="3:12" ht="23.4" x14ac:dyDescent="0.45">
       <c r="C18" s="50" t="s">
         <v>54</v>
       </c>
@@ -4787,7 +4788,7 @@
       <c r="K18" s="2"/>
       <c r="L18" s="2"/>
     </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C19" s="45"/>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
@@ -4799,7 +4800,7 @@
       <c r="K19" s="2"/>
       <c r="L19" s="2"/>
     </row>
-    <row r="20" spans="3:12" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="20" spans="3:12" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="C20" s="51" t="s">
         <v>57</v>
       </c>
@@ -4815,7 +4816,7 @@
       <c r="K20" s="2"/>
       <c r="L20" s="2"/>
     </row>
-    <row r="21" spans="3:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C21" s="45"/>
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
@@ -4823,7 +4824,7 @@
       <c r="K21" s="2"/>
       <c r="L21" s="2"/>
     </row>
-    <row r="22" spans="3:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C22" s="47"/>
       <c r="D22" s="48"/>
       <c r="E22" s="48"/>
@@ -4831,7 +4832,7 @@
       <c r="K22" s="2"/>
       <c r="L22" s="2"/>
     </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
@@ -4845,7 +4846,7 @@
       <c r="K23" s="2"/>
       <c r="L23" s="2"/>
     </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
@@ -4857,7 +4858,7 @@
       <c r="K24" s="2"/>
       <c r="L24" s="2"/>
     </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
       <c r="E25" s="2"/>
@@ -4869,7 +4870,7 @@
       <c r="K25" s="2"/>
       <c r="L25" s="2"/>
     </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
       <c r="E26" s="2"/>
@@ -4881,7 +4882,7 @@
       <c r="K26" s="2"/>
       <c r="L26" s="2"/>
     </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
       <c r="E27" s="2"/>
@@ -4893,7 +4894,7 @@
       <c r="K27" s="2"/>
       <c r="L27" s="2"/>
     </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
       <c r="E28" s="2"/>
@@ -4905,7 +4906,7 @@
       <c r="K28" s="2"/>
       <c r="L28" s="2"/>
     </row>
-    <row r="36" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:19" x14ac:dyDescent="0.3">
       <c r="C36" s="53"/>
       <c r="D36" s="2"/>
       <c r="E36" s="2"/>
@@ -4924,7 +4925,7 @@
       <c r="R36" s="3"/>
       <c r="S36" s="3"/>
     </row>
-    <row r="37" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:19" x14ac:dyDescent="0.3">
       <c r="C37" s="56"/>
       <c r="D37" s="55"/>
       <c r="E37" s="55"/>
@@ -4943,20 +4944,20 @@
       <c r="R37" s="55"/>
       <c r="S37" s="57"/>
     </row>
-    <row r="38" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:19" x14ac:dyDescent="0.3">
       <c r="C38" s="54"/>
       <c r="D38" s="18"/>
       <c r="E38" s="18"/>
       <c r="F38" s="18"/>
-      <c r="G38" s="99" t="s">
+      <c r="G38" s="83" t="s">
         <v>13</v>
       </c>
-      <c r="H38" s="99"/>
-      <c r="I38" s="99"/>
-      <c r="J38" s="99"/>
-      <c r="K38" s="99"/>
-      <c r="L38" s="99"/>
-      <c r="M38" s="99"/>
+      <c r="H38" s="83"/>
+      <c r="I38" s="83"/>
+      <c r="J38" s="83"/>
+      <c r="K38" s="83"/>
+      <c r="L38" s="83"/>
+      <c r="M38" s="83"/>
       <c r="N38" s="18"/>
       <c r="O38" s="18"/>
       <c r="P38" s="18"/>
@@ -4964,20 +4965,20 @@
       <c r="R38" s="19"/>
       <c r="S38" s="19"/>
     </row>
-    <row r="39" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C39" s="107" t="s">
+    <row r="39" spans="3:19" x14ac:dyDescent="0.3">
+      <c r="C39" s="91" t="s">
         <v>14</v>
       </c>
-      <c r="D39" s="108"/>
-      <c r="E39" s="108"/>
-      <c r="F39" s="108"/>
-      <c r="G39" s="99"/>
-      <c r="H39" s="99"/>
-      <c r="I39" s="99"/>
-      <c r="J39" s="99"/>
-      <c r="K39" s="99"/>
-      <c r="L39" s="99"/>
-      <c r="M39" s="99"/>
+      <c r="D39" s="92"/>
+      <c r="E39" s="92"/>
+      <c r="F39" s="92"/>
+      <c r="G39" s="83"/>
+      <c r="H39" s="83"/>
+      <c r="I39" s="83"/>
+      <c r="J39" s="83"/>
+      <c r="K39" s="83"/>
+      <c r="L39" s="83"/>
+      <c r="M39" s="83"/>
       <c r="N39" s="18"/>
       <c r="O39" s="18"/>
       <c r="P39" s="18"/>
@@ -4985,81 +4986,81 @@
       <c r="R39" s="19"/>
       <c r="S39" s="19"/>
     </row>
-    <row r="40" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C40" s="109"/>
-      <c r="D40" s="108"/>
-      <c r="E40" s="108"/>
-      <c r="F40" s="108"/>
-      <c r="G40" s="99"/>
-      <c r="H40" s="99"/>
-      <c r="I40" s="99"/>
-      <c r="J40" s="99"/>
-      <c r="K40" s="99"/>
-      <c r="L40" s="99"/>
-      <c r="M40" s="99"/>
+    <row r="40" spans="3:19" x14ac:dyDescent="0.3">
+      <c r="C40" s="93"/>
+      <c r="D40" s="92"/>
+      <c r="E40" s="92"/>
+      <c r="F40" s="92"/>
+      <c r="G40" s="83"/>
+      <c r="H40" s="83"/>
+      <c r="I40" s="83"/>
+      <c r="J40" s="83"/>
+      <c r="K40" s="83"/>
+      <c r="L40" s="83"/>
+      <c r="M40" s="83"/>
       <c r="N40" s="18"/>
-      <c r="O40" s="101" t="s">
+      <c r="O40" s="85" t="s">
         <v>3</v>
       </c>
-      <c r="P40" s="102"/>
+      <c r="P40" s="86"/>
       <c r="Q40" s="18"/>
       <c r="R40" s="19"/>
       <c r="S40" s="19"/>
     </row>
-    <row r="41" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C41" s="110" t="s">
+    <row r="41" spans="3:19" x14ac:dyDescent="0.3">
+      <c r="C41" s="94" t="s">
         <v>11</v>
       </c>
-      <c r="D41" s="110"/>
-      <c r="E41" s="110"/>
-      <c r="F41" s="110"/>
-      <c r="G41" s="99"/>
-      <c r="H41" s="99"/>
-      <c r="I41" s="99"/>
-      <c r="J41" s="99"/>
-      <c r="K41" s="99"/>
-      <c r="L41" s="99"/>
-      <c r="M41" s="99"/>
+      <c r="D41" s="94"/>
+      <c r="E41" s="94"/>
+      <c r="F41" s="94"/>
+      <c r="G41" s="83"/>
+      <c r="H41" s="83"/>
+      <c r="I41" s="83"/>
+      <c r="J41" s="83"/>
+      <c r="K41" s="83"/>
+      <c r="L41" s="83"/>
+      <c r="M41" s="83"/>
       <c r="N41" s="18"/>
-      <c r="O41" s="103"/>
-      <c r="P41" s="104"/>
+      <c r="O41" s="87"/>
+      <c r="P41" s="88"/>
       <c r="Q41" s="18"/>
       <c r="R41" s="19"/>
       <c r="S41" s="19"/>
     </row>
-    <row r="42" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C42" s="110" t="s">
+    <row r="42" spans="3:19" x14ac:dyDescent="0.3">
+      <c r="C42" s="94" t="s">
         <v>12</v>
       </c>
-      <c r="D42" s="110"/>
-      <c r="E42" s="110"/>
-      <c r="F42" s="110"/>
-      <c r="G42" s="99"/>
-      <c r="H42" s="99"/>
-      <c r="I42" s="99"/>
-      <c r="J42" s="99"/>
-      <c r="K42" s="99"/>
-      <c r="L42" s="99"/>
-      <c r="M42" s="99"/>
+      <c r="D42" s="94"/>
+      <c r="E42" s="94"/>
+      <c r="F42" s="94"/>
+      <c r="G42" s="83"/>
+      <c r="H42" s="83"/>
+      <c r="I42" s="83"/>
+      <c r="J42" s="83"/>
+      <c r="K42" s="83"/>
+      <c r="L42" s="83"/>
+      <c r="M42" s="83"/>
       <c r="N42" s="18"/>
-      <c r="O42" s="105"/>
-      <c r="P42" s="106"/>
+      <c r="O42" s="89"/>
+      <c r="P42" s="90"/>
       <c r="Q42" s="18"/>
       <c r="R42" s="19"/>
       <c r="S42" s="19"/>
     </row>
-    <row r="43" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="43" spans="3:19" x14ac:dyDescent="0.3">
       <c r="C43" s="20"/>
       <c r="D43" s="21"/>
       <c r="E43" s="21"/>
       <c r="F43" s="21"/>
-      <c r="G43" s="100"/>
-      <c r="H43" s="100"/>
-      <c r="I43" s="100"/>
-      <c r="J43" s="100"/>
-      <c r="K43" s="100"/>
-      <c r="L43" s="100"/>
-      <c r="M43" s="100"/>
+      <c r="G43" s="84"/>
+      <c r="H43" s="84"/>
+      <c r="I43" s="84"/>
+      <c r="J43" s="84"/>
+      <c r="K43" s="84"/>
+      <c r="L43" s="84"/>
+      <c r="M43" s="84"/>
       <c r="N43" s="21"/>
       <c r="O43" s="21"/>
       <c r="P43" s="21"/>
@@ -5069,6 +5070,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="R1:S1"/>
+    <mergeCell ref="C2:D8"/>
+    <mergeCell ref="E2:S8"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="N11:R11"/>
     <mergeCell ref="O40:P42"/>
     <mergeCell ref="C41:F41"/>
     <mergeCell ref="C42:F42"/>
@@ -5080,13 +5088,6 @@
     <mergeCell ref="E15:H16"/>
     <mergeCell ref="G38:M43"/>
     <mergeCell ref="C39:F40"/>
-    <mergeCell ref="R1:S1"/>
-    <mergeCell ref="C2:D8"/>
-    <mergeCell ref="E2:S8"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="N11:R11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -5094,225 +5095,225 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="C1:CM43"/>
   <sheetViews>
     <sheetView topLeftCell="X1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <selection activeCell="AN15" sqref="AN15:AP15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="9.140625" customWidth="1"/>
-    <col min="3" max="3" width="26.28515625" customWidth="1"/>
-    <col min="4" max="4" width="18.140625" customWidth="1"/>
-    <col min="5" max="5" width="9.5703125" customWidth="1"/>
-    <col min="6" max="6" width="10.28515625" customWidth="1"/>
-    <col min="7" max="7" width="9.85546875" customWidth="1"/>
-    <col min="8" max="8" width="9.140625" customWidth="1"/>
-    <col min="15" max="15" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.109375" customWidth="1"/>
+    <col min="3" max="3" width="26.33203125" customWidth="1"/>
+    <col min="4" max="4" width="18.109375" customWidth="1"/>
+    <col min="5" max="5" width="9.5546875" customWidth="1"/>
+    <col min="6" max="6" width="10.33203125" customWidth="1"/>
+    <col min="7" max="7" width="9.88671875" customWidth="1"/>
+    <col min="8" max="8" width="9.109375" customWidth="1"/>
+    <col min="15" max="15" width="12.88671875" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="14" customWidth="1"/>
-    <col min="30" max="30" width="12.140625" customWidth="1"/>
+    <col min="30" max="30" width="12.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:91" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J1" s="79" t="s">
+    <row r="1" spans="3:91" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J1" s="96" t="s">
         <v>59</v>
       </c>
-      <c r="K1" s="80"/>
-      <c r="L1" s="79" t="s">
+      <c r="K1" s="97"/>
+      <c r="L1" s="96" t="s">
         <v>2</v>
       </c>
-      <c r="M1" s="80"/>
-      <c r="N1" s="83" t="s">
+      <c r="M1" s="97"/>
+      <c r="N1" s="98" t="s">
         <v>10</v>
       </c>
-      <c r="O1" s="83"/>
-      <c r="P1" s="83"/>
-      <c r="Q1" s="83"/>
-      <c r="R1" s="78" t="s">
+      <c r="O1" s="98"/>
+      <c r="P1" s="98"/>
+      <c r="Q1" s="98"/>
+      <c r="R1" s="95" t="s">
         <v>4</v>
       </c>
-      <c r="S1" s="78"/>
-    </row>
-    <row r="2" spans="3:91" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C2" s="85" t="s">
+      <c r="S1" s="95"/>
+    </row>
+    <row r="2" spans="3:91" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C2" s="100" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="86"/>
-      <c r="E2" s="93" t="s">
+      <c r="D2" s="101"/>
+      <c r="E2" s="108" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="94"/>
-      <c r="G2" s="94"/>
-      <c r="H2" s="94"/>
-      <c r="I2" s="94"/>
-      <c r="J2" s="94"/>
-      <c r="K2" s="94"/>
-      <c r="L2" s="94"/>
-      <c r="M2" s="94"/>
-      <c r="N2" s="94"/>
-      <c r="O2" s="94"/>
-      <c r="P2" s="94"/>
-      <c r="Q2" s="94"/>
-      <c r="R2" s="94"/>
-      <c r="S2" s="94"/>
-    </row>
-    <row r="3" spans="3:91" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C3" s="87"/>
-      <c r="D3" s="88"/>
-      <c r="E3" s="93"/>
-      <c r="F3" s="94"/>
-      <c r="G3" s="94"/>
-      <c r="H3" s="94"/>
-      <c r="I3" s="94"/>
-      <c r="J3" s="94"/>
-      <c r="K3" s="94"/>
-      <c r="L3" s="94"/>
-      <c r="M3" s="94"/>
-      <c r="N3" s="94"/>
-      <c r="O3" s="94"/>
-      <c r="P3" s="94"/>
-      <c r="Q3" s="94"/>
-      <c r="R3" s="94"/>
-      <c r="S3" s="94"/>
-    </row>
-    <row r="4" spans="3:91" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C4" s="87"/>
-      <c r="D4" s="88"/>
-      <c r="E4" s="93"/>
-      <c r="F4" s="94"/>
-      <c r="G4" s="94"/>
-      <c r="H4" s="94"/>
-      <c r="I4" s="94"/>
-      <c r="J4" s="94"/>
-      <c r="K4" s="94"/>
-      <c r="L4" s="94"/>
-      <c r="M4" s="94"/>
-      <c r="N4" s="94"/>
-      <c r="O4" s="94"/>
-      <c r="P4" s="94"/>
-      <c r="Q4" s="94"/>
-      <c r="R4" s="94"/>
-      <c r="S4" s="94"/>
-    </row>
-    <row r="5" spans="3:91" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C5" s="87"/>
-      <c r="D5" s="88"/>
-      <c r="E5" s="93"/>
-      <c r="F5" s="94"/>
-      <c r="G5" s="94"/>
-      <c r="H5" s="94"/>
-      <c r="I5" s="94"/>
-      <c r="J5" s="94"/>
-      <c r="K5" s="94"/>
-      <c r="L5" s="94"/>
-      <c r="M5" s="94"/>
-      <c r="N5" s="94"/>
-      <c r="O5" s="94"/>
-      <c r="P5" s="94"/>
-      <c r="Q5" s="94"/>
-      <c r="R5" s="94"/>
-      <c r="S5" s="94"/>
-    </row>
-    <row r="6" spans="3:91" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C6" s="87"/>
-      <c r="D6" s="88"/>
-      <c r="E6" s="93"/>
-      <c r="F6" s="94"/>
-      <c r="G6" s="94"/>
-      <c r="H6" s="94"/>
-      <c r="I6" s="94"/>
-      <c r="J6" s="94"/>
-      <c r="K6" s="94"/>
-      <c r="L6" s="94"/>
-      <c r="M6" s="94"/>
-      <c r="N6" s="94"/>
-      <c r="O6" s="94"/>
-      <c r="P6" s="94"/>
-      <c r="Q6" s="94"/>
-      <c r="R6" s="94"/>
-      <c r="S6" s="94"/>
-    </row>
-    <row r="7" spans="3:91" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C7" s="87"/>
-      <c r="D7" s="88"/>
-      <c r="E7" s="93"/>
-      <c r="F7" s="94"/>
-      <c r="G7" s="94"/>
-      <c r="H7" s="94"/>
-      <c r="I7" s="94"/>
-      <c r="J7" s="94"/>
-      <c r="K7" s="94"/>
-      <c r="L7" s="94"/>
-      <c r="M7" s="94"/>
-      <c r="N7" s="94"/>
-      <c r="O7" s="94"/>
-      <c r="P7" s="94"/>
-      <c r="Q7" s="94"/>
-      <c r="R7" s="94"/>
-      <c r="S7" s="94"/>
-    </row>
-    <row r="8" spans="3:91" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C8" s="89"/>
-      <c r="D8" s="90"/>
-      <c r="E8" s="93"/>
-      <c r="F8" s="94"/>
-      <c r="G8" s="94"/>
-      <c r="H8" s="94"/>
-      <c r="I8" s="94"/>
-      <c r="J8" s="94"/>
-      <c r="K8" s="94"/>
-      <c r="L8" s="94"/>
-      <c r="M8" s="94"/>
-      <c r="N8" s="94"/>
-      <c r="O8" s="94"/>
-      <c r="P8" s="94"/>
-      <c r="Q8" s="94"/>
-      <c r="R8" s="94"/>
-      <c r="S8" s="94"/>
-    </row>
-    <row r="11" spans="3:91" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F2" s="109"/>
+      <c r="G2" s="109"/>
+      <c r="H2" s="109"/>
+      <c r="I2" s="109"/>
+      <c r="J2" s="109"/>
+      <c r="K2" s="109"/>
+      <c r="L2" s="109"/>
+      <c r="M2" s="109"/>
+      <c r="N2" s="109"/>
+      <c r="O2" s="109"/>
+      <c r="P2" s="109"/>
+      <c r="Q2" s="109"/>
+      <c r="R2" s="109"/>
+      <c r="S2" s="109"/>
+    </row>
+    <row r="3" spans="3:91" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C3" s="102"/>
+      <c r="D3" s="103"/>
+      <c r="E3" s="108"/>
+      <c r="F3" s="109"/>
+      <c r="G3" s="109"/>
+      <c r="H3" s="109"/>
+      <c r="I3" s="109"/>
+      <c r="J3" s="109"/>
+      <c r="K3" s="109"/>
+      <c r="L3" s="109"/>
+      <c r="M3" s="109"/>
+      <c r="N3" s="109"/>
+      <c r="O3" s="109"/>
+      <c r="P3" s="109"/>
+      <c r="Q3" s="109"/>
+      <c r="R3" s="109"/>
+      <c r="S3" s="109"/>
+    </row>
+    <row r="4" spans="3:91" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C4" s="102"/>
+      <c r="D4" s="103"/>
+      <c r="E4" s="108"/>
+      <c r="F4" s="109"/>
+      <c r="G4" s="109"/>
+      <c r="H4" s="109"/>
+      <c r="I4" s="109"/>
+      <c r="J4" s="109"/>
+      <c r="K4" s="109"/>
+      <c r="L4" s="109"/>
+      <c r="M4" s="109"/>
+      <c r="N4" s="109"/>
+      <c r="O4" s="109"/>
+      <c r="P4" s="109"/>
+      <c r="Q4" s="109"/>
+      <c r="R4" s="109"/>
+      <c r="S4" s="109"/>
+    </row>
+    <row r="5" spans="3:91" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C5" s="102"/>
+      <c r="D5" s="103"/>
+      <c r="E5" s="108"/>
+      <c r="F5" s="109"/>
+      <c r="G5" s="109"/>
+      <c r="H5" s="109"/>
+      <c r="I5" s="109"/>
+      <c r="J5" s="109"/>
+      <c r="K5" s="109"/>
+      <c r="L5" s="109"/>
+      <c r="M5" s="109"/>
+      <c r="N5" s="109"/>
+      <c r="O5" s="109"/>
+      <c r="P5" s="109"/>
+      <c r="Q5" s="109"/>
+      <c r="R5" s="109"/>
+      <c r="S5" s="109"/>
+    </row>
+    <row r="6" spans="3:91" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C6" s="102"/>
+      <c r="D6" s="103"/>
+      <c r="E6" s="108"/>
+      <c r="F6" s="109"/>
+      <c r="G6" s="109"/>
+      <c r="H6" s="109"/>
+      <c r="I6" s="109"/>
+      <c r="J6" s="109"/>
+      <c r="K6" s="109"/>
+      <c r="L6" s="109"/>
+      <c r="M6" s="109"/>
+      <c r="N6" s="109"/>
+      <c r="O6" s="109"/>
+      <c r="P6" s="109"/>
+      <c r="Q6" s="109"/>
+      <c r="R6" s="109"/>
+      <c r="S6" s="109"/>
+    </row>
+    <row r="7" spans="3:91" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C7" s="102"/>
+      <c r="D7" s="103"/>
+      <c r="E7" s="108"/>
+      <c r="F7" s="109"/>
+      <c r="G7" s="109"/>
+      <c r="H7" s="109"/>
+      <c r="I7" s="109"/>
+      <c r="J7" s="109"/>
+      <c r="K7" s="109"/>
+      <c r="L7" s="109"/>
+      <c r="M7" s="109"/>
+      <c r="N7" s="109"/>
+      <c r="O7" s="109"/>
+      <c r="P7" s="109"/>
+      <c r="Q7" s="109"/>
+      <c r="R7" s="109"/>
+      <c r="S7" s="109"/>
+    </row>
+    <row r="8" spans="3:91" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C8" s="104"/>
+      <c r="D8" s="105"/>
+      <c r="E8" s="108"/>
+      <c r="F8" s="109"/>
+      <c r="G8" s="109"/>
+      <c r="H8" s="109"/>
+      <c r="I8" s="109"/>
+      <c r="J8" s="109"/>
+      <c r="K8" s="109"/>
+      <c r="L8" s="109"/>
+      <c r="M8" s="109"/>
+      <c r="N8" s="109"/>
+      <c r="O8" s="109"/>
+      <c r="P8" s="109"/>
+      <c r="Q8" s="109"/>
+      <c r="R8" s="109"/>
+      <c r="S8" s="109"/>
+    </row>
+    <row r="11" spans="3:91" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C11" s="23" t="s">
         <v>1</v>
       </c>
       <c r="D11" s="42" t="s">
         <v>8</v>
       </c>
-      <c r="E11" s="91" t="s">
+      <c r="E11" s="106" t="s">
         <v>9</v>
       </c>
-      <c r="F11" s="92"/>
-      <c r="G11" s="91" t="s">
+      <c r="F11" s="107"/>
+      <c r="G11" s="106" t="s">
         <v>15</v>
       </c>
-      <c r="H11" s="92"/>
-      <c r="I11" s="95" t="s">
+      <c r="H11" s="107"/>
+      <c r="I11" s="110" t="s">
         <v>20</v>
       </c>
-      <c r="J11" s="95"/>
-      <c r="N11" s="111" t="s">
+      <c r="J11" s="110"/>
+      <c r="N11" s="81" t="s">
         <v>23</v>
       </c>
-      <c r="O11" s="111"/>
-      <c r="P11" s="111"/>
-      <c r="Q11" s="111"/>
-      <c r="R11" s="111"/>
+      <c r="O11" s="81"/>
+      <c r="P11" s="81"/>
+      <c r="Q11" s="81"/>
+      <c r="R11" s="81"/>
       <c r="S11" s="27" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="12" spans="3:91" ht="64.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="C12" s="185" t="s">
+    <row r="12" spans="3:91" ht="64.5" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="C12" s="160" t="s">
         <v>59</v>
       </c>
-      <c r="D12" s="185"/>
+      <c r="D12" s="160"/>
       <c r="E12" s="2"/>
       <c r="BY12" s="77" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="13" spans="3:91" ht="31.5" x14ac:dyDescent="0.5">
+    <row r="13" spans="3:91" ht="31.2" x14ac:dyDescent="0.6">
       <c r="C13" s="131"/>
       <c r="D13" s="131"/>
       <c r="E13" s="8"/>
@@ -5321,18 +5322,18 @@
       <c r="H13" s="8"/>
       <c r="I13" s="8"/>
       <c r="J13" s="8"/>
-      <c r="K13" s="183" t="s">
+      <c r="K13" s="175" t="s">
         <v>77</v>
       </c>
-      <c r="L13" s="183"/>
-      <c r="M13" s="184"/>
-      <c r="N13" s="111" t="s">
+      <c r="L13" s="175"/>
+      <c r="M13" s="176"/>
+      <c r="N13" s="81" t="s">
         <v>78</v>
       </c>
-      <c r="O13" s="111"/>
-      <c r="P13" s="111"/>
-      <c r="Q13" s="111"/>
-      <c r="R13" s="111"/>
+      <c r="O13" s="81"/>
+      <c r="P13" s="81"/>
+      <c r="Q13" s="81"/>
+      <c r="R13" s="81"/>
       <c r="S13" s="27" t="s">
         <v>24</v>
       </c>
@@ -5348,14 +5349,14 @@
         <v>87</v>
       </c>
       <c r="AI13" s="73"/>
-      <c r="AJ13" s="175" t="s">
+      <c r="AJ13" s="180" t="s">
         <v>78</v>
       </c>
-      <c r="AK13" s="176"/>
-      <c r="AL13" s="176"/>
-      <c r="AM13" s="176"/>
-      <c r="AN13" s="176"/>
-      <c r="AO13" s="177"/>
+      <c r="AK13" s="181"/>
+      <c r="AL13" s="181"/>
+      <c r="AM13" s="181"/>
+      <c r="AN13" s="181"/>
+      <c r="AO13" s="182"/>
       <c r="AP13" s="27" t="s">
         <v>24</v>
       </c>
@@ -5394,381 +5395,381 @@
         <v>87</v>
       </c>
       <c r="CF13" s="73"/>
-      <c r="CG13" s="175" t="s">
+      <c r="CG13" s="180" t="s">
         <v>78</v>
       </c>
-      <c r="CH13" s="176"/>
-      <c r="CI13" s="176"/>
-      <c r="CJ13" s="176"/>
-      <c r="CK13" s="176"/>
-      <c r="CL13" s="177"/>
+      <c r="CH13" s="181"/>
+      <c r="CI13" s="181"/>
+      <c r="CJ13" s="181"/>
+      <c r="CK13" s="181"/>
+      <c r="CL13" s="182"/>
       <c r="CM13" s="27" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="14" spans="3:91" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="14" spans="3:91" ht="23.4" x14ac:dyDescent="0.45">
       <c r="D14" s="63" t="s">
         <v>64</v>
       </c>
-      <c r="E14" s="161" t="s">
+      <c r="E14" s="154" t="s">
         <v>81</v>
       </c>
-      <c r="F14" s="178"/>
-      <c r="G14" s="161" t="s">
+      <c r="F14" s="155"/>
+      <c r="G14" s="154" t="s">
         <v>79</v>
       </c>
-      <c r="H14" s="162"/>
-      <c r="I14" s="189" t="s">
+      <c r="H14" s="156"/>
+      <c r="I14" s="157" t="s">
         <v>29</v>
       </c>
-      <c r="J14" s="190"/>
-      <c r="K14" s="190"/>
-      <c r="L14" s="191"/>
-      <c r="M14" s="161" t="s">
+      <c r="J14" s="158"/>
+      <c r="K14" s="158"/>
+      <c r="L14" s="159"/>
+      <c r="M14" s="154" t="s">
         <v>68</v>
       </c>
-      <c r="N14" s="178"/>
-      <c r="O14" s="161" t="s">
+      <c r="N14" s="155"/>
+      <c r="O14" s="154" t="s">
         <v>69</v>
       </c>
-      <c r="P14" s="162"/>
-      <c r="Q14" s="178" t="s">
+      <c r="P14" s="156"/>
+      <c r="Q14" s="155" t="s">
         <v>72</v>
       </c>
-      <c r="R14" s="178"/>
-      <c r="S14" s="162"/>
+      <c r="R14" s="155"/>
+      <c r="S14" s="156"/>
       <c r="AA14" s="63" t="s">
         <v>82</v>
       </c>
-      <c r="AB14" s="161" t="s">
+      <c r="AB14" s="154" t="s">
         <v>83</v>
       </c>
-      <c r="AC14" s="162"/>
+      <c r="AC14" s="156"/>
       <c r="AD14" s="61" t="s">
         <v>84</v>
       </c>
       <c r="AE14" s="62" t="s">
         <v>91</v>
       </c>
-      <c r="AF14" s="161" t="s">
+      <c r="AF14" s="154" t="s">
         <v>29</v>
       </c>
-      <c r="AG14" s="178"/>
-      <c r="AH14" s="178"/>
-      <c r="AI14" s="162"/>
-      <c r="AJ14" s="179" t="s">
+      <c r="AG14" s="155"/>
+      <c r="AH14" s="155"/>
+      <c r="AI14" s="156"/>
+      <c r="AJ14" s="183" t="s">
         <v>90</v>
       </c>
-      <c r="AK14" s="180"/>
-      <c r="AL14" s="179" t="s">
+      <c r="AK14" s="185"/>
+      <c r="AL14" s="183" t="s">
         <v>79</v>
       </c>
-      <c r="AM14" s="180"/>
-      <c r="AN14" s="179" t="s">
+      <c r="AM14" s="185"/>
+      <c r="AN14" s="183" t="s">
         <v>72</v>
       </c>
-      <c r="AO14" s="181"/>
-      <c r="AP14" s="180"/>
+      <c r="AO14" s="184"/>
+      <c r="AP14" s="185"/>
       <c r="AY14" s="63" t="s">
         <v>82</v>
       </c>
-      <c r="AZ14" s="161" t="s">
+      <c r="AZ14" s="154" t="s">
         <v>83</v>
       </c>
-      <c r="BA14" s="162"/>
-      <c r="BB14" s="161" t="s">
+      <c r="BA14" s="156"/>
+      <c r="BB14" s="154" t="s">
         <v>97</v>
       </c>
-      <c r="BC14" s="162"/>
-      <c r="BD14" s="161" t="s">
+      <c r="BC14" s="156"/>
+      <c r="BD14" s="154" t="s">
         <v>96</v>
       </c>
-      <c r="BE14" s="178"/>
-      <c r="BF14" s="178"/>
-      <c r="BG14" s="162"/>
-      <c r="BH14" s="179" t="s">
+      <c r="BE14" s="155"/>
+      <c r="BF14" s="155"/>
+      <c r="BG14" s="156"/>
+      <c r="BH14" s="183" t="s">
         <v>100</v>
       </c>
-      <c r="BI14" s="180"/>
-      <c r="BJ14" s="179" t="s">
+      <c r="BI14" s="185"/>
+      <c r="BJ14" s="183" t="s">
         <v>79</v>
       </c>
-      <c r="BK14" s="180"/>
-      <c r="BL14" s="179" t="s">
+      <c r="BK14" s="185"/>
+      <c r="BL14" s="183" t="s">
         <v>72</v>
       </c>
-      <c r="BM14" s="181"/>
-      <c r="BN14" s="181"/>
+      <c r="BM14" s="184"/>
+      <c r="BN14" s="184"/>
       <c r="BX14" s="63" t="s">
         <v>82</v>
       </c>
-      <c r="BY14" s="161" t="s">
+      <c r="BY14" s="154" t="s">
         <v>83</v>
       </c>
-      <c r="BZ14" s="162"/>
+      <c r="BZ14" s="156"/>
       <c r="CA14" s="61" t="s">
         <v>84</v>
       </c>
       <c r="CB14" s="62" t="s">
         <v>91</v>
       </c>
-      <c r="CC14" s="161" t="s">
+      <c r="CC14" s="154" t="s">
         <v>29</v>
       </c>
-      <c r="CD14" s="178"/>
-      <c r="CE14" s="178"/>
-      <c r="CF14" s="162"/>
-      <c r="CG14" s="179" t="s">
+      <c r="CD14" s="155"/>
+      <c r="CE14" s="155"/>
+      <c r="CF14" s="156"/>
+      <c r="CG14" s="183" t="s">
         <v>90</v>
       </c>
-      <c r="CH14" s="180"/>
-      <c r="CI14" s="179" t="s">
+      <c r="CH14" s="185"/>
+      <c r="CI14" s="183" t="s">
         <v>79</v>
       </c>
-      <c r="CJ14" s="180"/>
-      <c r="CK14" s="179" t="s">
+      <c r="CJ14" s="185"/>
+      <c r="CK14" s="183" t="s">
         <v>72</v>
       </c>
-      <c r="CL14" s="181"/>
-      <c r="CM14" s="180"/>
-    </row>
-    <row r="15" spans="3:91" ht="21" x14ac:dyDescent="0.35">
+      <c r="CL14" s="184"/>
+      <c r="CM14" s="185"/>
+    </row>
+    <row r="15" spans="3:91" ht="21" x14ac:dyDescent="0.4">
       <c r="C15" s="72" t="s">
         <v>60</v>
       </c>
-      <c r="D15" s="171">
+      <c r="D15" s="167">
         <v>1</v>
       </c>
-      <c r="E15" s="167" t="s">
+      <c r="E15" s="169" t="s">
         <v>66</v>
       </c>
-      <c r="F15" s="173"/>
-      <c r="G15" s="167" t="s">
+      <c r="F15" s="170"/>
+      <c r="G15" s="169" t="s">
         <v>80</v>
       </c>
-      <c r="H15" s="168"/>
-      <c r="I15" s="167" t="s">
+      <c r="H15" s="171"/>
+      <c r="I15" s="169" t="s">
         <v>70</v>
       </c>
-      <c r="J15" s="173"/>
-      <c r="K15" s="173"/>
-      <c r="L15" s="168"/>
-      <c r="M15" s="167" t="s">
+      <c r="J15" s="170"/>
+      <c r="K15" s="170"/>
+      <c r="L15" s="171"/>
+      <c r="M15" s="169" t="s">
         <v>71</v>
       </c>
-      <c r="N15" s="168"/>
-      <c r="O15" s="167">
+      <c r="N15" s="171"/>
+      <c r="O15" s="169">
         <v>520000</v>
       </c>
-      <c r="P15" s="168"/>
-      <c r="Q15" s="156" t="s">
+      <c r="P15" s="171"/>
+      <c r="Q15" s="164" t="s">
         <v>74</v>
       </c>
-      <c r="R15" s="157"/>
-      <c r="S15" s="158"/>
-      <c r="X15" s="159" t="s">
+      <c r="R15" s="165"/>
+      <c r="S15" s="166"/>
+      <c r="X15" s="177" t="s">
         <v>60</v>
       </c>
-      <c r="Y15" s="159"/>
-      <c r="Z15" s="159"/>
-      <c r="AA15" s="171">
+      <c r="Y15" s="177"/>
+      <c r="Z15" s="177"/>
+      <c r="AA15" s="167">
         <v>1</v>
       </c>
-      <c r="AB15" s="167" t="s">
+      <c r="AB15" s="169" t="s">
         <v>86</v>
       </c>
-      <c r="AC15" s="168"/>
-      <c r="AD15" s="171" t="s">
+      <c r="AC15" s="171"/>
+      <c r="AD15" s="167" t="s">
         <v>85</v>
       </c>
-      <c r="AE15" s="171" t="s">
+      <c r="AE15" s="167" t="s">
         <v>92</v>
       </c>
-      <c r="AF15" s="167" t="s">
+      <c r="AF15" s="169" t="s">
         <v>70</v>
       </c>
-      <c r="AG15" s="173"/>
-      <c r="AH15" s="173"/>
-      <c r="AI15" s="168"/>
-      <c r="AJ15" s="167">
+      <c r="AG15" s="170"/>
+      <c r="AH15" s="170"/>
+      <c r="AI15" s="171"/>
+      <c r="AJ15" s="169">
         <v>50</v>
       </c>
-      <c r="AK15" s="168"/>
-      <c r="AL15" s="167" t="s">
+      <c r="AK15" s="171"/>
+      <c r="AL15" s="169" t="s">
         <v>93</v>
       </c>
-      <c r="AM15" s="168"/>
-      <c r="AN15" s="156" t="s">
+      <c r="AM15" s="171"/>
+      <c r="AN15" s="164" t="s">
         <v>89</v>
       </c>
-      <c r="AO15" s="157"/>
-      <c r="AP15" s="158"/>
-      <c r="AV15" s="159" t="s">
+      <c r="AO15" s="165"/>
+      <c r="AP15" s="166"/>
+      <c r="AV15" s="177" t="s">
         <v>60</v>
       </c>
-      <c r="AW15" s="159"/>
-      <c r="AX15" s="159"/>
-      <c r="AY15" s="171">
+      <c r="AW15" s="177"/>
+      <c r="AX15" s="177"/>
+      <c r="AY15" s="167">
         <v>1</v>
       </c>
-      <c r="AZ15" s="167" t="s">
+      <c r="AZ15" s="169" t="s">
         <v>66</v>
       </c>
-      <c r="BA15" s="168"/>
-      <c r="BB15" s="163" t="s">
+      <c r="BA15" s="171"/>
+      <c r="BB15" s="186" t="s">
         <v>98</v>
       </c>
-      <c r="BC15" s="164"/>
-      <c r="BD15" s="167" t="s">
+      <c r="BC15" s="187"/>
+      <c r="BD15" s="169" t="s">
         <v>99</v>
       </c>
-      <c r="BE15" s="173"/>
-      <c r="BF15" s="173"/>
-      <c r="BG15" s="168"/>
-      <c r="BH15" s="167">
+      <c r="BE15" s="170"/>
+      <c r="BF15" s="170"/>
+      <c r="BG15" s="171"/>
+      <c r="BH15" s="169">
         <v>1000</v>
       </c>
-      <c r="BI15" s="168"/>
-      <c r="BJ15" s="167" t="s">
+      <c r="BI15" s="171"/>
+      <c r="BJ15" s="169" t="s">
         <v>101</v>
       </c>
-      <c r="BK15" s="168"/>
-      <c r="BL15" s="156" t="s">
+      <c r="BK15" s="171"/>
+      <c r="BL15" s="164" t="s">
         <v>102</v>
       </c>
-      <c r="BM15" s="157"/>
-      <c r="BN15" s="157"/>
-      <c r="BU15" s="159" t="s">
+      <c r="BM15" s="165"/>
+      <c r="BN15" s="165"/>
+      <c r="BU15" s="177" t="s">
         <v>60</v>
       </c>
-      <c r="BV15" s="159"/>
-      <c r="BW15" s="159"/>
-      <c r="BX15" s="171">
+      <c r="BV15" s="177"/>
+      <c r="BW15" s="177"/>
+      <c r="BX15" s="167">
         <v>1</v>
       </c>
-      <c r="BY15" s="167" t="s">
+      <c r="BY15" s="169" t="s">
         <v>86</v>
       </c>
-      <c r="BZ15" s="168"/>
-      <c r="CA15" s="171" t="s">
+      <c r="BZ15" s="171"/>
+      <c r="CA15" s="167" t="s">
         <v>85</v>
       </c>
-      <c r="CB15" s="171" t="s">
+      <c r="CB15" s="167" t="s">
         <v>92</v>
       </c>
-      <c r="CC15" s="167" t="s">
+      <c r="CC15" s="169" t="s">
         <v>70</v>
       </c>
-      <c r="CD15" s="173"/>
-      <c r="CE15" s="173"/>
-      <c r="CF15" s="168"/>
-      <c r="CG15" s="167">
+      <c r="CD15" s="170"/>
+      <c r="CE15" s="170"/>
+      <c r="CF15" s="171"/>
+      <c r="CG15" s="169">
         <v>50</v>
       </c>
-      <c r="CH15" s="168"/>
-      <c r="CI15" s="167" t="s">
+      <c r="CH15" s="171"/>
+      <c r="CI15" s="169" t="s">
         <v>93</v>
       </c>
-      <c r="CJ15" s="168"/>
-      <c r="CK15" s="156" t="s">
+      <c r="CJ15" s="171"/>
+      <c r="CK15" s="164" t="s">
         <v>89</v>
       </c>
-      <c r="CL15" s="157"/>
-      <c r="CM15" s="158"/>
-    </row>
-    <row r="16" spans="3:91" ht="21" x14ac:dyDescent="0.35">
+      <c r="CL15" s="165"/>
+      <c r="CM15" s="166"/>
+    </row>
+    <row r="16" spans="3:91" ht="21" x14ac:dyDescent="0.4">
       <c r="C16" s="64" t="s">
         <v>61</v>
       </c>
-      <c r="D16" s="172"/>
-      <c r="E16" s="169"/>
-      <c r="F16" s="174"/>
-      <c r="G16" s="169"/>
-      <c r="H16" s="170"/>
-      <c r="I16" s="169"/>
-      <c r="J16" s="174"/>
-      <c r="K16" s="174"/>
-      <c r="L16" s="170"/>
-      <c r="M16" s="169"/>
-      <c r="N16" s="170"/>
-      <c r="O16" s="169"/>
-      <c r="P16" s="170"/>
-      <c r="Q16" s="186" t="s">
+      <c r="D16" s="168"/>
+      <c r="E16" s="172"/>
+      <c r="F16" s="173"/>
+      <c r="G16" s="172"/>
+      <c r="H16" s="174"/>
+      <c r="I16" s="172"/>
+      <c r="J16" s="173"/>
+      <c r="K16" s="173"/>
+      <c r="L16" s="174"/>
+      <c r="M16" s="172"/>
+      <c r="N16" s="174"/>
+      <c r="O16" s="172"/>
+      <c r="P16" s="174"/>
+      <c r="Q16" s="161" t="s">
         <v>75</v>
       </c>
-      <c r="R16" s="187"/>
-      <c r="S16" s="188"/>
-      <c r="X16" s="160" t="s">
+      <c r="R16" s="162"/>
+      <c r="S16" s="163"/>
+      <c r="X16" s="178" t="s">
         <v>61</v>
       </c>
-      <c r="Y16" s="160"/>
-      <c r="Z16" s="160"/>
-      <c r="AA16" s="172"/>
-      <c r="AB16" s="169"/>
-      <c r="AC16" s="170"/>
-      <c r="AD16" s="172"/>
-      <c r="AE16" s="172"/>
-      <c r="AF16" s="169"/>
-      <c r="AG16" s="174"/>
-      <c r="AH16" s="174"/>
-      <c r="AI16" s="170"/>
-      <c r="AJ16" s="169"/>
-      <c r="AK16" s="170"/>
-      <c r="AL16" s="169"/>
-      <c r="AM16" s="170"/>
-      <c r="AN16" s="156" t="s">
+      <c r="Y16" s="178"/>
+      <c r="Z16" s="178"/>
+      <c r="AA16" s="168"/>
+      <c r="AB16" s="172"/>
+      <c r="AC16" s="174"/>
+      <c r="AD16" s="168"/>
+      <c r="AE16" s="168"/>
+      <c r="AF16" s="172"/>
+      <c r="AG16" s="173"/>
+      <c r="AH16" s="173"/>
+      <c r="AI16" s="174"/>
+      <c r="AJ16" s="172"/>
+      <c r="AK16" s="174"/>
+      <c r="AL16" s="172"/>
+      <c r="AM16" s="174"/>
+      <c r="AN16" s="164" t="s">
         <v>88</v>
       </c>
-      <c r="AO16" s="157"/>
-      <c r="AP16" s="158"/>
-      <c r="AV16" s="159" t="s">
+      <c r="AO16" s="165"/>
+      <c r="AP16" s="166"/>
+      <c r="AV16" s="177" t="s">
         <v>61</v>
       </c>
-      <c r="AW16" s="159"/>
-      <c r="AX16" s="159"/>
-      <c r="AY16" s="172"/>
-      <c r="AZ16" s="169"/>
-      <c r="BA16" s="170"/>
-      <c r="BB16" s="165"/>
-      <c r="BC16" s="166"/>
-      <c r="BD16" s="169"/>
-      <c r="BE16" s="174"/>
-      <c r="BF16" s="174"/>
-      <c r="BG16" s="170"/>
-      <c r="BH16" s="169"/>
-      <c r="BI16" s="170"/>
-      <c r="BJ16" s="169"/>
-      <c r="BK16" s="170"/>
-      <c r="BL16" s="156" t="s">
+      <c r="AW16" s="177"/>
+      <c r="AX16" s="177"/>
+      <c r="AY16" s="168"/>
+      <c r="AZ16" s="172"/>
+      <c r="BA16" s="174"/>
+      <c r="BB16" s="188"/>
+      <c r="BC16" s="189"/>
+      <c r="BD16" s="172"/>
+      <c r="BE16" s="173"/>
+      <c r="BF16" s="173"/>
+      <c r="BG16" s="174"/>
+      <c r="BH16" s="172"/>
+      <c r="BI16" s="174"/>
+      <c r="BJ16" s="172"/>
+      <c r="BK16" s="174"/>
+      <c r="BL16" s="164" t="s">
         <v>103</v>
       </c>
-      <c r="BM16" s="157"/>
-      <c r="BN16" s="157"/>
-      <c r="BU16" s="159" t="s">
+      <c r="BM16" s="165"/>
+      <c r="BN16" s="165"/>
+      <c r="BU16" s="177" t="s">
         <v>61</v>
       </c>
-      <c r="BV16" s="159"/>
-      <c r="BW16" s="159"/>
-      <c r="BX16" s="172"/>
-      <c r="BY16" s="169"/>
-      <c r="BZ16" s="170"/>
-      <c r="CA16" s="172"/>
-      <c r="CB16" s="172"/>
-      <c r="CC16" s="169"/>
-      <c r="CD16" s="174"/>
-      <c r="CE16" s="174"/>
-      <c r="CF16" s="170"/>
-      <c r="CG16" s="169"/>
-      <c r="CH16" s="170"/>
-      <c r="CI16" s="169"/>
-      <c r="CJ16" s="170"/>
-      <c r="CK16" s="156" t="s">
+      <c r="BV16" s="177"/>
+      <c r="BW16" s="177"/>
+      <c r="BX16" s="168"/>
+      <c r="BY16" s="172"/>
+      <c r="BZ16" s="174"/>
+      <c r="CA16" s="168"/>
+      <c r="CB16" s="168"/>
+      <c r="CC16" s="172"/>
+      <c r="CD16" s="173"/>
+      <c r="CE16" s="173"/>
+      <c r="CF16" s="174"/>
+      <c r="CG16" s="172"/>
+      <c r="CH16" s="174"/>
+      <c r="CI16" s="172"/>
+      <c r="CJ16" s="174"/>
+      <c r="CK16" s="164" t="s">
         <v>88</v>
       </c>
-      <c r="CL16" s="157"/>
-      <c r="CM16" s="158"/>
-    </row>
-    <row r="17" spans="3:91" ht="21" x14ac:dyDescent="0.35">
+      <c r="CL16" s="165"/>
+      <c r="CM16" s="166"/>
+    </row>
+    <row r="17" spans="3:91" ht="21" x14ac:dyDescent="0.4">
       <c r="C17" s="64" t="s">
         <v>62</v>
       </c>
@@ -5792,11 +5793,11 @@
       <c r="Q17" s="69"/>
       <c r="R17" s="71"/>
       <c r="S17" s="70"/>
-      <c r="X17" s="182" t="s">
+      <c r="X17" s="179" t="s">
         <v>62</v>
       </c>
-      <c r="Y17" s="182"/>
-      <c r="Z17" s="182"/>
+      <c r="Y17" s="179"/>
+      <c r="Z17" s="179"/>
       <c r="AA17" s="67">
         <v>2</v>
       </c>
@@ -5817,11 +5818,11 @@
       <c r="AN17" s="69"/>
       <c r="AO17" s="71"/>
       <c r="AP17" s="70"/>
-      <c r="AV17" s="160" t="s">
+      <c r="AV17" s="178" t="s">
         <v>62</v>
       </c>
-      <c r="AW17" s="160"/>
-      <c r="AX17" s="160"/>
+      <c r="AW17" s="178"/>
+      <c r="AX17" s="178"/>
       <c r="AY17" s="67">
         <v>2</v>
       </c>
@@ -5842,11 +5843,11 @@
       <c r="BL17" s="69"/>
       <c r="BM17" s="71"/>
       <c r="BN17" s="69"/>
-      <c r="BU17" s="159" t="s">
+      <c r="BU17" s="177" t="s">
         <v>62</v>
       </c>
-      <c r="BV17" s="159"/>
-      <c r="BW17" s="159"/>
+      <c r="BV17" s="177"/>
+      <c r="BW17" s="177"/>
       <c r="BX17" s="67">
         <v>2</v>
       </c>
@@ -5868,7 +5869,7 @@
       <c r="CL17" s="71"/>
       <c r="CM17" s="70"/>
     </row>
-    <row r="18" spans="3:91" ht="21" x14ac:dyDescent="0.35">
+    <row r="18" spans="3:91" ht="21" x14ac:dyDescent="0.4">
       <c r="C18" s="64" t="s">
         <v>63</v>
       </c>
@@ -5892,11 +5893,11 @@
       <c r="Q18" s="69"/>
       <c r="R18" s="69"/>
       <c r="S18" s="70"/>
-      <c r="X18" s="182" t="s">
+      <c r="X18" s="179" t="s">
         <v>63</v>
       </c>
-      <c r="Y18" s="182"/>
-      <c r="Z18" s="182"/>
+      <c r="Y18" s="179"/>
+      <c r="Z18" s="179"/>
       <c r="AA18" s="67">
         <v>3</v>
       </c>
@@ -5917,11 +5918,11 @@
       <c r="AN18" s="69"/>
       <c r="AO18" s="69"/>
       <c r="AP18" s="70"/>
-      <c r="AV18" s="182" t="s">
+      <c r="AV18" s="179" t="s">
         <v>63</v>
       </c>
-      <c r="AW18" s="182"/>
-      <c r="AX18" s="182"/>
+      <c r="AW18" s="179"/>
+      <c r="AX18" s="179"/>
       <c r="AY18" s="67">
         <v>3</v>
       </c>
@@ -5942,11 +5943,11 @@
       <c r="BL18" s="69"/>
       <c r="BM18" s="69"/>
       <c r="BN18" s="69"/>
-      <c r="BU18" s="160" t="s">
+      <c r="BU18" s="178" t="s">
         <v>63</v>
       </c>
-      <c r="BV18" s="160"/>
-      <c r="BW18" s="160"/>
+      <c r="BV18" s="178"/>
+      <c r="BW18" s="178"/>
       <c r="BX18" s="67">
         <v>3</v>
       </c>
@@ -5968,7 +5969,7 @@
       <c r="CL18" s="69"/>
       <c r="CM18" s="70"/>
     </row>
-    <row r="19" spans="3:91" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:91" x14ac:dyDescent="0.3">
       <c r="D19" s="58"/>
       <c r="E19" s="45"/>
       <c r="F19" s="2"/>
@@ -6034,7 +6035,7 @@
       <c r="CL19" s="2"/>
       <c r="CM19" s="46"/>
     </row>
-    <row r="20" spans="3:91" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:91" x14ac:dyDescent="0.3">
       <c r="D20" s="58"/>
       <c r="E20" s="45"/>
       <c r="F20" s="2"/>
@@ -6100,7 +6101,7 @@
       <c r="CL20" s="2"/>
       <c r="CM20" s="46"/>
     </row>
-    <row r="21" spans="3:91" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:91" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D21" s="58"/>
       <c r="E21" s="45"/>
       <c r="F21" s="2"/>
@@ -6166,7 +6167,7 @@
       <c r="CL21" s="2"/>
       <c r="CM21" s="46"/>
     </row>
-    <row r="22" spans="3:91" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:91" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D22" s="58"/>
       <c r="E22" s="45"/>
       <c r="F22" s="2"/>
@@ -6232,7 +6233,7 @@
       <c r="CL22" s="2"/>
       <c r="CM22" s="46"/>
     </row>
-    <row r="23" spans="3:91" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:91" x14ac:dyDescent="0.3">
       <c r="D23" s="58"/>
       <c r="E23" s="45"/>
       <c r="F23" s="2"/>
@@ -6298,7 +6299,7 @@
       <c r="CL23" s="2"/>
       <c r="CM23" s="46"/>
     </row>
-    <row r="24" spans="3:91" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:91" x14ac:dyDescent="0.3">
       <c r="D24" s="58"/>
       <c r="E24" s="45"/>
       <c r="F24" s="2"/>
@@ -6364,7 +6365,7 @@
       <c r="CL24" s="2"/>
       <c r="CM24" s="46"/>
     </row>
-    <row r="25" spans="3:91" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:91" x14ac:dyDescent="0.3">
       <c r="C25" s="2"/>
       <c r="D25" s="58"/>
       <c r="E25" s="45"/>
@@ -6434,7 +6435,7 @@
       <c r="CL25" s="2"/>
       <c r="CM25" s="46"/>
     </row>
-    <row r="26" spans="3:91" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:91" x14ac:dyDescent="0.3">
       <c r="C26" s="2"/>
       <c r="D26" s="58"/>
       <c r="E26" s="45"/>
@@ -6504,7 +6505,7 @@
       <c r="CL26" s="2"/>
       <c r="CM26" s="46"/>
     </row>
-    <row r="27" spans="3:91" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:91" x14ac:dyDescent="0.3">
       <c r="C27" s="2"/>
       <c r="D27" s="58"/>
       <c r="E27" s="45"/>
@@ -6574,7 +6575,7 @@
       <c r="CL27" s="2"/>
       <c r="CM27" s="46"/>
     </row>
-    <row r="28" spans="3:91" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:91" x14ac:dyDescent="0.3">
       <c r="C28" s="2"/>
       <c r="D28" s="58"/>
       <c r="E28" s="45"/>
@@ -6644,7 +6645,7 @@
       <c r="CL28" s="2"/>
       <c r="CM28" s="46"/>
     </row>
-    <row r="29" spans="3:91" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:91" x14ac:dyDescent="0.3">
       <c r="D29" s="58"/>
       <c r="E29" s="45"/>
       <c r="F29" s="2"/>
@@ -6710,7 +6711,7 @@
       <c r="CL29" s="2"/>
       <c r="CM29" s="46"/>
     </row>
-    <row r="30" spans="3:91" x14ac:dyDescent="0.25">
+    <row r="30" spans="3:91" x14ac:dyDescent="0.3">
       <c r="D30" s="58"/>
       <c r="E30" s="45"/>
       <c r="F30" s="2"/>
@@ -6776,7 +6777,7 @@
       <c r="CL30" s="2"/>
       <c r="CM30" s="46"/>
     </row>
-    <row r="31" spans="3:91" x14ac:dyDescent="0.25">
+    <row r="31" spans="3:91" x14ac:dyDescent="0.3">
       <c r="D31" s="59"/>
       <c r="E31" s="47"/>
       <c r="F31" s="48"/>
@@ -6842,19 +6843,19 @@
       <c r="CL31" s="48"/>
       <c r="CM31" s="60"/>
     </row>
-    <row r="32" spans="3:91" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="Q32" s="156" t="s">
+    <row r="32" spans="3:91" ht="25.8" x14ac:dyDescent="0.5">
+      <c r="Q32" s="164" t="s">
         <v>76</v>
       </c>
-      <c r="R32" s="157"/>
-      <c r="S32" s="158"/>
-      <c r="BL32" s="154" t="s">
+      <c r="R32" s="165"/>
+      <c r="S32" s="166"/>
+      <c r="BL32" s="190" t="s">
         <v>104</v>
       </c>
-      <c r="BM32" s="155"/>
-      <c r="BN32" s="155"/>
-    </row>
-    <row r="36" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="BM32" s="191"/>
+      <c r="BN32" s="191"/>
+    </row>
+    <row r="36" spans="3:19" x14ac:dyDescent="0.3">
       <c r="C36" s="53"/>
       <c r="D36" s="2"/>
       <c r="E36" s="2"/>
@@ -6873,7 +6874,7 @@
       <c r="R36" s="3"/>
       <c r="S36" s="3"/>
     </row>
-    <row r="37" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:19" x14ac:dyDescent="0.3">
       <c r="C37" s="56"/>
       <c r="D37" s="55"/>
       <c r="E37" s="55"/>
@@ -6892,20 +6893,20 @@
       <c r="R37" s="55"/>
       <c r="S37" s="57"/>
     </row>
-    <row r="38" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:19" x14ac:dyDescent="0.3">
       <c r="C38" s="54"/>
       <c r="D38" s="18"/>
       <c r="E38" s="18"/>
       <c r="F38" s="18"/>
-      <c r="G38" s="99" t="s">
+      <c r="G38" s="83" t="s">
         <v>13</v>
       </c>
-      <c r="H38" s="99"/>
-      <c r="I38" s="99"/>
-      <c r="J38" s="99"/>
-      <c r="K38" s="99"/>
-      <c r="L38" s="99"/>
-      <c r="M38" s="99"/>
+      <c r="H38" s="83"/>
+      <c r="I38" s="83"/>
+      <c r="J38" s="83"/>
+      <c r="K38" s="83"/>
+      <c r="L38" s="83"/>
+      <c r="M38" s="83"/>
       <c r="N38" s="18"/>
       <c r="O38" s="18"/>
       <c r="P38" s="18"/>
@@ -6913,20 +6914,20 @@
       <c r="R38" s="19"/>
       <c r="S38" s="19"/>
     </row>
-    <row r="39" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C39" s="107" t="s">
+    <row r="39" spans="3:19" x14ac:dyDescent="0.3">
+      <c r="C39" s="91" t="s">
         <v>14</v>
       </c>
-      <c r="D39" s="108"/>
-      <c r="E39" s="108"/>
-      <c r="F39" s="108"/>
-      <c r="G39" s="99"/>
-      <c r="H39" s="99"/>
-      <c r="I39" s="99"/>
-      <c r="J39" s="99"/>
-      <c r="K39" s="99"/>
-      <c r="L39" s="99"/>
-      <c r="M39" s="99"/>
+      <c r="D39" s="92"/>
+      <c r="E39" s="92"/>
+      <c r="F39" s="92"/>
+      <c r="G39" s="83"/>
+      <c r="H39" s="83"/>
+      <c r="I39" s="83"/>
+      <c r="J39" s="83"/>
+      <c r="K39" s="83"/>
+      <c r="L39" s="83"/>
+      <c r="M39" s="83"/>
       <c r="N39" s="18"/>
       <c r="O39" s="18"/>
       <c r="P39" s="18"/>
@@ -6934,81 +6935,81 @@
       <c r="R39" s="19"/>
       <c r="S39" s="19"/>
     </row>
-    <row r="40" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C40" s="109"/>
-      <c r="D40" s="108"/>
-      <c r="E40" s="108"/>
-      <c r="F40" s="108"/>
-      <c r="G40" s="99"/>
-      <c r="H40" s="99"/>
-      <c r="I40" s="99"/>
-      <c r="J40" s="99"/>
-      <c r="K40" s="99"/>
-      <c r="L40" s="99"/>
-      <c r="M40" s="99"/>
+    <row r="40" spans="3:19" x14ac:dyDescent="0.3">
+      <c r="C40" s="93"/>
+      <c r="D40" s="92"/>
+      <c r="E40" s="92"/>
+      <c r="F40" s="92"/>
+      <c r="G40" s="83"/>
+      <c r="H40" s="83"/>
+      <c r="I40" s="83"/>
+      <c r="J40" s="83"/>
+      <c r="K40" s="83"/>
+      <c r="L40" s="83"/>
+      <c r="M40" s="83"/>
       <c r="N40" s="18"/>
-      <c r="O40" s="101" t="s">
+      <c r="O40" s="85" t="s">
         <v>3</v>
       </c>
-      <c r="P40" s="102"/>
+      <c r="P40" s="86"/>
       <c r="Q40" s="18"/>
       <c r="R40" s="19"/>
       <c r="S40" s="19"/>
     </row>
-    <row r="41" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C41" s="110" t="s">
+    <row r="41" spans="3:19" x14ac:dyDescent="0.3">
+      <c r="C41" s="94" t="s">
         <v>11</v>
       </c>
-      <c r="D41" s="110"/>
-      <c r="E41" s="110"/>
-      <c r="F41" s="110"/>
-      <c r="G41" s="99"/>
-      <c r="H41" s="99"/>
-      <c r="I41" s="99"/>
-      <c r="J41" s="99"/>
-      <c r="K41" s="99"/>
-      <c r="L41" s="99"/>
-      <c r="M41" s="99"/>
+      <c r="D41" s="94"/>
+      <c r="E41" s="94"/>
+      <c r="F41" s="94"/>
+      <c r="G41" s="83"/>
+      <c r="H41" s="83"/>
+      <c r="I41" s="83"/>
+      <c r="J41" s="83"/>
+      <c r="K41" s="83"/>
+      <c r="L41" s="83"/>
+      <c r="M41" s="83"/>
       <c r="N41" s="18"/>
-      <c r="O41" s="103"/>
-      <c r="P41" s="104"/>
+      <c r="O41" s="87"/>
+      <c r="P41" s="88"/>
       <c r="Q41" s="18"/>
       <c r="R41" s="19"/>
       <c r="S41" s="19"/>
     </row>
-    <row r="42" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C42" s="110" t="s">
+    <row r="42" spans="3:19" x14ac:dyDescent="0.3">
+      <c r="C42" s="94" t="s">
         <v>12</v>
       </c>
-      <c r="D42" s="110"/>
-      <c r="E42" s="110"/>
-      <c r="F42" s="110"/>
-      <c r="G42" s="99"/>
-      <c r="H42" s="99"/>
-      <c r="I42" s="99"/>
-      <c r="J42" s="99"/>
-      <c r="K42" s="99"/>
-      <c r="L42" s="99"/>
-      <c r="M42" s="99"/>
+      <c r="D42" s="94"/>
+      <c r="E42" s="94"/>
+      <c r="F42" s="94"/>
+      <c r="G42" s="83"/>
+      <c r="H42" s="83"/>
+      <c r="I42" s="83"/>
+      <c r="J42" s="83"/>
+      <c r="K42" s="83"/>
+      <c r="L42" s="83"/>
+      <c r="M42" s="83"/>
       <c r="N42" s="18"/>
-      <c r="O42" s="105"/>
-      <c r="P42" s="106"/>
+      <c r="O42" s="89"/>
+      <c r="P42" s="90"/>
       <c r="Q42" s="18"/>
       <c r="R42" s="19"/>
       <c r="S42" s="19"/>
     </row>
-    <row r="43" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="43" spans="3:19" x14ac:dyDescent="0.3">
       <c r="C43" s="20"/>
       <c r="D43" s="21"/>
       <c r="E43" s="21"/>
       <c r="F43" s="21"/>
-      <c r="G43" s="100"/>
-      <c r="H43" s="100"/>
-      <c r="I43" s="100"/>
-      <c r="J43" s="100"/>
-      <c r="K43" s="100"/>
-      <c r="L43" s="100"/>
-      <c r="M43" s="100"/>
+      <c r="G43" s="84"/>
+      <c r="H43" s="84"/>
+      <c r="I43" s="84"/>
+      <c r="J43" s="84"/>
+      <c r="K43" s="84"/>
+      <c r="L43" s="84"/>
+      <c r="M43" s="84"/>
       <c r="N43" s="21"/>
       <c r="O43" s="21"/>
       <c r="P43" s="21"/>
@@ -7018,13 +7019,77 @@
     </row>
   </sheetData>
   <mergeCells count="94">
-    <mergeCell ref="R1:S1"/>
-    <mergeCell ref="C2:D8"/>
-    <mergeCell ref="E2:S8"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="N11:R11"/>
+    <mergeCell ref="BL32:BN32"/>
+    <mergeCell ref="CK15:CM15"/>
+    <mergeCell ref="BU16:BW16"/>
+    <mergeCell ref="CK16:CM16"/>
+    <mergeCell ref="BU17:BW17"/>
+    <mergeCell ref="BU18:BW18"/>
+    <mergeCell ref="CC15:CF16"/>
+    <mergeCell ref="CG15:CH16"/>
+    <mergeCell ref="CI15:CJ16"/>
+    <mergeCell ref="BY15:BZ16"/>
+    <mergeCell ref="CA15:CA16"/>
+    <mergeCell ref="CB15:CB16"/>
+    <mergeCell ref="BL15:BN15"/>
+    <mergeCell ref="BL14:BN14"/>
+    <mergeCell ref="CG13:CL13"/>
+    <mergeCell ref="BY14:BZ14"/>
+    <mergeCell ref="CC14:CF14"/>
+    <mergeCell ref="CG14:CH14"/>
+    <mergeCell ref="CI14:CJ14"/>
+    <mergeCell ref="CK14:CM14"/>
+    <mergeCell ref="AX13:AY13"/>
+    <mergeCell ref="AZ14:BA14"/>
+    <mergeCell ref="BD14:BG14"/>
+    <mergeCell ref="BH14:BI14"/>
+    <mergeCell ref="BJ14:BK14"/>
+    <mergeCell ref="BB14:BC14"/>
+    <mergeCell ref="BW13:BX13"/>
+    <mergeCell ref="BU15:BW15"/>
+    <mergeCell ref="BX15:BX16"/>
+    <mergeCell ref="AZ15:BA16"/>
+    <mergeCell ref="BD15:BG16"/>
+    <mergeCell ref="BH15:BI16"/>
+    <mergeCell ref="BJ15:BK16"/>
+    <mergeCell ref="BB15:BC16"/>
+    <mergeCell ref="AJ14:AK14"/>
+    <mergeCell ref="AV16:AX16"/>
+    <mergeCell ref="BL16:BN16"/>
+    <mergeCell ref="AV17:AX17"/>
+    <mergeCell ref="AV18:AX18"/>
+    <mergeCell ref="AN16:AP16"/>
+    <mergeCell ref="AA15:AA16"/>
+    <mergeCell ref="AV15:AX15"/>
+    <mergeCell ref="AY15:AY16"/>
+    <mergeCell ref="AJ13:AO13"/>
+    <mergeCell ref="AL15:AM16"/>
+    <mergeCell ref="AB15:AC16"/>
+    <mergeCell ref="AD15:AD16"/>
+    <mergeCell ref="AE15:AE16"/>
+    <mergeCell ref="AF15:AI16"/>
+    <mergeCell ref="AJ15:AK16"/>
+    <mergeCell ref="AB14:AC14"/>
+    <mergeCell ref="AF14:AI14"/>
+    <mergeCell ref="AN15:AP15"/>
+    <mergeCell ref="AN14:AP14"/>
+    <mergeCell ref="AL14:AM14"/>
+    <mergeCell ref="Z13:AA13"/>
+    <mergeCell ref="Q32:S32"/>
+    <mergeCell ref="N13:R13"/>
+    <mergeCell ref="K13:M13"/>
+    <mergeCell ref="E15:F16"/>
+    <mergeCell ref="G15:H16"/>
+    <mergeCell ref="X15:Z15"/>
+    <mergeCell ref="X16:Z16"/>
+    <mergeCell ref="X17:Z17"/>
+    <mergeCell ref="X18:Z18"/>
+    <mergeCell ref="Q16:S16"/>
+    <mergeCell ref="Q15:S15"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="I15:L16"/>
+    <mergeCell ref="M15:N16"/>
+    <mergeCell ref="O15:P16"/>
     <mergeCell ref="O40:P42"/>
     <mergeCell ref="C41:F41"/>
     <mergeCell ref="C42:F42"/>
@@ -7041,77 +7106,13 @@
     <mergeCell ref="C12:D12"/>
     <mergeCell ref="O14:P14"/>
     <mergeCell ref="Q14:S14"/>
-    <mergeCell ref="Q16:S16"/>
-    <mergeCell ref="Q15:S15"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="I15:L16"/>
-    <mergeCell ref="M15:N16"/>
-    <mergeCell ref="O15:P16"/>
-    <mergeCell ref="Z13:AA13"/>
-    <mergeCell ref="Q32:S32"/>
-    <mergeCell ref="N13:R13"/>
-    <mergeCell ref="K13:M13"/>
-    <mergeCell ref="E15:F16"/>
-    <mergeCell ref="G15:H16"/>
-    <mergeCell ref="X15:Z15"/>
-    <mergeCell ref="X16:Z16"/>
-    <mergeCell ref="X17:Z17"/>
-    <mergeCell ref="X18:Z18"/>
-    <mergeCell ref="AN16:AP16"/>
-    <mergeCell ref="AA15:AA16"/>
-    <mergeCell ref="AV15:AX15"/>
-    <mergeCell ref="AY15:AY16"/>
-    <mergeCell ref="AJ13:AO13"/>
-    <mergeCell ref="AL15:AM16"/>
-    <mergeCell ref="AB15:AC16"/>
-    <mergeCell ref="AD15:AD16"/>
-    <mergeCell ref="AE15:AE16"/>
-    <mergeCell ref="AF15:AI16"/>
-    <mergeCell ref="AJ15:AK16"/>
-    <mergeCell ref="AB14:AC14"/>
-    <mergeCell ref="AF14:AI14"/>
-    <mergeCell ref="AN15:AP15"/>
-    <mergeCell ref="AN14:AP14"/>
-    <mergeCell ref="AL14:AM14"/>
-    <mergeCell ref="AJ14:AK14"/>
-    <mergeCell ref="AV16:AX16"/>
-    <mergeCell ref="BL16:BN16"/>
-    <mergeCell ref="AV17:AX17"/>
-    <mergeCell ref="AV18:AX18"/>
-    <mergeCell ref="BW13:BX13"/>
-    <mergeCell ref="BU15:BW15"/>
-    <mergeCell ref="BX15:BX16"/>
-    <mergeCell ref="AZ15:BA16"/>
-    <mergeCell ref="BD15:BG16"/>
-    <mergeCell ref="BH15:BI16"/>
-    <mergeCell ref="BJ15:BK16"/>
-    <mergeCell ref="AX13:AY13"/>
-    <mergeCell ref="AZ14:BA14"/>
-    <mergeCell ref="BD14:BG14"/>
-    <mergeCell ref="BH14:BI14"/>
-    <mergeCell ref="BJ14:BK14"/>
-    <mergeCell ref="CG13:CL13"/>
-    <mergeCell ref="BY14:BZ14"/>
-    <mergeCell ref="CC14:CF14"/>
-    <mergeCell ref="CG14:CH14"/>
-    <mergeCell ref="CI14:CJ14"/>
-    <mergeCell ref="CK14:CM14"/>
-    <mergeCell ref="BB14:BC14"/>
-    <mergeCell ref="BB15:BC16"/>
-    <mergeCell ref="BY15:BZ16"/>
-    <mergeCell ref="CA15:CA16"/>
-    <mergeCell ref="CB15:CB16"/>
-    <mergeCell ref="BL15:BN15"/>
-    <mergeCell ref="BL14:BN14"/>
-    <mergeCell ref="BL32:BN32"/>
-    <mergeCell ref="CK15:CM15"/>
-    <mergeCell ref="BU16:BW16"/>
-    <mergeCell ref="CK16:CM16"/>
-    <mergeCell ref="BU17:BW17"/>
-    <mergeCell ref="BU18:BW18"/>
-    <mergeCell ref="CC15:CF16"/>
-    <mergeCell ref="CG15:CH16"/>
-    <mergeCell ref="CI15:CJ16"/>
+    <mergeCell ref="R1:S1"/>
+    <mergeCell ref="C2:D8"/>
+    <mergeCell ref="E2:S8"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="N11:R11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -7119,218 +7120,218 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="C1:S43"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="X12" sqref="X12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="9.140625" customWidth="1"/>
-    <col min="3" max="3" width="26.28515625" customWidth="1"/>
-    <col min="4" max="4" width="18.140625" customWidth="1"/>
-    <col min="5" max="5" width="9.5703125" customWidth="1"/>
-    <col min="6" max="6" width="10.28515625" customWidth="1"/>
-    <col min="7" max="7" width="9.85546875" customWidth="1"/>
-    <col min="8" max="8" width="9.140625" customWidth="1"/>
-    <col min="15" max="15" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.109375" customWidth="1"/>
+    <col min="3" max="3" width="26.33203125" customWidth="1"/>
+    <col min="4" max="4" width="18.109375" customWidth="1"/>
+    <col min="5" max="5" width="9.5546875" customWidth="1"/>
+    <col min="6" max="6" width="10.33203125" customWidth="1"/>
+    <col min="7" max="7" width="9.88671875" customWidth="1"/>
+    <col min="8" max="8" width="9.109375" customWidth="1"/>
+    <col min="15" max="15" width="12.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:19" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J1" s="79" t="s">
+    <row r="1" spans="3:19" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J1" s="96" t="s">
         <v>59</v>
       </c>
-      <c r="K1" s="80"/>
-      <c r="L1" s="79" t="s">
+      <c r="K1" s="97"/>
+      <c r="L1" s="96" t="s">
         <v>2</v>
       </c>
-      <c r="M1" s="80"/>
-      <c r="N1" s="83" t="s">
+      <c r="M1" s="97"/>
+      <c r="N1" s="98" t="s">
         <v>10</v>
       </c>
-      <c r="O1" s="83"/>
-      <c r="P1" s="83"/>
-      <c r="Q1" s="83"/>
-      <c r="R1" s="78" t="s">
+      <c r="O1" s="98"/>
+      <c r="P1" s="98"/>
+      <c r="Q1" s="98"/>
+      <c r="R1" s="95" t="s">
         <v>4</v>
       </c>
-      <c r="S1" s="78"/>
-    </row>
-    <row r="2" spans="3:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C2" s="85" t="s">
+      <c r="S1" s="95"/>
+    </row>
+    <row r="2" spans="3:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C2" s="100" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="86"/>
-      <c r="E2" s="93" t="s">
+      <c r="D2" s="101"/>
+      <c r="E2" s="108" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="94"/>
-      <c r="G2" s="94"/>
-      <c r="H2" s="94"/>
-      <c r="I2" s="94"/>
-      <c r="J2" s="94"/>
-      <c r="K2" s="94"/>
-      <c r="L2" s="94"/>
-      <c r="M2" s="94"/>
-      <c r="N2" s="94"/>
-      <c r="O2" s="94"/>
-      <c r="P2" s="94"/>
-      <c r="Q2" s="94"/>
-      <c r="R2" s="94"/>
-      <c r="S2" s="94"/>
-    </row>
-    <row r="3" spans="3:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C3" s="87"/>
-      <c r="D3" s="88"/>
-      <c r="E3" s="93"/>
-      <c r="F3" s="94"/>
-      <c r="G3" s="94"/>
-      <c r="H3" s="94"/>
-      <c r="I3" s="94"/>
-      <c r="J3" s="94"/>
-      <c r="K3" s="94"/>
-      <c r="L3" s="94"/>
-      <c r="M3" s="94"/>
-      <c r="N3" s="94"/>
-      <c r="O3" s="94"/>
-      <c r="P3" s="94"/>
-      <c r="Q3" s="94"/>
-      <c r="R3" s="94"/>
-      <c r="S3" s="94"/>
-    </row>
-    <row r="4" spans="3:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C4" s="87"/>
-      <c r="D4" s="88"/>
-      <c r="E4" s="93"/>
-      <c r="F4" s="94"/>
-      <c r="G4" s="94"/>
-      <c r="H4" s="94"/>
-      <c r="I4" s="94"/>
-      <c r="J4" s="94"/>
-      <c r="K4" s="94"/>
-      <c r="L4" s="94"/>
-      <c r="M4" s="94"/>
-      <c r="N4" s="94"/>
-      <c r="O4" s="94"/>
-      <c r="P4" s="94"/>
-      <c r="Q4" s="94"/>
-      <c r="R4" s="94"/>
-      <c r="S4" s="94"/>
-    </row>
-    <row r="5" spans="3:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C5" s="87"/>
-      <c r="D5" s="88"/>
-      <c r="E5" s="93"/>
-      <c r="F5" s="94"/>
-      <c r="G5" s="94"/>
-      <c r="H5" s="94"/>
-      <c r="I5" s="94"/>
-      <c r="J5" s="94"/>
-      <c r="K5" s="94"/>
-      <c r="L5" s="94"/>
-      <c r="M5" s="94"/>
-      <c r="N5" s="94"/>
-      <c r="O5" s="94"/>
-      <c r="P5" s="94"/>
-      <c r="Q5" s="94"/>
-      <c r="R5" s="94"/>
-      <c r="S5" s="94"/>
-    </row>
-    <row r="6" spans="3:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C6" s="87"/>
-      <c r="D6" s="88"/>
-      <c r="E6" s="93"/>
-      <c r="F6" s="94"/>
-      <c r="G6" s="94"/>
-      <c r="H6" s="94"/>
-      <c r="I6" s="94"/>
-      <c r="J6" s="94"/>
-      <c r="K6" s="94"/>
-      <c r="L6" s="94"/>
-      <c r="M6" s="94"/>
-      <c r="N6" s="94"/>
-      <c r="O6" s="94"/>
-      <c r="P6" s="94"/>
-      <c r="Q6" s="94"/>
-      <c r="R6" s="94"/>
-      <c r="S6" s="94"/>
-    </row>
-    <row r="7" spans="3:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C7" s="87"/>
-      <c r="D7" s="88"/>
-      <c r="E7" s="93"/>
-      <c r="F7" s="94"/>
-      <c r="G7" s="94"/>
-      <c r="H7" s="94"/>
-      <c r="I7" s="94"/>
-      <c r="J7" s="94"/>
-      <c r="K7" s="94"/>
-      <c r="L7" s="94"/>
-      <c r="M7" s="94"/>
-      <c r="N7" s="94"/>
-      <c r="O7" s="94"/>
-      <c r="P7" s="94"/>
-      <c r="Q7" s="94"/>
-      <c r="R7" s="94"/>
-      <c r="S7" s="94"/>
-    </row>
-    <row r="8" spans="3:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C8" s="89"/>
-      <c r="D8" s="90"/>
-      <c r="E8" s="93"/>
-      <c r="F8" s="94"/>
-      <c r="G8" s="94"/>
-      <c r="H8" s="94"/>
-      <c r="I8" s="94"/>
-      <c r="J8" s="94"/>
-      <c r="K8" s="94"/>
-      <c r="L8" s="94"/>
-      <c r="M8" s="94"/>
-      <c r="N8" s="94"/>
-      <c r="O8" s="94"/>
-      <c r="P8" s="94"/>
-      <c r="Q8" s="94"/>
-      <c r="R8" s="94"/>
-      <c r="S8" s="94"/>
-    </row>
-    <row r="11" spans="3:19" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F2" s="109"/>
+      <c r="G2" s="109"/>
+      <c r="H2" s="109"/>
+      <c r="I2" s="109"/>
+      <c r="J2" s="109"/>
+      <c r="K2" s="109"/>
+      <c r="L2" s="109"/>
+      <c r="M2" s="109"/>
+      <c r="N2" s="109"/>
+      <c r="O2" s="109"/>
+      <c r="P2" s="109"/>
+      <c r="Q2" s="109"/>
+      <c r="R2" s="109"/>
+      <c r="S2" s="109"/>
+    </row>
+    <row r="3" spans="3:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C3" s="102"/>
+      <c r="D3" s="103"/>
+      <c r="E3" s="108"/>
+      <c r="F3" s="109"/>
+      <c r="G3" s="109"/>
+      <c r="H3" s="109"/>
+      <c r="I3" s="109"/>
+      <c r="J3" s="109"/>
+      <c r="K3" s="109"/>
+      <c r="L3" s="109"/>
+      <c r="M3" s="109"/>
+      <c r="N3" s="109"/>
+      <c r="O3" s="109"/>
+      <c r="P3" s="109"/>
+      <c r="Q3" s="109"/>
+      <c r="R3" s="109"/>
+      <c r="S3" s="109"/>
+    </row>
+    <row r="4" spans="3:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C4" s="102"/>
+      <c r="D4" s="103"/>
+      <c r="E4" s="108"/>
+      <c r="F4" s="109"/>
+      <c r="G4" s="109"/>
+      <c r="H4" s="109"/>
+      <c r="I4" s="109"/>
+      <c r="J4" s="109"/>
+      <c r="K4" s="109"/>
+      <c r="L4" s="109"/>
+      <c r="M4" s="109"/>
+      <c r="N4" s="109"/>
+      <c r="O4" s="109"/>
+      <c r="P4" s="109"/>
+      <c r="Q4" s="109"/>
+      <c r="R4" s="109"/>
+      <c r="S4" s="109"/>
+    </row>
+    <row r="5" spans="3:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C5" s="102"/>
+      <c r="D5" s="103"/>
+      <c r="E5" s="108"/>
+      <c r="F5" s="109"/>
+      <c r="G5" s="109"/>
+      <c r="H5" s="109"/>
+      <c r="I5" s="109"/>
+      <c r="J5" s="109"/>
+      <c r="K5" s="109"/>
+      <c r="L5" s="109"/>
+      <c r="M5" s="109"/>
+      <c r="N5" s="109"/>
+      <c r="O5" s="109"/>
+      <c r="P5" s="109"/>
+      <c r="Q5" s="109"/>
+      <c r="R5" s="109"/>
+      <c r="S5" s="109"/>
+    </row>
+    <row r="6" spans="3:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C6" s="102"/>
+      <c r="D6" s="103"/>
+      <c r="E6" s="108"/>
+      <c r="F6" s="109"/>
+      <c r="G6" s="109"/>
+      <c r="H6" s="109"/>
+      <c r="I6" s="109"/>
+      <c r="J6" s="109"/>
+      <c r="K6" s="109"/>
+      <c r="L6" s="109"/>
+      <c r="M6" s="109"/>
+      <c r="N6" s="109"/>
+      <c r="O6" s="109"/>
+      <c r="P6" s="109"/>
+      <c r="Q6" s="109"/>
+      <c r="R6" s="109"/>
+      <c r="S6" s="109"/>
+    </row>
+    <row r="7" spans="3:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C7" s="102"/>
+      <c r="D7" s="103"/>
+      <c r="E7" s="108"/>
+      <c r="F7" s="109"/>
+      <c r="G7" s="109"/>
+      <c r="H7" s="109"/>
+      <c r="I7" s="109"/>
+      <c r="J7" s="109"/>
+      <c r="K7" s="109"/>
+      <c r="L7" s="109"/>
+      <c r="M7" s="109"/>
+      <c r="N7" s="109"/>
+      <c r="O7" s="109"/>
+      <c r="P7" s="109"/>
+      <c r="Q7" s="109"/>
+      <c r="R7" s="109"/>
+      <c r="S7" s="109"/>
+    </row>
+    <row r="8" spans="3:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C8" s="104"/>
+      <c r="D8" s="105"/>
+      <c r="E8" s="108"/>
+      <c r="F8" s="109"/>
+      <c r="G8" s="109"/>
+      <c r="H8" s="109"/>
+      <c r="I8" s="109"/>
+      <c r="J8" s="109"/>
+      <c r="K8" s="109"/>
+      <c r="L8" s="109"/>
+      <c r="M8" s="109"/>
+      <c r="N8" s="109"/>
+      <c r="O8" s="109"/>
+      <c r="P8" s="109"/>
+      <c r="Q8" s="109"/>
+      <c r="R8" s="109"/>
+      <c r="S8" s="109"/>
+    </row>
+    <row r="11" spans="3:19" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C11" s="23" t="s">
         <v>1</v>
       </c>
       <c r="D11" s="42" t="s">
         <v>8</v>
       </c>
-      <c r="E11" s="91" t="s">
+      <c r="E11" s="106" t="s">
         <v>9</v>
       </c>
-      <c r="F11" s="92"/>
-      <c r="G11" s="91" t="s">
+      <c r="F11" s="107"/>
+      <c r="G11" s="106" t="s">
         <v>15</v>
       </c>
-      <c r="H11" s="92"/>
-      <c r="I11" s="95" t="s">
+      <c r="H11" s="107"/>
+      <c r="I11" s="110" t="s">
         <v>20</v>
       </c>
-      <c r="J11" s="95"/>
-      <c r="N11" s="111" t="s">
+      <c r="J11" s="110"/>
+      <c r="N11" s="81" t="s">
         <v>23</v>
       </c>
-      <c r="O11" s="111"/>
-      <c r="P11" s="111"/>
-      <c r="Q11" s="111"/>
-      <c r="R11" s="111"/>
+      <c r="O11" s="81"/>
+      <c r="P11" s="81"/>
+      <c r="Q11" s="81"/>
+      <c r="R11" s="81"/>
       <c r="S11" s="27" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="12" spans="3:19" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="3:19" ht="64.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C12" s="1"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
     </row>
-    <row r="13" spans="3:19" ht="31.5" x14ac:dyDescent="0.5">
+    <row r="13" spans="3:19" ht="31.2" x14ac:dyDescent="0.6">
       <c r="C13" s="131" t="s">
         <v>59</v>
       </c>
@@ -7341,109 +7342,109 @@
       <c r="H13" s="8"/>
       <c r="I13" s="8"/>
       <c r="J13" s="8"/>
-      <c r="K13" s="183" t="s">
+      <c r="K13" s="175" t="s">
         <v>77</v>
       </c>
-      <c r="L13" s="183"/>
-      <c r="M13" s="184"/>
-      <c r="N13" s="111" t="s">
+      <c r="L13" s="175"/>
+      <c r="M13" s="176"/>
+      <c r="N13" s="81" t="s">
         <v>78</v>
       </c>
-      <c r="O13" s="111"/>
-      <c r="P13" s="111"/>
-      <c r="Q13" s="111"/>
-      <c r="R13" s="111"/>
+      <c r="O13" s="81"/>
+      <c r="P13" s="81"/>
+      <c r="Q13" s="81"/>
+      <c r="R13" s="81"/>
       <c r="S13" s="27" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="14" spans="3:19" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="14" spans="3:19" ht="23.4" x14ac:dyDescent="0.45">
       <c r="D14" s="63" t="s">
         <v>64</v>
       </c>
-      <c r="E14" s="161" t="s">
+      <c r="E14" s="154" t="s">
         <v>65</v>
       </c>
-      <c r="F14" s="178"/>
-      <c r="G14" s="190"/>
-      <c r="H14" s="191"/>
-      <c r="I14" s="189" t="s">
+      <c r="F14" s="155"/>
+      <c r="G14" s="158"/>
+      <c r="H14" s="159"/>
+      <c r="I14" s="157" t="s">
         <v>29</v>
       </c>
-      <c r="J14" s="190"/>
-      <c r="K14" s="190"/>
-      <c r="L14" s="191"/>
-      <c r="M14" s="161" t="s">
+      <c r="J14" s="158"/>
+      <c r="K14" s="158"/>
+      <c r="L14" s="159"/>
+      <c r="M14" s="154" t="s">
         <v>68</v>
       </c>
-      <c r="N14" s="178"/>
-      <c r="O14" s="161" t="s">
+      <c r="N14" s="155"/>
+      <c r="O14" s="154" t="s">
         <v>69</v>
       </c>
-      <c r="P14" s="162"/>
-      <c r="Q14" s="178" t="s">
+      <c r="P14" s="156"/>
+      <c r="Q14" s="155" t="s">
         <v>72</v>
       </c>
-      <c r="R14" s="178"/>
-      <c r="S14" s="162"/>
-    </row>
-    <row r="15" spans="3:19" ht="21" x14ac:dyDescent="0.35">
+      <c r="R14" s="155"/>
+      <c r="S14" s="156"/>
+    </row>
+    <row r="15" spans="3:19" ht="21" x14ac:dyDescent="0.4">
       <c r="C15" s="64" t="s">
         <v>60</v>
       </c>
-      <c r="D15" s="171">
+      <c r="D15" s="167">
         <v>1</v>
       </c>
-      <c r="E15" s="167" t="s">
+      <c r="E15" s="169" t="s">
         <v>66</v>
       </c>
-      <c r="F15" s="173"/>
-      <c r="G15" s="173"/>
-      <c r="H15" s="168"/>
-      <c r="I15" s="167" t="s">
+      <c r="F15" s="170"/>
+      <c r="G15" s="170"/>
+      <c r="H15" s="171"/>
+      <c r="I15" s="169" t="s">
         <v>70</v>
       </c>
-      <c r="J15" s="173"/>
-      <c r="K15" s="173"/>
-      <c r="L15" s="168"/>
-      <c r="M15" s="167" t="s">
+      <c r="J15" s="170"/>
+      <c r="K15" s="170"/>
+      <c r="L15" s="171"/>
+      <c r="M15" s="169" t="s">
         <v>71</v>
       </c>
-      <c r="N15" s="168"/>
-      <c r="O15" s="167">
+      <c r="N15" s="171"/>
+      <c r="O15" s="169">
         <v>520000</v>
       </c>
-      <c r="P15" s="168"/>
-      <c r="Q15" s="156" t="s">
+      <c r="P15" s="171"/>
+      <c r="Q15" s="164" t="s">
         <v>74</v>
       </c>
-      <c r="R15" s="157"/>
-      <c r="S15" s="158"/>
-    </row>
-    <row r="16" spans="3:19" ht="21" x14ac:dyDescent="0.35">
+      <c r="R15" s="165"/>
+      <c r="S15" s="166"/>
+    </row>
+    <row r="16" spans="3:19" ht="21" x14ac:dyDescent="0.4">
       <c r="C16" s="64" t="s">
         <v>61</v>
       </c>
-      <c r="D16" s="172"/>
-      <c r="E16" s="169"/>
-      <c r="F16" s="174"/>
-      <c r="G16" s="174"/>
-      <c r="H16" s="170"/>
-      <c r="I16" s="169"/>
-      <c r="J16" s="174"/>
-      <c r="K16" s="174"/>
-      <c r="L16" s="170"/>
-      <c r="M16" s="169"/>
-      <c r="N16" s="170"/>
-      <c r="O16" s="169"/>
-      <c r="P16" s="170"/>
-      <c r="Q16" s="186" t="s">
+      <c r="D16" s="168"/>
+      <c r="E16" s="172"/>
+      <c r="F16" s="173"/>
+      <c r="G16" s="173"/>
+      <c r="H16" s="174"/>
+      <c r="I16" s="172"/>
+      <c r="J16" s="173"/>
+      <c r="K16" s="173"/>
+      <c r="L16" s="174"/>
+      <c r="M16" s="172"/>
+      <c r="N16" s="174"/>
+      <c r="O16" s="172"/>
+      <c r="P16" s="174"/>
+      <c r="Q16" s="161" t="s">
         <v>75</v>
       </c>
-      <c r="R16" s="187"/>
-      <c r="S16" s="188"/>
-    </row>
-    <row r="17" spans="3:19" ht="21" x14ac:dyDescent="0.35">
+      <c r="R16" s="162"/>
+      <c r="S16" s="163"/>
+    </row>
+    <row r="17" spans="3:19" ht="21" x14ac:dyDescent="0.4">
       <c r="C17" s="64" t="s">
         <v>62</v>
       </c>
@@ -7468,7 +7469,7 @@
       <c r="R17" s="71"/>
       <c r="S17" s="70"/>
     </row>
-    <row r="18" spans="3:19" ht="21" x14ac:dyDescent="0.35">
+    <row r="18" spans="3:19" ht="21" x14ac:dyDescent="0.4">
       <c r="C18" s="64" t="s">
         <v>63</v>
       </c>
@@ -7493,7 +7494,7 @@
       <c r="R18" s="69"/>
       <c r="S18" s="70"/>
     </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:19" x14ac:dyDescent="0.3">
       <c r="D19" s="58"/>
       <c r="E19" s="45"/>
       <c r="F19" s="2"/>
@@ -7511,7 +7512,7 @@
       <c r="R19" s="2"/>
       <c r="S19" s="46"/>
     </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:19" x14ac:dyDescent="0.3">
       <c r="D20" s="58"/>
       <c r="E20" s="45"/>
       <c r="F20" s="2"/>
@@ -7529,7 +7530,7 @@
       <c r="R20" s="2"/>
       <c r="S20" s="46"/>
     </row>
-    <row r="21" spans="3:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D21" s="58"/>
       <c r="E21" s="45"/>
       <c r="F21" s="2"/>
@@ -7547,7 +7548,7 @@
       <c r="R21" s="2"/>
       <c r="S21" s="46"/>
     </row>
-    <row r="22" spans="3:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D22" s="58"/>
       <c r="E22" s="45"/>
       <c r="F22" s="2"/>
@@ -7565,7 +7566,7 @@
       <c r="R22" s="2"/>
       <c r="S22" s="46"/>
     </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:19" x14ac:dyDescent="0.3">
       <c r="D23" s="58"/>
       <c r="E23" s="45"/>
       <c r="F23" s="2"/>
@@ -7583,7 +7584,7 @@
       <c r="R23" s="2"/>
       <c r="S23" s="46"/>
     </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:19" x14ac:dyDescent="0.3">
       <c r="D24" s="58"/>
       <c r="E24" s="45"/>
       <c r="F24" s="2"/>
@@ -7601,7 +7602,7 @@
       <c r="R24" s="2"/>
       <c r="S24" s="46"/>
     </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:19" x14ac:dyDescent="0.3">
       <c r="C25" s="2"/>
       <c r="D25" s="58"/>
       <c r="E25" s="45"/>
@@ -7620,7 +7621,7 @@
       <c r="R25" s="2"/>
       <c r="S25" s="46"/>
     </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:19" x14ac:dyDescent="0.3">
       <c r="C26" s="2"/>
       <c r="D26" s="58"/>
       <c r="E26" s="45"/>
@@ -7639,7 +7640,7 @@
       <c r="R26" s="2"/>
       <c r="S26" s="46"/>
     </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:19" x14ac:dyDescent="0.3">
       <c r="C27" s="2"/>
       <c r="D27" s="58"/>
       <c r="E27" s="45"/>
@@ -7658,7 +7659,7 @@
       <c r="R27" s="2"/>
       <c r="S27" s="46"/>
     </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:19" x14ac:dyDescent="0.3">
       <c r="C28" s="2"/>
       <c r="D28" s="58"/>
       <c r="E28" s="45"/>
@@ -7677,7 +7678,7 @@
       <c r="R28" s="2"/>
       <c r="S28" s="46"/>
     </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:19" x14ac:dyDescent="0.3">
       <c r="D29" s="58"/>
       <c r="E29" s="45"/>
       <c r="F29" s="2"/>
@@ -7695,7 +7696,7 @@
       <c r="R29" s="2"/>
       <c r="S29" s="46"/>
     </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="30" spans="3:19" x14ac:dyDescent="0.3">
       <c r="D30" s="58"/>
       <c r="E30" s="45"/>
       <c r="F30" s="2"/>
@@ -7713,7 +7714,7 @@
       <c r="R30" s="2"/>
       <c r="S30" s="46"/>
     </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="31" spans="3:19" x14ac:dyDescent="0.3">
       <c r="D31" s="59"/>
       <c r="E31" s="47"/>
       <c r="F31" s="48"/>
@@ -7731,14 +7732,14 @@
       <c r="R31" s="48"/>
       <c r="S31" s="60"/>
     </row>
-    <row r="32" spans="3:19" ht="21" x14ac:dyDescent="0.25">
-      <c r="Q32" s="156" t="s">
+    <row r="32" spans="3:19" ht="21" x14ac:dyDescent="0.3">
+      <c r="Q32" s="164" t="s">
         <v>76</v>
       </c>
-      <c r="R32" s="157"/>
-      <c r="S32" s="158"/>
-    </row>
-    <row r="36" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="R32" s="165"/>
+      <c r="S32" s="166"/>
+    </row>
+    <row r="36" spans="3:19" x14ac:dyDescent="0.3">
       <c r="C36" s="53"/>
       <c r="D36" s="2"/>
       <c r="E36" s="2"/>
@@ -7757,7 +7758,7 @@
       <c r="R36" s="3"/>
       <c r="S36" s="3"/>
     </row>
-    <row r="37" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:19" x14ac:dyDescent="0.3">
       <c r="C37" s="56"/>
       <c r="D37" s="55"/>
       <c r="E37" s="55"/>
@@ -7776,20 +7777,20 @@
       <c r="R37" s="55"/>
       <c r="S37" s="57"/>
     </row>
-    <row r="38" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:19" x14ac:dyDescent="0.3">
       <c r="C38" s="54"/>
       <c r="D38" s="18"/>
       <c r="E38" s="18"/>
       <c r="F38" s="18"/>
-      <c r="G38" s="99" t="s">
+      <c r="G38" s="83" t="s">
         <v>13</v>
       </c>
-      <c r="H38" s="99"/>
-      <c r="I38" s="99"/>
-      <c r="J38" s="99"/>
-      <c r="K38" s="99"/>
-      <c r="L38" s="99"/>
-      <c r="M38" s="99"/>
+      <c r="H38" s="83"/>
+      <c r="I38" s="83"/>
+      <c r="J38" s="83"/>
+      <c r="K38" s="83"/>
+      <c r="L38" s="83"/>
+      <c r="M38" s="83"/>
       <c r="N38" s="18"/>
       <c r="O38" s="18"/>
       <c r="P38" s="18"/>
@@ -7797,20 +7798,20 @@
       <c r="R38" s="19"/>
       <c r="S38" s="19"/>
     </row>
-    <row r="39" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C39" s="107" t="s">
+    <row r="39" spans="3:19" x14ac:dyDescent="0.3">
+      <c r="C39" s="91" t="s">
         <v>14</v>
       </c>
-      <c r="D39" s="108"/>
-      <c r="E39" s="108"/>
-      <c r="F39" s="108"/>
-      <c r="G39" s="99"/>
-      <c r="H39" s="99"/>
-      <c r="I39" s="99"/>
-      <c r="J39" s="99"/>
-      <c r="K39" s="99"/>
-      <c r="L39" s="99"/>
-      <c r="M39" s="99"/>
+      <c r="D39" s="92"/>
+      <c r="E39" s="92"/>
+      <c r="F39" s="92"/>
+      <c r="G39" s="83"/>
+      <c r="H39" s="83"/>
+      <c r="I39" s="83"/>
+      <c r="J39" s="83"/>
+      <c r="K39" s="83"/>
+      <c r="L39" s="83"/>
+      <c r="M39" s="83"/>
       <c r="N39" s="18"/>
       <c r="O39" s="18"/>
       <c r="P39" s="18"/>
@@ -7818,81 +7819,81 @@
       <c r="R39" s="19"/>
       <c r="S39" s="19"/>
     </row>
-    <row r="40" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C40" s="109"/>
-      <c r="D40" s="108"/>
-      <c r="E40" s="108"/>
-      <c r="F40" s="108"/>
-      <c r="G40" s="99"/>
-      <c r="H40" s="99"/>
-      <c r="I40" s="99"/>
-      <c r="J40" s="99"/>
-      <c r="K40" s="99"/>
-      <c r="L40" s="99"/>
-      <c r="M40" s="99"/>
+    <row r="40" spans="3:19" x14ac:dyDescent="0.3">
+      <c r="C40" s="93"/>
+      <c r="D40" s="92"/>
+      <c r="E40" s="92"/>
+      <c r="F40" s="92"/>
+      <c r="G40" s="83"/>
+      <c r="H40" s="83"/>
+      <c r="I40" s="83"/>
+      <c r="J40" s="83"/>
+      <c r="K40" s="83"/>
+      <c r="L40" s="83"/>
+      <c r="M40" s="83"/>
       <c r="N40" s="18"/>
-      <c r="O40" s="101" t="s">
+      <c r="O40" s="85" t="s">
         <v>3</v>
       </c>
-      <c r="P40" s="102"/>
+      <c r="P40" s="86"/>
       <c r="Q40" s="18"/>
       <c r="R40" s="19"/>
       <c r="S40" s="19"/>
     </row>
-    <row r="41" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C41" s="110" t="s">
+    <row r="41" spans="3:19" x14ac:dyDescent="0.3">
+      <c r="C41" s="94" t="s">
         <v>11</v>
       </c>
-      <c r="D41" s="110"/>
-      <c r="E41" s="110"/>
-      <c r="F41" s="110"/>
-      <c r="G41" s="99"/>
-      <c r="H41" s="99"/>
-      <c r="I41" s="99"/>
-      <c r="J41" s="99"/>
-      <c r="K41" s="99"/>
-      <c r="L41" s="99"/>
-      <c r="M41" s="99"/>
+      <c r="D41" s="94"/>
+      <c r="E41" s="94"/>
+      <c r="F41" s="94"/>
+      <c r="G41" s="83"/>
+      <c r="H41" s="83"/>
+      <c r="I41" s="83"/>
+      <c r="J41" s="83"/>
+      <c r="K41" s="83"/>
+      <c r="L41" s="83"/>
+      <c r="M41" s="83"/>
       <c r="N41" s="18"/>
-      <c r="O41" s="103"/>
-      <c r="P41" s="104"/>
+      <c r="O41" s="87"/>
+      <c r="P41" s="88"/>
       <c r="Q41" s="18"/>
       <c r="R41" s="19"/>
       <c r="S41" s="19"/>
     </row>
-    <row r="42" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C42" s="110" t="s">
+    <row r="42" spans="3:19" x14ac:dyDescent="0.3">
+      <c r="C42" s="94" t="s">
         <v>12</v>
       </c>
-      <c r="D42" s="110"/>
-      <c r="E42" s="110"/>
-      <c r="F42" s="110"/>
-      <c r="G42" s="99"/>
-      <c r="H42" s="99"/>
-      <c r="I42" s="99"/>
-      <c r="J42" s="99"/>
-      <c r="K42" s="99"/>
-      <c r="L42" s="99"/>
-      <c r="M42" s="99"/>
+      <c r="D42" s="94"/>
+      <c r="E42" s="94"/>
+      <c r="F42" s="94"/>
+      <c r="G42" s="83"/>
+      <c r="H42" s="83"/>
+      <c r="I42" s="83"/>
+      <c r="J42" s="83"/>
+      <c r="K42" s="83"/>
+      <c r="L42" s="83"/>
+      <c r="M42" s="83"/>
       <c r="N42" s="18"/>
-      <c r="O42" s="105"/>
-      <c r="P42" s="106"/>
+      <c r="O42" s="89"/>
+      <c r="P42" s="90"/>
       <c r="Q42" s="18"/>
       <c r="R42" s="19"/>
       <c r="S42" s="19"/>
     </row>
-    <row r="43" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="43" spans="3:19" x14ac:dyDescent="0.3">
       <c r="C43" s="20"/>
       <c r="D43" s="21"/>
       <c r="E43" s="21"/>
       <c r="F43" s="21"/>
-      <c r="G43" s="100"/>
-      <c r="H43" s="100"/>
-      <c r="I43" s="100"/>
-      <c r="J43" s="100"/>
-      <c r="K43" s="100"/>
-      <c r="L43" s="100"/>
-      <c r="M43" s="100"/>
+      <c r="G43" s="84"/>
+      <c r="H43" s="84"/>
+      <c r="I43" s="84"/>
+      <c r="J43" s="84"/>
+      <c r="K43" s="84"/>
+      <c r="L43" s="84"/>
+      <c r="M43" s="84"/>
       <c r="N43" s="21"/>
       <c r="O43" s="21"/>
       <c r="P43" s="21"/>
@@ -7902,24 +7903,6 @@
     </row>
   </sheetData>
   <mergeCells count="31">
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="N1:Q1"/>
-    <mergeCell ref="R1:S1"/>
-    <mergeCell ref="C2:D8"/>
-    <mergeCell ref="E2:S8"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="N11:R11"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="K13:M13"/>
-    <mergeCell ref="N13:R13"/>
-    <mergeCell ref="E14:H14"/>
-    <mergeCell ref="I14:L14"/>
-    <mergeCell ref="M14:N14"/>
-    <mergeCell ref="O14:P14"/>
-    <mergeCell ref="Q14:S14"/>
     <mergeCell ref="Q15:S15"/>
     <mergeCell ref="Q16:S16"/>
     <mergeCell ref="Q32:S32"/>
@@ -7933,6 +7916,24 @@
     <mergeCell ref="I15:L16"/>
     <mergeCell ref="M15:N16"/>
     <mergeCell ref="O15:P16"/>
+    <mergeCell ref="E14:H14"/>
+    <mergeCell ref="I14:L14"/>
+    <mergeCell ref="M14:N14"/>
+    <mergeCell ref="O14:P14"/>
+    <mergeCell ref="Q14:S14"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="N11:R11"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="K13:M13"/>
+    <mergeCell ref="N13:R13"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="N1:Q1"/>
+    <mergeCell ref="R1:S1"/>
+    <mergeCell ref="C2:D8"/>
+    <mergeCell ref="E2:S8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
